--- a/planificacion/planificacion.xlsx
+++ b/planificacion/planificacion.xlsx
@@ -3,24 +3,32 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F0C3CE-F0D2-48EC-A068-A6E604C9FFFD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01800E16-80A8-4368-AE01-091937CC8AB8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="74">
   <si>
     <t>Tareas</t>
   </si>
@@ -153,12 +161,102 @@
   <si>
     <t>Realizar pruebas del software</t>
   </si>
+  <si>
+    <t>Iteración</t>
+  </si>
+  <si>
+    <t>Iteración 1</t>
+  </si>
+  <si>
+    <t>Iteración 2</t>
+  </si>
+  <si>
+    <t>Iteración 3</t>
+  </si>
+  <si>
+    <t>Iteración 4</t>
+  </si>
+  <si>
+    <t>Análisis</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Entrega del incremento</t>
+  </si>
+  <si>
+    <t>Captura de requisitos</t>
+  </si>
+  <si>
+    <t>Crear planificación</t>
+  </si>
+  <si>
+    <t>Diseñar diagrama de clases</t>
+  </si>
+  <si>
+    <t>Escribir la propuesta del proyecto</t>
+  </si>
+  <si>
+    <t>Entrega de propuesta de proyecto REV-I</t>
+  </si>
+  <si>
+    <t>Entrega de propuesta de proyecto REV-II</t>
+  </si>
+  <si>
+    <t>Recolección de información  NSGA-II</t>
+  </si>
+  <si>
+    <t>Recolección de información GA</t>
+  </si>
+  <si>
+    <t>Entrega de planificación</t>
+  </si>
+  <si>
+    <t>Escribir documento de memoria</t>
+  </si>
+  <si>
+    <t>Prueba de interacción</t>
+  </si>
+  <si>
+    <t>Captura y refinamiento de requisitos</t>
+  </si>
+  <si>
+    <t>Especificación de requisitos</t>
+  </si>
+  <si>
+    <t>Revision de arquitectura lógica</t>
+  </si>
+  <si>
+    <t>Revisión de diagrama de clases</t>
+  </si>
+  <si>
+    <t>Corrección y refactorización de codigo</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de caso de estudio/ experimentación</t>
+  </si>
+  <si>
+    <t>Realizar pruebas de integración</t>
+  </si>
+  <si>
+    <t>Realizar unit test</t>
+  </si>
+  <si>
+    <t>Implementar interfaz para visualizacion de resultados GA</t>
+  </si>
+  <si>
+    <t>Implementar interfaz para visualizacion de resultados  NSGA-II</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +271,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,8 +309,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -623,11 +733,264 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -754,36 +1117,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
     </xf>
@@ -808,12 +1141,136 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="46" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5050"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1090,10 +1547,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M1" sqref="M1"/>
-      <selection pane="bottomLeft" activeCell="AP13" sqref="AP13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,80 +1565,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="87"/>
-      <c r="E1" s="84" t="s">
+      <c r="D1" s="98"/>
+      <c r="E1" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="85" t="s">
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="84" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="88" t="s">
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="90"/>
-      <c r="W1" s="91" t="s">
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
-      <c r="Z1" s="91"/>
-      <c r="AA1" s="92" t="s">
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="91"/>
-      <c r="AC1" s="91"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="84" t="s">
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="86"/>
-      <c r="AJ1" s="84" t="s">
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="93"/>
+      <c r="AI1" s="94"/>
+      <c r="AJ1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="85"/>
-      <c r="AM1" s="86"/>
-      <c r="AN1" s="84" t="s">
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="94"/>
+      <c r="AN1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AO1" s="85"/>
-      <c r="AP1" s="85"/>
-      <c r="AQ1" s="86"/>
-      <c r="AR1" s="84" t="s">
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="93"/>
+      <c r="AQ1" s="94"/>
+      <c r="AR1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="85"/>
-      <c r="AT1" s="85"/>
-      <c r="AU1" s="85"/>
-      <c r="AV1" s="86"/>
-      <c r="AW1" s="84" t="s">
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="93"/>
+      <c r="AU1" s="93"/>
+      <c r="AV1" s="94"/>
+      <c r="AW1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="85"/>
-      <c r="AY1" s="85"/>
-      <c r="AZ1" s="86"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="93"/>
+      <c r="AZ1" s="94"/>
     </row>
     <row r="2" spans="1:52" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
@@ -1199,13 +1656,13 @@
       <c r="E2" s="29">
         <v>43710</v>
       </c>
-      <c r="F2" s="94">
+      <c r="F2" s="84">
         <v>43717</v>
       </c>
-      <c r="G2" s="95">
+      <c r="G2" s="85">
         <v>43724</v>
       </c>
-      <c r="H2" s="94">
+      <c r="H2" s="84">
         <v>43731</v>
       </c>
       <c r="I2" s="14">
@@ -1217,13 +1674,13 @@
       <c r="K2" s="53">
         <v>43752</v>
       </c>
-      <c r="L2" s="96">
+      <c r="L2" s="86">
         <v>43759</v>
       </c>
-      <c r="M2" s="97">
+      <c r="M2" s="87">
         <v>43766</v>
       </c>
-      <c r="N2" s="98">
+      <c r="N2" s="88">
         <v>43773</v>
       </c>
       <c r="O2" s="10">
@@ -1235,13 +1692,13 @@
       <c r="Q2" s="11">
         <v>43794</v>
       </c>
-      <c r="R2" s="99">
+      <c r="R2" s="89">
         <v>43801</v>
       </c>
-      <c r="S2" s="99">
+      <c r="S2" s="89">
         <v>43808</v>
       </c>
-      <c r="T2" s="99">
+      <c r="T2" s="89">
         <v>43815</v>
       </c>
       <c r="U2" s="10">
@@ -1274,13 +1731,13 @@
       <c r="AD2" s="14">
         <v>43885</v>
       </c>
-      <c r="AE2" s="98">
+      <c r="AE2" s="88">
         <v>43892</v>
       </c>
-      <c r="AF2" s="99">
+      <c r="AF2" s="89">
         <v>43899</v>
       </c>
-      <c r="AG2" s="99">
+      <c r="AG2" s="89">
         <v>43906</v>
       </c>
       <c r="AH2" s="10">
@@ -1292,13 +1749,13 @@
       <c r="AJ2" s="13">
         <v>43927</v>
       </c>
-      <c r="AK2" s="99">
+      <c r="AK2" s="89">
         <v>43934</v>
       </c>
-      <c r="AL2" s="99">
+      <c r="AL2" s="89">
         <v>43941</v>
       </c>
-      <c r="AM2" s="100">
+      <c r="AM2" s="90">
         <v>43948</v>
       </c>
       <c r="AN2" s="13">
@@ -1310,16 +1767,16 @@
       <c r="AP2" s="10">
         <v>43969</v>
       </c>
-      <c r="AQ2" s="100">
+      <c r="AQ2" s="90">
         <v>43976</v>
       </c>
-      <c r="AR2" s="98">
+      <c r="AR2" s="88">
         <v>43983</v>
       </c>
-      <c r="AS2" s="99">
+      <c r="AS2" s="89">
         <v>37012</v>
       </c>
-      <c r="AT2" s="101">
+      <c r="AT2" s="91">
         <v>43997</v>
       </c>
       <c r="AU2" s="10">
@@ -1328,13 +1785,13 @@
       <c r="AV2" s="14">
         <v>44011</v>
       </c>
-      <c r="AW2" s="98">
+      <c r="AW2" s="88">
         <v>44018</v>
       </c>
-      <c r="AX2" s="99">
+      <c r="AX2" s="89">
         <v>44025</v>
       </c>
-      <c r="AY2" s="99">
+      <c r="AY2" s="89">
         <v>44032</v>
       </c>
       <c r="AZ2" s="14">
@@ -3134,6 +3591,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:V1"/>
     <mergeCell ref="AW1:AZ1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
@@ -3141,13 +3603,7012 @@
     <mergeCell ref="AJ1:AM1"/>
     <mergeCell ref="AN1:AQ1"/>
     <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC44FF3-71BB-4C40-B229-0D61C906CAE1}">
+  <dimension ref="A1:BC36"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.77734375" style="32" bestFit="1" customWidth="1"/>
+    <col min="11" max="55" width="4.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="95"/>
+      <c r="AF1" s="95"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="94"/>
+      <c r="AM1" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="94"/>
+      <c r="AU1" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="94"/>
+      <c r="AZ1" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA1" s="93"/>
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="94"/>
+    </row>
+    <row r="2" spans="1:55" customFormat="1" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="64">
+        <v>43682</v>
+      </c>
+      <c r="E2" s="26">
+        <v>43689</v>
+      </c>
+      <c r="F2" s="64">
+        <v>43696</v>
+      </c>
+      <c r="G2" s="26">
+        <v>43703</v>
+      </c>
+      <c r="H2" s="29">
+        <v>43710</v>
+      </c>
+      <c r="I2" s="84">
+        <v>43717</v>
+      </c>
+      <c r="J2" s="85">
+        <v>43724</v>
+      </c>
+      <c r="K2" s="84">
+        <v>43731</v>
+      </c>
+      <c r="L2" s="14">
+        <v>43738</v>
+      </c>
+      <c r="M2" s="52">
+        <v>43745</v>
+      </c>
+      <c r="N2" s="53">
+        <v>43752</v>
+      </c>
+      <c r="O2" s="86">
+        <v>43759</v>
+      </c>
+      <c r="P2" s="87">
+        <v>43766</v>
+      </c>
+      <c r="Q2" s="88">
+        <v>43773</v>
+      </c>
+      <c r="R2" s="10">
+        <v>43780</v>
+      </c>
+      <c r="S2" s="10">
+        <v>43787</v>
+      </c>
+      <c r="T2" s="11">
+        <v>43794</v>
+      </c>
+      <c r="U2" s="89">
+        <v>43801</v>
+      </c>
+      <c r="V2" s="89">
+        <v>43808</v>
+      </c>
+      <c r="W2" s="89">
+        <v>43815</v>
+      </c>
+      <c r="X2" s="10">
+        <v>43822</v>
+      </c>
+      <c r="Y2" s="14">
+        <v>43829</v>
+      </c>
+      <c r="Z2" s="48">
+        <v>43836</v>
+      </c>
+      <c r="AA2" s="10">
+        <v>43843</v>
+      </c>
+      <c r="AB2" s="10">
+        <v>43850</v>
+      </c>
+      <c r="AC2" s="11">
+        <v>43857</v>
+      </c>
+      <c r="AD2" s="13">
+        <v>43864</v>
+      </c>
+      <c r="AE2" s="10">
+        <v>43871</v>
+      </c>
+      <c r="AF2" s="10">
+        <v>43878</v>
+      </c>
+      <c r="AG2" s="14">
+        <v>43885</v>
+      </c>
+      <c r="AH2" s="88">
+        <v>43892</v>
+      </c>
+      <c r="AI2" s="89">
+        <v>43899</v>
+      </c>
+      <c r="AJ2" s="89">
+        <v>43906</v>
+      </c>
+      <c r="AK2" s="10">
+        <v>43913</v>
+      </c>
+      <c r="AL2" s="14">
+        <v>43920</v>
+      </c>
+      <c r="AM2" s="13">
+        <v>43927</v>
+      </c>
+      <c r="AN2" s="89">
+        <v>43934</v>
+      </c>
+      <c r="AO2" s="89">
+        <v>43941</v>
+      </c>
+      <c r="AP2" s="90">
+        <v>43948</v>
+      </c>
+      <c r="AQ2" s="13">
+        <v>43955</v>
+      </c>
+      <c r="AR2" s="10">
+        <v>43962</v>
+      </c>
+      <c r="AS2" s="10">
+        <v>43969</v>
+      </c>
+      <c r="AT2" s="90">
+        <v>43976</v>
+      </c>
+      <c r="AU2" s="88">
+        <v>43983</v>
+      </c>
+      <c r="AV2" s="89">
+        <v>37012</v>
+      </c>
+      <c r="AW2" s="91">
+        <v>43997</v>
+      </c>
+      <c r="AX2" s="10">
+        <v>44004</v>
+      </c>
+      <c r="AY2" s="14">
+        <v>44011</v>
+      </c>
+      <c r="AZ2" s="88">
+        <v>44018</v>
+      </c>
+      <c r="BA2" s="89">
+        <v>44025</v>
+      </c>
+      <c r="BB2" s="89">
+        <v>44032</v>
+      </c>
+      <c r="BC2" s="14">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="111" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="77"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="77"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="77"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="77"/>
+      <c r="AV3" s="78"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="13"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="14"/>
+    </row>
+    <row r="4" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="56"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AG4" s="39"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="16"/>
+    </row>
+    <row r="5" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="56"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="38"/>
+      <c r="AF5" s="38"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="15"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="16"/>
+      <c r="AU5" s="15"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="15"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="16"/>
+    </row>
+    <row r="6" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="37"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="16"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="16"/>
+    </row>
+    <row r="7" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="15"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="15"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="15"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="16"/>
+      <c r="AU7" s="15"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="15"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="16"/>
+    </row>
+    <row r="8" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="39"/>
+      <c r="AH8" s="15"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="15"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="15"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="16"/>
+      <c r="AU8" s="15"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="15"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="16"/>
+    </row>
+    <row r="9" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="39"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="15"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="15"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="15"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="15"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="16"/>
+    </row>
+    <row r="10" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="54"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="38"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="38"/>
+      <c r="AF10" s="38"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="16"/>
+    </row>
+    <row r="11" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="18"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="40"/>
+      <c r="AE11" s="41"/>
+      <c r="AF11" s="41"/>
+      <c r="AG11" s="42"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="17"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="17"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="17"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="18"/>
+      <c r="AZ11" s="17"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="18"/>
+    </row>
+    <row r="12" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="18"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="40"/>
+      <c r="AE12" s="41"/>
+      <c r="AF12" s="41"/>
+      <c r="AG12" s="42"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="18"/>
+      <c r="AM12" s="17"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="18"/>
+      <c r="AQ12" s="17"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="17"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="17"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="18"/>
+    </row>
+    <row r="13" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="109" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="18"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="41"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="40"/>
+      <c r="AE13" s="41"/>
+      <c r="AF13" s="41"/>
+      <c r="AG13" s="42"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="18"/>
+      <c r="AM13" s="17"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="18"/>
+      <c r="AQ13" s="17"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="17"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="18"/>
+      <c r="AZ13" s="17"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="18"/>
+    </row>
+    <row r="14" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="41"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="40"/>
+      <c r="AE14" s="41"/>
+      <c r="AF14" s="41"/>
+      <c r="AG14" s="42"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="18"/>
+      <c r="AM14" s="17"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="18"/>
+      <c r="AQ14" s="17"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="17"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="18"/>
+      <c r="AZ14" s="17"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="18"/>
+    </row>
+    <row r="15" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="40"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="42"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="18"/>
+      <c r="AM15" s="17"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="17"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="18"/>
+      <c r="AU15" s="17"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="18"/>
+      <c r="AZ15" s="17"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="18"/>
+    </row>
+    <row r="16" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="41"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="41"/>
+      <c r="AF16" s="41"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="22"/>
+      <c r="AI16" s="7"/>
+      <c r="AJ16" s="7"/>
+      <c r="AK16" s="7"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="17"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="17"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="18"/>
+      <c r="AU16" s="17"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="18"/>
+      <c r="AZ16" s="17"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="18"/>
+    </row>
+    <row r="17" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="51"/>
+      <c r="AA17" s="41"/>
+      <c r="AB17" s="41"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="41"/>
+      <c r="AF17" s="41"/>
+      <c r="AG17" s="42"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="18"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="18"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="18"/>
+      <c r="AU17" s="17"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="18"/>
+      <c r="AZ17" s="17"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="18"/>
+    </row>
+    <row r="18" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="109" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="51"/>
+      <c r="AA18" s="41"/>
+      <c r="AB18" s="41"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="40"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="41"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="18"/>
+      <c r="AM18" s="17"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="18"/>
+      <c r="AQ18" s="17"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="18"/>
+      <c r="AU18" s="17"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="18"/>
+      <c r="AZ18" s="17"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="18"/>
+    </row>
+    <row r="19" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="51"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="40"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="18"/>
+      <c r="AM19" s="17"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="18"/>
+      <c r="AQ19" s="17"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="18"/>
+      <c r="AU19" s="17"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="17"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="18"/>
+    </row>
+    <row r="20" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="51"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="40"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="18"/>
+      <c r="AM20" s="17"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="17"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="18"/>
+      <c r="AU20" s="17"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="18"/>
+      <c r="AZ20" s="17"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="18"/>
+    </row>
+    <row r="21" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="109" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="51"/>
+      <c r="AA21" s="41"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="40"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="41"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="18"/>
+      <c r="AM21" s="17"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="18"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="18"/>
+      <c r="AU21" s="17"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="17"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="18"/>
+    </row>
+    <row r="22" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="51"/>
+      <c r="AA22" s="41"/>
+      <c r="AB22" s="41"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="40"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="18"/>
+      <c r="AM22" s="17"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="18"/>
+      <c r="AQ22" s="17"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="17"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="18"/>
+      <c r="AZ22" s="17"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="18"/>
+    </row>
+    <row r="23" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="51"/>
+      <c r="AA23" s="41"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="18"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="18"/>
+      <c r="AQ23" s="17"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="18"/>
+      <c r="AU23" s="17"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="18"/>
+      <c r="AZ23" s="17"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="18"/>
+    </row>
+    <row r="24" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="109" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="51"/>
+      <c r="AA24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="40"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="18"/>
+      <c r="AM24" s="17"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="18"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="18"/>
+      <c r="AU24" s="17"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="18"/>
+      <c r="AZ24" s="17"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="18"/>
+    </row>
+    <row r="25" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="109"/>
+      <c r="D25" s="104"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="51"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="18"/>
+      <c r="AM25" s="17"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="18"/>
+      <c r="AQ25" s="17"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="18"/>
+      <c r="AU25" s="17"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="18"/>
+      <c r="AZ25" s="17"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="18"/>
+    </row>
+    <row r="26" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="24"/>
+      <c r="Z26" s="51"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="40"/>
+      <c r="AE26" s="41"/>
+      <c r="AF26" s="41"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="24"/>
+      <c r="AI26" s="22"/>
+      <c r="AJ26" s="7"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="18"/>
+      <c r="AM26" s="17"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="18"/>
+      <c r="AQ26" s="17"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="18"/>
+      <c r="AU26" s="17"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="17"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="18"/>
+    </row>
+    <row r="27" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="51"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="40"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="18"/>
+      <c r="AM27" s="17"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="18"/>
+      <c r="AQ27" s="17"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="18"/>
+      <c r="AU27" s="17"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="18"/>
+      <c r="AZ27" s="17"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="18"/>
+    </row>
+    <row r="28" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="104"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="51"/>
+      <c r="AA28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="40"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="18"/>
+      <c r="AM28" s="17"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="18"/>
+      <c r="AQ28" s="17"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="18"/>
+      <c r="AU28" s="17"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="18"/>
+      <c r="AZ28" s="17"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="18"/>
+    </row>
+    <row r="29" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="109"/>
+      <c r="D29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="51"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="40"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="60"/>
+      <c r="AM29" s="17"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="18"/>
+      <c r="AQ29" s="17"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="18"/>
+      <c r="AU29" s="17"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="18"/>
+      <c r="AZ29" s="17"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="18"/>
+    </row>
+    <row r="30" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="41"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="40"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="24"/>
+      <c r="AM30" s="17"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="18"/>
+      <c r="AQ30" s="17"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="18"/>
+      <c r="AU30" s="17"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="17"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="18"/>
+    </row>
+    <row r="31" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="109"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="40"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="41"/>
+      <c r="AG31" s="42"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="18"/>
+      <c r="AM31" s="17"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="18"/>
+      <c r="AQ31" s="17"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="18"/>
+      <c r="AU31" s="17"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="18"/>
+      <c r="AZ31" s="17"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="18"/>
+    </row>
+    <row r="32" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="109" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="41"/>
+      <c r="AB32" s="41"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="40"/>
+      <c r="AE32" s="41"/>
+      <c r="AF32" s="41"/>
+      <c r="AG32" s="42"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="18"/>
+      <c r="AM32" s="22"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="23"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="1"/>
+      <c r="AX32" s="1"/>
+      <c r="AY32" s="18"/>
+      <c r="AZ32" s="17"/>
+      <c r="BA32" s="1"/>
+      <c r="BB32" s="1"/>
+      <c r="BC32" s="18"/>
+    </row>
+    <row r="33" spans="1:55" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="40"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="18"/>
+      <c r="AM33" s="17"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="18"/>
+      <c r="AQ33" s="17"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="18"/>
+      <c r="AU33" s="17"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="18"/>
+      <c r="AZ33" s="17"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="18"/>
+    </row>
+    <row r="34" spans="1:55" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="46"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="34"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="55"/>
+      <c r="AA34" s="44"/>
+      <c r="AB34" s="44"/>
+      <c r="AC34" s="58"/>
+      <c r="AD34" s="43"/>
+      <c r="AE34" s="44"/>
+      <c r="AF34" s="44"/>
+      <c r="AG34" s="45"/>
+      <c r="AH34" s="35"/>
+      <c r="AI34" s="33"/>
+      <c r="AJ34" s="33"/>
+      <c r="AK34" s="33"/>
+      <c r="AL34" s="36"/>
+      <c r="AM34" s="35"/>
+      <c r="AN34" s="33"/>
+      <c r="AO34" s="33"/>
+      <c r="AP34" s="36"/>
+      <c r="AQ34" s="35"/>
+      <c r="AR34" s="33"/>
+      <c r="AS34" s="33"/>
+      <c r="AT34" s="36"/>
+      <c r="AU34" s="35"/>
+      <c r="AV34" s="33"/>
+      <c r="AW34" s="33"/>
+      <c r="AX34" s="33"/>
+      <c r="AY34" s="36"/>
+      <c r="AZ34" s="35"/>
+      <c r="BA34" s="33"/>
+      <c r="BB34" s="33"/>
+      <c r="BC34" s="36"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="D1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893B0263-59F4-40E5-9460-E43E9955B4EB}">
+  <dimension ref="A1:BC80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" customWidth="1"/>
+    <col min="3" max="3" width="4.88671875" customWidth="1"/>
+    <col min="4" max="55" width="4.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1"/>
+      <c r="D1" s="98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="93" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="92" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="99" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" s="100"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="132" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="132"/>
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="132"/>
+      <c r="AD1" s="133" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE1" s="132"/>
+      <c r="AF1" s="132"/>
+      <c r="AG1" s="134"/>
+      <c r="AH1" s="92" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="93"/>
+      <c r="AJ1" s="93"/>
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="94"/>
+      <c r="AM1" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="94"/>
+      <c r="AQ1" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR1" s="93"/>
+      <c r="AS1" s="93"/>
+      <c r="AT1" s="94"/>
+      <c r="AU1" s="92" t="s">
+        <v>35</v>
+      </c>
+      <c r="AV1" s="93"/>
+      <c r="AW1" s="93"/>
+      <c r="AX1" s="93"/>
+      <c r="AY1" s="94"/>
+      <c r="AZ1" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA1" s="93"/>
+      <c r="BB1" s="93"/>
+      <c r="BC1" s="94"/>
+    </row>
+    <row r="2" spans="1:55" ht="55.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="114">
+        <v>43675</v>
+      </c>
+      <c r="D2" s="114">
+        <v>43682</v>
+      </c>
+      <c r="E2" s="114">
+        <v>43689</v>
+      </c>
+      <c r="F2" s="114">
+        <v>43696</v>
+      </c>
+      <c r="G2" s="114">
+        <v>43703</v>
+      </c>
+      <c r="H2" s="114">
+        <v>43710</v>
+      </c>
+      <c r="I2" s="114">
+        <v>43717</v>
+      </c>
+      <c r="J2" s="115">
+        <v>43724</v>
+      </c>
+      <c r="K2" s="114">
+        <v>43731</v>
+      </c>
+      <c r="L2" s="116">
+        <v>43738</v>
+      </c>
+      <c r="M2" s="116">
+        <v>43745</v>
+      </c>
+      <c r="N2" s="116">
+        <v>43752</v>
+      </c>
+      <c r="O2" s="116">
+        <v>43759</v>
+      </c>
+      <c r="P2" s="116">
+        <v>43766</v>
+      </c>
+      <c r="Q2" s="116">
+        <v>43773</v>
+      </c>
+      <c r="R2" s="116">
+        <v>43780</v>
+      </c>
+      <c r="S2" s="116">
+        <v>43787</v>
+      </c>
+      <c r="T2" s="116">
+        <v>43794</v>
+      </c>
+      <c r="U2" s="116">
+        <v>43801</v>
+      </c>
+      <c r="V2" s="125">
+        <v>43808</v>
+      </c>
+      <c r="W2" s="135">
+        <v>43815</v>
+      </c>
+      <c r="X2" s="136">
+        <v>43822</v>
+      </c>
+      <c r="Y2" s="136">
+        <v>43829</v>
+      </c>
+      <c r="Z2" s="136">
+        <v>43836</v>
+      </c>
+      <c r="AA2" s="136">
+        <v>43843</v>
+      </c>
+      <c r="AB2" s="136">
+        <v>43850</v>
+      </c>
+      <c r="AC2" s="136">
+        <v>43857</v>
+      </c>
+      <c r="AD2" s="136">
+        <v>43864</v>
+      </c>
+      <c r="AE2" s="136">
+        <v>43871</v>
+      </c>
+      <c r="AF2" s="136">
+        <v>43878</v>
+      </c>
+      <c r="AG2" s="137">
+        <v>43885</v>
+      </c>
+      <c r="AH2" s="128">
+        <v>43892</v>
+      </c>
+      <c r="AI2" s="116">
+        <v>43899</v>
+      </c>
+      <c r="AJ2" s="116">
+        <v>43906</v>
+      </c>
+      <c r="AK2" s="116">
+        <v>43913</v>
+      </c>
+      <c r="AL2" s="116">
+        <v>43920</v>
+      </c>
+      <c r="AM2" s="116">
+        <v>43927</v>
+      </c>
+      <c r="AN2" s="116">
+        <v>43934</v>
+      </c>
+      <c r="AO2" s="116">
+        <v>43941</v>
+      </c>
+      <c r="AP2" s="116">
+        <v>43948</v>
+      </c>
+      <c r="AQ2" s="116">
+        <v>43955</v>
+      </c>
+      <c r="AR2" s="116">
+        <v>43962</v>
+      </c>
+      <c r="AS2" s="116">
+        <v>43969</v>
+      </c>
+      <c r="AT2" s="116">
+        <v>43976</v>
+      </c>
+      <c r="AU2" s="116">
+        <v>43983</v>
+      </c>
+      <c r="AV2" s="116">
+        <v>37012</v>
+      </c>
+      <c r="AW2" s="116">
+        <v>43997</v>
+      </c>
+      <c r="AX2" s="116">
+        <v>44004</v>
+      </c>
+      <c r="AY2" s="116">
+        <v>44011</v>
+      </c>
+      <c r="AZ2" s="116">
+        <v>44018</v>
+      </c>
+      <c r="BA2" s="116">
+        <v>44025</v>
+      </c>
+      <c r="BB2" s="116">
+        <v>44032</v>
+      </c>
+      <c r="BC2" s="116">
+        <v>44039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="102" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118"/>
+      <c r="O3" s="116"/>
+      <c r="P3" s="116"/>
+      <c r="Q3" s="116"/>
+      <c r="R3" s="116"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="116"/>
+      <c r="U3" s="116"/>
+      <c r="V3" s="125"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="116"/>
+      <c r="AJ3" s="116"/>
+      <c r="AK3" s="116"/>
+      <c r="AL3" s="116"/>
+      <c r="AM3" s="116"/>
+      <c r="AN3" s="116"/>
+      <c r="AO3" s="116"/>
+      <c r="AP3" s="116"/>
+      <c r="AQ3" s="116"/>
+      <c r="AR3" s="116"/>
+      <c r="AS3" s="116"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
+      <c r="AX3" s="116"/>
+      <c r="AY3" s="116"/>
+      <c r="AZ3" s="116"/>
+      <c r="BA3" s="116"/>
+      <c r="BB3" s="116"/>
+      <c r="BC3" s="116"/>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="116"/>
+      <c r="M4" s="116"/>
+      <c r="N4" s="116"/>
+      <c r="O4" s="116"/>
+      <c r="P4" s="116"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
+      <c r="S4" s="116"/>
+      <c r="T4" s="116"/>
+      <c r="U4" s="116"/>
+      <c r="V4" s="125"/>
+      <c r="W4" s="138"/>
+      <c r="X4" s="91"/>
+      <c r="Y4" s="91"/>
+      <c r="Z4" s="91"/>
+      <c r="AA4" s="91"/>
+      <c r="AB4" s="91"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="91"/>
+      <c r="AE4" s="91"/>
+      <c r="AF4" s="91"/>
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="128"/>
+      <c r="AI4" s="116"/>
+      <c r="AJ4" s="116"/>
+      <c r="AK4" s="116"/>
+      <c r="AL4" s="116"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="116"/>
+      <c r="AO4" s="116"/>
+      <c r="AP4" s="116"/>
+      <c r="AQ4" s="116"/>
+      <c r="AR4" s="116"/>
+      <c r="AS4" s="116"/>
+      <c r="AT4" s="116"/>
+      <c r="AU4" s="116"/>
+      <c r="AV4" s="116"/>
+      <c r="AW4" s="116"/>
+      <c r="AX4" s="116"/>
+      <c r="AY4" s="116"/>
+      <c r="AZ4" s="116"/>
+      <c r="BA4" s="116"/>
+      <c r="BB4" s="116"/>
+      <c r="BC4" s="116"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="102" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="138"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="139"/>
+      <c r="AH5" s="128"/>
+      <c r="AI5" s="116"/>
+      <c r="AJ5" s="116"/>
+      <c r="AK5" s="116"/>
+      <c r="AL5" s="116"/>
+      <c r="AM5" s="116"/>
+      <c r="AN5" s="116"/>
+      <c r="AO5" s="116"/>
+      <c r="AP5" s="116"/>
+      <c r="AQ5" s="116"/>
+      <c r="AR5" s="116"/>
+      <c r="AS5" s="116"/>
+      <c r="AT5" s="116"/>
+      <c r="AU5" s="116"/>
+      <c r="AV5" s="116"/>
+      <c r="AW5" s="116"/>
+      <c r="AX5" s="116"/>
+      <c r="AY5" s="116"/>
+      <c r="AZ5" s="116"/>
+      <c r="BA5" s="116"/>
+      <c r="BB5" s="116"/>
+      <c r="BC5" s="116"/>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="120"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="114"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="116"/>
+      <c r="N6" s="116"/>
+      <c r="O6" s="116"/>
+      <c r="P6" s="116"/>
+      <c r="Q6" s="116"/>
+      <c r="R6" s="116"/>
+      <c r="S6" s="116"/>
+      <c r="T6" s="116"/>
+      <c r="U6" s="116"/>
+      <c r="V6" s="125"/>
+      <c r="W6" s="138"/>
+      <c r="X6" s="91"/>
+      <c r="Y6" s="91"/>
+      <c r="Z6" s="91"/>
+      <c r="AA6" s="91"/>
+      <c r="AB6" s="91"/>
+      <c r="AC6" s="91"/>
+      <c r="AD6" s="91"/>
+      <c r="AE6" s="91"/>
+      <c r="AF6" s="91"/>
+      <c r="AG6" s="139"/>
+      <c r="AH6" s="128"/>
+      <c r="AI6" s="116"/>
+      <c r="AJ6" s="116"/>
+      <c r="AK6" s="116"/>
+      <c r="AL6" s="116"/>
+      <c r="AM6" s="116"/>
+      <c r="AN6" s="116"/>
+      <c r="AO6" s="116"/>
+      <c r="AP6" s="116"/>
+      <c r="AQ6" s="116"/>
+      <c r="AR6" s="116"/>
+      <c r="AS6" s="116"/>
+      <c r="AT6" s="116"/>
+      <c r="AU6" s="116"/>
+      <c r="AV6" s="116"/>
+      <c r="AW6" s="116"/>
+      <c r="AX6" s="116"/>
+      <c r="AY6" s="116"/>
+      <c r="AZ6" s="116"/>
+      <c r="BA6" s="116"/>
+      <c r="BB6" s="116"/>
+      <c r="BC6" s="116"/>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="102" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="120"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="116"/>
+      <c r="Q7" s="116"/>
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="125"/>
+      <c r="W7" s="138"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="91"/>
+      <c r="AF7" s="91"/>
+      <c r="AG7" s="139"/>
+      <c r="AH7" s="128"/>
+      <c r="AI7" s="116"/>
+      <c r="AJ7" s="116"/>
+      <c r="AK7" s="116"/>
+      <c r="AL7" s="116"/>
+      <c r="AM7" s="116"/>
+      <c r="AN7" s="116"/>
+      <c r="AO7" s="116"/>
+      <c r="AP7" s="116"/>
+      <c r="AQ7" s="116"/>
+      <c r="AR7" s="116"/>
+      <c r="AS7" s="116"/>
+      <c r="AT7" s="116"/>
+      <c r="AU7" s="116"/>
+      <c r="AV7" s="116"/>
+      <c r="AW7" s="116"/>
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="116"/>
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="116"/>
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="116"/>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="114"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="125"/>
+      <c r="W8" s="138"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="128"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="116"/>
+      <c r="AK8" s="116"/>
+      <c r="AL8" s="116"/>
+      <c r="AM8" s="116"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="116"/>
+      <c r="AP8" s="116"/>
+      <c r="AQ8" s="116"/>
+      <c r="AR8" s="116"/>
+      <c r="AS8" s="116"/>
+      <c r="AT8" s="116"/>
+      <c r="AU8" s="116"/>
+      <c r="AV8" s="116"/>
+      <c r="AW8" s="116"/>
+      <c r="AX8" s="116"/>
+      <c r="AY8" s="116"/>
+      <c r="AZ8" s="116"/>
+      <c r="BA8" s="116"/>
+      <c r="BB8" s="116"/>
+      <c r="BC8" s="116"/>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="121" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="116"/>
+      <c r="N9" s="116"/>
+      <c r="O9" s="116"/>
+      <c r="P9" s="116"/>
+      <c r="Q9" s="116"/>
+      <c r="R9" s="116"/>
+      <c r="S9" s="116"/>
+      <c r="T9" s="116"/>
+      <c r="U9" s="116"/>
+      <c r="V9" s="125"/>
+      <c r="W9" s="138"/>
+      <c r="X9" s="91"/>
+      <c r="Y9" s="91"/>
+      <c r="Z9" s="91"/>
+      <c r="AA9" s="91"/>
+      <c r="AB9" s="91"/>
+      <c r="AC9" s="91"/>
+      <c r="AD9" s="91"/>
+      <c r="AE9" s="91"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="128"/>
+      <c r="AI9" s="116"/>
+      <c r="AJ9" s="116"/>
+      <c r="AK9" s="116"/>
+      <c r="AL9" s="116"/>
+      <c r="AM9" s="116"/>
+      <c r="AN9" s="116"/>
+      <c r="AO9" s="116"/>
+      <c r="AP9" s="116"/>
+      <c r="AQ9" s="116"/>
+      <c r="AR9" s="116"/>
+      <c r="AS9" s="116"/>
+      <c r="AT9" s="116"/>
+      <c r="AU9" s="116"/>
+      <c r="AV9" s="116"/>
+      <c r="AW9" s="116"/>
+      <c r="AX9" s="116"/>
+      <c r="AY9" s="116"/>
+      <c r="AZ9" s="116"/>
+      <c r="BA9" s="116"/>
+      <c r="BB9" s="116"/>
+      <c r="BC9" s="116"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="124"/>
+      <c r="S10" s="124"/>
+      <c r="T10" s="124"/>
+      <c r="U10" s="124"/>
+      <c r="V10" s="126"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="124"/>
+      <c r="Y10" s="124"/>
+      <c r="Z10" s="124"/>
+      <c r="AA10" s="124"/>
+      <c r="AB10" s="124"/>
+      <c r="AC10" s="124"/>
+      <c r="AD10" s="124"/>
+      <c r="AE10" s="124"/>
+      <c r="AF10" s="124"/>
+      <c r="AG10" s="141"/>
+      <c r="AH10" s="129"/>
+      <c r="AI10" s="124"/>
+      <c r="AJ10" s="7"/>
+      <c r="AK10" s="7"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="AX10" s="7"/>
+      <c r="AY10" s="7"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="7"/>
+      <c r="BC10" s="7"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="142"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="143"/>
+      <c r="AH11" s="47"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="1"/>
+      <c r="AW11" s="1"/>
+      <c r="AX11" s="1"/>
+      <c r="AY11" s="1"/>
+      <c r="AZ11" s="1"/>
+      <c r="BA11" s="1"/>
+      <c r="BB11" s="1"/>
+      <c r="BC11" s="1"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="142"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="143"/>
+      <c r="AH12" s="47"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1"/>
+      <c r="AW12" s="1"/>
+      <c r="AX12" s="1"/>
+      <c r="AY12" s="1"/>
+      <c r="AZ12" s="1"/>
+      <c r="BA12" s="1"/>
+      <c r="BB12" s="1"/>
+      <c r="BC12" s="1"/>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="142"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="143"/>
+      <c r="AH13" s="47"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1"/>
+      <c r="AW13" s="1"/>
+      <c r="AX13" s="1"/>
+      <c r="AY13" s="1"/>
+      <c r="AZ13" s="1"/>
+      <c r="BA13" s="1"/>
+      <c r="BB13" s="1"/>
+      <c r="BC13" s="1"/>
+    </row>
+    <row r="14" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="142"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="143"/>
+      <c r="AH14" s="47"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1"/>
+      <c r="AW14" s="1"/>
+      <c r="AX14" s="1"/>
+      <c r="AY14" s="1"/>
+      <c r="AZ14" s="1"/>
+      <c r="BA14" s="1"/>
+      <c r="BB14" s="1"/>
+      <c r="BC14" s="1"/>
+    </row>
+    <row r="15" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="142"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="143"/>
+      <c r="AH15" s="47"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="1"/>
+      <c r="AW15" s="1"/>
+      <c r="AX15" s="1"/>
+      <c r="AY15" s="1"/>
+      <c r="AZ15" s="1"/>
+      <c r="BA15" s="1"/>
+      <c r="BB15" s="1"/>
+      <c r="BC15" s="1"/>
+    </row>
+    <row r="16" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="142"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="143"/>
+      <c r="AH16" s="47"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="1"/>
+      <c r="AW16" s="1"/>
+      <c r="AX16" s="1"/>
+      <c r="AY16" s="1"/>
+      <c r="AZ16" s="1"/>
+      <c r="BA16" s="1"/>
+      <c r="BB16" s="1"/>
+      <c r="BC16" s="1"/>
+    </row>
+    <row r="17" spans="1:55" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="142"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="143"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="1"/>
+      <c r="AW17" s="1"/>
+      <c r="AX17" s="1"/>
+      <c r="AY17" s="1"/>
+      <c r="AZ17" s="1"/>
+      <c r="BA17" s="1"/>
+      <c r="BB17" s="1"/>
+      <c r="BC17" s="1"/>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="142"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="143"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="1"/>
+      <c r="AW18" s="1"/>
+      <c r="AX18" s="1"/>
+      <c r="AY18" s="1"/>
+      <c r="AZ18" s="1"/>
+      <c r="BA18" s="1"/>
+      <c r="BB18" s="1"/>
+      <c r="BC18" s="1"/>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="142"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="143"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="1"/>
+      <c r="AW19" s="1"/>
+      <c r="AX19" s="1"/>
+      <c r="AY19" s="1"/>
+      <c r="AZ19" s="1"/>
+      <c r="BA19" s="1"/>
+      <c r="BB19" s="1"/>
+      <c r="BC19" s="1"/>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="142"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="143"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+      <c r="AX20" s="1"/>
+      <c r="AY20" s="1"/>
+      <c r="AZ20" s="1"/>
+      <c r="BA20" s="1"/>
+      <c r="BB20" s="1"/>
+      <c r="BC20" s="1"/>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="142"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1"/>
+      <c r="AW21" s="1"/>
+      <c r="AX21" s="1"/>
+      <c r="AY21" s="1"/>
+      <c r="AZ21" s="1"/>
+      <c r="BA21" s="1"/>
+      <c r="BB21" s="1"/>
+      <c r="BC21" s="1"/>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="142"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="143"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="1"/>
+      <c r="AW22" s="1"/>
+      <c r="AX22" s="1"/>
+      <c r="AY22" s="1"/>
+      <c r="AZ22" s="1"/>
+      <c r="BA22" s="1"/>
+      <c r="BB22" s="1"/>
+      <c r="BC22" s="1"/>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="120"/>
+      <c r="M23" s="120"/>
+      <c r="N23" s="120"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="142"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="143"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1"/>
+      <c r="AW23" s="1"/>
+      <c r="AX23" s="1"/>
+      <c r="AY23" s="1"/>
+      <c r="AZ23" s="1"/>
+      <c r="BA23" s="1"/>
+      <c r="BB23" s="1"/>
+      <c r="BC23" s="1"/>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="142"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="143"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1"/>
+      <c r="AW24" s="1"/>
+      <c r="AX24" s="1"/>
+      <c r="AY24" s="1"/>
+      <c r="AZ24" s="1"/>
+      <c r="BA24" s="1"/>
+      <c r="BB24" s="1"/>
+      <c r="BC24" s="1"/>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="143"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+      <c r="AV25" s="1"/>
+      <c r="AW25" s="1"/>
+      <c r="AX25" s="1"/>
+      <c r="AY25" s="1"/>
+      <c r="AZ25" s="1"/>
+      <c r="BA25" s="1"/>
+      <c r="BB25" s="1"/>
+      <c r="BC25" s="1"/>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="142"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="143"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+      <c r="AV26" s="1"/>
+      <c r="AW26" s="1"/>
+      <c r="AX26" s="1"/>
+      <c r="AY26" s="1"/>
+      <c r="AZ26" s="1"/>
+      <c r="BA26" s="1"/>
+      <c r="BB26" s="1"/>
+      <c r="BC26" s="1"/>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="142"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="143"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+      <c r="AV27" s="1"/>
+      <c r="AW27" s="1"/>
+      <c r="AX27" s="1"/>
+      <c r="AY27" s="1"/>
+      <c r="AZ27" s="1"/>
+      <c r="BA27" s="1"/>
+      <c r="BB27" s="1"/>
+      <c r="BC27" s="1"/>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="142"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="143"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+      <c r="AV28" s="1"/>
+      <c r="AW28" s="1"/>
+      <c r="AX28" s="1"/>
+      <c r="AY28" s="1"/>
+      <c r="AZ28" s="1"/>
+      <c r="BA28" s="1"/>
+      <c r="BB28" s="1"/>
+      <c r="BC28" s="1"/>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="120"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="142"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="143"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+      <c r="AV29" s="1"/>
+      <c r="AW29" s="1"/>
+      <c r="AX29" s="1"/>
+      <c r="AY29" s="1"/>
+      <c r="AZ29" s="1"/>
+      <c r="BA29" s="1"/>
+      <c r="BB29" s="1"/>
+      <c r="BC29" s="1"/>
+    </row>
+    <row r="30" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="142"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="143"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="142"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="143"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="1"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="144"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="145"/>
+      <c r="AH32" s="123"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+      <c r="AW32" s="7"/>
+      <c r="AX32" s="7"/>
+      <c r="AY32" s="7"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="7"/>
+      <c r="BC32" s="7"/>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="120"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="142"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="AZ33" s="1"/>
+      <c r="BA33" s="1"/>
+      <c r="BB33" s="1"/>
+      <c r="BC33" s="1"/>
+    </row>
+    <row r="34" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="120"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="142"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+      <c r="AW34" s="1"/>
+      <c r="AX34" s="1"/>
+      <c r="AY34" s="1"/>
+      <c r="AZ34" s="1"/>
+      <c r="BA34" s="1"/>
+      <c r="BB34" s="1"/>
+      <c r="BC34" s="1"/>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="47"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+      <c r="AW35" s="1"/>
+      <c r="AX35" s="1"/>
+      <c r="AY35" s="1"/>
+      <c r="AZ35" s="1"/>
+      <c r="BA35" s="1"/>
+      <c r="BB35" s="1"/>
+      <c r="BC35" s="1"/>
+    </row>
+    <row r="36" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="120"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="142"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="120"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="142"/>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="5"/>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="5"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AF37" s="5"/>
+      <c r="AG37" s="143"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+      <c r="AV37" s="1"/>
+      <c r="AW37" s="1"/>
+      <c r="AX37" s="1"/>
+      <c r="AY37" s="1"/>
+      <c r="AZ37" s="1"/>
+      <c r="BA37" s="1"/>
+      <c r="BB37" s="1"/>
+      <c r="BC37" s="1"/>
+    </row>
+    <row r="38" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="120"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="142"/>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="5"/>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="5"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AF38" s="5"/>
+      <c r="AG38" s="143"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+      <c r="AV38" s="1"/>
+      <c r="AW38" s="1"/>
+      <c r="AX38" s="1"/>
+      <c r="AY38" s="1"/>
+      <c r="AZ38" s="1"/>
+      <c r="BA38" s="1"/>
+      <c r="BB38" s="1"/>
+      <c r="BC38" s="1"/>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="142"/>
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="5"/>
+      <c r="AB39" s="5"/>
+      <c r="AC39" s="5"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AF39" s="5"/>
+      <c r="AG39" s="143"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+    </row>
+    <row r="40" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="120"/>
+      <c r="S40" s="120"/>
+      <c r="T40" s="120"/>
+      <c r="U40" s="120"/>
+      <c r="V40" s="127"/>
+      <c r="W40" s="142"/>
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="5"/>
+      <c r="AB40" s="5"/>
+      <c r="AC40" s="5"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="5"/>
+      <c r="AG40" s="143"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="120"/>
+      <c r="S41" s="120"/>
+      <c r="T41" s="120"/>
+      <c r="U41" s="120"/>
+      <c r="V41" s="127"/>
+      <c r="W41" s="142"/>
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="5"/>
+      <c r="AB41" s="5"/>
+      <c r="AC41" s="5"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="5"/>
+      <c r="AF41" s="5"/>
+      <c r="AG41" s="143"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+    </row>
+    <row r="42" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="120"/>
+      <c r="T42" s="127"/>
+      <c r="W42" s="142"/>
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="5"/>
+      <c r="AB42" s="5"/>
+      <c r="AC42" s="5"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AF42" s="5"/>
+      <c r="AG42" s="143"/>
+      <c r="AH42" s="47"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="142"/>
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="5"/>
+      <c r="AB43" s="5"/>
+      <c r="AC43" s="5"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AF43" s="5"/>
+      <c r="AG43" s="143"/>
+      <c r="AH43" s="47"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+    </row>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="120"/>
+      <c r="Y44" s="120"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="143"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+      <c r="B45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="146"/>
+      <c r="X45" s="120"/>
+      <c r="Y45" s="120"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="143"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+    </row>
+    <row r="46" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="142"/>
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="5"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="143"/>
+      <c r="AH46" s="47"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1"/>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1"/>
+      <c r="AM46" s="1"/>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="1"/>
+      <c r="AR46" s="1"/>
+      <c r="AS46" s="1"/>
+      <c r="AT46" s="1"/>
+      <c r="AU46" s="1"/>
+      <c r="AV46" s="1"/>
+      <c r="AW46" s="1"/>
+      <c r="AX46" s="1"/>
+      <c r="AY46" s="1"/>
+      <c r="AZ46" s="1"/>
+      <c r="BA46" s="1"/>
+      <c r="BB46" s="1"/>
+      <c r="BC46" s="1"/>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="142"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="143"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AR47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AT47" s="1"/>
+      <c r="AU47" s="1"/>
+      <c r="AV47" s="1"/>
+      <c r="AW47" s="1"/>
+      <c r="AX47" s="1"/>
+      <c r="AY47" s="1"/>
+      <c r="AZ47" s="1"/>
+      <c r="BA47" s="1"/>
+      <c r="BB47" s="1"/>
+      <c r="BC47" s="1"/>
+    </row>
+    <row r="48" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="142"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="143"/>
+      <c r="AH48" s="47"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1"/>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1"/>
+      <c r="AM48" s="1"/>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="1"/>
+      <c r="AR48" s="1"/>
+      <c r="AS48" s="1"/>
+      <c r="AT48" s="1"/>
+      <c r="AU48" s="1"/>
+      <c r="AV48" s="1"/>
+      <c r="AW48" s="1"/>
+      <c r="AX48" s="1"/>
+      <c r="AY48" s="1"/>
+      <c r="AZ48" s="1"/>
+      <c r="BA48" s="1"/>
+      <c r="BB48" s="1"/>
+      <c r="BC48" s="1"/>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="142"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="143"/>
+      <c r="AH49" s="47"/>
+      <c r="AI49" s="1"/>
+      <c r="AJ49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AL49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AN49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AP49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AR49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AT49" s="1"/>
+      <c r="AU49" s="1"/>
+      <c r="AV49" s="1"/>
+      <c r="AW49" s="1"/>
+      <c r="AX49" s="1"/>
+      <c r="AY49" s="1"/>
+      <c r="AZ49" s="1"/>
+      <c r="BA49" s="1"/>
+      <c r="BB49" s="1"/>
+      <c r="BC49" s="1"/>
+    </row>
+    <row r="50" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="142"/>
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="5"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="143"/>
+      <c r="AH50" s="47"/>
+      <c r="AI50" s="1"/>
+      <c r="AJ50" s="1"/>
+      <c r="AK50" s="1"/>
+      <c r="AL50" s="1"/>
+      <c r="AM50" s="1"/>
+      <c r="AN50" s="1"/>
+      <c r="AO50" s="1"/>
+      <c r="AP50" s="1"/>
+      <c r="AQ50" s="1"/>
+      <c r="AR50" s="1"/>
+      <c r="AS50" s="1"/>
+      <c r="AT50" s="1"/>
+      <c r="AU50" s="1"/>
+      <c r="AV50" s="1"/>
+      <c r="AW50" s="1"/>
+      <c r="AX50" s="1"/>
+      <c r="AY50" s="1"/>
+      <c r="AZ50" s="1"/>
+      <c r="BA50" s="1"/>
+      <c r="BB50" s="1"/>
+      <c r="BC50" s="1"/>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="142"/>
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="5"/>
+      <c r="AB51" s="5"/>
+      <c r="AC51" s="5"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="5"/>
+      <c r="AF51" s="5"/>
+      <c r="AG51" s="143"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="1"/>
+      <c r="AJ51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AL51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AN51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AP51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AR51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AT51" s="1"/>
+      <c r="AU51" s="1"/>
+      <c r="AV51" s="1"/>
+      <c r="AW51" s="1"/>
+      <c r="AX51" s="1"/>
+      <c r="AY51" s="1"/>
+      <c r="AZ51" s="1"/>
+      <c r="BA51" s="1"/>
+      <c r="BB51" s="1"/>
+      <c r="BC51" s="1"/>
+    </row>
+    <row r="52" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="144"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="145"/>
+      <c r="AH52" s="123"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7"/>
+      <c r="AW52" s="7"/>
+      <c r="AX52" s="7"/>
+      <c r="AY52" s="7"/>
+      <c r="AZ52" s="7"/>
+      <c r="BA52" s="7"/>
+      <c r="BB52" s="7"/>
+      <c r="BC52" s="7"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="142"/>
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="143"/>
+      <c r="AH53" s="150"/>
+      <c r="AI53" s="120"/>
+      <c r="AJ53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AL53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AN53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AP53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AR53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AT53" s="1"/>
+      <c r="AU53" s="1"/>
+      <c r="AV53" s="1"/>
+      <c r="AW53" s="1"/>
+      <c r="AX53" s="1"/>
+      <c r="AY53" s="1"/>
+      <c r="AZ53" s="1"/>
+      <c r="BA53" s="1"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="142"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="143"/>
+      <c r="AH54" s="150"/>
+      <c r="AI54" s="120"/>
+      <c r="AJ54" s="1"/>
+      <c r="AK54" s="1"/>
+      <c r="AL54" s="1"/>
+      <c r="AM54" s="1"/>
+      <c r="AN54" s="1"/>
+      <c r="AO54" s="1"/>
+      <c r="AP54" s="1"/>
+      <c r="AQ54" s="1"/>
+      <c r="AR54" s="1"/>
+      <c r="AS54" s="1"/>
+      <c r="AT54" s="1"/>
+      <c r="AU54" s="1"/>
+      <c r="AV54" s="1"/>
+      <c r="AW54" s="1"/>
+      <c r="AX54" s="1"/>
+      <c r="AY54" s="1"/>
+      <c r="AZ54" s="1"/>
+      <c r="BA54" s="1"/>
+      <c r="BB54" s="1"/>
+      <c r="BC54" s="1"/>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="142"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="143"/>
+      <c r="AH55" s="47"/>
+      <c r="AI55" s="1"/>
+      <c r="AJ55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AL55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AN55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AP55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AR55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AT55" s="1"/>
+      <c r="AU55" s="1"/>
+      <c r="AV55" s="1"/>
+      <c r="AW55" s="1"/>
+      <c r="AX55" s="1"/>
+      <c r="AY55" s="1"/>
+      <c r="AZ55" s="1"/>
+      <c r="BA55" s="1"/>
+      <c r="BB55" s="1"/>
+      <c r="BC55" s="1"/>
+    </row>
+    <row r="56" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="142"/>
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="5"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="143"/>
+      <c r="AH56" s="47"/>
+      <c r="AI56" s="1"/>
+      <c r="AJ56" s="120"/>
+      <c r="AK56" s="120"/>
+      <c r="AL56" s="1"/>
+      <c r="AM56" s="1"/>
+      <c r="AN56" s="1"/>
+      <c r="AO56" s="1"/>
+      <c r="AP56" s="1"/>
+      <c r="AQ56" s="1"/>
+      <c r="AR56" s="1"/>
+      <c r="AS56" s="1"/>
+      <c r="AT56" s="1"/>
+      <c r="AU56" s="1"/>
+      <c r="AV56" s="1"/>
+      <c r="AW56" s="1"/>
+      <c r="AX56" s="1"/>
+      <c r="AY56" s="1"/>
+      <c r="AZ56" s="1"/>
+      <c r="BA56" s="1"/>
+      <c r="BB56" s="1"/>
+      <c r="BC56" s="1"/>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="142"/>
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="5"/>
+      <c r="AB57" s="5"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="143"/>
+      <c r="AH57" s="47"/>
+      <c r="AI57" s="1"/>
+      <c r="AJ57" s="120"/>
+      <c r="AK57" s="120"/>
+      <c r="AL57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AN57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AP57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AR57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AT57" s="1"/>
+      <c r="AU57" s="1"/>
+      <c r="AV57" s="1"/>
+      <c r="AW57" s="1"/>
+      <c r="AX57" s="1"/>
+      <c r="AY57" s="1"/>
+      <c r="AZ57" s="1"/>
+      <c r="BA57" s="1"/>
+      <c r="BB57" s="1"/>
+      <c r="BC57" s="1"/>
+    </row>
+    <row r="58" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="142"/>
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="5"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="143"/>
+      <c r="AH58" s="47"/>
+      <c r="AI58" s="1"/>
+      <c r="AJ58" s="120"/>
+      <c r="AK58" s="120"/>
+      <c r="AL58" s="1"/>
+      <c r="AM58" s="1"/>
+      <c r="AN58" s="1"/>
+      <c r="AO58" s="1"/>
+      <c r="AP58" s="1"/>
+      <c r="AQ58" s="1"/>
+      <c r="AR58" s="1"/>
+      <c r="AS58" s="1"/>
+      <c r="AT58" s="1"/>
+      <c r="AU58" s="1"/>
+      <c r="AV58" s="1"/>
+      <c r="AW58" s="1"/>
+      <c r="AX58" s="1"/>
+      <c r="AY58" s="1"/>
+      <c r="AZ58" s="1"/>
+      <c r="BA58" s="1"/>
+      <c r="BB58" s="1"/>
+      <c r="BC58" s="1"/>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="142"/>
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="5"/>
+      <c r="AB59" s="5"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="143"/>
+      <c r="AH59" s="47"/>
+      <c r="AI59" s="1"/>
+      <c r="AJ59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AL59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AN59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AP59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AR59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AT59" s="1"/>
+      <c r="AU59" s="1"/>
+      <c r="AV59" s="1"/>
+      <c r="AW59" s="1"/>
+      <c r="AX59" s="1"/>
+      <c r="AY59" s="1"/>
+      <c r="AZ59" s="1"/>
+      <c r="BA59" s="1"/>
+      <c r="BB59" s="1"/>
+      <c r="BC59" s="1"/>
+    </row>
+    <row r="60" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="142"/>
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="5"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="5"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="143"/>
+      <c r="AH60" s="47"/>
+      <c r="AI60" s="1"/>
+      <c r="AJ60" s="1"/>
+      <c r="AK60" s="1"/>
+      <c r="AL60" s="1"/>
+      <c r="AM60" s="1"/>
+      <c r="AN60" s="1"/>
+      <c r="AO60" s="1"/>
+      <c r="AP60" s="1"/>
+      <c r="AQ60" s="1"/>
+      <c r="AR60" s="1"/>
+      <c r="AS60" s="1"/>
+      <c r="AT60" s="1"/>
+      <c r="AU60" s="1"/>
+      <c r="AV60" s="1"/>
+      <c r="AW60" s="1"/>
+      <c r="AX60" s="1"/>
+      <c r="AY60" s="1"/>
+      <c r="AZ60" s="1"/>
+      <c r="BA60" s="1"/>
+      <c r="BB60" s="1"/>
+      <c r="BC60" s="1"/>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="142"/>
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5"/>
+      <c r="Z61" s="5"/>
+      <c r="AA61" s="5"/>
+      <c r="AB61" s="5"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="143"/>
+      <c r="AH61" s="47"/>
+      <c r="AI61" s="1"/>
+      <c r="AJ61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AL61" s="120"/>
+      <c r="AM61" s="120"/>
+      <c r="AN61" s="120"/>
+      <c r="AO61" s="120"/>
+      <c r="AP61" s="120"/>
+      <c r="AQ61" s="120"/>
+      <c r="AR61" s="120"/>
+      <c r="AS61" s="120"/>
+      <c r="AT61" s="1"/>
+      <c r="AU61" s="1"/>
+      <c r="AV61" s="1"/>
+      <c r="AW61" s="1"/>
+      <c r="AX61" s="1"/>
+      <c r="AY61" s="1"/>
+      <c r="AZ61" s="1"/>
+      <c r="BA61" s="1"/>
+      <c r="BB61" s="1"/>
+      <c r="BC61" s="1"/>
+    </row>
+    <row r="62" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="142"/>
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="5"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="5"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="5"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="5"/>
+      <c r="AG62" s="143"/>
+      <c r="AH62" s="47"/>
+      <c r="AI62" s="1"/>
+      <c r="AJ62" s="1"/>
+      <c r="AK62" s="1"/>
+      <c r="AL62" s="1"/>
+      <c r="AM62" s="1"/>
+      <c r="AN62" s="120"/>
+      <c r="AO62" s="120"/>
+      <c r="AP62" s="120"/>
+      <c r="AQ62" s="1"/>
+      <c r="AR62" s="1"/>
+      <c r="AS62" s="1"/>
+      <c r="AT62" s="1"/>
+      <c r="AU62" s="1"/>
+      <c r="AV62" s="1"/>
+      <c r="AW62" s="1"/>
+      <c r="AX62" s="1"/>
+      <c r="AY62" s="1"/>
+      <c r="AZ62" s="1"/>
+      <c r="BA62" s="1"/>
+      <c r="BB62" s="1"/>
+      <c r="BC62" s="1"/>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="142"/>
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5"/>
+      <c r="Z63" s="5"/>
+      <c r="AA63" s="5"/>
+      <c r="AB63" s="5"/>
+      <c r="AC63" s="5"/>
+      <c r="AD63" s="5"/>
+      <c r="AE63" s="5"/>
+      <c r="AF63" s="5"/>
+      <c r="AG63" s="143"/>
+      <c r="AH63" s="47"/>
+      <c r="AI63" s="1"/>
+      <c r="AJ63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AL63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AN63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AP63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AR63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AT63" s="120"/>
+      <c r="AU63" s="120"/>
+      <c r="AV63" s="120"/>
+      <c r="AW63" s="1"/>
+      <c r="AX63" s="1"/>
+      <c r="AY63" s="1"/>
+      <c r="AZ63" s="1"/>
+      <c r="BA63" s="1"/>
+      <c r="BB63" s="1"/>
+      <c r="BC63" s="1"/>
+    </row>
+    <row r="64" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="142"/>
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="5"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="5"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="5"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="5"/>
+      <c r="AG64" s="143"/>
+      <c r="AH64" s="47"/>
+      <c r="AI64" s="1"/>
+      <c r="AJ64" s="1"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
+      <c r="AP64" s="1"/>
+      <c r="AQ64" s="1"/>
+      <c r="AR64" s="1"/>
+      <c r="AS64" s="1"/>
+      <c r="AT64" s="120"/>
+      <c r="AU64" s="120"/>
+      <c r="AV64" s="120"/>
+      <c r="AW64" s="1"/>
+      <c r="AX64" s="1"/>
+      <c r="AY64" s="1"/>
+      <c r="AZ64" s="1"/>
+      <c r="BA64" s="1"/>
+      <c r="BB64" s="1"/>
+      <c r="BC64" s="1"/>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="142"/>
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5"/>
+      <c r="Z65" s="5"/>
+      <c r="AA65" s="5"/>
+      <c r="AB65" s="5"/>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="5"/>
+      <c r="AF65" s="5"/>
+      <c r="AG65" s="143"/>
+      <c r="AH65" s="47"/>
+      <c r="AI65" s="1"/>
+      <c r="AJ65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AL65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AN65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AP65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AR65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AT65" s="1"/>
+      <c r="AU65" s="1"/>
+      <c r="AV65" s="1"/>
+      <c r="AW65" s="1"/>
+      <c r="AX65" s="1"/>
+      <c r="AY65" s="1"/>
+      <c r="AZ65" s="1"/>
+      <c r="BA65" s="1"/>
+      <c r="BB65" s="1"/>
+      <c r="BC65" s="1"/>
+    </row>
+    <row r="66" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="142"/>
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="5"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="5"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="5"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="5"/>
+      <c r="AG66" s="143"/>
+      <c r="AH66" s="47"/>
+      <c r="AI66" s="1"/>
+      <c r="AJ66" s="1"/>
+      <c r="AK66" s="1"/>
+      <c r="AL66" s="1"/>
+      <c r="AM66" s="1"/>
+      <c r="AN66" s="1"/>
+      <c r="AO66" s="1"/>
+      <c r="AP66" s="1"/>
+      <c r="AQ66" s="1"/>
+      <c r="AR66" s="1"/>
+      <c r="AS66" s="1"/>
+      <c r="AT66" s="1"/>
+      <c r="AU66" s="1"/>
+      <c r="AV66" s="1"/>
+      <c r="AW66" s="1"/>
+      <c r="AX66" s="1"/>
+      <c r="AY66" s="1"/>
+      <c r="AZ66" s="1"/>
+      <c r="BA66" s="1"/>
+      <c r="BB66" s="1"/>
+      <c r="BC66" s="1"/>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="21"/>
+      <c r="W67" s="144"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="145"/>
+      <c r="AH67" s="123"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="7"/>
+      <c r="AK67" s="7"/>
+      <c r="AL67" s="7"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+      <c r="AO67" s="7"/>
+      <c r="AP67" s="7"/>
+      <c r="AQ67" s="7"/>
+      <c r="AR67" s="7"/>
+      <c r="AS67" s="7"/>
+      <c r="AT67" s="7"/>
+      <c r="AU67" s="7"/>
+      <c r="AV67" s="7"/>
+      <c r="AW67" s="7"/>
+      <c r="AX67" s="7"/>
+      <c r="AY67" s="7"/>
+      <c r="AZ67" s="7"/>
+      <c r="BA67" s="7"/>
+      <c r="BB67" s="7"/>
+      <c r="BC67" s="7"/>
+    </row>
+    <row r="68" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="142"/>
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="5"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="5"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="5"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="5"/>
+      <c r="AG68" s="143"/>
+      <c r="AH68" s="49"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="1"/>
+      <c r="AK68" s="1"/>
+      <c r="AL68" s="1"/>
+      <c r="AM68" s="1"/>
+      <c r="AN68" s="1"/>
+      <c r="AO68" s="1"/>
+      <c r="AP68" s="1"/>
+      <c r="AQ68" s="1"/>
+      <c r="AR68" s="1"/>
+      <c r="AS68" s="1"/>
+      <c r="AT68" s="1"/>
+      <c r="AU68" s="1"/>
+      <c r="AV68" s="1"/>
+      <c r="AW68" s="1"/>
+      <c r="AX68" s="1"/>
+      <c r="AY68" s="1"/>
+      <c r="AZ68" s="1"/>
+      <c r="BA68" s="1"/>
+      <c r="BB68" s="1"/>
+      <c r="BC68" s="1"/>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="142"/>
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="5"/>
+      <c r="AA69" s="5"/>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="5"/>
+      <c r="AF69" s="5"/>
+      <c r="AG69" s="143"/>
+      <c r="AH69" s="49"/>
+      <c r="AI69" s="5"/>
+      <c r="AJ69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AL69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AN69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AP69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AR69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AT69" s="1"/>
+      <c r="AU69" s="1"/>
+      <c r="AV69" s="1"/>
+      <c r="AW69" s="1"/>
+      <c r="AX69" s="1"/>
+      <c r="AY69" s="1"/>
+      <c r="AZ69" s="1"/>
+      <c r="BA69" s="1"/>
+      <c r="BB69" s="1"/>
+      <c r="BC69" s="1"/>
+    </row>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="142"/>
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="143"/>
+      <c r="AH70" s="49"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="1"/>
+      <c r="AK70" s="1"/>
+      <c r="AL70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AN70" s="1"/>
+      <c r="AO70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AQ70" s="1"/>
+      <c r="AR70" s="1"/>
+      <c r="AS70" s="1"/>
+      <c r="AT70" s="1"/>
+      <c r="AU70" s="1"/>
+      <c r="AV70" s="1"/>
+      <c r="AW70" s="1"/>
+      <c r="AX70" s="1"/>
+      <c r="AY70" s="1"/>
+      <c r="AZ70" s="1"/>
+      <c r="BA70" s="1"/>
+      <c r="BB70" s="1"/>
+      <c r="BC70" s="1"/>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="142"/>
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="143"/>
+      <c r="AH71" s="49"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AL71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AN71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AP71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AR71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AT71" s="1"/>
+      <c r="AU71" s="1"/>
+      <c r="AV71" s="1"/>
+      <c r="AW71" s="1"/>
+      <c r="AX71" s="1"/>
+      <c r="AY71" s="1"/>
+      <c r="AZ71" s="1"/>
+      <c r="BA71" s="1"/>
+      <c r="BB71" s="1"/>
+      <c r="BC71" s="1"/>
+    </row>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="142"/>
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="5"/>
+      <c r="AG72" s="143"/>
+      <c r="AH72" s="49"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="1"/>
+      <c r="AK72" s="1"/>
+      <c r="AL72" s="1"/>
+      <c r="AM72" s="1"/>
+      <c r="AN72" s="1"/>
+      <c r="AO72" s="1"/>
+      <c r="AP72" s="1"/>
+      <c r="AQ72" s="1"/>
+      <c r="AR72" s="1"/>
+      <c r="AS72" s="1"/>
+      <c r="AT72" s="1"/>
+      <c r="AU72" s="1"/>
+      <c r="AV72" s="1"/>
+      <c r="AW72" s="120"/>
+      <c r="AX72" s="120"/>
+      <c r="AY72" s="1"/>
+      <c r="AZ72" s="1"/>
+      <c r="BA72" s="1"/>
+      <c r="BB72" s="1"/>
+      <c r="BC72" s="1"/>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="142"/>
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5"/>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="5"/>
+      <c r="AF73" s="5"/>
+      <c r="AG73" s="143"/>
+      <c r="AH73" s="49"/>
+      <c r="AI73" s="5"/>
+      <c r="AJ73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AL73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AN73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AP73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AR73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AT73" s="1"/>
+      <c r="AU73" s="1"/>
+      <c r="AV73" s="1"/>
+      <c r="AW73" s="120"/>
+      <c r="AX73" s="120"/>
+      <c r="AY73" s="1"/>
+      <c r="AZ73" s="1"/>
+      <c r="BA73" s="1"/>
+      <c r="BB73" s="1"/>
+      <c r="BC73" s="1"/>
+    </row>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+      <c r="U74" s="1"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="142"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="143"/>
+      <c r="AH74" s="49"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="1"/>
+      <c r="AK74" s="1"/>
+      <c r="AL74" s="1"/>
+      <c r="AM74" s="1"/>
+      <c r="AN74" s="1"/>
+      <c r="AO74" s="1"/>
+      <c r="AP74" s="1"/>
+      <c r="AQ74" s="1"/>
+      <c r="AR74" s="1"/>
+      <c r="AS74" s="1"/>
+      <c r="AT74" s="1"/>
+      <c r="AU74" s="1"/>
+      <c r="AV74" s="1"/>
+      <c r="AW74" s="1"/>
+      <c r="AX74" s="1"/>
+      <c r="AY74" s="1"/>
+      <c r="AZ74" s="1"/>
+      <c r="BA74" s="1"/>
+      <c r="BB74" s="1"/>
+      <c r="BC74" s="1"/>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="142"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5"/>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5"/>
+      <c r="AD75" s="5"/>
+      <c r="AE75" s="5"/>
+      <c r="AF75" s="5"/>
+      <c r="AG75" s="143"/>
+      <c r="AH75" s="49"/>
+      <c r="AI75" s="5"/>
+      <c r="AJ75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AL75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AN75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AP75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AR75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AT75" s="1"/>
+      <c r="AU75" s="1"/>
+      <c r="AV75" s="1"/>
+      <c r="AW75" s="1"/>
+      <c r="AX75" s="1"/>
+      <c r="AY75" s="1"/>
+      <c r="AZ75" s="1"/>
+      <c r="BA75" s="1"/>
+      <c r="BB75" s="1"/>
+      <c r="BC75" s="1"/>
+    </row>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="142"/>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="5"/>
+      <c r="AG76" s="143"/>
+      <c r="AH76" s="49"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="1"/>
+      <c r="AK76" s="1"/>
+      <c r="AL76" s="1"/>
+      <c r="AM76" s="1"/>
+      <c r="AN76" s="1"/>
+      <c r="AO76" s="1"/>
+      <c r="AP76" s="1"/>
+      <c r="AQ76" s="1"/>
+      <c r="AR76" s="1"/>
+      <c r="AS76" s="1"/>
+      <c r="AT76" s="1"/>
+      <c r="AU76" s="1"/>
+      <c r="AV76" s="1"/>
+      <c r="AW76" s="1"/>
+      <c r="AX76" s="1"/>
+      <c r="AY76" s="1"/>
+      <c r="AZ76" s="1"/>
+      <c r="BA76" s="1"/>
+      <c r="BB76" s="1"/>
+      <c r="BC76" s="1"/>
+    </row>
+    <row r="77" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="142"/>
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5"/>
+      <c r="Z77" s="5"/>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="5"/>
+      <c r="AF77" s="5"/>
+      <c r="AG77" s="143"/>
+      <c r="AH77" s="49"/>
+      <c r="AI77" s="5"/>
+      <c r="AJ77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AL77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AN77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AP77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AR77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AT77" s="1"/>
+      <c r="AU77" s="1"/>
+      <c r="AV77" s="1"/>
+      <c r="AW77" s="1"/>
+      <c r="AX77" s="1"/>
+      <c r="AY77" s="1"/>
+      <c r="AZ77" s="1"/>
+      <c r="BA77" s="1"/>
+      <c r="BB77" s="1"/>
+      <c r="BC77" s="1"/>
+    </row>
+    <row r="78" spans="1:55" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="142"/>
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="5"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="5"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="5"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="5"/>
+      <c r="AG78" s="143"/>
+      <c r="AH78" s="49"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="1"/>
+      <c r="AK78" s="1"/>
+      <c r="AL78" s="1"/>
+      <c r="AM78" s="1"/>
+      <c r="AN78" s="1"/>
+      <c r="AO78" s="1"/>
+      <c r="AP78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="1"/>
+      <c r="AS78" s="1"/>
+      <c r="AT78" s="1"/>
+      <c r="AU78" s="1"/>
+      <c r="AV78" s="1"/>
+      <c r="AW78" s="1"/>
+      <c r="AX78" s="1"/>
+      <c r="AY78" s="1"/>
+      <c r="AZ78" s="1"/>
+      <c r="BA78" s="1"/>
+      <c r="BB78" s="1"/>
+      <c r="BC78" s="1"/>
+    </row>
+    <row r="79" spans="1:55" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="147"/>
+      <c r="X79" s="148"/>
+      <c r="Y79" s="148"/>
+      <c r="Z79" s="148"/>
+      <c r="AA79" s="148"/>
+      <c r="AB79" s="148"/>
+      <c r="AC79" s="148"/>
+      <c r="AD79" s="148"/>
+      <c r="AE79" s="148"/>
+      <c r="AF79" s="148"/>
+      <c r="AG79" s="149"/>
+      <c r="AH79" s="49"/>
+      <c r="AI79" s="5"/>
+      <c r="AJ79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AL79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AN79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AP79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AR79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AT79" s="1"/>
+      <c r="AU79" s="1"/>
+      <c r="AV79" s="1"/>
+      <c r="AW79" s="1"/>
+      <c r="AX79" s="1"/>
+      <c r="AY79" s="1"/>
+      <c r="AZ79" s="1"/>
+      <c r="BA79" s="1"/>
+      <c r="BB79" s="1"/>
+      <c r="BC79" s="1"/>
+    </row>
+    <row r="80" spans="1:55" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
+    <mergeCell ref="AU1:AY1"/>
+    <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AC1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/planificacion/planificacion.xlsx
+++ b/planificacion/planificacion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59905DA0-337D-4BCF-B881-AF489BB971F6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A9B792-53F8-4443-B774-00DF5CBD7325}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Tareas</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Revisión y adaptación de diagrama de clases</t>
+  </si>
+  <si>
+    <t>Corregir propuesta de proyecto</t>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -682,6 +685,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1000,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893B0263-59F4-40E5-9460-E43E9955B4EB}">
-  <dimension ref="A1:BC107"/>
+  <dimension ref="A1:BC105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,82 +1021,82 @@
   <sheetData>
     <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="52" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="53" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="52" t="s">
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="57" t="s">
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="60" t="s">
+      <c r="V1" s="60"/>
+      <c r="W1" s="60"/>
+      <c r="X1" s="60"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="61" t="s">
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="52" t="s">
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="53"/>
-      <c r="AJ1" s="53"/>
-      <c r="AK1" s="53"/>
-      <c r="AL1" s="54"/>
-      <c r="AM1" s="52" t="s">
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55"/>
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="56"/>
+      <c r="AM1" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="53"/>
-      <c r="AO1" s="53"/>
-      <c r="AP1" s="54"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55"/>
+      <c r="AP1" s="56"/>
+      <c r="AQ1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="53"/>
-      <c r="AS1" s="53"/>
-      <c r="AT1" s="54"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="53"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="53"/>
-      <c r="AY1" s="54"/>
-      <c r="AZ1" s="52" t="s">
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" s="53"/>
-      <c r="BB1" s="53"/>
-      <c r="BC1" s="54"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="56"/>
     </row>
     <row r="2" spans="1:55" ht="54.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1616,22 +1621,21 @@
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="19" t="s">
-        <v>39</v>
+      <c r="B9" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="20"/>
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
       <c r="K9" s="13"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
@@ -1674,129 +1678,129 @@
       <c r="BC9" s="15"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="32"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="33"/>
-      <c r="AH10" s="26"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="26"/>
+      <c r="AI11" s="22"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1855,12 +1859,12 @@
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
@@ -1913,14 +1917,16 @@
     </row>
     <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1968,21 +1974,17 @@
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2030,9 +2032,11 @@
       <c r="BC15" s="1"/>
     </row>
     <row r="16" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -2090,10 +2094,10 @@
     </row>
     <row r="17" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="4"/>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2149,16 +2153,18 @@
     </row>
     <row r="18" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2204,30 +2210,26 @@
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1"/>
+    <row r="19" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -2266,9 +2268,11 @@
       <c r="BC19" s="1"/>
     </row>
     <row r="20" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2280,10 +2284,10 @@
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
@@ -2326,6 +2330,9 @@
     </row>
     <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -2333,13 +2340,13 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -2382,7 +2389,6 @@
     </row>
     <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2391,17 +2397,17 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="6"/>
       <c r="X22" s="34"/>
@@ -2438,12 +2444,8 @@
       <c r="BC22" s="1"/>
     </row>
     <row r="23" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2452,8 +2454,8 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2499,9 +2501,11 @@
       <c r="BC23" s="1"/>
     </row>
     <row r="24" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="4" t="s">
-        <v>44</v>
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2511,9 +2515,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="18"/>
+      <c r="K24" s="1"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="4"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2559,7 +2563,9 @@
     </row>
     <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2568,9 +2574,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
@@ -2625,9 +2631,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
+      <c r="K26" s="1"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2672,9 +2678,7 @@
       <c r="BC26" s="1"/>
     </row>
     <row r="27" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2684,10 +2688,10 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="K27" s="1"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="1"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2731,7 +2735,9 @@
       <c r="BC27" s="1"/>
     </row>
     <row r="28" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2741,10 +2747,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="18"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2797,18 +2803,18 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
       <c r="V29" s="1"/>
       <c r="W29" s="6"/>
       <c r="X29" s="34"/>
@@ -2845,128 +2851,127 @@
       <c r="BC29" s="1"/>
     </row>
     <row r="30" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+      <c r="AV30" s="1"/>
+      <c r="AW30" s="1"/>
+      <c r="AX30" s="1"/>
+      <c r="AY30" s="1"/>
+      <c r="AZ30" s="1"/>
+      <c r="BA30" s="1"/>
+      <c r="BB30" s="1"/>
+      <c r="BC30" s="1"/>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="37"/>
-      <c r="AH30" s="21"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="5"/>
-      <c r="AZ30" s="5"/>
-      <c r="BA30" s="5"/>
-      <c r="BB30" s="5"/>
-      <c r="BC30" s="5"/>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="36"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="37"/>
+      <c r="AH31" s="21"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+      <c r="AS31" s="5"/>
+      <c r="AT31" s="5"/>
+      <c r="AU31" s="5"/>
+      <c r="AV31" s="5"/>
+      <c r="AW31" s="5"/>
+      <c r="AX31" s="5"/>
+      <c r="AY31" s="5"/>
+      <c r="AZ31" s="5"/>
+      <c r="BA31" s="5"/>
+      <c r="BB31" s="5"/>
+      <c r="BC31" s="5"/>
+    </row>
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="35"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
-      <c r="AO31" s="1"/>
-      <c r="AP31" s="1"/>
-      <c r="AQ31" s="1"/>
-      <c r="AR31" s="1"/>
-      <c r="AS31" s="1"/>
-      <c r="AT31" s="1"/>
-      <c r="AU31" s="1"/>
-      <c r="AV31" s="1"/>
-      <c r="AW31" s="1"/>
-      <c r="AX31" s="1"/>
-      <c r="AY31" s="1"/>
-      <c r="AZ31" s="1"/>
-      <c r="BA31" s="1"/>
-      <c r="BB31" s="1"/>
-      <c r="BC31" s="1"/>
-    </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" t="s">
-        <v>55</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -2978,17 +2983,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="18"/>
+      <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="O32" s="18"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
-      <c r="U32" s="9"/>
+      <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="6"/>
+      <c r="W32" s="9"/>
       <c r="X32" s="34"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
@@ -3023,8 +3028,8 @@
     </row>
     <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
-        <v>40</v>
+      <c r="B33" t="s">
+        <v>55</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3036,17 +3041,17 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="18"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="O33" s="18"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
-      <c r="U33" s="4"/>
+      <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="6"/>
+      <c r="W33" s="9"/>
       <c r="X33" s="34"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
@@ -3057,7 +3062,6 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
       <c r="AG33" s="35"/>
-      <c r="AH33" s="9"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -3082,7 +3086,9 @@
     </row>
     <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3095,15 +3101,15 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="O34" s="18"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="6"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="4"/>
       <c r="X34" s="34"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -3158,9 +3164,9 @@
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="6"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="4"/>
       <c r="X35" s="34"/>
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
@@ -3171,9 +3177,9 @@
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
       <c r="AG35" s="35"/>
-      <c r="AH35" s="8"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="4"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="4"/>
+      <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
@@ -3195,12 +3201,8 @@
       <c r="BC35" s="1"/>
     </row>
     <row r="36" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -3211,7 +3213,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="18"/>
+      <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
@@ -3219,9 +3221,9 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="6"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="4"/>
       <c r="X36" s="34"/>
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
@@ -3233,6 +3235,7 @@
       <c r="AF36" s="4"/>
       <c r="AG36" s="35"/>
       <c r="AH36" s="8"/>
+      <c r="AI36" s="1"/>
       <c r="AJ36" s="4"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
@@ -3255,9 +3258,11 @@
       <c r="BC36" s="1"/>
     </row>
     <row r="37" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -3269,17 +3274,17 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="18"/>
+      <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="18"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="6"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="4"/>
       <c r="X37" s="34"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
@@ -3314,8 +3319,8 @@
     </row>
     <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="4" t="s">
-        <v>56</v>
+      <c r="B38" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3327,17 +3332,17 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="18"/>
+      <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="18"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="6"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="4"/>
       <c r="X38" s="34"/>
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
@@ -3372,7 +3377,9 @@
     </row>
     <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -3385,7 +3392,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
+      <c r="O39" s="18"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -3393,7 +3400,7 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="6"/>
+      <c r="W39" s="4"/>
       <c r="X39" s="34"/>
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
@@ -3405,7 +3412,6 @@
       <c r="AF39" s="4"/>
       <c r="AG39" s="35"/>
       <c r="AH39" s="8"/>
-      <c r="AI39" s="1"/>
       <c r="AJ39" s="4"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
@@ -3450,7 +3456,7 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="6"/>
+      <c r="W40" s="1"/>
       <c r="X40" s="34"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -3462,35 +3468,31 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="35"/>
       <c r="AH40" s="8"/>
-      <c r="AI40" s="4"/>
+      <c r="AI40" s="1"/>
       <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="4"/>
-      <c r="AO40" s="4"/>
-      <c r="AP40" s="4"/>
-      <c r="AQ40" s="4"/>
-      <c r="AR40" s="4"/>
-      <c r="AS40" s="4"/>
-      <c r="AT40" s="4"/>
-      <c r="AU40" s="4"/>
-      <c r="AV40" s="4"/>
-      <c r="AW40" s="4"/>
-      <c r="AX40" s="4"/>
-      <c r="AY40" s="4"/>
-      <c r="AZ40" s="4"/>
-      <c r="BA40" s="4"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
     </row>
     <row r="41" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -3501,9 +3503,9 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -3511,7 +3513,7 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="6"/>
+      <c r="W41" s="1"/>
       <c r="X41" s="34"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
@@ -3546,9 +3548,11 @@
       <c r="BC41" s="1"/>
     </row>
     <row r="42" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -3560,16 +3564,17 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
       <c r="O42" s="18"/>
       <c r="P42" s="18"/>
       <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="6"/>
+      <c r="W42" s="1"/>
       <c r="X42" s="34"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
@@ -3605,7 +3610,9 @@
     </row>
     <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -3618,15 +3625,15 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="6"/>
+      <c r="W43" s="1"/>
       <c r="X43" s="34"/>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
@@ -3683,7 +3690,7 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="6"/>
+      <c r="W44" s="1"/>
       <c r="X44" s="34"/>
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
@@ -3740,7 +3747,7 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="6"/>
+      <c r="W45" s="1"/>
       <c r="X45" s="34"/>
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
@@ -3775,12 +3782,8 @@
       <c r="BC45" s="1"/>
     </row>
     <row r="46" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -3794,14 +3797,14 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="6"/>
+      <c r="W46" s="1"/>
       <c r="X46" s="34"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
@@ -3836,9 +3839,11 @@
       <c r="BC46" s="1"/>
     </row>
     <row r="47" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="4" t="s">
-        <v>44</v>
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3853,14 +3858,14 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="18"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="6"/>
+      <c r="W47" s="1"/>
       <c r="X47" s="34"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
@@ -3896,7 +3901,9 @@
     </row>
     <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
+      <c r="B48" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -3912,12 +3919,12 @@
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
+      <c r="R48" s="18"/>
+      <c r="S48" s="18"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="18"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="6"/>
+      <c r="W48" s="1"/>
       <c r="X48" s="34"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
@@ -3974,7 +3981,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="6"/>
+      <c r="W49" s="1"/>
       <c r="X49" s="34"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="4"/>
@@ -4009,9 +4016,7 @@
       <c r="BC49" s="1"/>
     </row>
     <row r="50" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -4030,10 +4035,10 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="18"/>
+      <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="6"/>
+      <c r="W50" s="1"/>
       <c r="X50" s="34"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="4"/>
@@ -4068,7 +4073,10 @@
       <c r="BC50" s="1"/>
     </row>
     <row r="51" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B51" s="38"/>
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -4086,9 +4094,10 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="6"/>
+      <c r="V51" s="18"/>
+      <c r="W51" s="1"/>
       <c r="X51" s="34"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="4"/>
@@ -4123,129 +4132,126 @@
       <c r="BC51" s="1"/>
     </row>
     <row r="52" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="B52" s="38"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="35"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
+      <c r="AN52" s="4"/>
+      <c r="AO52" s="4"/>
+      <c r="AP52" s="4"/>
+      <c r="AQ52" s="4"/>
+      <c r="AR52" s="4"/>
+      <c r="AS52" s="4"/>
+      <c r="AT52" s="4"/>
+      <c r="AU52" s="4"/>
+      <c r="AV52" s="4"/>
+      <c r="AW52" s="4"/>
+      <c r="AX52" s="4"/>
+      <c r="AY52" s="4"/>
+      <c r="AZ52" s="4"/>
+      <c r="BA52" s="4"/>
+      <c r="BB52" s="1"/>
+      <c r="BC52" s="1"/>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="41"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="42"/>
-      <c r="AH52" s="21"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-      <c r="AP52" s="5"/>
-      <c r="AQ52" s="5"/>
-      <c r="AR52" s="5"/>
-      <c r="AS52" s="5"/>
-      <c r="AT52" s="5"/>
-      <c r="AU52" s="5"/>
-      <c r="AV52" s="5"/>
-      <c r="AW52" s="5"/>
-      <c r="AX52" s="5"/>
-      <c r="AY52" s="5"/>
-      <c r="AZ52" s="5"/>
-      <c r="BA52" s="5"/>
-      <c r="BB52" s="5"/>
-      <c r="BC52" s="5"/>
-    </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="5"/>
+      <c r="T53" s="5"/>
+      <c r="U53" s="5"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="37"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="5"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="5"/>
+      <c r="AB53" s="5"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="42"/>
+      <c r="AH53" s="21"/>
+      <c r="AI53" s="5"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+    </row>
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-      <c r="AG53" s="44"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
-      <c r="AN53" s="4"/>
-      <c r="AO53" s="4"/>
-      <c r="AP53" s="4"/>
-      <c r="AQ53" s="4"/>
-      <c r="AR53" s="4"/>
-      <c r="AS53" s="4"/>
-      <c r="AT53" s="4"/>
-      <c r="AU53" s="4"/>
-      <c r="AV53" s="4"/>
-      <c r="AW53" s="4"/>
-      <c r="AX53" s="4"/>
-      <c r="AY53" s="4"/>
-      <c r="AZ53" s="4"/>
-      <c r="BA53" s="4"/>
-      <c r="BB53" s="4"/>
-      <c r="BC53" s="4"/>
-    </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" t="s">
-        <v>55</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -4264,12 +4270,12 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="18"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="43"/>
-      <c r="Y54" s="4"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="6"/>
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="4"/>
@@ -4303,8 +4309,8 @@
     </row>
     <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
+      <c r="B55" t="s">
+        <v>55</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4323,12 +4329,12 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="18"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="4"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="6"/>
       <c r="Z55" s="4"/>
       <c r="AA55" s="4"/>
       <c r="AB55" s="4"/>
@@ -4362,7 +4368,9 @@
     </row>
     <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -4380,12 +4388,12 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
       <c r="V56" s="4"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="43"/>
-      <c r="Y56" s="4"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="6"/>
       <c r="Z56" s="4"/>
       <c r="AA56" s="4"/>
       <c r="AB56" s="4"/>
@@ -4437,12 +4445,12 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="43"/>
-      <c r="Y57" s="4"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="6"/>
       <c r="Z57" s="4"/>
       <c r="AA57" s="4"/>
       <c r="AB57" s="4"/>
@@ -4475,12 +4483,8 @@
       <c r="BC57" s="4"/>
     </row>
     <row r="58" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -4498,12 +4502,12 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="18"/>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="43"/>
-      <c r="Y58" s="4"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="6"/>
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
       <c r="AB58" s="4"/>
@@ -4536,9 +4540,11 @@
       <c r="BC58" s="4"/>
     </row>
     <row r="59" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B59" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -4557,12 +4563,12 @@
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
       <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="18"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="4"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="6"/>
       <c r="Z59" s="4"/>
       <c r="AA59" s="4"/>
       <c r="AB59" s="4"/>
@@ -4596,8 +4602,8 @@
     </row>
     <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="4" t="s">
-        <v>56</v>
+      <c r="B60" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -4616,12 +4622,12 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="18"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="43"/>
-      <c r="Y60" s="4"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="6"/>
       <c r="Z60" s="4"/>
       <c r="AA60" s="4"/>
       <c r="AB60" s="4"/>
@@ -4655,7 +4661,9 @@
     </row>
     <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -4673,12 +4681,12 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="4"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="6"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
@@ -4687,7 +4695,7 @@
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
       <c r="AG61" s="44"/>
-      <c r="AH61" s="48"/>
+      <c r="AH61" s="9"/>
       <c r="AI61" s="4"/>
       <c r="AJ61" s="4"/>
       <c r="AK61" s="4"/>
@@ -4730,12 +4738,12 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
       <c r="V62" s="4"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="4"/>
+      <c r="W62" s="35"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="6"/>
       <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
@@ -4768,12 +4776,8 @@
       <c r="BC62" s="4"/>
     </row>
     <row r="63" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -4791,12 +4795,12 @@
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
       <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="51"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="4"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="35"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="6"/>
       <c r="Z63" s="4"/>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
@@ -4805,14 +4809,14 @@
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
       <c r="AG63" s="44"/>
-      <c r="AH63" s="50"/>
-      <c r="AI63" s="18"/>
-      <c r="AJ63" s="18"/>
-      <c r="AK63" s="1"/>
-      <c r="AL63" s="1"/>
-      <c r="AM63" s="1"/>
-      <c r="AN63" s="1"/>
-      <c r="AO63" s="1"/>
+      <c r="AH63" s="48"/>
+      <c r="AI63" s="4"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
+      <c r="AN63" s="4"/>
+      <c r="AO63" s="4"/>
       <c r="AP63" s="4"/>
       <c r="AQ63" s="4"/>
       <c r="AR63" s="4"/>
@@ -4829,9 +4833,11 @@
       <c r="BC63" s="4"/>
     </row>
     <row r="64" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -4850,12 +4856,12 @@
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
       <c r="S64" s="4"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
       <c r="V64" s="4"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="4"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="51"/>
       <c r="Z64" s="4"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
@@ -4864,14 +4870,14 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
       <c r="AG64" s="44"/>
-      <c r="AH64" s="49"/>
+      <c r="AH64" s="50"/>
       <c r="AI64" s="18"/>
       <c r="AJ64" s="18"/>
-      <c r="AK64" s="18"/>
-      <c r="AL64" s="18"/>
-      <c r="AM64" s="18"/>
-      <c r="AN64" s="18"/>
-      <c r="AO64" s="18"/>
+      <c r="AK64" s="1"/>
+      <c r="AL64" s="1"/>
+      <c r="AM64" s="1"/>
+      <c r="AN64" s="1"/>
+      <c r="AO64" s="1"/>
       <c r="AP64" s="4"/>
       <c r="AQ64" s="4"/>
       <c r="AR64" s="4"/>
@@ -4889,7 +4895,9 @@
     </row>
     <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -4910,8 +4918,8 @@
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="43"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="9"/>
       <c r="Y65" s="4"/>
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
@@ -4921,14 +4929,14 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
       <c r="AG65" s="44"/>
-      <c r="AH65" s="48"/>
-      <c r="AI65" s="4"/>
-      <c r="AJ65" s="4"/>
-      <c r="AK65" s="4"/>
-      <c r="AL65" s="4"/>
-      <c r="AM65" s="4"/>
-      <c r="AN65" s="4"/>
-      <c r="AO65" s="4"/>
+      <c r="AH65" s="49"/>
+      <c r="AI65" s="18"/>
+      <c r="AJ65" s="18"/>
+      <c r="AK65" s="18"/>
+      <c r="AL65" s="18"/>
+      <c r="AM65" s="18"/>
+      <c r="AN65" s="18"/>
+      <c r="AO65" s="18"/>
       <c r="AP65" s="4"/>
       <c r="AQ65" s="4"/>
       <c r="AR65" s="4"/>
@@ -4946,7 +4954,7 @@
     </row>
     <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -4967,8 +4975,8 @@
       <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="43"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="9"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -4978,7 +4986,7 @@
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
       <c r="AG66" s="44"/>
-      <c r="AH66" s="48"/>
+      <c r="AH66" s="9"/>
       <c r="AI66" s="4"/>
       <c r="AJ66" s="4"/>
       <c r="AK66" s="4"/>
@@ -5002,8 +5010,12 @@
       <c r="BC66" s="4"/>
     </row>
     <row r="67" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="4"/>
+      <c r="A67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
@@ -5040,9 +5052,9 @@
       <c r="AJ67" s="4"/>
       <c r="AK67" s="4"/>
       <c r="AL67" s="4"/>
-      <c r="AM67" s="4"/>
-      <c r="AN67" s="4"/>
-      <c r="AO67" s="4"/>
+      <c r="AM67" s="18"/>
+      <c r="AN67" s="18"/>
+      <c r="AO67" s="18"/>
       <c r="AP67" s="4"/>
       <c r="AQ67" s="4"/>
       <c r="AR67" s="4"/>
@@ -5060,7 +5072,9 @@
     </row>
     <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5097,9 +5111,9 @@
       <c r="AJ68" s="4"/>
       <c r="AK68" s="4"/>
       <c r="AL68" s="4"/>
-      <c r="AM68" s="4"/>
-      <c r="AN68" s="4"/>
-      <c r="AO68" s="4"/>
+      <c r="AM68" s="18"/>
+      <c r="AN68" s="18"/>
+      <c r="AO68" s="18"/>
       <c r="AP68" s="4"/>
       <c r="AQ68" s="4"/>
       <c r="AR68" s="4"/>
@@ -5116,12 +5130,7 @@
       <c r="BC68" s="4"/>
     </row>
     <row r="69" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
@@ -5158,9 +5167,9 @@
       <c r="AJ69" s="4"/>
       <c r="AK69" s="4"/>
       <c r="AL69" s="4"/>
-      <c r="AM69" s="18"/>
-      <c r="AN69" s="18"/>
-      <c r="AO69" s="18"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="4"/>
+      <c r="AO69" s="4"/>
       <c r="AP69" s="4"/>
       <c r="AQ69" s="4"/>
       <c r="AR69" s="4"/>
@@ -5177,10 +5186,10 @@
       <c r="BC69" s="4"/>
     </row>
     <row r="70" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
-      <c r="B70" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="A70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -5217,10 +5226,10 @@
       <c r="AJ70" s="4"/>
       <c r="AK70" s="4"/>
       <c r="AL70" s="4"/>
-      <c r="AM70" s="18"/>
-      <c r="AN70" s="18"/>
-      <c r="AO70" s="18"/>
-      <c r="AP70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="4"/>
+      <c r="AO70" s="4"/>
+      <c r="AP70" s="18"/>
       <c r="AQ70" s="4"/>
       <c r="AR70" s="4"/>
       <c r="AS70" s="4"/>
@@ -5236,66 +5245,71 @@
       <c r="BC70" s="4"/>
     </row>
     <row r="71" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-      <c r="AG71" s="44"/>
-      <c r="AH71" s="9"/>
-      <c r="AI71" s="4"/>
-      <c r="AJ71" s="4"/>
-      <c r="AK71" s="4"/>
-      <c r="AL71" s="4"/>
-      <c r="AM71" s="4"/>
-      <c r="AN71" s="4"/>
-      <c r="AO71" s="4"/>
-      <c r="AP71" s="4"/>
-      <c r="AQ71" s="4"/>
-      <c r="AR71" s="4"/>
-      <c r="AS71" s="4"/>
-      <c r="AT71" s="4"/>
-      <c r="AU71" s="4"/>
-      <c r="AV71" s="4"/>
-      <c r="AW71" s="4"/>
-      <c r="AX71" s="4"/>
-      <c r="AY71" s="4"/>
-      <c r="AZ71" s="4"/>
-      <c r="BA71" s="4"/>
-      <c r="BB71" s="4"/>
-      <c r="BC71" s="4"/>
+      <c r="A71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="41"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="42"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="5"/>
+      <c r="AU71" s="5"/>
+      <c r="AV71" s="5"/>
+      <c r="AW71" s="5"/>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="5"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
     </row>
     <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B72" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -5351,70 +5365,68 @@
       <c r="BC72" s="4"/>
     </row>
     <row r="73" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="41"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
-      <c r="AB73" s="5"/>
-      <c r="AC73" s="5"/>
-      <c r="AD73" s="5"/>
-      <c r="AE73" s="5"/>
-      <c r="AF73" s="5"/>
-      <c r="AG73" s="42"/>
-      <c r="AH73" s="21"/>
-      <c r="AI73" s="5"/>
-      <c r="AJ73" s="5"/>
-      <c r="AK73" s="5"/>
-      <c r="AL73" s="5"/>
-      <c r="AM73" s="5"/>
-      <c r="AN73" s="5"/>
-      <c r="AO73" s="5"/>
-      <c r="AP73" s="5"/>
-      <c r="AQ73" s="5"/>
-      <c r="AR73" s="5"/>
-      <c r="AS73" s="5"/>
-      <c r="AT73" s="5"/>
-      <c r="AU73" s="5"/>
-      <c r="AV73" s="5"/>
-      <c r="AW73" s="5"/>
-      <c r="AX73" s="5"/>
-      <c r="AY73" s="5"/>
-      <c r="AZ73" s="5"/>
-      <c r="BA73" s="5"/>
-      <c r="BB73" s="5"/>
-      <c r="BC73" s="5"/>
+      <c r="A73" s="1"/>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="43"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="44"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="4"/>
+      <c r="AN73" s="4"/>
+      <c r="AO73" s="4"/>
+      <c r="AP73" s="18"/>
+      <c r="AQ73" s="4"/>
+      <c r="AR73" s="4"/>
+      <c r="AS73" s="4"/>
+      <c r="AT73" s="4"/>
+      <c r="AU73" s="4"/>
+      <c r="AV73" s="4"/>
+      <c r="AW73" s="4"/>
+      <c r="AX73" s="4"/>
+      <c r="AY73" s="4"/>
+      <c r="AZ73" s="4"/>
+      <c r="BA73" s="4"/>
+      <c r="BB73" s="4"/>
+      <c r="BC73" s="4"/>
     </row>
     <row r="74" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -5472,9 +5484,7 @@
     </row>
     <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
+      <c r="B75" s="1"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -5514,7 +5524,7 @@
       <c r="AM75" s="4"/>
       <c r="AN75" s="4"/>
       <c r="AO75" s="4"/>
-      <c r="AP75" s="18"/>
+      <c r="AP75" s="4"/>
       <c r="AQ75" s="4"/>
       <c r="AR75" s="4"/>
       <c r="AS75" s="4"/>
@@ -5531,9 +5541,7 @@
     </row>
     <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -5589,8 +5597,12 @@
       <c r="BC76" s="4"/>
     </row>
     <row r="77" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -5630,7 +5642,7 @@
       <c r="AM77" s="4"/>
       <c r="AN77" s="4"/>
       <c r="AO77" s="4"/>
-      <c r="AP77" s="4"/>
+      <c r="AP77" s="18"/>
       <c r="AQ77" s="4"/>
       <c r="AR77" s="4"/>
       <c r="AS77" s="4"/>
@@ -5647,7 +5659,9 @@
     </row>
     <row r="78" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -5703,11 +5717,9 @@
       <c r="BC78" s="4"/>
     </row>
     <row r="79" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>41</v>
+      <c r="A79" s="1"/>
+      <c r="B79" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -5765,8 +5777,8 @@
     </row>
     <row r="80" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="1" t="s">
-        <v>6</v>
+      <c r="B80" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -5824,9 +5836,7 @@
     </row>
     <row r="81" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -5866,7 +5876,7 @@
       <c r="AM81" s="4"/>
       <c r="AN81" s="4"/>
       <c r="AO81" s="4"/>
-      <c r="AP81" s="18"/>
+      <c r="AP81" s="4"/>
       <c r="AQ81" s="4"/>
       <c r="AR81" s="4"/>
       <c r="AS81" s="4"/>
@@ -5882,9 +5892,11 @@
       <c r="BC81" s="4"/>
     </row>
     <row r="82" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" s="4" t="s">
-        <v>51</v>
+      <c r="A82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -5926,8 +5938,8 @@
       <c r="AN82" s="4"/>
       <c r="AO82" s="4"/>
       <c r="AP82" s="18"/>
-      <c r="AQ82" s="4"/>
-      <c r="AR82" s="4"/>
+      <c r="AQ82" s="18"/>
+      <c r="AR82" s="18"/>
       <c r="AS82" s="4"/>
       <c r="AT82" s="4"/>
       <c r="AU82" s="4"/>
@@ -5942,7 +5954,9 @@
     </row>
     <row r="83" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
+      <c r="B83" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
@@ -5983,8 +5997,8 @@
       <c r="AN83" s="4"/>
       <c r="AO83" s="4"/>
       <c r="AP83" s="4"/>
-      <c r="AQ83" s="4"/>
-      <c r="AR83" s="4"/>
+      <c r="AQ83" s="18"/>
+      <c r="AR83" s="18"/>
       <c r="AS83" s="4"/>
       <c r="AT83" s="4"/>
       <c r="AU83" s="4"/>
@@ -5998,11 +6012,9 @@
       <c r="BC83" s="4"/>
     </row>
     <row r="84" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6043,7 +6055,7 @@
       <c r="AM84" s="4"/>
       <c r="AN84" s="4"/>
       <c r="AO84" s="4"/>
-      <c r="AP84" s="18"/>
+      <c r="AP84" s="4"/>
       <c r="AQ84" s="18"/>
       <c r="AR84" s="18"/>
       <c r="AS84" s="4"/>
@@ -6061,7 +6073,7 @@
     <row r="85" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6103,10 +6115,10 @@
       <c r="AN85" s="4"/>
       <c r="AO85" s="4"/>
       <c r="AP85" s="4"/>
-      <c r="AQ85" s="18"/>
+      <c r="AQ85" s="4"/>
       <c r="AR85" s="18"/>
-      <c r="AS85" s="4"/>
-      <c r="AT85" s="4"/>
+      <c r="AS85" s="18"/>
+      <c r="AT85" s="18"/>
       <c r="AU85" s="4"/>
       <c r="AV85" s="4"/>
       <c r="AW85" s="4"/>
@@ -6120,7 +6132,7 @@
     <row r="86" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6162,10 +6174,10 @@
       <c r="AN86" s="4"/>
       <c r="AO86" s="4"/>
       <c r="AP86" s="4"/>
-      <c r="AQ86" s="18"/>
+      <c r="AQ86" s="4"/>
       <c r="AR86" s="18"/>
-      <c r="AS86" s="4"/>
-      <c r="AT86" s="4"/>
+      <c r="AS86" s="18"/>
+      <c r="AT86" s="18"/>
       <c r="AU86" s="4"/>
       <c r="AV86" s="4"/>
       <c r="AW86" s="4"/>
@@ -6179,7 +6191,7 @@
     <row r="87" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1" t="s">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6237,9 +6249,7 @@
     </row>
     <row r="88" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -6281,9 +6291,9 @@
       <c r="AO88" s="4"/>
       <c r="AP88" s="4"/>
       <c r="AQ88" s="4"/>
-      <c r="AR88" s="18"/>
-      <c r="AS88" s="18"/>
-      <c r="AT88" s="18"/>
+      <c r="AR88" s="4"/>
+      <c r="AS88" s="4"/>
+      <c r="AT88" s="4"/>
       <c r="AU88" s="4"/>
       <c r="AV88" s="4"/>
       <c r="AW88" s="4"/>
@@ -6296,9 +6306,7 @@
     </row>
     <row r="89" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -6340,9 +6348,9 @@
       <c r="AO89" s="4"/>
       <c r="AP89" s="4"/>
       <c r="AQ89" s="4"/>
-      <c r="AR89" s="18"/>
-      <c r="AS89" s="18"/>
-      <c r="AT89" s="18"/>
+      <c r="AR89" s="4"/>
+      <c r="AS89" s="4"/>
+      <c r="AT89" s="4"/>
       <c r="AU89" s="4"/>
       <c r="AV89" s="4"/>
       <c r="AW89" s="4"/>
@@ -6354,8 +6362,12 @@
       <c r="BC89" s="4"/>
     </row>
     <row r="90" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
-      <c r="B90" s="4"/>
+      <c r="A90" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -6399,8 +6411,8 @@
       <c r="AQ90" s="4"/>
       <c r="AR90" s="4"/>
       <c r="AS90" s="4"/>
-      <c r="AT90" s="4"/>
-      <c r="AU90" s="4"/>
+      <c r="AT90" s="18"/>
+      <c r="AU90" s="18"/>
       <c r="AV90" s="4"/>
       <c r="AW90" s="4"/>
       <c r="AX90" s="4"/>
@@ -6412,7 +6424,9 @@
     </row>
     <row r="91" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -6456,8 +6470,8 @@
       <c r="AQ91" s="4"/>
       <c r="AR91" s="4"/>
       <c r="AS91" s="4"/>
-      <c r="AT91" s="4"/>
-      <c r="AU91" s="4"/>
+      <c r="AT91" s="18"/>
+      <c r="AU91" s="18"/>
       <c r="AV91" s="4"/>
       <c r="AW91" s="4"/>
       <c r="AX91" s="4"/>
@@ -6468,11 +6482,9 @@
       <c r="BC91" s="4"/>
     </row>
     <row r="92" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6517,22 +6529,20 @@
       <c r="AQ92" s="4"/>
       <c r="AR92" s="4"/>
       <c r="AS92" s="4"/>
-      <c r="AT92" s="18"/>
-      <c r="AU92" s="18"/>
-      <c r="AV92" s="4"/>
-      <c r="AW92" s="4"/>
-      <c r="AX92" s="4"/>
-      <c r="AY92" s="4"/>
-      <c r="AZ92" s="4"/>
+      <c r="AT92" s="4"/>
+      <c r="AU92" s="4"/>
+      <c r="AV92" s="18"/>
+      <c r="AW92" s="18"/>
+      <c r="AX92" s="18"/>
+      <c r="AY92" s="18"/>
+      <c r="AZ92" s="18"/>
       <c r="BA92" s="4"/>
       <c r="BB92" s="4"/>
       <c r="BC92" s="4"/>
     </row>
     <row r="93" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -6576,8 +6586,8 @@
       <c r="AQ93" s="4"/>
       <c r="AR93" s="4"/>
       <c r="AS93" s="4"/>
-      <c r="AT93" s="18"/>
-      <c r="AU93" s="18"/>
+      <c r="AT93" s="4"/>
+      <c r="AU93" s="4"/>
       <c r="AV93" s="4"/>
       <c r="AW93" s="4"/>
       <c r="AX93" s="4"/>
@@ -6589,9 +6599,7 @@
     </row>
     <row r="94" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="B94" s="4"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -6637,17 +6645,19 @@
       <c r="AS94" s="4"/>
       <c r="AT94" s="4"/>
       <c r="AU94" s="4"/>
-      <c r="AV94" s="18"/>
-      <c r="AW94" s="18"/>
-      <c r="AX94" s="18"/>
-      <c r="AY94" s="18"/>
-      <c r="AZ94" s="18"/>
+      <c r="AV94" s="4"/>
+      <c r="AW94" s="4"/>
+      <c r="AX94" s="4"/>
+      <c r="AY94" s="4"/>
+      <c r="AZ94" s="4"/>
       <c r="BA94" s="4"/>
       <c r="BB94" s="4"/>
       <c r="BC94" s="4"/>
     </row>
-    <row r="95" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A95" s="1"/>
+    <row r="95" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
@@ -6670,16 +6680,16 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="6"/>
-      <c r="X95" s="43"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
-      <c r="AA95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AC95" s="4"/>
-      <c r="AD95" s="4"/>
-      <c r="AE95" s="4"/>
-      <c r="AF95" s="4"/>
-      <c r="AG95" s="44"/>
+      <c r="X95" s="45"/>
+      <c r="Y95" s="46"/>
+      <c r="Z95" s="46"/>
+      <c r="AA95" s="46"/>
+      <c r="AB95" s="46"/>
+      <c r="AC95" s="46"/>
+      <c r="AD95" s="46"/>
+      <c r="AE95" s="46"/>
+      <c r="AF95" s="46"/>
+      <c r="AG95" s="47"/>
       <c r="AH95" s="9"/>
       <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
@@ -6694,7 +6704,7 @@
       <c r="AS95" s="4"/>
       <c r="AT95" s="4"/>
       <c r="AU95" s="4"/>
-      <c r="AV95" s="4"/>
+      <c r="AV95" s="18"/>
       <c r="AW95" s="4"/>
       <c r="AX95" s="4"/>
       <c r="AY95" s="4"/>
@@ -6703,140 +6713,24 @@
       <c r="BB95" s="4"/>
       <c r="BC95" s="4"/>
     </row>
-    <row r="96" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="43"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
-      <c r="AA96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AC96" s="4"/>
-      <c r="AD96" s="4"/>
-      <c r="AE96" s="4"/>
-      <c r="AF96" s="4"/>
-      <c r="AG96" s="44"/>
-      <c r="AH96" s="9"/>
-      <c r="AI96" s="4"/>
-      <c r="AJ96" s="4"/>
-      <c r="AK96" s="4"/>
-      <c r="AL96" s="4"/>
-      <c r="AM96" s="4"/>
-      <c r="AN96" s="4"/>
-      <c r="AO96" s="4"/>
-      <c r="AP96" s="4"/>
-      <c r="AQ96" s="4"/>
-      <c r="AR96" s="4"/>
-      <c r="AS96" s="4"/>
-      <c r="AT96" s="4"/>
-      <c r="AU96" s="4"/>
-      <c r="AV96" s="4"/>
-      <c r="AW96" s="4"/>
-      <c r="AX96" s="4"/>
-      <c r="AY96" s="4"/>
-      <c r="AZ96" s="4"/>
-      <c r="BA96" s="4"/>
-      <c r="BB96" s="4"/>
-      <c r="BC96" s="4"/>
-    </row>
-    <row r="97" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-      <c r="U97" s="4"/>
-      <c r="V97" s="4"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="45"/>
-      <c r="Y97" s="46"/>
-      <c r="Z97" s="46"/>
-      <c r="AA97" s="46"/>
-      <c r="AB97" s="46"/>
-      <c r="AC97" s="46"/>
-      <c r="AD97" s="46"/>
-      <c r="AE97" s="46"/>
-      <c r="AF97" s="46"/>
-      <c r="AG97" s="47"/>
-      <c r="AH97" s="9"/>
-      <c r="AI97" s="4"/>
-      <c r="AJ97" s="4"/>
-      <c r="AK97" s="4"/>
-      <c r="AL97" s="4"/>
-      <c r="AM97" s="4"/>
-      <c r="AN97" s="4"/>
-      <c r="AO97" s="4"/>
-      <c r="AP97" s="4"/>
-      <c r="AQ97" s="4"/>
-      <c r="AR97" s="4"/>
-      <c r="AS97" s="4"/>
-      <c r="AT97" s="4"/>
-      <c r="AU97" s="4"/>
-      <c r="AV97" s="18"/>
-      <c r="AW97" s="4"/>
-      <c r="AX97" s="4"/>
-      <c r="AY97" s="4"/>
-      <c r="AZ97" s="4"/>
-      <c r="BA97" s="4"/>
-      <c r="BB97" s="4"/>
-      <c r="BC97" s="4"/>
-    </row>
-    <row r="98" spans="1:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A106" s="40" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="40" t="s">
         <v>49</v>
       </c>
     </row>

--- a/planificacion/planificacion.xlsx
+++ b/planificacion/planificacion.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A9B792-53F8-4443-B774-00DF5CBD7325}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D60751-34A9-4567-A8AA-0C1224F42692}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6810" yWindow="3810" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version actual" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
   <si>
     <t>Tareas</t>
   </si>
@@ -157,9 +157,6 @@
     <t>Corrección y refactorización de codigo</t>
   </si>
   <si>
-    <t>Realizar pruebas de caso de estudio/ experimentación</t>
-  </si>
-  <si>
     <t>Realizar pruebas de integración</t>
   </si>
   <si>
@@ -201,12 +198,51 @@
   <si>
     <t>Corregir propuesta de proyecto</t>
   </si>
+  <si>
+    <t>Implementar el problema de diseño</t>
+  </si>
+  <si>
+    <t>Iteración 5</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Implementación problema monoobjetivo</t>
+  </si>
+  <si>
+    <t>Implementación problema multiobjetivo</t>
+  </si>
+  <si>
+    <t>Implementación interfaz</t>
+  </si>
+  <si>
+    <t>Revision y etapas de mejoras y requisitos adicionales</t>
+  </si>
+  <si>
+    <t>Implementación de requisitos nuevos y deseados</t>
+  </si>
+  <si>
+    <t>Revision de documentos y formas para preparar el caso de estudio</t>
+  </si>
+  <si>
+    <t>Caso de estudio</t>
+  </si>
+  <si>
+    <t>Diseñar el caso de estudio</t>
+  </si>
+  <si>
+    <t>Llevar a cabo el caso de estudio</t>
+  </si>
+  <si>
+    <t>Analizar caso de estudio y sacar conclusiones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +267,19 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -602,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -681,12 +730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -720,6 +763,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,10 +1059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893B0263-59F4-40E5-9460-E43E9955B4EB}">
-  <dimension ref="A1:BC105"/>
+  <dimension ref="A1:BG129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW114" sqref="AW114:AZ114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,89 +1071,98 @@
     <col min="1" max="1" width="19.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="55" width="4.5703125" customWidth="1"/>
+    <col min="4" max="54" width="4.5703125" customWidth="1"/>
+    <col min="55" max="55" width="6" customWidth="1"/>
+    <col min="56" max="58" width="4.5703125" customWidth="1"/>
+    <col min="59" max="59" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="54" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="55" t="s">
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="54" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="59" t="s">
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="61"/>
-      <c r="Z1" s="62" t="s">
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="62"/>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63" t="s">
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="62"/>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="54" t="s">
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="55"/>
-      <c r="AK1" s="55"/>
-      <c r="AL1" s="56"/>
-      <c r="AM1" s="54" t="s">
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="50"/>
+      <c r="AM1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="55"/>
-      <c r="AP1" s="56"/>
-      <c r="AQ1" s="54" t="s">
+      <c r="AN1" s="49"/>
+      <c r="AO1" s="49"/>
+      <c r="AP1" s="50"/>
+      <c r="AQ1" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="55"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="54" t="s">
+      <c r="AR1" s="49"/>
+      <c r="AS1" s="49"/>
+      <c r="AT1" s="50"/>
+      <c r="AU1" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="55"/>
-      <c r="AW1" s="55"/>
-      <c r="AX1" s="55"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="54" t="s">
+      <c r="AV1" s="49"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="49"/>
+      <c r="AY1" s="50"/>
+      <c r="AZ1" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" s="55"/>
-      <c r="BB1" s="55"/>
-      <c r="BC1" s="56"/>
-    </row>
-    <row r="2" spans="1:55" ht="54.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="BA1" s="49"/>
+      <c r="BB1" s="49"/>
+      <c r="BC1" s="50"/>
+      <c r="BD1" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE1" s="49"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="50"/>
+    </row>
+    <row r="2" spans="1:59" ht="69.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1264,8 +1328,20 @@
       <c r="BC2" s="15">
         <v>44039</v>
       </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD2" s="15">
+        <v>44046</v>
+      </c>
+      <c r="BE2" s="15">
+        <v>44053</v>
+      </c>
+      <c r="BF2" s="15">
+        <v>44060</v>
+      </c>
+      <c r="BG2" s="15">
+        <v>44067</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="11" t="s">
         <v>33</v>
@@ -1323,8 +1399,12 @@
       <c r="BA3" s="15"/>
       <c r="BB3" s="15"/>
       <c r="BC3" s="15"/>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="15"/>
+      <c r="BG3" s="15"/>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>34</v>
@@ -1382,8 +1462,12 @@
       <c r="BA4" s="15"/>
       <c r="BB4" s="15"/>
       <c r="BC4" s="15"/>
-    </row>
-    <row r="5" spans="1:55" hidden="1" x14ac:dyDescent="0.25">
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+    </row>
+    <row r="5" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
         <v>35</v>
@@ -1441,8 +1525,12 @@
       <c r="BA5" s="15"/>
       <c r="BB5" s="15"/>
       <c r="BC5" s="15"/>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD5" s="15"/>
+      <c r="BE5" s="15"/>
+      <c r="BF5" s="15"/>
+      <c r="BG5" s="15"/>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="11" t="s">
         <v>37</v>
@@ -1500,8 +1588,12 @@
       <c r="BA6" s="15"/>
       <c r="BB6" s="15"/>
       <c r="BC6" s="15"/>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="11" t="s">
         <v>36</v>
@@ -1559,8 +1651,12 @@
       <c r="BA7" s="15"/>
       <c r="BB7" s="15"/>
       <c r="BC7" s="15"/>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD7" s="15"/>
+      <c r="BE7" s="15"/>
+      <c r="BF7" s="15"/>
+      <c r="BG7" s="15"/>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>38</v>
@@ -1618,11 +1714,15 @@
       <c r="BA8" s="15"/>
       <c r="BB8" s="15"/>
       <c r="BC8" s="15"/>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD8" s="15"/>
+      <c r="BE8" s="15"/>
+      <c r="BF8" s="15"/>
+      <c r="BG8" s="15"/>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
@@ -1676,8 +1776,12 @@
       <c r="BA9" s="15"/>
       <c r="BB9" s="15"/>
       <c r="BC9" s="15"/>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD9" s="15"/>
+      <c r="BE9" s="15"/>
+      <c r="BF9" s="15"/>
+      <c r="BG9" s="15"/>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="19" t="s">
         <v>39</v>
@@ -1735,12 +1839,18 @@
       <c r="BA10" s="15"/>
       <c r="BB10" s="15"/>
       <c r="BC10" s="15"/>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1794,8 +1904,12 @@
       <c r="BA11" s="5"/>
       <c r="BB11" s="5"/>
       <c r="BC11" s="5"/>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1855,8 +1969,12 @@
       <c r="BA12" s="1"/>
       <c r="BB12" s="1"/>
       <c r="BC12" s="1"/>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD12" s="1"/>
+      <c r="BE12" s="1"/>
+      <c r="BF12" s="1"/>
+      <c r="BG12" s="1"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
         <v>40</v>
@@ -1914,8 +2032,12 @@
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
       <c r="BC13" s="1"/>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD13" s="1"/>
+      <c r="BE13" s="1"/>
+      <c r="BF13" s="1"/>
+      <c r="BG13" s="1"/>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
         <v>31</v>
@@ -1973,8 +2095,12 @@
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
       <c r="BC14" s="1"/>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD14" s="1"/>
+      <c r="BE14" s="1"/>
+      <c r="BF14" s="1"/>
+      <c r="BG14" s="1"/>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="1"/>
@@ -2030,8 +2156,12 @@
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
       <c r="BC15" s="1"/>
-    </row>
-    <row r="16" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD15" s="1"/>
+      <c r="BE15" s="1"/>
+      <c r="BF15" s="1"/>
+      <c r="BG15" s="1"/>
+    </row>
+    <row r="16" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -2091,8 +2221,12 @@
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
       <c r="BC16" s="1"/>
-    </row>
-    <row r="17" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD16" s="1"/>
+      <c r="BE16" s="1"/>
+      <c r="BF16" s="1"/>
+      <c r="BG16" s="1"/>
+    </row>
+    <row r="17" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>6</v>
@@ -2150,8 +2284,12 @@
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
       <c r="BC17" s="1"/>
-    </row>
-    <row r="18" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD17" s="1"/>
+      <c r="BE17" s="1"/>
+      <c r="BF17" s="1"/>
+      <c r="BG17" s="1"/>
+    </row>
+    <row r="18" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
         <v>32</v>
@@ -2209,8 +2347,12 @@
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
       <c r="BC18" s="1"/>
-    </row>
-    <row r="19" spans="1:55" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BD18" s="1"/>
+      <c r="BE18" s="1"/>
+      <c r="BF18" s="1"/>
+      <c r="BG18" s="1"/>
+    </row>
+    <row r="19" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
@@ -2266,8 +2408,12 @@
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
       <c r="BC19" s="1"/>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD19" s="1"/>
+      <c r="BE19" s="1"/>
+      <c r="BF19" s="1"/>
+      <c r="BG19" s="1"/>
+    </row>
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -2327,11 +2473,15 @@
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
       <c r="BC20" s="1"/>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD20" s="1"/>
+      <c r="BE20" s="1"/>
+      <c r="BF20" s="1"/>
+      <c r="BG20" s="1"/>
+    </row>
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2386,8 +2536,12 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
       <c r="BC21" s="1"/>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD21" s="1"/>
+      <c r="BE21" s="1"/>
+      <c r="BF21" s="1"/>
+      <c r="BG21" s="1"/>
+    </row>
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2442,8 +2596,12 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
       <c r="BC22" s="1"/>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD22" s="1"/>
+      <c r="BE22" s="1"/>
+      <c r="BF22" s="1"/>
+      <c r="BG22" s="1"/>
+    </row>
+    <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2499,13 +2657,17 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
       <c r="BC23" s="1"/>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD23" s="1"/>
+      <c r="BE23" s="1"/>
+      <c r="BF23" s="1"/>
+      <c r="BG23" s="1"/>
+    </row>
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2560,11 +2722,15 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
       <c r="BC24" s="1"/>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD24" s="1"/>
+      <c r="BE24" s="1"/>
+      <c r="BF24" s="1"/>
+      <c r="BG24" s="1"/>
+    </row>
+    <row r="25" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2619,8 +2785,12 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
       <c r="BC25" s="1"/>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD25" s="1"/>
+      <c r="BE25" s="1"/>
+      <c r="BF25" s="1"/>
+      <c r="BG25" s="1"/>
+    </row>
+    <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2676,8 +2846,12 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
       <c r="BC26" s="1"/>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD26" s="1"/>
+      <c r="BE26" s="1"/>
+      <c r="BF26" s="1"/>
+      <c r="BG26" s="1"/>
+    </row>
+    <row r="27" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2733,8 +2907,12 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
       <c r="BC27" s="1"/>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD27" s="1"/>
+      <c r="BE27" s="1"/>
+      <c r="BF27" s="1"/>
+      <c r="BG27" s="1"/>
+    </row>
+    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -2792,8 +2970,12 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
       <c r="BC28" s="1"/>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD28" s="1"/>
+      <c r="BE28" s="1"/>
+      <c r="BF28" s="1"/>
+      <c r="BG28" s="1"/>
+    </row>
+    <row r="29" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2849,8 +3031,12 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
       <c r="BC29" s="1"/>
-    </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD29" s="1"/>
+      <c r="BE29" s="1"/>
+      <c r="BF29" s="1"/>
+      <c r="BG29" s="1"/>
+    </row>
+    <row r="30" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2906,12 +3092,18 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
       <c r="BC30" s="1"/>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD30" s="1"/>
+      <c r="BE30" s="1"/>
+      <c r="BF30" s="1"/>
+      <c r="BG30" s="1"/>
+    </row>
+    <row r="31" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -2965,8 +3157,12 @@
       <c r="BA31" s="5"/>
       <c r="BB31" s="5"/>
       <c r="BC31" s="5"/>
-    </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="5"/>
+      <c r="BG31" s="5"/>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>26</v>
       </c>
@@ -2984,13 +3180,12 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="9"/>
@@ -3025,11 +3220,15 @@
       <c r="BA32" s="1"/>
       <c r="BB32" s="1"/>
       <c r="BC32" s="1"/>
-    </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD32" s="1"/>
+      <c r="BE32" s="1"/>
+      <c r="BF32" s="1"/>
+      <c r="BG32" s="1"/>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3042,13 +3241,12 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="9"/>
@@ -3083,8 +3281,12 @@
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
       <c r="BC33" s="1"/>
-    </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD33" s="1"/>
+      <c r="BE33" s="1"/>
+      <c r="BF33" s="1"/>
+      <c r="BG33" s="1"/>
+    </row>
+    <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>40</v>
@@ -3100,13 +3302,12 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
       <c r="W34" s="4"/>
@@ -3142,8 +3343,12 @@
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
       <c r="BC34" s="1"/>
-    </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD34" s="1"/>
+      <c r="BE34" s="1"/>
+      <c r="BF34" s="1"/>
+      <c r="BG34" s="1"/>
+    </row>
+    <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3163,7 +3368,6 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="4"/>
@@ -3199,8 +3403,12 @@
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
       <c r="BC35" s="1"/>
-    </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD35" s="1"/>
+      <c r="BE35" s="1"/>
+      <c r="BF35" s="1"/>
+      <c r="BG35" s="1"/>
+    </row>
+    <row r="36" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -3220,7 +3428,6 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="4"/>
@@ -3256,8 +3463,12 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
       <c r="BC36" s="1"/>
-    </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+    </row>
+    <row r="37" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
@@ -3275,13 +3486,12 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="4"/>
@@ -3316,8 +3526,12 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
       <c r="BC37" s="1"/>
-    </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD37" s="1"/>
+      <c r="BE37" s="1"/>
+      <c r="BF37" s="1"/>
+      <c r="BG37" s="1"/>
+    </row>
+    <row r="38" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1" t="s">
         <v>6</v>
@@ -3333,13 +3547,12 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
       <c r="W38" s="4"/>
@@ -3374,11 +3587,15 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
       <c r="BC38" s="1"/>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD38" s="1"/>
+      <c r="BE38" s="1"/>
+      <c r="BF38" s="1"/>
+      <c r="BG38" s="1"/>
+    </row>
+    <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3391,13 +3608,12 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
       <c r="W39" s="4"/>
@@ -3432,8 +3648,12 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
       <c r="BC39" s="1"/>
-    </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+    </row>
+    <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3453,7 +3673,6 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
@@ -3489,8 +3708,12 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
       <c r="BC40" s="1"/>
-    </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+    </row>
+    <row r="41" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3510,7 +3733,6 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
@@ -3546,8 +3768,12 @@
       <c r="BA41" s="4"/>
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
-    </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD41" s="4"/>
+      <c r="BE41" s="4"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+    </row>
+    <row r="42" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>27</v>
       </c>
@@ -3565,13 +3791,12 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+      <c r="N42" s="18"/>
       <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="59"/>
+      <c r="R42" s="59"/>
+      <c r="S42" s="59"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -3607,8 +3832,12 @@
       <c r="BA42" s="4"/>
       <c r="BB42" s="1"/>
       <c r="BC42" s="1"/>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD42" s="4"/>
+      <c r="BE42" s="4"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+    </row>
+    <row r="43" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="1" t="s">
         <v>9</v>
@@ -3624,13 +3853,12 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="18"/>
       <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="59"/>
+      <c r="R43" s="59"/>
+      <c r="S43" s="59"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -3666,10 +3894,16 @@
       <c r="BA43" s="4"/>
       <c r="BB43" s="1"/>
       <c r="BC43" s="1"/>
-    </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD43" s="4"/>
+      <c r="BE43" s="4"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+    </row>
+    <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -3682,12 +3916,11 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
+      <c r="O44" s="18"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
@@ -3723,8 +3956,12 @@
       <c r="BA44" s="4"/>
       <c r="BB44" s="1"/>
       <c r="BC44" s="1"/>
-    </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD44" s="4"/>
+      <c r="BE44" s="4"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+    </row>
+    <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3744,7 +3981,6 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
@@ -3780,8 +4016,12 @@
       <c r="BA45" s="4"/>
       <c r="BB45" s="1"/>
       <c r="BC45" s="1"/>
-    </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD45" s="4"/>
+      <c r="BE45" s="4"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+    </row>
+    <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3800,9 +4040,8 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
+      <c r="S46" s="59"/>
+      <c r="U46" s="59"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="34"/>
@@ -3837,13 +4076,17 @@
       <c r="BA46" s="4"/>
       <c r="BB46" s="1"/>
       <c r="BC46" s="1"/>
-    </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD46" s="4"/>
+      <c r="BE46" s="4"/>
+      <c r="BF46" s="1"/>
+      <c r="BG46" s="1"/>
+    </row>
+    <row r="47" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -3858,12 +4101,10 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
+      <c r="P47" s="18"/>
+      <c r="Q47" s="18"/>
+      <c r="R47" s="59"/>
+      <c r="U47" s="59"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="34"/>
@@ -3898,11 +4139,15 @@
       <c r="BA47" s="4"/>
       <c r="BB47" s="1"/>
       <c r="BC47" s="1"/>
-    </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD47" s="4"/>
+      <c r="BE47" s="4"/>
+      <c r="BF47" s="1"/>
+      <c r="BG47" s="1"/>
+    </row>
+    <row r="48" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -3917,12 +4162,10 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
+      <c r="P48" s="18"/>
+      <c r="Q48" s="18"/>
+      <c r="R48" s="59"/>
+      <c r="U48" s="59"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="34"/>
@@ -3957,8 +4200,12 @@
       <c r="BA48" s="4"/>
       <c r="BB48" s="1"/>
       <c r="BC48" s="1"/>
-    </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD48" s="4"/>
+      <c r="BE48" s="4"/>
+      <c r="BF48" s="1"/>
+      <c r="BG48" s="1"/>
+    </row>
+    <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3976,10 +4223,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
+      <c r="R49" s="59"/>
+      <c r="U49" s="59"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="34"/>
@@ -4014,8 +4259,12 @@
       <c r="BA49" s="4"/>
       <c r="BB49" s="1"/>
       <c r="BC49" s="1"/>
-    </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD49" s="4"/>
+      <c r="BE49" s="4"/>
+      <c r="BF49" s="1"/>
+      <c r="BG49" s="1"/>
+    </row>
+    <row r="50" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -4035,7 +4284,6 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
@@ -4071,8 +4319,12 @@
       <c r="BA50" s="4"/>
       <c r="BB50" s="1"/>
       <c r="BC50" s="1"/>
-    </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD50" s="4"/>
+      <c r="BE50" s="4"/>
+      <c r="BF50" s="1"/>
+      <c r="BG50" s="1"/>
+    </row>
+    <row r="51" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>29</v>
       </c>
@@ -4092,11 +4344,9 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
+      <c r="R51" s="18"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
       <c r="U51" s="1"/>
-      <c r="V51" s="18"/>
       <c r="W51" s="1"/>
       <c r="X51" s="34"/>
       <c r="Y51" s="4"/>
@@ -4130,8 +4380,12 @@
       <c r="BA51" s="4"/>
       <c r="BB51" s="1"/>
       <c r="BC51" s="1"/>
-    </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD51" s="4"/>
+      <c r="BE51" s="4"/>
+      <c r="BF51" s="1"/>
+      <c r="BG51" s="1"/>
+    </row>
+    <row r="52" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B52" s="38"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -4186,12 +4440,18 @@
       <c r="BA52" s="4"/>
       <c r="BB52" s="1"/>
       <c r="BC52" s="1"/>
-    </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD52" s="4"/>
+      <c r="BE52" s="4"/>
+      <c r="BF52" s="1"/>
+      <c r="BG52" s="1"/>
+    </row>
+    <row r="53" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>61</v>
+      </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -4245,8 +4505,12 @@
       <c r="BA53" s="5"/>
       <c r="BB53" s="5"/>
       <c r="BC53" s="5"/>
-    </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>26</v>
       </c>
@@ -4268,12 +4532,12 @@
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="R54" s="18"/>
       <c r="S54" s="4"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="53"/>
+      <c r="W54" s="60"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="4"/>
@@ -4306,11 +4570,15 @@
       <c r="BA54" s="4"/>
       <c r="BB54" s="4"/>
       <c r="BC54" s="4"/>
-    </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD54" s="4"/>
+      <c r="BE54" s="4"/>
+      <c r="BF54" s="4"/>
+      <c r="BG54" s="4"/>
+    </row>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4327,12 +4595,12 @@
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
+      <c r="R55" s="18"/>
       <c r="S55" s="4"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="53"/>
+      <c r="W55" s="60"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="4"/>
@@ -4365,8 +4633,12 @@
       <c r="BA55" s="4"/>
       <c r="BB55" s="4"/>
       <c r="BC55" s="4"/>
-    </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD55" s="4"/>
+      <c r="BE55" s="4"/>
+      <c r="BF55" s="4"/>
+      <c r="BG55" s="4"/>
+    </row>
+    <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>40</v>
@@ -4386,12 +4658,12 @@
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
+      <c r="R56" s="18"/>
       <c r="S56" s="4"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="4"/>
-      <c r="W56" s="53"/>
+      <c r="W56" s="60"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="4"/>
@@ -4424,8 +4696,12 @@
       <c r="BA56" s="4"/>
       <c r="BB56" s="4"/>
       <c r="BC56" s="4"/>
-    </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD56" s="4"/>
+      <c r="BE56" s="4"/>
+      <c r="BF56" s="4"/>
+      <c r="BG56" s="4"/>
+    </row>
+    <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="4"/>
@@ -4448,7 +4724,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="35"/>
+      <c r="W57" s="60"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="4"/>
@@ -4481,8 +4757,12 @@
       <c r="BA57" s="4"/>
       <c r="BB57" s="4"/>
       <c r="BC57" s="4"/>
-    </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD57" s="4"/>
+      <c r="BE57" s="4"/>
+      <c r="BF57" s="4"/>
+      <c r="BG57" s="4"/>
+    </row>
+    <row r="58" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="4"/>
@@ -4505,7 +4785,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="35"/>
+      <c r="W58" s="60"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="4"/>
@@ -4538,8 +4818,12 @@
       <c r="BA58" s="4"/>
       <c r="BB58" s="4"/>
       <c r="BC58" s="4"/>
-    </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD58" s="4"/>
+      <c r="BE58" s="4"/>
+      <c r="BF58" s="4"/>
+      <c r="BG58" s="4"/>
+    </row>
+    <row r="59" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>4</v>
       </c>
@@ -4561,12 +4845,12 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="R59" s="18"/>
       <c r="S59" s="4"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="53"/>
+      <c r="W59" s="60"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="6"/>
       <c r="Z59" s="4"/>
@@ -4599,11 +4883,15 @@
       <c r="BA59" s="4"/>
       <c r="BB59" s="4"/>
       <c r="BC59" s="4"/>
-    </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD59" s="4"/>
+      <c r="BE59" s="4"/>
+      <c r="BF59" s="4"/>
+      <c r="BG59" s="4"/>
+    </row>
+    <row r="60" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>6</v>
+      <c r="B60" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -4620,12 +4908,12 @@
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
+      <c r="R60" s="18"/>
       <c r="S60" s="4"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="53"/>
+      <c r="W60" s="60"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="4"/>
@@ -4658,12 +4946,14 @@
       <c r="BA60" s="4"/>
       <c r="BB60" s="4"/>
       <c r="BC60" s="4"/>
-    </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD60" s="4"/>
+      <c r="BE60" s="4"/>
+      <c r="BF60" s="4"/>
+      <c r="BG60" s="4"/>
+    </row>
+    <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="4" t="s">
-        <v>56</v>
-      </c>
+      <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -4684,29 +4974,29 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="9"/>
-      <c r="Y61" s="6"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="61"/>
+      <c r="Y61" s="62"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-      <c r="AG61" s="44"/>
-      <c r="AH61" s="9"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="4"/>
-      <c r="AK61" s="4"/>
-      <c r="AL61" s="4"/>
-      <c r="AM61" s="4"/>
-      <c r="AN61" s="4"/>
-      <c r="AO61" s="4"/>
-      <c r="AP61" s="4"/>
-      <c r="AQ61" s="4"/>
-      <c r="AR61" s="4"/>
-      <c r="AS61" s="4"/>
+      <c r="AF61" s="59"/>
+      <c r="AG61" s="66"/>
+      <c r="AH61" s="68"/>
+      <c r="AI61" s="59"/>
+      <c r="AJ61" s="59"/>
+      <c r="AK61" s="59"/>
+      <c r="AL61" s="59"/>
+      <c r="AM61" s="59"/>
+      <c r="AN61" s="59"/>
+      <c r="AO61" s="59"/>
+      <c r="AP61" s="59"/>
+      <c r="AQ61" s="59"/>
+      <c r="AR61" s="59"/>
+      <c r="AS61" s="59"/>
       <c r="AT61" s="4"/>
       <c r="AU61" s="4"/>
       <c r="AV61" s="4"/>
@@ -4717,8 +5007,12 @@
       <c r="BA61" s="4"/>
       <c r="BB61" s="4"/>
       <c r="BC61" s="4"/>
-    </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD61" s="4"/>
+      <c r="BE61" s="4"/>
+      <c r="BF61" s="4"/>
+      <c r="BG61" s="4"/>
+    </row>
+    <row r="62" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -4742,28 +5036,28 @@
       <c r="U62" s="1"/>
       <c r="V62" s="4"/>
       <c r="W62" s="35"/>
-      <c r="X62" s="9"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="4"/>
+      <c r="X62" s="63"/>
+      <c r="Y62" s="64"/>
+      <c r="Z62" s="65"/>
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-      <c r="AG62" s="44"/>
-      <c r="AH62" s="48"/>
-      <c r="AI62" s="4"/>
-      <c r="AJ62" s="4"/>
-      <c r="AK62" s="4"/>
-      <c r="AL62" s="4"/>
-      <c r="AM62" s="4"/>
-      <c r="AN62" s="4"/>
-      <c r="AO62" s="4"/>
-      <c r="AP62" s="4"/>
-      <c r="AQ62" s="4"/>
-      <c r="AR62" s="4"/>
-      <c r="AS62" s="4"/>
+      <c r="AF62" s="59"/>
+      <c r="AG62" s="66"/>
+      <c r="AH62" s="68"/>
+      <c r="AI62" s="59"/>
+      <c r="AJ62" s="59"/>
+      <c r="AK62" s="59"/>
+      <c r="AL62" s="59"/>
+      <c r="AM62" s="59"/>
+      <c r="AN62" s="59"/>
+      <c r="AO62" s="59"/>
+      <c r="AP62" s="59"/>
+      <c r="AQ62" s="59"/>
+      <c r="AR62" s="59"/>
+      <c r="AS62" s="59"/>
       <c r="AT62" s="4"/>
       <c r="AU62" s="4"/>
       <c r="AV62" s="4"/>
@@ -4774,10 +5068,18 @@
       <c r="BA62" s="4"/>
       <c r="BB62" s="4"/>
       <c r="BC62" s="4"/>
-    </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="4"/>
+      <c r="BD62" s="4"/>
+      <c r="BE62" s="4"/>
+      <c r="BF62" s="4"/>
+      <c r="BG62" s="4"/>
+    </row>
+    <row r="63" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -4793,34 +5095,34 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
+      <c r="R63" s="18"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="4"/>
       <c r="W63" s="35"/>
-      <c r="X63" s="9"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="4"/>
+      <c r="X63" s="63"/>
+      <c r="Y63" s="64"/>
+      <c r="Z63" s="65"/>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
-      <c r="AF63" s="4"/>
-      <c r="AG63" s="44"/>
-      <c r="AH63" s="48"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="4"/>
-      <c r="AO63" s="4"/>
-      <c r="AP63" s="4"/>
-      <c r="AQ63" s="4"/>
-      <c r="AR63" s="4"/>
-      <c r="AS63" s="4"/>
+      <c r="AF63" s="59"/>
+      <c r="AG63" s="66"/>
+      <c r="AH63" s="69"/>
+      <c r="AI63" s="59"/>
+      <c r="AJ63" s="59"/>
+      <c r="AK63" s="59"/>
+      <c r="AL63" s="59"/>
+      <c r="AM63" s="59"/>
+      <c r="AN63" s="59"/>
+      <c r="AO63" s="59"/>
+      <c r="AP63" s="59"/>
+      <c r="AQ63" s="59"/>
+      <c r="AR63" s="59"/>
+      <c r="AS63" s="59"/>
       <c r="AT63" s="4"/>
       <c r="AU63" s="4"/>
       <c r="AV63" s="4"/>
@@ -4831,13 +5133,15 @@
       <c r="BA63" s="4"/>
       <c r="BB63" s="4"/>
       <c r="BC63" s="4"/>
-    </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="BD63" s="4"/>
+      <c r="BE63" s="4"/>
+      <c r="BF63" s="4"/>
+      <c r="BG63" s="4"/>
+    </row>
+    <row r="64" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -4854,34 +5158,34 @@
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
+      <c r="R64" s="18"/>
+      <c r="S64" s="18"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="35"/>
-      <c r="X64" s="52"/>
-      <c r="Y64" s="51"/>
-      <c r="Z64" s="4"/>
+      <c r="X64" s="63"/>
+      <c r="Y64" s="65"/>
+      <c r="Z64" s="65"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
-      <c r="AF64" s="4"/>
-      <c r="AG64" s="44"/>
-      <c r="AH64" s="50"/>
-      <c r="AI64" s="18"/>
-      <c r="AJ64" s="18"/>
-      <c r="AK64" s="1"/>
-      <c r="AL64" s="1"/>
-      <c r="AM64" s="1"/>
-      <c r="AN64" s="1"/>
-      <c r="AO64" s="1"/>
-      <c r="AP64" s="4"/>
-      <c r="AQ64" s="4"/>
-      <c r="AR64" s="4"/>
-      <c r="AS64" s="4"/>
+      <c r="AF64" s="59"/>
+      <c r="AG64" s="66"/>
+      <c r="AH64" s="68"/>
+      <c r="AI64" s="59"/>
+      <c r="AJ64" s="59"/>
+      <c r="AK64" s="59"/>
+      <c r="AL64" s="59"/>
+      <c r="AM64" s="59"/>
+      <c r="AN64" s="59"/>
+      <c r="AO64" s="59"/>
+      <c r="AP64" s="59"/>
+      <c r="AQ64" s="59"/>
+      <c r="AR64" s="59"/>
+      <c r="AS64" s="59"/>
       <c r="AT64" s="4"/>
       <c r="AU64" s="4"/>
       <c r="AV64" s="4"/>
@@ -4892,12 +5196,14 @@
       <c r="BA64" s="4"/>
       <c r="BB64" s="4"/>
       <c r="BC64" s="4"/>
-    </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD64" s="4"/>
+      <c r="BE64" s="4"/>
+      <c r="BF64" s="4"/>
+      <c r="BG64" s="4"/>
+    </row>
+    <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -4927,20 +5233,20 @@
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
-      <c r="AF65" s="4"/>
-      <c r="AG65" s="44"/>
-      <c r="AH65" s="49"/>
-      <c r="AI65" s="18"/>
-      <c r="AJ65" s="18"/>
-      <c r="AK65" s="18"/>
-      <c r="AL65" s="18"/>
-      <c r="AM65" s="18"/>
-      <c r="AN65" s="18"/>
-      <c r="AO65" s="18"/>
-      <c r="AP65" s="4"/>
-      <c r="AQ65" s="4"/>
-      <c r="AR65" s="4"/>
-      <c r="AS65" s="4"/>
+      <c r="AF65" s="59"/>
+      <c r="AG65" s="66"/>
+      <c r="AH65" s="67"/>
+      <c r="AI65" s="59"/>
+      <c r="AJ65" s="59"/>
+      <c r="AK65" s="59"/>
+      <c r="AL65" s="59"/>
+      <c r="AM65" s="59"/>
+      <c r="AN65" s="59"/>
+      <c r="AO65" s="59"/>
+      <c r="AP65" s="59"/>
+      <c r="AQ65" s="59"/>
+      <c r="AR65" s="59"/>
+      <c r="AS65" s="59"/>
       <c r="AT65" s="4"/>
       <c r="AU65" s="4"/>
       <c r="AV65" s="4"/>
@@ -4951,10 +5257,18 @@
       <c r="BA65" s="4"/>
       <c r="BB65" s="4"/>
       <c r="BC65" s="4"/>
-    </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="4"/>
+      <c r="BD65" s="4"/>
+      <c r="BE65" s="4"/>
+      <c r="BF65" s="4"/>
+      <c r="BG65" s="4"/>
+    </row>
+    <row r="66" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -4971,12 +5285,12 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="35"/>
-      <c r="X66" s="9"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="43"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -4984,20 +5298,20 @@
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
-      <c r="AF66" s="4"/>
-      <c r="AG66" s="44"/>
-      <c r="AH66" s="9"/>
-      <c r="AI66" s="4"/>
-      <c r="AJ66" s="4"/>
-      <c r="AK66" s="4"/>
-      <c r="AL66" s="4"/>
-      <c r="AM66" s="4"/>
-      <c r="AN66" s="4"/>
-      <c r="AO66" s="4"/>
-      <c r="AP66" s="4"/>
-      <c r="AQ66" s="4"/>
-      <c r="AR66" s="4"/>
-      <c r="AS66" s="4"/>
+      <c r="AF66" s="59"/>
+      <c r="AG66" s="66"/>
+      <c r="AH66" s="67"/>
+      <c r="AI66" s="59"/>
+      <c r="AJ66" s="59"/>
+      <c r="AK66" s="59"/>
+      <c r="AL66" s="59"/>
+      <c r="AM66" s="59"/>
+      <c r="AN66" s="59"/>
+      <c r="AO66" s="59"/>
+      <c r="AP66" s="59"/>
+      <c r="AQ66" s="59"/>
+      <c r="AR66" s="59"/>
+      <c r="AS66" s="59"/>
       <c r="AT66" s="4"/>
       <c r="AU66" s="4"/>
       <c r="AV66" s="4"/>
@@ -5008,13 +5322,15 @@
       <c r="BA66" s="4"/>
       <c r="BB66" s="4"/>
       <c r="BC66" s="4"/>
-    </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>45</v>
+      <c r="BD66" s="4"/>
+      <c r="BE66" s="4"/>
+      <c r="BF66" s="4"/>
+      <c r="BG66" s="4"/>
+    </row>
+    <row r="67" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -5032,8 +5348,8 @@
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
+      <c r="S67" s="18"/>
+      <c r="T67" s="18"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="6"/>
@@ -5045,20 +5361,20 @@
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
-      <c r="AF67" s="4"/>
-      <c r="AG67" s="44"/>
-      <c r="AH67" s="9"/>
-      <c r="AI67" s="4"/>
-      <c r="AJ67" s="4"/>
-      <c r="AK67" s="4"/>
-      <c r="AL67" s="4"/>
-      <c r="AM67" s="18"/>
-      <c r="AN67" s="18"/>
-      <c r="AO67" s="18"/>
-      <c r="AP67" s="4"/>
-      <c r="AQ67" s="4"/>
-      <c r="AR67" s="4"/>
-      <c r="AS67" s="4"/>
+      <c r="AF67" s="59"/>
+      <c r="AG67" s="66"/>
+      <c r="AH67" s="67"/>
+      <c r="AI67" s="59"/>
+      <c r="AJ67" s="59"/>
+      <c r="AK67" s="59"/>
+      <c r="AL67" s="59"/>
+      <c r="AM67" s="59"/>
+      <c r="AN67" s="59"/>
+      <c r="AO67" s="59"/>
+      <c r="AP67" s="59"/>
+      <c r="AQ67" s="59"/>
+      <c r="AR67" s="59"/>
+      <c r="AS67" s="59"/>
       <c r="AT67" s="4"/>
       <c r="AU67" s="4"/>
       <c r="AV67" s="4"/>
@@ -5069,12 +5385,13 @@
       <c r="BA67" s="4"/>
       <c r="BB67" s="4"/>
       <c r="BC67" s="4"/>
-    </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="BD67" s="4"/>
+      <c r="BE67" s="4"/>
+      <c r="BF67" s="4"/>
+      <c r="BG67" s="4"/>
+    </row>
+    <row r="68" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5104,20 +5421,20 @@
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
-      <c r="AF68" s="4"/>
-      <c r="AG68" s="44"/>
-      <c r="AH68" s="9"/>
-      <c r="AI68" s="4"/>
-      <c r="AJ68" s="4"/>
-      <c r="AK68" s="4"/>
-      <c r="AL68" s="4"/>
-      <c r="AM68" s="18"/>
-      <c r="AN68" s="18"/>
-      <c r="AO68" s="18"/>
-      <c r="AP68" s="4"/>
-      <c r="AQ68" s="4"/>
-      <c r="AR68" s="4"/>
-      <c r="AS68" s="4"/>
+      <c r="AF68" s="59"/>
+      <c r="AG68" s="66"/>
+      <c r="AH68" s="67"/>
+      <c r="AI68" s="59"/>
+      <c r="AJ68" s="59"/>
+      <c r="AK68" s="59"/>
+      <c r="AL68" s="59"/>
+      <c r="AM68" s="59"/>
+      <c r="AN68" s="59"/>
+      <c r="AO68" s="59"/>
+      <c r="AP68" s="59"/>
+      <c r="AQ68" s="59"/>
+      <c r="AR68" s="59"/>
+      <c r="AS68" s="59"/>
       <c r="AT68" s="4"/>
       <c r="AU68" s="4"/>
       <c r="AV68" s="4"/>
@@ -5128,8 +5445,15 @@
       <c r="BA68" s="4"/>
       <c r="BB68" s="4"/>
       <c r="BC68" s="4"/>
-    </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD68" s="4"/>
+      <c r="BE68" s="4"/>
+      <c r="BF68" s="4"/>
+      <c r="BG68" s="4"/>
+    </row>
+    <row r="69" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -5160,20 +5484,20 @@
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
-      <c r="AF69" s="4"/>
-      <c r="AG69" s="44"/>
-      <c r="AH69" s="9"/>
-      <c r="AI69" s="4"/>
-      <c r="AJ69" s="4"/>
-      <c r="AK69" s="4"/>
-      <c r="AL69" s="4"/>
-      <c r="AM69" s="4"/>
-      <c r="AN69" s="4"/>
-      <c r="AO69" s="4"/>
-      <c r="AP69" s="4"/>
-      <c r="AQ69" s="4"/>
-      <c r="AR69" s="4"/>
-      <c r="AS69" s="4"/>
+      <c r="AF69" s="59"/>
+      <c r="AG69" s="66"/>
+      <c r="AH69" s="67"/>
+      <c r="AI69" s="59"/>
+      <c r="AJ69" s="59"/>
+      <c r="AK69" s="59"/>
+      <c r="AL69" s="59"/>
+      <c r="AM69" s="59"/>
+      <c r="AN69" s="59"/>
+      <c r="AO69" s="59"/>
+      <c r="AP69" s="59"/>
+      <c r="AQ69" s="59"/>
+      <c r="AR69" s="59"/>
+      <c r="AS69" s="59"/>
       <c r="AT69" s="4"/>
       <c r="AU69" s="4"/>
       <c r="AV69" s="4"/>
@@ -5184,131 +5508,145 @@
       <c r="BA69" s="4"/>
       <c r="BB69" s="4"/>
       <c r="BC69" s="4"/>
-    </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
-      <c r="AB70" s="4"/>
-      <c r="AC70" s="4"/>
-      <c r="AD70" s="4"/>
-      <c r="AE70" s="4"/>
-      <c r="AF70" s="4"/>
-      <c r="AG70" s="44"/>
-      <c r="AH70" s="9"/>
-      <c r="AI70" s="4"/>
-      <c r="AJ70" s="4"/>
-      <c r="AK70" s="4"/>
-      <c r="AL70" s="4"/>
-      <c r="AM70" s="4"/>
-      <c r="AN70" s="4"/>
-      <c r="AO70" s="4"/>
-      <c r="AP70" s="18"/>
-      <c r="AQ70" s="4"/>
-      <c r="AR70" s="4"/>
-      <c r="AS70" s="4"/>
-      <c r="AT70" s="4"/>
-      <c r="AU70" s="4"/>
-      <c r="AV70" s="4"/>
-      <c r="AW70" s="4"/>
-      <c r="AX70" s="4"/>
-      <c r="AY70" s="4"/>
-      <c r="AZ70" s="4"/>
-      <c r="BA70" s="4"/>
-      <c r="BB70" s="4"/>
-      <c r="BC70" s="4"/>
-    </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5"/>
-      <c r="V71" s="5"/>
-      <c r="W71" s="7"/>
-      <c r="X71" s="41"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="5"/>
-      <c r="AA71" s="5"/>
-      <c r="AB71" s="5"/>
-      <c r="AC71" s="5"/>
-      <c r="AD71" s="5"/>
-      <c r="AE71" s="5"/>
-      <c r="AF71" s="5"/>
-      <c r="AG71" s="42"/>
-      <c r="AH71" s="21"/>
-      <c r="AI71" s="5"/>
-      <c r="AJ71" s="5"/>
-      <c r="AK71" s="5"/>
-      <c r="AL71" s="5"/>
-      <c r="AM71" s="5"/>
-      <c r="AN71" s="5"/>
-      <c r="AO71" s="5"/>
-      <c r="AP71" s="5"/>
-      <c r="AQ71" s="5"/>
-      <c r="AR71" s="5"/>
-      <c r="AS71" s="5"/>
-      <c r="AT71" s="5"/>
-      <c r="AU71" s="5"/>
-      <c r="AV71" s="5"/>
-      <c r="AW71" s="5"/>
-      <c r="AX71" s="5"/>
-      <c r="AY71" s="5"/>
-      <c r="AZ71" s="5"/>
-      <c r="BA71" s="5"/>
-      <c r="BB71" s="5"/>
-      <c r="BC71" s="5"/>
-    </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="BD69" s="4"/>
+      <c r="BE69" s="4"/>
+      <c r="BF69" s="4"/>
+      <c r="BG69" s="4"/>
+    </row>
+    <row r="70" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="5"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="5"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="5"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="5"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="5"/>
+      <c r="AG70" s="42"/>
+      <c r="AH70" s="21"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="5"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="5"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="5"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="5"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="5"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="5"/>
+      <c r="AU70" s="5"/>
+      <c r="AV70" s="5"/>
+      <c r="AW70" s="5"/>
+      <c r="AX70" s="5"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="5"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="5"/>
+      <c r="BC70" s="5"/>
+      <c r="BD70" s="5"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="5"/>
+      <c r="BG70" s="5"/>
+    </row>
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B71" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="43"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="44"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="4"/>
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+      <c r="AL71" s="4"/>
+      <c r="AM71" s="4"/>
+      <c r="AN71" s="59"/>
+      <c r="AO71" s="59"/>
+      <c r="AP71" s="59"/>
+      <c r="AQ71" s="59"/>
+      <c r="AR71" s="59"/>
+      <c r="AS71" s="59"/>
+      <c r="AT71" s="59"/>
+      <c r="AU71" s="59"/>
+      <c r="AV71" s="59"/>
+      <c r="AW71" s="59"/>
+      <c r="AX71" s="59"/>
+      <c r="AY71" s="59"/>
+      <c r="AZ71" s="59"/>
+      <c r="BA71" s="4"/>
+      <c r="BB71" s="4"/>
+      <c r="BC71" s="4"/>
+      <c r="BD71" s="59"/>
+      <c r="BE71" s="4"/>
+      <c r="BF71" s="4"/>
+      <c r="BG71" s="4"/>
+    </row>
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" t="s">
+        <v>54</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5327,7 +5665,7 @@
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
       <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
+      <c r="T72" s="18"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="6"/>
@@ -5347,27 +5685,31 @@
       <c r="AK72" s="4"/>
       <c r="AL72" s="4"/>
       <c r="AM72" s="4"/>
-      <c r="AN72" s="4"/>
-      <c r="AO72" s="4"/>
-      <c r="AP72" s="18"/>
-      <c r="AQ72" s="4"/>
-      <c r="AR72" s="4"/>
-      <c r="AS72" s="4"/>
-      <c r="AT72" s="4"/>
-      <c r="AU72" s="4"/>
-      <c r="AV72" s="4"/>
-      <c r="AW72" s="4"/>
-      <c r="AX72" s="4"/>
-      <c r="AY72" s="4"/>
-      <c r="AZ72" s="4"/>
+      <c r="AN72" s="59"/>
+      <c r="AO72" s="59"/>
+      <c r="AP72" s="59"/>
+      <c r="AQ72" s="59"/>
+      <c r="AR72" s="59"/>
+      <c r="AS72" s="59"/>
+      <c r="AT72" s="59"/>
+      <c r="AU72" s="59"/>
+      <c r="AV72" s="59"/>
+      <c r="AW72" s="59"/>
+      <c r="AX72" s="59"/>
+      <c r="AY72" s="59"/>
+      <c r="AZ72" s="59"/>
       <c r="BA72" s="4"/>
       <c r="BB72" s="4"/>
       <c r="BC72" s="4"/>
-    </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD72" s="59"/>
+      <c r="BE72" s="4"/>
+      <c r="BF72" s="4"/>
+      <c r="BG72" s="4"/>
+    </row>
+    <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" t="s">
-        <v>55</v>
+      <c r="B73" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5386,7 +5728,7 @@
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
       <c r="S73" s="4"/>
-      <c r="T73" s="4"/>
+      <c r="T73" s="18"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="6"/>
@@ -5406,28 +5748,30 @@
       <c r="AK73" s="4"/>
       <c r="AL73" s="4"/>
       <c r="AM73" s="4"/>
-      <c r="AN73" s="4"/>
-      <c r="AO73" s="4"/>
-      <c r="AP73" s="18"/>
-      <c r="AQ73" s="4"/>
-      <c r="AR73" s="4"/>
-      <c r="AS73" s="4"/>
-      <c r="AT73" s="4"/>
-      <c r="AU73" s="4"/>
-      <c r="AV73" s="4"/>
-      <c r="AW73" s="4"/>
-      <c r="AX73" s="4"/>
-      <c r="AY73" s="4"/>
-      <c r="AZ73" s="4"/>
+      <c r="AN73" s="59"/>
+      <c r="AO73" s="59"/>
+      <c r="AP73" s="59"/>
+      <c r="AQ73" s="59"/>
+      <c r="AR73" s="59"/>
+      <c r="AS73" s="59"/>
+      <c r="AT73" s="59"/>
+      <c r="AU73" s="59"/>
+      <c r="AV73" s="59"/>
+      <c r="AW73" s="59"/>
+      <c r="AX73" s="59"/>
+      <c r="AY73" s="59"/>
+      <c r="AZ73" s="59"/>
       <c r="BA73" s="4"/>
       <c r="BB73" s="4"/>
       <c r="BC73" s="4"/>
-    </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD73" s="59"/>
+      <c r="BE73" s="4"/>
+      <c r="BF73" s="4"/>
+      <c r="BG73" s="4"/>
+    </row>
+    <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -5445,7 +5789,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
+      <c r="T74" s="59"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="6"/>
@@ -5465,24 +5809,28 @@
       <c r="AK74" s="4"/>
       <c r="AL74" s="4"/>
       <c r="AM74" s="4"/>
-      <c r="AN74" s="4"/>
-      <c r="AO74" s="4"/>
-      <c r="AP74" s="18"/>
-      <c r="AQ74" s="4"/>
-      <c r="AR74" s="4"/>
-      <c r="AS74" s="4"/>
-      <c r="AT74" s="4"/>
-      <c r="AU74" s="4"/>
-      <c r="AV74" s="4"/>
-      <c r="AW74" s="4"/>
-      <c r="AX74" s="4"/>
-      <c r="AY74" s="4"/>
-      <c r="AZ74" s="4"/>
+      <c r="AN74" s="59"/>
+      <c r="AO74" s="59"/>
+      <c r="AP74" s="59"/>
+      <c r="AQ74" s="59"/>
+      <c r="AR74" s="59"/>
+      <c r="AS74" s="59"/>
+      <c r="AT74" s="59"/>
+      <c r="AU74" s="59"/>
+      <c r="AV74" s="59"/>
+      <c r="AW74" s="59"/>
+      <c r="AX74" s="59"/>
+      <c r="AY74" s="59"/>
+      <c r="AZ74" s="59"/>
       <c r="BA74" s="4"/>
       <c r="BB74" s="4"/>
       <c r="BC74" s="4"/>
-    </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD74" s="59"/>
+      <c r="BE74" s="4"/>
+      <c r="BF74" s="4"/>
+      <c r="BG74" s="4"/>
+    </row>
+    <row r="75" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="4"/>
@@ -5522,26 +5870,34 @@
       <c r="AK75" s="4"/>
       <c r="AL75" s="4"/>
       <c r="AM75" s="4"/>
-      <c r="AN75" s="4"/>
-      <c r="AO75" s="4"/>
-      <c r="AP75" s="4"/>
-      <c r="AQ75" s="4"/>
-      <c r="AR75" s="4"/>
-      <c r="AS75" s="4"/>
-      <c r="AT75" s="4"/>
-      <c r="AU75" s="4"/>
-      <c r="AV75" s="4"/>
-      <c r="AW75" s="4"/>
-      <c r="AX75" s="4"/>
-      <c r="AY75" s="4"/>
-      <c r="AZ75" s="4"/>
+      <c r="AN75" s="59"/>
+      <c r="AO75" s="59"/>
+      <c r="AP75" s="59"/>
+      <c r="AQ75" s="59"/>
+      <c r="AR75" s="59"/>
+      <c r="AS75" s="59"/>
+      <c r="AT75" s="59"/>
+      <c r="AU75" s="59"/>
+      <c r="AV75" s="59"/>
+      <c r="AW75" s="59"/>
+      <c r="AX75" s="59"/>
+      <c r="AY75" s="59"/>
+      <c r="AZ75" s="59"/>
       <c r="BA75" s="4"/>
       <c r="BB75" s="4"/>
       <c r="BC75" s="4"/>
-    </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="BD75" s="59"/>
+      <c r="BE75" s="4"/>
+      <c r="BF75" s="4"/>
+      <c r="BG75" s="4"/>
+    </row>
+    <row r="76" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -5559,7 +5915,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
+      <c r="T76" s="18"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="6"/>
@@ -5579,29 +5935,31 @@
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
       <c r="AM76" s="4"/>
-      <c r="AN76" s="4"/>
-      <c r="AO76" s="4"/>
-      <c r="AP76" s="18"/>
-      <c r="AQ76" s="4"/>
-      <c r="AR76" s="4"/>
-      <c r="AS76" s="4"/>
-      <c r="AT76" s="4"/>
-      <c r="AU76" s="4"/>
-      <c r="AV76" s="4"/>
-      <c r="AW76" s="4"/>
-      <c r="AX76" s="4"/>
-      <c r="AY76" s="4"/>
-      <c r="AZ76" s="4"/>
+      <c r="AN76" s="59"/>
+      <c r="AO76" s="59"/>
+      <c r="AP76" s="59"/>
+      <c r="AQ76" s="59"/>
+      <c r="AR76" s="59"/>
+      <c r="AS76" s="59"/>
+      <c r="AT76" s="59"/>
+      <c r="AU76" s="59"/>
+      <c r="AV76" s="59"/>
+      <c r="AW76" s="59"/>
+      <c r="AX76" s="59"/>
+      <c r="AY76" s="59"/>
+      <c r="AZ76" s="59"/>
       <c r="BA76" s="4"/>
       <c r="BB76" s="4"/>
       <c r="BC76" s="4"/>
-    </row>
-    <row r="77" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>41</v>
+      <c r="BD76" s="59"/>
+      <c r="BE76" s="4"/>
+      <c r="BF76" s="4"/>
+      <c r="BG76" s="4"/>
+    </row>
+    <row r="77" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -5620,7 +5978,7 @@
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
+      <c r="T77" s="18"/>
       <c r="U77" s="4"/>
       <c r="V77" s="4"/>
       <c r="W77" s="6"/>
@@ -5640,28 +5998,30 @@
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
       <c r="AM77" s="4"/>
-      <c r="AN77" s="4"/>
-      <c r="AO77" s="4"/>
-      <c r="AP77" s="18"/>
-      <c r="AQ77" s="4"/>
-      <c r="AR77" s="4"/>
-      <c r="AS77" s="4"/>
-      <c r="AT77" s="4"/>
-      <c r="AU77" s="4"/>
-      <c r="AV77" s="4"/>
-      <c r="AW77" s="4"/>
-      <c r="AX77" s="4"/>
-      <c r="AY77" s="4"/>
-      <c r="AZ77" s="4"/>
+      <c r="AN77" s="59"/>
+      <c r="AO77" s="59"/>
+      <c r="AP77" s="59"/>
+      <c r="AQ77" s="59"/>
+      <c r="AR77" s="59"/>
+      <c r="AS77" s="59"/>
+      <c r="AT77" s="59"/>
+      <c r="AU77" s="59"/>
+      <c r="AV77" s="59"/>
+      <c r="AW77" s="59"/>
+      <c r="AX77" s="59"/>
+      <c r="AY77" s="59"/>
+      <c r="AZ77" s="59"/>
       <c r="BA77" s="4"/>
       <c r="BB77" s="4"/>
       <c r="BC77" s="4"/>
-    </row>
-    <row r="78" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD77" s="59"/>
+      <c r="BE77" s="4"/>
+      <c r="BF77" s="4"/>
+      <c r="BG77" s="4"/>
+    </row>
+    <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -5699,27 +6059,33 @@
       <c r="AK78" s="4"/>
       <c r="AL78" s="4"/>
       <c r="AM78" s="4"/>
-      <c r="AN78" s="4"/>
-      <c r="AO78" s="4"/>
-      <c r="AP78" s="18"/>
-      <c r="AQ78" s="4"/>
-      <c r="AR78" s="4"/>
-      <c r="AS78" s="4"/>
-      <c r="AT78" s="4"/>
-      <c r="AU78" s="4"/>
-      <c r="AV78" s="4"/>
-      <c r="AW78" s="4"/>
-      <c r="AX78" s="4"/>
-      <c r="AY78" s="4"/>
-      <c r="AZ78" s="4"/>
+      <c r="AN78" s="59"/>
+      <c r="AO78" s="59"/>
+      <c r="AP78" s="59"/>
+      <c r="AQ78" s="59"/>
+      <c r="AR78" s="59"/>
+      <c r="AS78" s="59"/>
+      <c r="AT78" s="59"/>
+      <c r="AU78" s="59"/>
+      <c r="AV78" s="59"/>
+      <c r="AW78" s="59"/>
+      <c r="AX78" s="59"/>
+      <c r="AY78" s="59"/>
+      <c r="AZ78" s="59"/>
       <c r="BA78" s="4"/>
       <c r="BB78" s="4"/>
       <c r="BC78" s="4"/>
-    </row>
-    <row r="79" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="4" t="s">
-        <v>56</v>
+      <c r="BD78" s="59"/>
+      <c r="BE78" s="4"/>
+      <c r="BF78" s="4"/>
+      <c r="BG78" s="4"/>
+    </row>
+    <row r="79" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -5738,7 +6104,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
+      <c r="T79" s="18"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="6"/>
@@ -5758,27 +6124,31 @@
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
       <c r="AM79" s="4"/>
-      <c r="AN79" s="4"/>
-      <c r="AO79" s="4"/>
-      <c r="AP79" s="18"/>
-      <c r="AQ79" s="4"/>
-      <c r="AR79" s="4"/>
-      <c r="AS79" s="4"/>
-      <c r="AT79" s="4"/>
-      <c r="AU79" s="4"/>
-      <c r="AV79" s="4"/>
-      <c r="AW79" s="4"/>
-      <c r="AX79" s="4"/>
-      <c r="AY79" s="4"/>
-      <c r="AZ79" s="4"/>
+      <c r="AN79" s="59"/>
+      <c r="AO79" s="59"/>
+      <c r="AP79" s="59"/>
+      <c r="AQ79" s="59"/>
+      <c r="AR79" s="59"/>
+      <c r="AS79" s="59"/>
+      <c r="AT79" s="59"/>
+      <c r="AU79" s="59"/>
+      <c r="AV79" s="59"/>
+      <c r="AW79" s="59"/>
+      <c r="AX79" s="59"/>
+      <c r="AY79" s="59"/>
+      <c r="AZ79" s="59"/>
       <c r="BA79" s="4"/>
       <c r="BB79" s="4"/>
       <c r="BC79" s="4"/>
-    </row>
-    <row r="80" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD79" s="59"/>
+      <c r="BE79" s="4"/>
+      <c r="BF79" s="4"/>
+      <c r="BG79" s="4"/>
+    </row>
+    <row r="80" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
-      <c r="B80" s="4" t="s">
-        <v>51</v>
+      <c r="B80" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -5797,14 +6167,14 @@
       <c r="Q80" s="4"/>
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
-      <c r="AA80" s="4"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="18"/>
+      <c r="AA80" s="18"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -5817,26 +6187,32 @@
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
       <c r="AM80" s="4"/>
-      <c r="AN80" s="4"/>
-      <c r="AO80" s="4"/>
-      <c r="AP80" s="18"/>
-      <c r="AQ80" s="4"/>
-      <c r="AR80" s="4"/>
-      <c r="AS80" s="4"/>
-      <c r="AT80" s="4"/>
-      <c r="AU80" s="4"/>
-      <c r="AV80" s="4"/>
-      <c r="AW80" s="4"/>
-      <c r="AX80" s="4"/>
-      <c r="AY80" s="4"/>
-      <c r="AZ80" s="4"/>
+      <c r="AN80" s="59"/>
+      <c r="AO80" s="59"/>
+      <c r="AP80" s="59"/>
+      <c r="AQ80" s="59"/>
+      <c r="AR80" s="59"/>
+      <c r="AS80" s="59"/>
+      <c r="AT80" s="59"/>
+      <c r="AU80" s="59"/>
+      <c r="AV80" s="59"/>
+      <c r="AW80" s="59"/>
+      <c r="AX80" s="59"/>
+      <c r="AY80" s="59"/>
+      <c r="AZ80" s="59"/>
       <c r="BA80" s="4"/>
       <c r="BB80" s="4"/>
       <c r="BC80" s="4"/>
-    </row>
-    <row r="81" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD80" s="59"/>
+      <c r="BE80" s="4"/>
+      <c r="BF80" s="4"/>
+      <c r="BG80" s="4"/>
+    </row>
+    <row r="81" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
+      <c r="B81" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
@@ -5854,8 +6230,8 @@
       <c r="Q81" s="4"/>
       <c r="R81" s="4"/>
       <c r="S81" s="4"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
       <c r="V81" s="4"/>
       <c r="W81" s="6"/>
       <c r="X81" s="43"/>
@@ -5874,29 +6250,31 @@
       <c r="AK81" s="4"/>
       <c r="AL81" s="4"/>
       <c r="AM81" s="4"/>
-      <c r="AN81" s="4"/>
-      <c r="AO81" s="4"/>
-      <c r="AP81" s="4"/>
-      <c r="AQ81" s="4"/>
-      <c r="AR81" s="4"/>
-      <c r="AS81" s="4"/>
-      <c r="AT81" s="4"/>
-      <c r="AU81" s="4"/>
-      <c r="AV81" s="4"/>
-      <c r="AW81" s="4"/>
-      <c r="AX81" s="4"/>
-      <c r="AY81" s="4"/>
-      <c r="AZ81" s="4"/>
+      <c r="AN81" s="59"/>
+      <c r="AO81" s="59"/>
+      <c r="AP81" s="59"/>
+      <c r="AQ81" s="59"/>
+      <c r="AR81" s="59"/>
+      <c r="AS81" s="59"/>
+      <c r="AT81" s="59"/>
+      <c r="AU81" s="59"/>
+      <c r="AV81" s="59"/>
+      <c r="AW81" s="59"/>
+      <c r="AX81" s="59"/>
+      <c r="AY81" s="59"/>
+      <c r="AZ81" s="59"/>
       <c r="BA81" s="4"/>
       <c r="BB81" s="4"/>
       <c r="BC81" s="4"/>
-    </row>
-    <row r="82" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="BD81" s="59"/>
+      <c r="BE81" s="4"/>
+      <c r="BF81" s="4"/>
+      <c r="BG81" s="4"/>
+    </row>
+    <row r="82" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -5915,7 +6293,7 @@
       <c r="Q82" s="4"/>
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
+      <c r="T82" s="18"/>
       <c r="U82" s="4"/>
       <c r="V82" s="4"/>
       <c r="W82" s="6"/>
@@ -5935,27 +6313,31 @@
       <c r="AK82" s="4"/>
       <c r="AL82" s="4"/>
       <c r="AM82" s="4"/>
-      <c r="AN82" s="4"/>
-      <c r="AO82" s="4"/>
-      <c r="AP82" s="18"/>
-      <c r="AQ82" s="18"/>
-      <c r="AR82" s="18"/>
-      <c r="AS82" s="4"/>
-      <c r="AT82" s="4"/>
-      <c r="AU82" s="4"/>
-      <c r="AV82" s="4"/>
-      <c r="AW82" s="4"/>
-      <c r="AX82" s="4"/>
-      <c r="AY82" s="4"/>
-      <c r="AZ82" s="4"/>
+      <c r="AN82" s="59"/>
+      <c r="AO82" s="59"/>
+      <c r="AP82" s="59"/>
+      <c r="AQ82" s="59"/>
+      <c r="AR82" s="59"/>
+      <c r="AS82" s="59"/>
+      <c r="AT82" s="59"/>
+      <c r="AU82" s="59"/>
+      <c r="AV82" s="59"/>
+      <c r="AW82" s="59"/>
+      <c r="AX82" s="59"/>
+      <c r="AY82" s="59"/>
+      <c r="AZ82" s="59"/>
       <c r="BA82" s="4"/>
       <c r="BB82" s="4"/>
       <c r="BC82" s="4"/>
-    </row>
-    <row r="83" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD82" s="59"/>
+      <c r="BE82" s="4"/>
+      <c r="BF82" s="4"/>
+      <c r="BG82" s="4"/>
+    </row>
+    <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -5978,7 +6360,7 @@
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="6"/>
-      <c r="X83" s="43"/>
+      <c r="X83" s="18"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
@@ -5994,27 +6376,31 @@
       <c r="AK83" s="4"/>
       <c r="AL83" s="4"/>
       <c r="AM83" s="4"/>
-      <c r="AN83" s="4"/>
-      <c r="AO83" s="4"/>
-      <c r="AP83" s="4"/>
-      <c r="AQ83" s="18"/>
-      <c r="AR83" s="18"/>
-      <c r="AS83" s="4"/>
-      <c r="AT83" s="4"/>
-      <c r="AU83" s="4"/>
-      <c r="AV83" s="4"/>
-      <c r="AW83" s="4"/>
-      <c r="AX83" s="4"/>
-      <c r="AY83" s="4"/>
-      <c r="AZ83" s="4"/>
+      <c r="AN83" s="59"/>
+      <c r="AO83" s="59"/>
+      <c r="AP83" s="59"/>
+      <c r="AQ83" s="59"/>
+      <c r="AR83" s="59"/>
+      <c r="AS83" s="59"/>
+      <c r="AT83" s="59"/>
+      <c r="AU83" s="59"/>
+      <c r="AV83" s="59"/>
+      <c r="AW83" s="59"/>
+      <c r="AX83" s="59"/>
+      <c r="AY83" s="59"/>
+      <c r="AZ83" s="59"/>
       <c r="BA83" s="4"/>
       <c r="BB83" s="4"/>
       <c r="BC83" s="4"/>
-    </row>
-    <row r="84" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD83" s="59"/>
+      <c r="BE83" s="4"/>
+      <c r="BF83" s="4"/>
+      <c r="BG83" s="4"/>
+    </row>
+    <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6038,7 +6424,7 @@
       <c r="V84" s="4"/>
       <c r="W84" s="6"/>
       <c r="X84" s="43"/>
-      <c r="Y84" s="4"/>
+      <c r="Y84" s="18"/>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
@@ -6053,28 +6439,30 @@
       <c r="AK84" s="4"/>
       <c r="AL84" s="4"/>
       <c r="AM84" s="4"/>
-      <c r="AN84" s="4"/>
-      <c r="AO84" s="4"/>
-      <c r="AP84" s="4"/>
-      <c r="AQ84" s="18"/>
-      <c r="AR84" s="18"/>
-      <c r="AS84" s="4"/>
-      <c r="AT84" s="4"/>
-      <c r="AU84" s="4"/>
-      <c r="AV84" s="4"/>
-      <c r="AW84" s="4"/>
-      <c r="AX84" s="4"/>
-      <c r="AY84" s="4"/>
-      <c r="AZ84" s="4"/>
+      <c r="AN84" s="59"/>
+      <c r="AO84" s="59"/>
+      <c r="AP84" s="59"/>
+      <c r="AQ84" s="59"/>
+      <c r="AR84" s="59"/>
+      <c r="AS84" s="59"/>
+      <c r="AT84" s="59"/>
+      <c r="AU84" s="59"/>
+      <c r="AV84" s="59"/>
+      <c r="AW84" s="59"/>
+      <c r="AX84" s="59"/>
+      <c r="AY84" s="59"/>
+      <c r="AZ84" s="59"/>
       <c r="BA84" s="4"/>
       <c r="BB84" s="4"/>
       <c r="BC84" s="4"/>
-    </row>
-    <row r="85" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD84" s="59"/>
+      <c r="BE84" s="4"/>
+      <c r="BF84" s="4"/>
+      <c r="BG84" s="4"/>
+    </row>
+    <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -6112,28 +6500,30 @@
       <c r="AK85" s="4"/>
       <c r="AL85" s="4"/>
       <c r="AM85" s="4"/>
-      <c r="AN85" s="4"/>
-      <c r="AO85" s="4"/>
-      <c r="AP85" s="4"/>
-      <c r="AQ85" s="4"/>
-      <c r="AR85" s="18"/>
-      <c r="AS85" s="18"/>
-      <c r="AT85" s="18"/>
-      <c r="AU85" s="4"/>
-      <c r="AV85" s="4"/>
-      <c r="AW85" s="4"/>
-      <c r="AX85" s="4"/>
-      <c r="AY85" s="4"/>
-      <c r="AZ85" s="4"/>
+      <c r="AN85" s="59"/>
+      <c r="AO85" s="59"/>
+      <c r="AP85" s="59"/>
+      <c r="AQ85" s="59"/>
+      <c r="AR85" s="59"/>
+      <c r="AS85" s="59"/>
+      <c r="AT85" s="59"/>
+      <c r="AU85" s="59"/>
+      <c r="AV85" s="59"/>
+      <c r="AW85" s="59"/>
+      <c r="AX85" s="59"/>
+      <c r="AY85" s="59"/>
+      <c r="AZ85" s="59"/>
       <c r="BA85" s="4"/>
       <c r="BB85" s="4"/>
       <c r="BC85" s="4"/>
-    </row>
-    <row r="86" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD85" s="59"/>
+      <c r="BE85" s="4"/>
+      <c r="BF85" s="4"/>
+      <c r="BG85" s="4"/>
+    </row>
+    <row r="86" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
-      <c r="B86" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -6171,27 +6561,33 @@
       <c r="AK86" s="4"/>
       <c r="AL86" s="4"/>
       <c r="AM86" s="4"/>
-      <c r="AN86" s="4"/>
-      <c r="AO86" s="4"/>
-      <c r="AP86" s="4"/>
-      <c r="AQ86" s="4"/>
-      <c r="AR86" s="18"/>
-      <c r="AS86" s="18"/>
-      <c r="AT86" s="18"/>
-      <c r="AU86" s="4"/>
-      <c r="AV86" s="4"/>
-      <c r="AW86" s="4"/>
-      <c r="AX86" s="4"/>
-      <c r="AY86" s="4"/>
-      <c r="AZ86" s="4"/>
+      <c r="AN86" s="59"/>
+      <c r="AO86" s="59"/>
+      <c r="AP86" s="59"/>
+      <c r="AQ86" s="59"/>
+      <c r="AR86" s="59"/>
+      <c r="AS86" s="59"/>
+      <c r="AT86" s="59"/>
+      <c r="AU86" s="59"/>
+      <c r="AV86" s="59"/>
+      <c r="AW86" s="59"/>
+      <c r="AX86" s="59"/>
+      <c r="AY86" s="59"/>
+      <c r="AZ86" s="59"/>
       <c r="BA86" s="4"/>
       <c r="BB86" s="4"/>
       <c r="BC86" s="4"/>
-    </row>
-    <row r="87" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+      <c r="BD86" s="59"/>
+      <c r="BE86" s="4"/>
+      <c r="BF86" s="4"/>
+      <c r="BG86" s="4"/>
+    </row>
+    <row r="87" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B87" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6218,7 +6614,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
-      <c r="AB87" s="4"/>
+      <c r="AB87" s="18"/>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
@@ -6230,26 +6626,32 @@
       <c r="AK87" s="4"/>
       <c r="AL87" s="4"/>
       <c r="AM87" s="4"/>
-      <c r="AN87" s="4"/>
-      <c r="AO87" s="4"/>
-      <c r="AP87" s="4"/>
-      <c r="AQ87" s="4"/>
-      <c r="AR87" s="18"/>
-      <c r="AS87" s="18"/>
-      <c r="AT87" s="18"/>
-      <c r="AU87" s="4"/>
-      <c r="AV87" s="4"/>
-      <c r="AW87" s="4"/>
-      <c r="AX87" s="4"/>
-      <c r="AY87" s="4"/>
-      <c r="AZ87" s="4"/>
+      <c r="AN87" s="59"/>
+      <c r="AO87" s="59"/>
+      <c r="AP87" s="59"/>
+      <c r="AQ87" s="59"/>
+      <c r="AR87" s="59"/>
+      <c r="AS87" s="59"/>
+      <c r="AT87" s="59"/>
+      <c r="AU87" s="59"/>
+      <c r="AV87" s="59"/>
+      <c r="AW87" s="59"/>
+      <c r="AX87" s="59"/>
+      <c r="AY87" s="59"/>
+      <c r="AZ87" s="59"/>
       <c r="BA87" s="4"/>
       <c r="BB87" s="4"/>
       <c r="BC87" s="4"/>
-    </row>
-    <row r="88" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD87" s="59"/>
+      <c r="BE87" s="4"/>
+      <c r="BF87" s="4"/>
+      <c r="BG87" s="4"/>
+    </row>
+    <row r="88" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
-      <c r="B88" s="4"/>
+      <c r="B88" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -6275,7 +6677,7 @@
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
-      <c r="AB88" s="4"/>
+      <c r="AB88" s="18"/>
       <c r="AC88" s="4"/>
       <c r="AD88" s="4"/>
       <c r="AE88" s="4"/>
@@ -6287,86 +6689,98 @@
       <c r="AK88" s="4"/>
       <c r="AL88" s="4"/>
       <c r="AM88" s="4"/>
-      <c r="AN88" s="4"/>
-      <c r="AO88" s="4"/>
-      <c r="AP88" s="4"/>
-      <c r="AQ88" s="4"/>
-      <c r="AR88" s="4"/>
-      <c r="AS88" s="4"/>
-      <c r="AT88" s="4"/>
-      <c r="AU88" s="4"/>
-      <c r="AV88" s="4"/>
-      <c r="AW88" s="4"/>
-      <c r="AX88" s="4"/>
-      <c r="AY88" s="4"/>
-      <c r="AZ88" s="4"/>
+      <c r="AN88" s="59"/>
+      <c r="AO88" s="59"/>
+      <c r="AP88" s="59"/>
+      <c r="AQ88" s="59"/>
+      <c r="AR88" s="59"/>
+      <c r="AS88" s="59"/>
+      <c r="AT88" s="59"/>
+      <c r="AU88" s="59"/>
+      <c r="AV88" s="59"/>
+      <c r="AW88" s="59"/>
+      <c r="AX88" s="59"/>
+      <c r="AY88" s="59"/>
+      <c r="AZ88" s="59"/>
       <c r="BA88" s="4"/>
       <c r="BB88" s="4"/>
       <c r="BC88" s="4"/>
-    </row>
-    <row r="89" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="43"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
-      <c r="AA89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
-      <c r="AD89" s="4"/>
-      <c r="AE89" s="4"/>
-      <c r="AF89" s="4"/>
-      <c r="AG89" s="44"/>
-      <c r="AH89" s="9"/>
-      <c r="AI89" s="4"/>
-      <c r="AJ89" s="4"/>
-      <c r="AK89" s="4"/>
-      <c r="AL89" s="4"/>
-      <c r="AM89" s="4"/>
-      <c r="AN89" s="4"/>
-      <c r="AO89" s="4"/>
-      <c r="AP89" s="4"/>
-      <c r="AQ89" s="4"/>
-      <c r="AR89" s="4"/>
-      <c r="AS89" s="4"/>
-      <c r="AT89" s="4"/>
-      <c r="AU89" s="4"/>
-      <c r="AV89" s="4"/>
-      <c r="AW89" s="4"/>
-      <c r="AX89" s="4"/>
-      <c r="AY89" s="4"/>
-      <c r="AZ89" s="4"/>
-      <c r="BA89" s="4"/>
-      <c r="BB89" s="4"/>
-      <c r="BC89" s="4"/>
-    </row>
-    <row r="90" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD88" s="59"/>
+      <c r="BE88" s="4"/>
+      <c r="BF88" s="4"/>
+      <c r="BG88" s="4"/>
+    </row>
+    <row r="89" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
+      <c r="U89" s="5"/>
+      <c r="V89" s="5"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="5"/>
+      <c r="Z89" s="5"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="5"/>
+      <c r="AF89" s="5"/>
+      <c r="AG89" s="42"/>
+      <c r="AH89" s="21"/>
+      <c r="AI89" s="5"/>
+      <c r="AJ89" s="5"/>
+      <c r="AK89" s="5"/>
+      <c r="AL89" s="5"/>
+      <c r="AM89" s="5"/>
+      <c r="AN89" s="5"/>
+      <c r="AO89" s="5"/>
+      <c r="AP89" s="5"/>
+      <c r="AQ89" s="5"/>
+      <c r="AR89" s="5"/>
+      <c r="AS89" s="5"/>
+      <c r="AT89" s="5"/>
+      <c r="AU89" s="5"/>
+      <c r="AV89" s="5"/>
+      <c r="AW89" s="5"/>
+      <c r="AX89" s="5"/>
+      <c r="AY89" s="5"/>
+      <c r="AZ89" s="5"/>
+      <c r="BA89" s="5"/>
+      <c r="BB89" s="5"/>
+      <c r="BC89" s="5"/>
+      <c r="BD89" s="5"/>
+      <c r="BE89" s="5"/>
+      <c r="BF89" s="5"/>
+      <c r="BG89" s="5"/>
+    </row>
+    <row r="90" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6394,7 +6808,7 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="4"/>
       <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
+      <c r="AC90" s="18"/>
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
@@ -6405,27 +6819,31 @@
       <c r="AK90" s="4"/>
       <c r="AL90" s="4"/>
       <c r="AM90" s="4"/>
-      <c r="AN90" s="4"/>
-      <c r="AO90" s="4"/>
-      <c r="AP90" s="4"/>
-      <c r="AQ90" s="4"/>
-      <c r="AR90" s="4"/>
-      <c r="AS90" s="4"/>
-      <c r="AT90" s="18"/>
-      <c r="AU90" s="18"/>
-      <c r="AV90" s="4"/>
-      <c r="AW90" s="4"/>
-      <c r="AX90" s="4"/>
-      <c r="AY90" s="4"/>
-      <c r="AZ90" s="4"/>
+      <c r="AN90" s="59"/>
+      <c r="AO90" s="59"/>
+      <c r="AP90" s="59"/>
+      <c r="AQ90" s="59"/>
+      <c r="AR90" s="59"/>
+      <c r="AS90" s="59"/>
+      <c r="AT90" s="59"/>
+      <c r="AU90" s="59"/>
+      <c r="AV90" s="59"/>
+      <c r="AW90" s="59"/>
+      <c r="AX90" s="59"/>
+      <c r="AY90" s="59"/>
+      <c r="AZ90" s="59"/>
       <c r="BA90" s="4"/>
       <c r="BB90" s="4"/>
       <c r="BC90" s="4"/>
-    </row>
-    <row r="91" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD90" s="59"/>
+      <c r="BE90" s="4"/>
+      <c r="BF90" s="4"/>
+      <c r="BG90" s="4"/>
+    </row>
+    <row r="91" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="4" t="s">
-        <v>44</v>
+      <c r="B91" t="s">
+        <v>54</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6453,7 +6871,7 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="4"/>
       <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
+      <c r="AC91" s="18"/>
       <c r="AD91" s="4"/>
       <c r="AE91" s="4"/>
       <c r="AF91" s="4"/>
@@ -6464,27 +6882,31 @@
       <c r="AK91" s="4"/>
       <c r="AL91" s="4"/>
       <c r="AM91" s="4"/>
-      <c r="AN91" s="4"/>
-      <c r="AO91" s="4"/>
-      <c r="AP91" s="4"/>
-      <c r="AQ91" s="4"/>
-      <c r="AR91" s="4"/>
-      <c r="AS91" s="4"/>
-      <c r="AT91" s="18"/>
-      <c r="AU91" s="18"/>
-      <c r="AV91" s="4"/>
-      <c r="AW91" s="4"/>
-      <c r="AX91" s="4"/>
-      <c r="AY91" s="4"/>
-      <c r="AZ91" s="4"/>
+      <c r="AN91" s="59"/>
+      <c r="AO91" s="59"/>
+      <c r="AP91" s="59"/>
+      <c r="AQ91" s="59"/>
+      <c r="AR91" s="59"/>
+      <c r="AS91" s="59"/>
+      <c r="AT91" s="59"/>
+      <c r="AU91" s="59"/>
+      <c r="AV91" s="59"/>
+      <c r="AW91" s="59"/>
+      <c r="AX91" s="59"/>
+      <c r="AY91" s="59"/>
+      <c r="AZ91" s="59"/>
       <c r="BA91" s="4"/>
       <c r="BB91" s="4"/>
       <c r="BC91" s="4"/>
-    </row>
-    <row r="92" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD91" s="59"/>
+      <c r="BE91" s="4"/>
+      <c r="BF91" s="4"/>
+      <c r="BG91" s="4"/>
+    </row>
+    <row r="92" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6512,7 +6934,7 @@
       <c r="Z92" s="4"/>
       <c r="AA92" s="4"/>
       <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
+      <c r="AC92" s="18"/>
       <c r="AD92" s="4"/>
       <c r="AE92" s="4"/>
       <c r="AF92" s="4"/>
@@ -6523,26 +6945,29 @@
       <c r="AK92" s="4"/>
       <c r="AL92" s="4"/>
       <c r="AM92" s="4"/>
-      <c r="AN92" s="4"/>
-      <c r="AO92" s="4"/>
-      <c r="AP92" s="4"/>
-      <c r="AQ92" s="4"/>
-      <c r="AR92" s="4"/>
-      <c r="AS92" s="4"/>
-      <c r="AT92" s="4"/>
-      <c r="AU92" s="4"/>
-      <c r="AV92" s="18"/>
-      <c r="AW92" s="18"/>
-      <c r="AX92" s="18"/>
-      <c r="AY92" s="18"/>
-      <c r="AZ92" s="18"/>
+      <c r="AN92" s="59"/>
+      <c r="AO92" s="59"/>
+      <c r="AP92" s="59"/>
+      <c r="AQ92" s="59"/>
+      <c r="AR92" s="59"/>
+      <c r="AS92" s="59"/>
+      <c r="AT92" s="59"/>
+      <c r="AU92" s="59"/>
+      <c r="AV92" s="59"/>
+      <c r="AW92" s="59"/>
+      <c r="AX92" s="59"/>
+      <c r="AY92" s="59"/>
+      <c r="AZ92" s="59"/>
       <c r="BA92" s="4"/>
       <c r="BB92" s="4"/>
       <c r="BC92" s="4"/>
-    </row>
-    <row r="93" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD92" s="59"/>
+      <c r="BE92" s="4"/>
+      <c r="BF92" s="4"/>
+      <c r="BG92" s="4"/>
+    </row>
+    <row r="93" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="4"/>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -6580,26 +7005,30 @@
       <c r="AK93" s="4"/>
       <c r="AL93" s="4"/>
       <c r="AM93" s="4"/>
-      <c r="AN93" s="4"/>
-      <c r="AO93" s="4"/>
-      <c r="AP93" s="4"/>
-      <c r="AQ93" s="4"/>
-      <c r="AR93" s="4"/>
-      <c r="AS93" s="4"/>
-      <c r="AT93" s="4"/>
-      <c r="AU93" s="4"/>
-      <c r="AV93" s="4"/>
-      <c r="AW93" s="4"/>
-      <c r="AX93" s="4"/>
-      <c r="AY93" s="4"/>
-      <c r="AZ93" s="4"/>
+      <c r="AN93" s="59"/>
+      <c r="AO93" s="59"/>
+      <c r="AP93" s="59"/>
+      <c r="AQ93" s="59"/>
+      <c r="AR93" s="59"/>
+      <c r="AS93" s="59"/>
+      <c r="AT93" s="59"/>
+      <c r="AU93" s="59"/>
+      <c r="AV93" s="59"/>
+      <c r="AW93" s="59"/>
+      <c r="AX93" s="59"/>
+      <c r="AY93" s="59"/>
+      <c r="AZ93" s="59"/>
       <c r="BA93" s="4"/>
       <c r="BB93" s="4"/>
       <c r="BC93" s="4"/>
-    </row>
-    <row r="94" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD93" s="59"/>
+      <c r="BE93" s="4"/>
+      <c r="BF93" s="4"/>
+      <c r="BG93" s="4"/>
+    </row>
+    <row r="94" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="4"/>
+      <c r="B94" s="1"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -6637,28 +7066,34 @@
       <c r="AK94" s="4"/>
       <c r="AL94" s="4"/>
       <c r="AM94" s="4"/>
-      <c r="AN94" s="4"/>
-      <c r="AO94" s="4"/>
-      <c r="AP94" s="4"/>
-      <c r="AQ94" s="4"/>
-      <c r="AR94" s="4"/>
-      <c r="AS94" s="4"/>
-      <c r="AT94" s="4"/>
-      <c r="AU94" s="4"/>
-      <c r="AV94" s="4"/>
-      <c r="AW94" s="4"/>
-      <c r="AX94" s="4"/>
-      <c r="AY94" s="4"/>
-      <c r="AZ94" s="4"/>
+      <c r="AN94" s="59"/>
+      <c r="AO94" s="59"/>
+      <c r="AP94" s="59"/>
+      <c r="AQ94" s="59"/>
+      <c r="AR94" s="59"/>
+      <c r="AS94" s="59"/>
+      <c r="AT94" s="59"/>
+      <c r="AU94" s="59"/>
+      <c r="AV94" s="59"/>
+      <c r="AW94" s="59"/>
+      <c r="AX94" s="59"/>
+      <c r="AY94" s="59"/>
+      <c r="AZ94" s="59"/>
       <c r="BA94" s="4"/>
       <c r="BB94" s="4"/>
       <c r="BC94" s="4"/>
-    </row>
-    <row r="95" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BD94" s="59"/>
+      <c r="BE94" s="4"/>
+      <c r="BF94" s="4"/>
+      <c r="BG94" s="4"/>
+    </row>
+    <row r="95" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -6680,62 +7115,1563 @@
       <c r="U95" s="4"/>
       <c r="V95" s="4"/>
       <c r="W95" s="6"/>
-      <c r="X95" s="45"/>
-      <c r="Y95" s="46"/>
-      <c r="Z95" s="46"/>
-      <c r="AA95" s="46"/>
-      <c r="AB95" s="46"/>
-      <c r="AC95" s="46"/>
-      <c r="AD95" s="46"/>
-      <c r="AE95" s="46"/>
-      <c r="AF95" s="46"/>
-      <c r="AG95" s="47"/>
+      <c r="X95" s="43"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="18"/>
+      <c r="AE95" s="4"/>
+      <c r="AF95" s="4"/>
+      <c r="AG95" s="44"/>
       <c r="AH95" s="9"/>
       <c r="AI95" s="4"/>
       <c r="AJ95" s="4"/>
       <c r="AK95" s="4"/>
       <c r="AL95" s="4"/>
       <c r="AM95" s="4"/>
-      <c r="AN95" s="4"/>
-      <c r="AO95" s="4"/>
-      <c r="AP95" s="4"/>
-      <c r="AQ95" s="4"/>
-      <c r="AR95" s="4"/>
-      <c r="AS95" s="4"/>
-      <c r="AT95" s="4"/>
-      <c r="AU95" s="4"/>
-      <c r="AV95" s="18"/>
-      <c r="AW95" s="4"/>
-      <c r="AX95" s="4"/>
-      <c r="AY95" s="4"/>
-      <c r="AZ95" s="4"/>
+      <c r="AN95" s="59"/>
+      <c r="AO95" s="59"/>
+      <c r="AP95" s="59"/>
+      <c r="AQ95" s="59"/>
+      <c r="AR95" s="59"/>
+      <c r="AS95" s="59"/>
+      <c r="AT95" s="59"/>
+      <c r="AU95" s="59"/>
+      <c r="AV95" s="59"/>
+      <c r="AW95" s="59"/>
+      <c r="AX95" s="59"/>
+      <c r="AY95" s="59"/>
+      <c r="AZ95" s="59"/>
       <c r="BA95" s="4"/>
       <c r="BB95" s="4"/>
       <c r="BC95" s="4"/>
-    </row>
-    <row r="96" spans="1:55" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="BD95" s="59"/>
+      <c r="BE95" s="4"/>
+      <c r="BF95" s="4"/>
+      <c r="BG95" s="4"/>
+    </row>
+    <row r="96" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="43"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4"/>
+      <c r="AE96" s="4"/>
+      <c r="AF96" s="4"/>
+      <c r="AG96" s="44"/>
+      <c r="AH96" s="9"/>
+      <c r="AI96" s="4"/>
+      <c r="AJ96" s="4"/>
+      <c r="AK96" s="4"/>
+      <c r="AL96" s="4"/>
+      <c r="AM96" s="4"/>
+      <c r="AN96" s="59"/>
+      <c r="AO96" s="59"/>
+      <c r="AP96" s="59"/>
+      <c r="AQ96" s="59"/>
+      <c r="AR96" s="59"/>
+      <c r="AS96" s="59"/>
+      <c r="AT96" s="59"/>
+      <c r="AU96" s="59"/>
+      <c r="AV96" s="59"/>
+      <c r="AW96" s="59"/>
+      <c r="AX96" s="59"/>
+      <c r="AY96" s="59"/>
+      <c r="AZ96" s="59"/>
+      <c r="BA96" s="4"/>
+      <c r="BB96" s="4"/>
+      <c r="BC96" s="4"/>
+      <c r="BD96" s="59"/>
+      <c r="BE96" s="4"/>
+      <c r="BF96" s="4"/>
+      <c r="BG96" s="4"/>
+    </row>
+    <row r="97" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="43"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4"/>
+      <c r="AE97" s="4"/>
+      <c r="AF97" s="4"/>
+      <c r="AG97" s="44"/>
+      <c r="AH97" s="9"/>
+      <c r="AI97" s="4"/>
+      <c r="AJ97" s="4"/>
+      <c r="AK97" s="4"/>
+      <c r="AL97" s="4"/>
+      <c r="AM97" s="4"/>
+      <c r="AN97" s="59"/>
+      <c r="AO97" s="59"/>
+      <c r="AP97" s="59"/>
+      <c r="AQ97" s="59"/>
+      <c r="AR97" s="59"/>
+      <c r="AS97" s="59"/>
+      <c r="AT97" s="59"/>
+      <c r="AU97" s="59"/>
+      <c r="AV97" s="59"/>
+      <c r="AW97" s="59"/>
+      <c r="AX97" s="59"/>
+      <c r="AY97" s="59"/>
+      <c r="AZ97" s="59"/>
+      <c r="BA97" s="4"/>
+      <c r="BB97" s="4"/>
+      <c r="BC97" s="4"/>
+      <c r="BD97" s="59"/>
+      <c r="BE97" s="4"/>
+      <c r="BF97" s="4"/>
+      <c r="BG97" s="4"/>
+    </row>
+    <row r="98" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="43"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+      <c r="AD98" s="18"/>
+      <c r="AE98" s="18"/>
+      <c r="AF98" s="18"/>
+      <c r="AG98" s="18"/>
+      <c r="AH98" s="18"/>
+      <c r="AI98" s="18"/>
+      <c r="AJ98" s="18"/>
+      <c r="AK98" s="4"/>
+      <c r="AL98" s="4"/>
+      <c r="AM98" s="4"/>
+      <c r="AN98" s="59"/>
+      <c r="AO98" s="59"/>
+      <c r="AP98" s="59"/>
+      <c r="AQ98" s="59"/>
+      <c r="AR98" s="59"/>
+      <c r="AS98" s="59"/>
+      <c r="AT98" s="59"/>
+      <c r="AU98" s="59"/>
+      <c r="AV98" s="59"/>
+      <c r="AW98" s="59"/>
+      <c r="AX98" s="59"/>
+      <c r="AY98" s="59"/>
+      <c r="AZ98" s="59"/>
+      <c r="BA98" s="4"/>
+      <c r="BB98" s="4"/>
+      <c r="BC98" s="4"/>
+      <c r="BD98" s="59"/>
+      <c r="BE98" s="4"/>
+      <c r="BF98" s="4"/>
+      <c r="BG98" s="4"/>
+    </row>
+    <row r="99" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="43"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4"/>
+      <c r="AE99" s="4"/>
+      <c r="AF99" s="4"/>
+      <c r="AG99" s="44"/>
+      <c r="AH99" s="9"/>
+      <c r="AI99" s="4"/>
+      <c r="AJ99" s="4"/>
+      <c r="AK99" s="4"/>
+      <c r="AL99" s="4"/>
+      <c r="AM99" s="4"/>
+      <c r="AN99" s="59"/>
+      <c r="AO99" s="59"/>
+      <c r="AP99" s="59"/>
+      <c r="AQ99" s="59"/>
+      <c r="AR99" s="59"/>
+      <c r="AS99" s="59"/>
+      <c r="AT99" s="59"/>
+      <c r="AU99" s="59"/>
+      <c r="AV99" s="59"/>
+      <c r="AW99" s="59"/>
+      <c r="AX99" s="59"/>
+      <c r="AY99" s="59"/>
+      <c r="AZ99" s="59"/>
+      <c r="BA99" s="4"/>
+      <c r="BB99" s="4"/>
+      <c r="BC99" s="4"/>
+      <c r="BD99" s="59"/>
+      <c r="BE99" s="4"/>
+      <c r="BF99" s="4"/>
+      <c r="BG99" s="4"/>
+    </row>
+    <row r="100" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="43"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+      <c r="AD100" s="4"/>
+      <c r="AE100" s="4"/>
+      <c r="AF100" s="4"/>
+      <c r="AG100" s="44"/>
+      <c r="AH100" s="9"/>
+      <c r="AI100" s="4"/>
+      <c r="AJ100" s="4"/>
+      <c r="AK100" s="4"/>
+      <c r="AL100" s="4"/>
+      <c r="AM100" s="4"/>
+      <c r="AN100" s="59"/>
+      <c r="AO100" s="59"/>
+      <c r="AP100" s="59"/>
+      <c r="AQ100" s="59"/>
+      <c r="AR100" s="59"/>
+      <c r="AS100" s="59"/>
+      <c r="AT100" s="59"/>
+      <c r="AU100" s="59"/>
+      <c r="AV100" s="59"/>
+      <c r="AW100" s="59"/>
+      <c r="AX100" s="59"/>
+      <c r="AY100" s="59"/>
+      <c r="AZ100" s="59"/>
+      <c r="BA100" s="4"/>
+      <c r="BB100" s="4"/>
+      <c r="BC100" s="4"/>
+      <c r="BD100" s="59"/>
+      <c r="BE100" s="4"/>
+      <c r="BF100" s="4"/>
+      <c r="BG100" s="4"/>
+    </row>
+    <row r="101" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="43"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+      <c r="AD101" s="4"/>
+      <c r="AE101" s="4"/>
+      <c r="AF101" s="4"/>
+      <c r="AG101" s="44"/>
+      <c r="AH101" s="9"/>
+      <c r="AI101" s="4"/>
+      <c r="AJ101" s="4"/>
+      <c r="AK101" s="4"/>
+      <c r="AL101" s="4"/>
+      <c r="AM101" s="4"/>
+      <c r="AN101" s="59"/>
+      <c r="AO101" s="59"/>
+      <c r="AP101" s="59"/>
+      <c r="AQ101" s="59"/>
+      <c r="AR101" s="59"/>
+      <c r="AS101" s="59"/>
+      <c r="AT101" s="59"/>
+      <c r="AU101" s="59"/>
+      <c r="AV101" s="59"/>
+      <c r="AW101" s="59"/>
+      <c r="AX101" s="59"/>
+      <c r="AY101" s="59"/>
+      <c r="AZ101" s="59"/>
+      <c r="BA101" s="4"/>
+      <c r="BB101" s="4"/>
+      <c r="BC101" s="4"/>
+      <c r="BD101" s="59"/>
+      <c r="BE101" s="4"/>
+      <c r="BF101" s="4"/>
+      <c r="BG101" s="4"/>
+    </row>
+    <row r="102" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="4"/>
+      <c r="Q102" s="4"/>
+      <c r="R102" s="4"/>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="43"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4"/>
+      <c r="AF102" s="4"/>
+      <c r="AG102" s="44"/>
+      <c r="AH102" s="9"/>
+      <c r="AI102" s="4"/>
+      <c r="AJ102" s="4"/>
+      <c r="AK102" s="18"/>
+      <c r="AL102" s="18"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="59"/>
+      <c r="AO102" s="59"/>
+      <c r="AP102" s="59"/>
+      <c r="AQ102" s="59"/>
+      <c r="AR102" s="59"/>
+      <c r="AS102" s="59"/>
+      <c r="AT102" s="59"/>
+      <c r="AU102" s="59"/>
+      <c r="AV102" s="59"/>
+      <c r="AW102" s="59"/>
+      <c r="AX102" s="59"/>
+      <c r="AY102" s="59"/>
+      <c r="AZ102" s="59"/>
+      <c r="BA102" s="4"/>
+      <c r="BB102" s="4"/>
+      <c r="BC102" s="4"/>
+      <c r="BD102" s="59"/>
+      <c r="BE102" s="4"/>
+      <c r="BF102" s="4"/>
+      <c r="BG102" s="4"/>
+    </row>
+    <row r="103" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="B103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="43"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4"/>
+      <c r="AE103" s="4"/>
+      <c r="AF103" s="4"/>
+      <c r="AG103" s="44"/>
+      <c r="AH103" s="9"/>
+      <c r="AI103" s="4"/>
+      <c r="AJ103" s="4"/>
+      <c r="AK103" s="4"/>
+      <c r="AL103" s="18"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="59"/>
+      <c r="AO103" s="59"/>
+      <c r="AP103" s="59"/>
+      <c r="AQ103" s="59"/>
+      <c r="AR103" s="59"/>
+      <c r="AS103" s="59"/>
+      <c r="AT103" s="59"/>
+      <c r="AU103" s="59"/>
+      <c r="AV103" s="59"/>
+      <c r="AW103" s="59"/>
+      <c r="AX103" s="59"/>
+      <c r="AY103" s="59"/>
+      <c r="AZ103" s="59"/>
+      <c r="BA103" s="4"/>
+      <c r="BB103" s="4"/>
+      <c r="BC103" s="4"/>
+      <c r="BD103" s="59"/>
+      <c r="BE103" s="4"/>
+      <c r="BF103" s="4"/>
+      <c r="BG103" s="4"/>
+    </row>
+    <row r="104" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="5"/>
+      <c r="W104" s="7"/>
+      <c r="X104" s="41"/>
+      <c r="Y104" s="5"/>
+      <c r="Z104" s="5"/>
+      <c r="AA104" s="5"/>
+      <c r="AB104" s="5"/>
+      <c r="AC104" s="5"/>
+      <c r="AD104" s="5"/>
+      <c r="AE104" s="5"/>
+      <c r="AF104" s="5"/>
+      <c r="AG104" s="42"/>
+      <c r="AH104" s="21"/>
+      <c r="AI104" s="5"/>
+      <c r="AJ104" s="5"/>
+      <c r="AK104" s="5"/>
+      <c r="AL104" s="5"/>
+      <c r="AM104" s="5"/>
+      <c r="AN104" s="5"/>
+      <c r="AO104" s="5"/>
+      <c r="AP104" s="5"/>
+      <c r="AQ104" s="5"/>
+      <c r="AR104" s="5"/>
+      <c r="AS104" s="5"/>
+      <c r="AT104" s="5"/>
+      <c r="AU104" s="5"/>
+      <c r="AV104" s="5"/>
+      <c r="AW104" s="5"/>
+      <c r="AX104" s="5"/>
+      <c r="AY104" s="5"/>
+      <c r="AZ104" s="5"/>
+      <c r="BA104" s="5"/>
+      <c r="BB104" s="5"/>
+      <c r="BC104" s="5"/>
+      <c r="BD104" s="5"/>
+      <c r="BE104" s="5"/>
+      <c r="BF104" s="5"/>
+      <c r="BG104" s="5"/>
+    </row>
+    <row r="105" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="6"/>
+      <c r="X105" s="43"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="4"/>
+      <c r="AE105" s="4"/>
+      <c r="AF105" s="4"/>
+      <c r="AG105" s="44"/>
+      <c r="AH105" s="9"/>
+      <c r="AI105" s="4"/>
+      <c r="AJ105" s="4"/>
+      <c r="AK105" s="4"/>
+      <c r="AL105" s="4"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="18"/>
+      <c r="AO105" s="18"/>
+      <c r="AP105" s="18"/>
+      <c r="AQ105" s="59"/>
+      <c r="AR105" s="59"/>
+      <c r="AS105" s="59"/>
+      <c r="AT105" s="59"/>
+      <c r="AU105" s="59"/>
+      <c r="AV105" s="59"/>
+      <c r="AW105" s="59"/>
+      <c r="AX105" s="59"/>
+      <c r="AY105" s="59"/>
+      <c r="AZ105" s="59"/>
+      <c r="BA105" s="4"/>
+      <c r="BB105" s="4"/>
+      <c r="BC105" s="4"/>
+      <c r="BD105" s="59"/>
+      <c r="BE105" s="4"/>
+      <c r="BF105" s="4"/>
+      <c r="BG105" s="4"/>
+    </row>
+    <row r="106" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="6"/>
+      <c r="X106" s="43"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="4"/>
+      <c r="AE106" s="4"/>
+      <c r="AF106" s="4"/>
+      <c r="AG106" s="44"/>
+      <c r="AH106" s="9"/>
+      <c r="AI106" s="4"/>
+      <c r="AJ106" s="4"/>
+      <c r="AK106" s="4"/>
+      <c r="AL106" s="4"/>
+      <c r="AM106" s="4"/>
+      <c r="AN106" s="59"/>
+      <c r="AO106" s="59"/>
+      <c r="AP106" s="59"/>
+      <c r="AQ106" s="59"/>
+      <c r="AR106" s="59"/>
+      <c r="AS106" s="59"/>
+      <c r="AT106" s="59"/>
+      <c r="AU106" s="59"/>
+      <c r="AV106" s="59"/>
+      <c r="AW106" s="59"/>
+      <c r="AX106" s="59"/>
+      <c r="AY106" s="59"/>
+      <c r="AZ106" s="59"/>
+      <c r="BA106" s="4"/>
+      <c r="BB106" s="4"/>
+      <c r="BC106" s="4"/>
+      <c r="BD106" s="59"/>
+      <c r="BE106" s="4"/>
+      <c r="BF106" s="4"/>
+      <c r="BG106" s="4"/>
+    </row>
+    <row r="107" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="4"/>
+      <c r="Q107" s="4"/>
+      <c r="R107" s="4"/>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="6"/>
+      <c r="X107" s="43"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+      <c r="AD107" s="4"/>
+      <c r="AE107" s="4"/>
+      <c r="AF107" s="4"/>
+      <c r="AG107" s="44"/>
+      <c r="AH107" s="9"/>
+      <c r="AI107" s="4"/>
+      <c r="AJ107" s="4"/>
+      <c r="AK107" s="4"/>
+      <c r="AL107" s="4"/>
+      <c r="AM107" s="4"/>
+      <c r="AN107" s="59"/>
+      <c r="AO107" s="59"/>
+      <c r="AP107" s="59"/>
+      <c r="AQ107" s="59"/>
+      <c r="AR107" s="59"/>
+      <c r="AS107" s="59"/>
+      <c r="AT107" s="59"/>
+      <c r="AU107" s="59"/>
+      <c r="AV107" s="59"/>
+      <c r="AW107" s="59"/>
+      <c r="AX107" s="59"/>
+      <c r="AY107" s="59"/>
+      <c r="AZ107" s="59"/>
+      <c r="BA107" s="4"/>
+      <c r="BB107" s="4"/>
+      <c r="BC107" s="4"/>
+      <c r="BD107" s="59"/>
+      <c r="BE107" s="4"/>
+      <c r="BF107" s="4"/>
+      <c r="BG107" s="4"/>
+    </row>
+    <row r="108" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="6"/>
+      <c r="X108" s="43"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+      <c r="AD108" s="4"/>
+      <c r="AE108" s="4"/>
+      <c r="AF108" s="4"/>
+      <c r="AG108" s="44"/>
+      <c r="AH108" s="9"/>
+      <c r="AI108" s="4"/>
+      <c r="AJ108" s="4"/>
+      <c r="AK108" s="4"/>
+      <c r="AL108" s="4"/>
+      <c r="AM108" s="4"/>
+      <c r="AN108" s="59"/>
+      <c r="AO108" s="59"/>
+      <c r="AP108" s="59"/>
+      <c r="AQ108" s="59"/>
+      <c r="AR108" s="59"/>
+      <c r="AS108" s="59"/>
+      <c r="AT108" s="59"/>
+      <c r="AU108" s="59"/>
+      <c r="AV108" s="59"/>
+      <c r="AW108" s="59"/>
+      <c r="AX108" s="59"/>
+      <c r="AY108" s="59"/>
+      <c r="AZ108" s="59"/>
+      <c r="BA108" s="4"/>
+      <c r="BB108" s="4"/>
+      <c r="BC108" s="4"/>
+      <c r="BD108" s="59"/>
+      <c r="BE108" s="4"/>
+      <c r="BF108" s="4"/>
+      <c r="BG108" s="4"/>
+    </row>
+    <row r="109" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="6"/>
+      <c r="X109" s="43"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="4"/>
+      <c r="AE109" s="4"/>
+      <c r="AF109" s="4"/>
+      <c r="AG109" s="44"/>
+      <c r="AH109" s="9"/>
+      <c r="AI109" s="4"/>
+      <c r="AJ109" s="4"/>
+      <c r="AK109" s="4"/>
+      <c r="AL109" s="4"/>
+      <c r="AM109" s="4"/>
+      <c r="AN109" s="59"/>
+      <c r="AO109" s="59"/>
+      <c r="AP109" s="59"/>
+      <c r="AQ109" s="59"/>
+      <c r="AR109" s="59"/>
+      <c r="AS109" s="59"/>
+      <c r="AT109" s="59"/>
+      <c r="AU109" s="59"/>
+      <c r="AV109" s="59"/>
+      <c r="AW109" s="59"/>
+      <c r="AX109" s="59"/>
+      <c r="AY109" s="59"/>
+      <c r="AZ109" s="59"/>
+      <c r="BA109" s="4"/>
+      <c r="BB109" s="4"/>
+      <c r="BC109" s="4"/>
+      <c r="BD109" s="59"/>
+      <c r="BE109" s="4"/>
+      <c r="BF109" s="4"/>
+      <c r="BG109" s="4"/>
+    </row>
+    <row r="110" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="6"/>
+      <c r="X110" s="43"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+      <c r="AD110" s="4"/>
+      <c r="AE110" s="4"/>
+      <c r="AF110" s="4"/>
+      <c r="AG110" s="44"/>
+      <c r="AH110" s="9"/>
+      <c r="AI110" s="4"/>
+      <c r="AJ110" s="4"/>
+      <c r="AK110" s="4"/>
+      <c r="AL110" s="4"/>
+      <c r="AM110" s="4"/>
+      <c r="AN110" s="59"/>
+      <c r="AO110" s="18"/>
+      <c r="AP110" s="18"/>
+      <c r="AQ110" s="59"/>
+      <c r="AR110" s="59"/>
+      <c r="AS110" s="59"/>
+      <c r="AT110" s="59"/>
+      <c r="AU110" s="59"/>
+      <c r="AV110" s="59"/>
+      <c r="AW110" s="59"/>
+      <c r="AX110" s="59"/>
+      <c r="AY110" s="59"/>
+      <c r="AZ110" s="59"/>
+      <c r="BA110" s="4"/>
+      <c r="BB110" s="4"/>
+      <c r="BC110" s="4"/>
+      <c r="BD110" s="59"/>
+      <c r="BE110" s="4"/>
+      <c r="BF110" s="4"/>
+      <c r="BG110" s="4"/>
+    </row>
+    <row r="111" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="6"/>
+      <c r="X111" s="43"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+      <c r="AD111" s="4"/>
+      <c r="AE111" s="4"/>
+      <c r="AF111" s="4"/>
+      <c r="AG111" s="44"/>
+      <c r="AH111" s="9"/>
+      <c r="AI111" s="4"/>
+      <c r="AJ111" s="4"/>
+      <c r="AK111" s="4"/>
+      <c r="AL111" s="4"/>
+      <c r="AM111" s="4"/>
+      <c r="AN111" s="59"/>
+      <c r="AO111" s="59"/>
+      <c r="AP111" s="59"/>
+      <c r="AQ111" s="59"/>
+      <c r="AR111" s="59"/>
+      <c r="AS111" s="59"/>
+      <c r="AT111" s="59"/>
+      <c r="AU111" s="59"/>
+      <c r="AV111" s="59"/>
+      <c r="AW111" s="59"/>
+      <c r="AX111" s="59"/>
+      <c r="AY111" s="59"/>
+      <c r="AZ111" s="59"/>
+      <c r="BA111" s="4"/>
+      <c r="BB111" s="4"/>
+      <c r="BC111" s="4"/>
+      <c r="BD111" s="59"/>
+      <c r="BE111" s="4"/>
+      <c r="BF111" s="4"/>
+      <c r="BG111" s="4"/>
+    </row>
+    <row r="112" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="6"/>
+      <c r="X112" s="43"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4"/>
+      <c r="AE112" s="4"/>
+      <c r="AF112" s="4"/>
+      <c r="AG112" s="44"/>
+      <c r="AH112" s="9"/>
+      <c r="AI112" s="4"/>
+      <c r="AJ112" s="4"/>
+      <c r="AK112" s="4"/>
+      <c r="AL112" s="4"/>
+      <c r="AM112" s="4"/>
+      <c r="AN112" s="59"/>
+      <c r="AO112" s="59"/>
+      <c r="AP112" s="59"/>
+      <c r="AQ112" s="59"/>
+      <c r="AR112" s="59"/>
+      <c r="AS112" s="59"/>
+      <c r="AT112" s="59"/>
+      <c r="AU112" s="59"/>
+      <c r="AV112" s="59"/>
+      <c r="AW112" s="59"/>
+      <c r="AX112" s="59"/>
+      <c r="AY112" s="59"/>
+      <c r="AZ112" s="59"/>
+      <c r="BA112" s="4"/>
+      <c r="BB112" s="4"/>
+      <c r="BC112" s="4"/>
+      <c r="BD112" s="59"/>
+      <c r="BE112" s="4"/>
+      <c r="BF112" s="4"/>
+      <c r="BG112" s="4"/>
+    </row>
+    <row r="113" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="6"/>
+      <c r="X113" s="43"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+      <c r="AD113" s="4"/>
+      <c r="AE113" s="4"/>
+      <c r="AF113" s="4"/>
+      <c r="AG113" s="44"/>
+      <c r="AH113" s="9"/>
+      <c r="AI113" s="4"/>
+      <c r="AJ113" s="4"/>
+      <c r="AK113" s="4"/>
+      <c r="AL113" s="4"/>
+      <c r="AM113" s="4"/>
+      <c r="AN113" s="59"/>
+      <c r="AO113" s="59"/>
+      <c r="AP113" s="59"/>
+      <c r="AQ113" s="18"/>
+      <c r="AR113" s="18"/>
+      <c r="AS113" s="18"/>
+      <c r="AT113" s="18"/>
+      <c r="AU113" s="18"/>
+      <c r="AV113" s="18"/>
+      <c r="AW113" s="59"/>
+      <c r="AX113" s="59"/>
+      <c r="AY113" s="59"/>
+      <c r="AZ113" s="59"/>
+      <c r="BA113" s="4"/>
+      <c r="BB113" s="4"/>
+      <c r="BC113" s="4"/>
+      <c r="BD113" s="59"/>
+      <c r="BE113" s="4"/>
+      <c r="BF113" s="4"/>
+      <c r="BG113" s="4"/>
+    </row>
+    <row r="114" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="B114" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="4"/>
+      <c r="Q114" s="4"/>
+      <c r="R114" s="4"/>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="6"/>
+      <c r="X114" s="43"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="4"/>
+      <c r="AE114" s="4"/>
+      <c r="AF114" s="4"/>
+      <c r="AG114" s="44"/>
+      <c r="AH114" s="9"/>
+      <c r="AI114" s="4"/>
+      <c r="AJ114" s="4"/>
+      <c r="AK114" s="4"/>
+      <c r="AL114" s="4"/>
+      <c r="AM114" s="4"/>
+      <c r="AN114" s="59"/>
+      <c r="AO114" s="59"/>
+      <c r="AP114" s="59"/>
+      <c r="AQ114" s="59"/>
+      <c r="AR114" s="59"/>
+      <c r="AS114" s="59"/>
+      <c r="AT114" s="59"/>
+      <c r="AU114" s="59"/>
+      <c r="AV114" s="59"/>
+      <c r="AW114" s="18"/>
+      <c r="AX114" s="18"/>
+      <c r="AY114" s="18"/>
+      <c r="AZ114" s="18"/>
+      <c r="BA114" s="4"/>
+      <c r="BB114" s="4"/>
+      <c r="BC114" s="4"/>
+      <c r="BD114" s="59"/>
+      <c r="BE114" s="4"/>
+      <c r="BF114" s="4"/>
+      <c r="BG114" s="4"/>
+    </row>
+    <row r="115" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="6"/>
+      <c r="X115" s="43"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+      <c r="AD115" s="4"/>
+      <c r="AE115" s="4"/>
+      <c r="AF115" s="4"/>
+      <c r="AG115" s="44"/>
+      <c r="AH115" s="9"/>
+      <c r="AI115" s="4"/>
+      <c r="AJ115" s="4"/>
+      <c r="AK115" s="4"/>
+      <c r="AL115" s="4"/>
+      <c r="AM115" s="4"/>
+      <c r="AN115" s="59"/>
+      <c r="AO115" s="59"/>
+      <c r="AP115" s="59"/>
+      <c r="AQ115" s="59"/>
+      <c r="AR115" s="59"/>
+      <c r="AS115" s="59"/>
+      <c r="AT115" s="59"/>
+      <c r="AU115" s="59"/>
+      <c r="AV115" s="59"/>
+      <c r="AW115" s="59"/>
+      <c r="AX115" s="59"/>
+      <c r="AY115" s="59"/>
+      <c r="AZ115" s="59"/>
+      <c r="BA115" s="4"/>
+      <c r="BB115" s="4"/>
+      <c r="BC115" s="4"/>
+      <c r="BD115" s="59"/>
+      <c r="BE115" s="4"/>
+      <c r="BF115" s="4"/>
+      <c r="BG115" s="4"/>
+    </row>
+    <row r="116" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="6"/>
+      <c r="X116" s="43"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="4"/>
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="4"/>
+      <c r="AE116" s="4"/>
+      <c r="AF116" s="4"/>
+      <c r="AG116" s="44"/>
+      <c r="AH116" s="9"/>
+      <c r="AI116" s="4"/>
+      <c r="AJ116" s="4"/>
+      <c r="AK116" s="4"/>
+      <c r="AL116" s="4"/>
+      <c r="AM116" s="4"/>
+      <c r="AN116" s="59"/>
+      <c r="AO116" s="59"/>
+      <c r="AP116" s="59"/>
+      <c r="AQ116" s="59"/>
+      <c r="AR116" s="59"/>
+      <c r="AS116" s="59"/>
+      <c r="AT116" s="59"/>
+      <c r="AU116" s="59"/>
+      <c r="AV116" s="59"/>
+      <c r="AW116" s="59"/>
+      <c r="AX116" s="59"/>
+      <c r="AY116" s="59"/>
+      <c r="AZ116" s="59"/>
+      <c r="BA116" s="4"/>
+      <c r="BB116" s="4"/>
+      <c r="BC116" s="4"/>
+      <c r="BD116" s="59"/>
+      <c r="BE116" s="4"/>
+      <c r="BF116" s="4"/>
+      <c r="BG116" s="4"/>
+    </row>
+    <row r="117" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="4"/>
+      <c r="Q117" s="4"/>
+      <c r="R117" s="4"/>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="6"/>
+      <c r="X117" s="43"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="4"/>
+      <c r="AE117" s="4"/>
+      <c r="AF117" s="4"/>
+      <c r="AG117" s="44"/>
+      <c r="AH117" s="9"/>
+      <c r="AI117" s="4"/>
+      <c r="AJ117" s="4"/>
+      <c r="AK117" s="4"/>
+      <c r="AL117" s="4"/>
+      <c r="AM117" s="4"/>
+      <c r="AN117" s="59"/>
+      <c r="AO117" s="59"/>
+      <c r="AP117" s="59"/>
+      <c r="AQ117" s="59"/>
+      <c r="AR117" s="59"/>
+      <c r="AS117" s="59"/>
+      <c r="AT117" s="59"/>
+      <c r="AU117" s="59"/>
+      <c r="AV117" s="59"/>
+      <c r="AW117" s="59"/>
+      <c r="AX117" s="59"/>
+      <c r="AY117" s="59"/>
+      <c r="AZ117" s="59"/>
+      <c r="BA117" s="4"/>
+      <c r="BB117" s="4"/>
+      <c r="BC117" s="4"/>
+      <c r="BD117" s="59"/>
+      <c r="BE117" s="4"/>
+      <c r="BF117" s="4"/>
+      <c r="BG117" s="4"/>
+    </row>
+    <row r="118" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="6"/>
+      <c r="X118" s="43"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="4"/>
+      <c r="AE118" s="4"/>
+      <c r="AF118" s="4"/>
+      <c r="AG118" s="44"/>
+      <c r="AH118" s="9"/>
+      <c r="AI118" s="4"/>
+      <c r="AJ118" s="4"/>
+      <c r="AK118" s="4"/>
+      <c r="AL118" s="4"/>
+      <c r="AM118" s="4"/>
+      <c r="AN118" s="59"/>
+      <c r="AO118" s="59"/>
+      <c r="AP118" s="59"/>
+      <c r="AQ118" s="59"/>
+      <c r="AR118" s="59"/>
+      <c r="AS118" s="59"/>
+      <c r="AT118" s="59"/>
+      <c r="AU118" s="59"/>
+      <c r="AV118" s="59"/>
+      <c r="AW118" s="59"/>
+      <c r="AX118" s="59"/>
+      <c r="AY118" s="59"/>
+      <c r="AZ118" s="59"/>
+      <c r="BA118" s="4"/>
+      <c r="BB118" s="4"/>
+      <c r="BC118" s="4"/>
+      <c r="BD118" s="59"/>
+      <c r="BE118" s="4"/>
+      <c r="BF118" s="4"/>
+      <c r="BG118" s="4"/>
+    </row>
+    <row r="119" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="4"/>
+      <c r="Q119" s="4"/>
+      <c r="R119" s="4"/>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="6"/>
+      <c r="X119" s="45"/>
+      <c r="Y119" s="46"/>
+      <c r="Z119" s="46"/>
+      <c r="AA119" s="46"/>
+      <c r="AB119" s="46"/>
+      <c r="AC119" s="46"/>
+      <c r="AD119" s="46"/>
+      <c r="AE119" s="46"/>
+      <c r="AF119" s="46"/>
+      <c r="AG119" s="47"/>
+      <c r="AH119" s="9"/>
+      <c r="AI119" s="4"/>
+      <c r="AJ119" s="4"/>
+      <c r="AK119" s="4"/>
+      <c r="AL119" s="4"/>
+      <c r="AM119" s="4"/>
+      <c r="AN119" s="59"/>
+      <c r="AO119" s="59"/>
+      <c r="AP119" s="59"/>
+      <c r="AQ119" s="59"/>
+      <c r="AR119" s="59"/>
+      <c r="AS119" s="59"/>
+      <c r="AT119" s="59"/>
+      <c r="AU119" s="59"/>
+      <c r="AV119" s="59"/>
+      <c r="AW119" s="59"/>
+      <c r="AX119" s="59"/>
+      <c r="AY119" s="59"/>
+      <c r="AZ119" s="59"/>
+      <c r="BA119" s="4"/>
+      <c r="BB119" s="4"/>
+      <c r="BC119" s="4"/>
+      <c r="BD119" s="59"/>
+      <c r="BE119" s="4"/>
+      <c r="BF119" s="4"/>
+      <c r="BG119" s="4"/>
+    </row>
+    <row r="120" spans="1:59" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A128" s="40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="AZ1:BC1"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -6749,6 +8685,7 @@
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AY1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/planificacion/planificacion.xlsx
+++ b/planificacion/planificacion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D60751-34A9-4567-A8AA-0C1224F42692}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB51A4-E6CB-4011-AAA9-67D0BF9FF3A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6810" yWindow="3810" windowWidth="15330" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version actual" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
   <si>
     <t>Tareas</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Analizar caso de estudio y sacar conclusiones</t>
+  </si>
+  <si>
+    <t>Iteración 6</t>
   </si>
 </sst>
 </file>
@@ -730,6 +733,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,17 +777,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1062,8 +1065,8 @@
   <dimension ref="A1:BG129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW114" sqref="AW114:AZ114"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA116" sqref="BA116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,88 +1082,88 @@
   <sheetData>
     <row r="1" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="48" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="49" t="s">
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="48" t="s">
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="53" t="s">
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="56" t="s">
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="57" t="s">
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="48" t="s">
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="49"/>
-      <c r="AJ1" s="49"/>
-      <c r="AK1" s="49"/>
-      <c r="AL1" s="50"/>
-      <c r="AM1" s="48" t="s">
+      <c r="AI1" s="60"/>
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="49"/>
-      <c r="AO1" s="49"/>
-      <c r="AP1" s="50"/>
-      <c r="AQ1" s="48" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="49"/>
-      <c r="AS1" s="49"/>
-      <c r="AT1" s="50"/>
-      <c r="AU1" s="48" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="61"/>
+      <c r="AU1" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="49"/>
-      <c r="AW1" s="49"/>
-      <c r="AX1" s="49"/>
-      <c r="AY1" s="50"/>
-      <c r="AZ1" s="48" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="61"/>
+      <c r="AZ1" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" s="49"/>
-      <c r="BB1" s="49"/>
-      <c r="BC1" s="50"/>
-      <c r="BD1" s="48" t="s">
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="61"/>
+      <c r="BD1" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="BE1" s="49"/>
-      <c r="BF1" s="49"/>
-      <c r="BG1" s="50"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
+      <c r="BG1" s="61"/>
     </row>
     <row r="2" spans="1:59" ht="69.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1467,7 +1470,7 @@
       <c r="BF4" s="15"/>
       <c r="BG4" s="15"/>
     </row>
-    <row r="5" spans="1:59" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="11" t="s">
         <v>35</v>
@@ -1483,7 +1486,6 @@
       <c r="K5" s="13"/>
       <c r="L5" s="15"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="17"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
@@ -1504,7 +1506,7 @@
       <c r="AF5" s="10"/>
       <c r="AG5" s="31"/>
       <c r="AH5" s="25"/>
-      <c r="AI5" s="15"/>
+      <c r="AI5" s="17"/>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="15"/>
       <c r="AL5" s="15"/>
@@ -3793,10 +3795,10 @@
       <c r="M42" s="1"/>
       <c r="N42" s="18"/>
       <c r="O42" s="18"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="48"/>
+      <c r="S42" s="48"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -3855,10 +3857,10 @@
       <c r="M43" s="1"/>
       <c r="N43" s="18"/>
       <c r="O43" s="18"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="59"/>
-      <c r="R43" s="59"/>
-      <c r="S43" s="59"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="48"/>
+      <c r="S43" s="48"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
@@ -4040,8 +4042,8 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="59"/>
-      <c r="U46" s="59"/>
+      <c r="S46" s="48"/>
+      <c r="U46" s="48"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="34"/>
@@ -4103,8 +4105,8 @@
       <c r="O47" s="1"/>
       <c r="P47" s="18"/>
       <c r="Q47" s="18"/>
-      <c r="R47" s="59"/>
-      <c r="U47" s="59"/>
+      <c r="R47" s="48"/>
+      <c r="U47" s="48"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="34"/>
@@ -4164,8 +4166,8 @@
       <c r="O48" s="1"/>
       <c r="P48" s="18"/>
       <c r="Q48" s="18"/>
-      <c r="R48" s="59"/>
-      <c r="U48" s="59"/>
+      <c r="R48" s="48"/>
+      <c r="U48" s="48"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="34"/>
@@ -4223,8 +4225,8 @@
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="59"/>
-      <c r="U49" s="59"/>
+      <c r="R49" s="48"/>
+      <c r="U49" s="48"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="34"/>
@@ -4537,7 +4539,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="4"/>
-      <c r="W54" s="60"/>
+      <c r="W54" s="49"/>
       <c r="X54" s="9"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="4"/>
@@ -4600,7 +4602,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="4"/>
-      <c r="W55" s="60"/>
+      <c r="W55" s="49"/>
       <c r="X55" s="9"/>
       <c r="Y55" s="6"/>
       <c r="Z55" s="4"/>
@@ -4663,7 +4665,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="4"/>
-      <c r="W56" s="60"/>
+      <c r="W56" s="49"/>
       <c r="X56" s="9"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="4"/>
@@ -4724,7 +4726,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="4"/>
-      <c r="W57" s="60"/>
+      <c r="W57" s="49"/>
       <c r="X57" s="9"/>
       <c r="Y57" s="6"/>
       <c r="Z57" s="4"/>
@@ -4785,7 +4787,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="4"/>
-      <c r="W58" s="60"/>
+      <c r="W58" s="49"/>
       <c r="X58" s="9"/>
       <c r="Y58" s="6"/>
       <c r="Z58" s="4"/>
@@ -4850,7 +4852,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="4"/>
-      <c r="W59" s="60"/>
+      <c r="W59" s="49"/>
       <c r="X59" s="9"/>
       <c r="Y59" s="6"/>
       <c r="Z59" s="4"/>
@@ -4913,7 +4915,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="4"/>
-      <c r="W60" s="60"/>
+      <c r="W60" s="49"/>
       <c r="X60" s="9"/>
       <c r="Y60" s="6"/>
       <c r="Z60" s="4"/>
@@ -4975,28 +4977,28 @@
       <c r="U61" s="1"/>
       <c r="V61" s="4"/>
       <c r="W61" s="35"/>
-      <c r="X61" s="61"/>
-      <c r="Y61" s="62"/>
+      <c r="X61" s="50"/>
+      <c r="Y61" s="51"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="59"/>
-      <c r="AG61" s="66"/>
-      <c r="AH61" s="68"/>
-      <c r="AI61" s="59"/>
-      <c r="AJ61" s="59"/>
-      <c r="AK61" s="59"/>
-      <c r="AL61" s="59"/>
-      <c r="AM61" s="59"/>
-      <c r="AN61" s="59"/>
-      <c r="AO61" s="59"/>
-      <c r="AP61" s="59"/>
-      <c r="AQ61" s="59"/>
-      <c r="AR61" s="59"/>
-      <c r="AS61" s="59"/>
+      <c r="AF61" s="48"/>
+      <c r="AG61" s="55"/>
+      <c r="AH61" s="57"/>
+      <c r="AI61" s="48"/>
+      <c r="AJ61" s="48"/>
+      <c r="AK61" s="48"/>
+      <c r="AL61" s="48"/>
+      <c r="AM61" s="48"/>
+      <c r="AN61" s="48"/>
+      <c r="AO61" s="48"/>
+      <c r="AP61" s="48"/>
+      <c r="AQ61" s="48"/>
+      <c r="AR61" s="48"/>
+      <c r="AS61" s="48"/>
       <c r="AT61" s="4"/>
       <c r="AU61" s="4"/>
       <c r="AV61" s="4"/>
@@ -5036,28 +5038,28 @@
       <c r="U62" s="1"/>
       <c r="V62" s="4"/>
       <c r="W62" s="35"/>
-      <c r="X62" s="63"/>
-      <c r="Y62" s="64"/>
-      <c r="Z62" s="65"/>
+      <c r="X62" s="52"/>
+      <c r="Y62" s="53"/>
+      <c r="Z62" s="54"/>
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
-      <c r="AF62" s="59"/>
-      <c r="AG62" s="66"/>
-      <c r="AH62" s="68"/>
-      <c r="AI62" s="59"/>
-      <c r="AJ62" s="59"/>
-      <c r="AK62" s="59"/>
-      <c r="AL62" s="59"/>
-      <c r="AM62" s="59"/>
-      <c r="AN62" s="59"/>
-      <c r="AO62" s="59"/>
-      <c r="AP62" s="59"/>
-      <c r="AQ62" s="59"/>
-      <c r="AR62" s="59"/>
-      <c r="AS62" s="59"/>
+      <c r="AF62" s="48"/>
+      <c r="AG62" s="55"/>
+      <c r="AH62" s="57"/>
+      <c r="AI62" s="48"/>
+      <c r="AJ62" s="48"/>
+      <c r="AK62" s="48"/>
+      <c r="AL62" s="48"/>
+      <c r="AM62" s="48"/>
+      <c r="AN62" s="48"/>
+      <c r="AO62" s="48"/>
+      <c r="AP62" s="48"/>
+      <c r="AQ62" s="48"/>
+      <c r="AR62" s="48"/>
+      <c r="AS62" s="48"/>
       <c r="AT62" s="4"/>
       <c r="AU62" s="4"/>
       <c r="AV62" s="4"/>
@@ -5101,28 +5103,28 @@
       <c r="U63" s="1"/>
       <c r="V63" s="4"/>
       <c r="W63" s="35"/>
-      <c r="X63" s="63"/>
-      <c r="Y63" s="64"/>
-      <c r="Z63" s="65"/>
+      <c r="X63" s="52"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="54"/>
       <c r="AA63" s="4"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
-      <c r="AF63" s="59"/>
-      <c r="AG63" s="66"/>
-      <c r="AH63" s="69"/>
-      <c r="AI63" s="59"/>
-      <c r="AJ63" s="59"/>
-      <c r="AK63" s="59"/>
-      <c r="AL63" s="59"/>
-      <c r="AM63" s="59"/>
-      <c r="AN63" s="59"/>
-      <c r="AO63" s="59"/>
-      <c r="AP63" s="59"/>
-      <c r="AQ63" s="59"/>
-      <c r="AR63" s="59"/>
-      <c r="AS63" s="59"/>
+      <c r="AF63" s="48"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="58"/>
+      <c r="AI63" s="48"/>
+      <c r="AJ63" s="48"/>
+      <c r="AK63" s="48"/>
+      <c r="AL63" s="48"/>
+      <c r="AM63" s="48"/>
+      <c r="AN63" s="48"/>
+      <c r="AO63" s="48"/>
+      <c r="AP63" s="48"/>
+      <c r="AQ63" s="48"/>
+      <c r="AR63" s="48"/>
+      <c r="AS63" s="48"/>
       <c r="AT63" s="4"/>
       <c r="AU63" s="4"/>
       <c r="AV63" s="4"/>
@@ -5164,28 +5166,28 @@
       <c r="U64" s="4"/>
       <c r="V64" s="4"/>
       <c r="W64" s="35"/>
-      <c r="X64" s="63"/>
-      <c r="Y64" s="65"/>
-      <c r="Z64" s="65"/>
+      <c r="X64" s="52"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
-      <c r="AF64" s="59"/>
-      <c r="AG64" s="66"/>
-      <c r="AH64" s="68"/>
-      <c r="AI64" s="59"/>
-      <c r="AJ64" s="59"/>
-      <c r="AK64" s="59"/>
-      <c r="AL64" s="59"/>
-      <c r="AM64" s="59"/>
-      <c r="AN64" s="59"/>
-      <c r="AO64" s="59"/>
-      <c r="AP64" s="59"/>
-      <c r="AQ64" s="59"/>
-      <c r="AR64" s="59"/>
-      <c r="AS64" s="59"/>
+      <c r="AF64" s="48"/>
+      <c r="AG64" s="55"/>
+      <c r="AH64" s="57"/>
+      <c r="AI64" s="48"/>
+      <c r="AJ64" s="48"/>
+      <c r="AK64" s="48"/>
+      <c r="AL64" s="48"/>
+      <c r="AM64" s="48"/>
+      <c r="AN64" s="48"/>
+      <c r="AO64" s="48"/>
+      <c r="AP64" s="48"/>
+      <c r="AQ64" s="48"/>
+      <c r="AR64" s="48"/>
+      <c r="AS64" s="48"/>
       <c r="AT64" s="4"/>
       <c r="AU64" s="4"/>
       <c r="AV64" s="4"/>
@@ -5233,20 +5235,20 @@
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
-      <c r="AF65" s="59"/>
-      <c r="AG65" s="66"/>
-      <c r="AH65" s="67"/>
-      <c r="AI65" s="59"/>
-      <c r="AJ65" s="59"/>
-      <c r="AK65" s="59"/>
-      <c r="AL65" s="59"/>
-      <c r="AM65" s="59"/>
-      <c r="AN65" s="59"/>
-      <c r="AO65" s="59"/>
-      <c r="AP65" s="59"/>
-      <c r="AQ65" s="59"/>
-      <c r="AR65" s="59"/>
-      <c r="AS65" s="59"/>
+      <c r="AF65" s="48"/>
+      <c r="AG65" s="55"/>
+      <c r="AH65" s="56"/>
+      <c r="AI65" s="48"/>
+      <c r="AJ65" s="48"/>
+      <c r="AK65" s="48"/>
+      <c r="AL65" s="48"/>
+      <c r="AM65" s="48"/>
+      <c r="AN65" s="48"/>
+      <c r="AO65" s="48"/>
+      <c r="AP65" s="48"/>
+      <c r="AQ65" s="48"/>
+      <c r="AR65" s="48"/>
+      <c r="AS65" s="48"/>
       <c r="AT65" s="4"/>
       <c r="AU65" s="4"/>
       <c r="AV65" s="4"/>
@@ -5298,20 +5300,20 @@
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
-      <c r="AF66" s="59"/>
-      <c r="AG66" s="66"/>
-      <c r="AH66" s="67"/>
-      <c r="AI66" s="59"/>
-      <c r="AJ66" s="59"/>
-      <c r="AK66" s="59"/>
-      <c r="AL66" s="59"/>
-      <c r="AM66" s="59"/>
-      <c r="AN66" s="59"/>
-      <c r="AO66" s="59"/>
-      <c r="AP66" s="59"/>
-      <c r="AQ66" s="59"/>
-      <c r="AR66" s="59"/>
-      <c r="AS66" s="59"/>
+      <c r="AF66" s="48"/>
+      <c r="AG66" s="55"/>
+      <c r="AH66" s="56"/>
+      <c r="AI66" s="48"/>
+      <c r="AJ66" s="48"/>
+      <c r="AK66" s="48"/>
+      <c r="AL66" s="48"/>
+      <c r="AM66" s="48"/>
+      <c r="AN66" s="48"/>
+      <c r="AO66" s="48"/>
+      <c r="AP66" s="48"/>
+      <c r="AQ66" s="48"/>
+      <c r="AR66" s="48"/>
+      <c r="AS66" s="48"/>
       <c r="AT66" s="4"/>
       <c r="AU66" s="4"/>
       <c r="AV66" s="4"/>
@@ -5361,20 +5363,20 @@
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
-      <c r="AF67" s="59"/>
-      <c r="AG67" s="66"/>
-      <c r="AH67" s="67"/>
-      <c r="AI67" s="59"/>
-      <c r="AJ67" s="59"/>
-      <c r="AK67" s="59"/>
-      <c r="AL67" s="59"/>
-      <c r="AM67" s="59"/>
-      <c r="AN67" s="59"/>
-      <c r="AO67" s="59"/>
-      <c r="AP67" s="59"/>
-      <c r="AQ67" s="59"/>
-      <c r="AR67" s="59"/>
-      <c r="AS67" s="59"/>
+      <c r="AF67" s="48"/>
+      <c r="AG67" s="55"/>
+      <c r="AH67" s="56"/>
+      <c r="AI67" s="48"/>
+      <c r="AJ67" s="48"/>
+      <c r="AK67" s="48"/>
+      <c r="AL67" s="48"/>
+      <c r="AM67" s="48"/>
+      <c r="AN67" s="48"/>
+      <c r="AO67" s="48"/>
+      <c r="AP67" s="48"/>
+      <c r="AQ67" s="48"/>
+      <c r="AR67" s="48"/>
+      <c r="AS67" s="48"/>
       <c r="AT67" s="4"/>
       <c r="AU67" s="4"/>
       <c r="AV67" s="4"/>
@@ -5421,20 +5423,20 @@
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
-      <c r="AF68" s="59"/>
-      <c r="AG68" s="66"/>
-      <c r="AH68" s="67"/>
-      <c r="AI68" s="59"/>
-      <c r="AJ68" s="59"/>
-      <c r="AK68" s="59"/>
-      <c r="AL68" s="59"/>
-      <c r="AM68" s="59"/>
-      <c r="AN68" s="59"/>
-      <c r="AO68" s="59"/>
-      <c r="AP68" s="59"/>
-      <c r="AQ68" s="59"/>
-      <c r="AR68" s="59"/>
-      <c r="AS68" s="59"/>
+      <c r="AF68" s="48"/>
+      <c r="AG68" s="55"/>
+      <c r="AH68" s="56"/>
+      <c r="AI68" s="48"/>
+      <c r="AJ68" s="48"/>
+      <c r="AK68" s="48"/>
+      <c r="AL68" s="48"/>
+      <c r="AM68" s="48"/>
+      <c r="AN68" s="48"/>
+      <c r="AO68" s="48"/>
+      <c r="AP68" s="48"/>
+      <c r="AQ68" s="48"/>
+      <c r="AR68" s="48"/>
+      <c r="AS68" s="48"/>
       <c r="AT68" s="4"/>
       <c r="AU68" s="4"/>
       <c r="AV68" s="4"/>
@@ -5484,20 +5486,20 @@
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
-      <c r="AF69" s="59"/>
-      <c r="AG69" s="66"/>
-      <c r="AH69" s="67"/>
-      <c r="AI69" s="59"/>
-      <c r="AJ69" s="59"/>
-      <c r="AK69" s="59"/>
-      <c r="AL69" s="59"/>
-      <c r="AM69" s="59"/>
-      <c r="AN69" s="59"/>
-      <c r="AO69" s="59"/>
-      <c r="AP69" s="59"/>
-      <c r="AQ69" s="59"/>
-      <c r="AR69" s="59"/>
-      <c r="AS69" s="59"/>
+      <c r="AF69" s="48"/>
+      <c r="AG69" s="55"/>
+      <c r="AH69" s="56"/>
+      <c r="AI69" s="48"/>
+      <c r="AJ69" s="48"/>
+      <c r="AK69" s="48"/>
+      <c r="AL69" s="48"/>
+      <c r="AM69" s="48"/>
+      <c r="AN69" s="48"/>
+      <c r="AO69" s="48"/>
+      <c r="AP69" s="48"/>
+      <c r="AQ69" s="48"/>
+      <c r="AR69" s="48"/>
+      <c r="AS69" s="48"/>
       <c r="AT69" s="4"/>
       <c r="AU69" s="4"/>
       <c r="AV69" s="4"/>
@@ -5622,23 +5624,23 @@
       <c r="AK71" s="4"/>
       <c r="AL71" s="4"/>
       <c r="AM71" s="4"/>
-      <c r="AN71" s="59"/>
-      <c r="AO71" s="59"/>
-      <c r="AP71" s="59"/>
-      <c r="AQ71" s="59"/>
-      <c r="AR71" s="59"/>
-      <c r="AS71" s="59"/>
-      <c r="AT71" s="59"/>
-      <c r="AU71" s="59"/>
-      <c r="AV71" s="59"/>
-      <c r="AW71" s="59"/>
-      <c r="AX71" s="59"/>
-      <c r="AY71" s="59"/>
-      <c r="AZ71" s="59"/>
+      <c r="AN71" s="48"/>
+      <c r="AO71" s="48"/>
+      <c r="AP71" s="48"/>
+      <c r="AQ71" s="48"/>
+      <c r="AR71" s="48"/>
+      <c r="AS71" s="48"/>
+      <c r="AT71" s="48"/>
+      <c r="AU71" s="48"/>
+      <c r="AV71" s="48"/>
+      <c r="AW71" s="48"/>
+      <c r="AX71" s="48"/>
+      <c r="AY71" s="48"/>
+      <c r="AZ71" s="48"/>
       <c r="BA71" s="4"/>
       <c r="BB71" s="4"/>
       <c r="BC71" s="4"/>
-      <c r="BD71" s="59"/>
+      <c r="BD71" s="48"/>
       <c r="BE71" s="4"/>
       <c r="BF71" s="4"/>
       <c r="BG71" s="4"/>
@@ -5685,23 +5687,23 @@
       <c r="AK72" s="4"/>
       <c r="AL72" s="4"/>
       <c r="AM72" s="4"/>
-      <c r="AN72" s="59"/>
-      <c r="AO72" s="59"/>
-      <c r="AP72" s="59"/>
-      <c r="AQ72" s="59"/>
-      <c r="AR72" s="59"/>
-      <c r="AS72" s="59"/>
-      <c r="AT72" s="59"/>
-      <c r="AU72" s="59"/>
-      <c r="AV72" s="59"/>
-      <c r="AW72" s="59"/>
-      <c r="AX72" s="59"/>
-      <c r="AY72" s="59"/>
-      <c r="AZ72" s="59"/>
+      <c r="AN72" s="48"/>
+      <c r="AO72" s="48"/>
+      <c r="AP72" s="48"/>
+      <c r="AQ72" s="48"/>
+      <c r="AR72" s="48"/>
+      <c r="AS72" s="48"/>
+      <c r="AT72" s="48"/>
+      <c r="AU72" s="48"/>
+      <c r="AV72" s="48"/>
+      <c r="AW72" s="48"/>
+      <c r="AX72" s="48"/>
+      <c r="AY72" s="48"/>
+      <c r="AZ72" s="48"/>
       <c r="BA72" s="4"/>
       <c r="BB72" s="4"/>
       <c r="BC72" s="4"/>
-      <c r="BD72" s="59"/>
+      <c r="BD72" s="48"/>
       <c r="BE72" s="4"/>
       <c r="BF72" s="4"/>
       <c r="BG72" s="4"/>
@@ -5748,23 +5750,23 @@
       <c r="AK73" s="4"/>
       <c r="AL73" s="4"/>
       <c r="AM73" s="4"/>
-      <c r="AN73" s="59"/>
-      <c r="AO73" s="59"/>
-      <c r="AP73" s="59"/>
-      <c r="AQ73" s="59"/>
-      <c r="AR73" s="59"/>
-      <c r="AS73" s="59"/>
-      <c r="AT73" s="59"/>
-      <c r="AU73" s="59"/>
-      <c r="AV73" s="59"/>
-      <c r="AW73" s="59"/>
-      <c r="AX73" s="59"/>
-      <c r="AY73" s="59"/>
-      <c r="AZ73" s="59"/>
+      <c r="AN73" s="48"/>
+      <c r="AO73" s="48"/>
+      <c r="AP73" s="48"/>
+      <c r="AQ73" s="48"/>
+      <c r="AR73" s="48"/>
+      <c r="AS73" s="48"/>
+      <c r="AT73" s="48"/>
+      <c r="AU73" s="48"/>
+      <c r="AV73" s="48"/>
+      <c r="AW73" s="48"/>
+      <c r="AX73" s="48"/>
+      <c r="AY73" s="48"/>
+      <c r="AZ73" s="48"/>
       <c r="BA73" s="4"/>
       <c r="BB73" s="4"/>
       <c r="BC73" s="4"/>
-      <c r="BD73" s="59"/>
+      <c r="BD73" s="48"/>
       <c r="BE73" s="4"/>
       <c r="BF73" s="4"/>
       <c r="BG73" s="4"/>
@@ -5789,7 +5791,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="59"/>
+      <c r="T74" s="48"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="6"/>
@@ -5809,23 +5811,23 @@
       <c r="AK74" s="4"/>
       <c r="AL74" s="4"/>
       <c r="AM74" s="4"/>
-      <c r="AN74" s="59"/>
-      <c r="AO74" s="59"/>
-      <c r="AP74" s="59"/>
-      <c r="AQ74" s="59"/>
-      <c r="AR74" s="59"/>
-      <c r="AS74" s="59"/>
-      <c r="AT74" s="59"/>
-      <c r="AU74" s="59"/>
-      <c r="AV74" s="59"/>
-      <c r="AW74" s="59"/>
-      <c r="AX74" s="59"/>
-      <c r="AY74" s="59"/>
-      <c r="AZ74" s="59"/>
+      <c r="AN74" s="48"/>
+      <c r="AO74" s="48"/>
+      <c r="AP74" s="48"/>
+      <c r="AQ74" s="48"/>
+      <c r="AR74" s="48"/>
+      <c r="AS74" s="48"/>
+      <c r="AT74" s="48"/>
+      <c r="AU74" s="48"/>
+      <c r="AV74" s="48"/>
+      <c r="AW74" s="48"/>
+      <c r="AX74" s="48"/>
+      <c r="AY74" s="48"/>
+      <c r="AZ74" s="48"/>
       <c r="BA74" s="4"/>
       <c r="BB74" s="4"/>
       <c r="BC74" s="4"/>
-      <c r="BD74" s="59"/>
+      <c r="BD74" s="48"/>
       <c r="BE74" s="4"/>
       <c r="BF74" s="4"/>
       <c r="BG74" s="4"/>
@@ -5870,23 +5872,23 @@
       <c r="AK75" s="4"/>
       <c r="AL75" s="4"/>
       <c r="AM75" s="4"/>
-      <c r="AN75" s="59"/>
-      <c r="AO75" s="59"/>
-      <c r="AP75" s="59"/>
-      <c r="AQ75" s="59"/>
-      <c r="AR75" s="59"/>
-      <c r="AS75" s="59"/>
-      <c r="AT75" s="59"/>
-      <c r="AU75" s="59"/>
-      <c r="AV75" s="59"/>
-      <c r="AW75" s="59"/>
-      <c r="AX75" s="59"/>
-      <c r="AY75" s="59"/>
-      <c r="AZ75" s="59"/>
+      <c r="AN75" s="48"/>
+      <c r="AO75" s="48"/>
+      <c r="AP75" s="48"/>
+      <c r="AQ75" s="48"/>
+      <c r="AR75" s="48"/>
+      <c r="AS75" s="48"/>
+      <c r="AT75" s="48"/>
+      <c r="AU75" s="48"/>
+      <c r="AV75" s="48"/>
+      <c r="AW75" s="48"/>
+      <c r="AX75" s="48"/>
+      <c r="AY75" s="48"/>
+      <c r="AZ75" s="48"/>
       <c r="BA75" s="4"/>
       <c r="BB75" s="4"/>
       <c r="BC75" s="4"/>
-      <c r="BD75" s="59"/>
+      <c r="BD75" s="48"/>
       <c r="BE75" s="4"/>
       <c r="BF75" s="4"/>
       <c r="BG75" s="4"/>
@@ -5935,23 +5937,23 @@
       <c r="AK76" s="4"/>
       <c r="AL76" s="4"/>
       <c r="AM76" s="4"/>
-      <c r="AN76" s="59"/>
-      <c r="AO76" s="59"/>
-      <c r="AP76" s="59"/>
-      <c r="AQ76" s="59"/>
-      <c r="AR76" s="59"/>
-      <c r="AS76" s="59"/>
-      <c r="AT76" s="59"/>
-      <c r="AU76" s="59"/>
-      <c r="AV76" s="59"/>
-      <c r="AW76" s="59"/>
-      <c r="AX76" s="59"/>
-      <c r="AY76" s="59"/>
-      <c r="AZ76" s="59"/>
+      <c r="AN76" s="48"/>
+      <c r="AO76" s="48"/>
+      <c r="AP76" s="48"/>
+      <c r="AQ76" s="48"/>
+      <c r="AR76" s="48"/>
+      <c r="AS76" s="48"/>
+      <c r="AT76" s="48"/>
+      <c r="AU76" s="48"/>
+      <c r="AV76" s="48"/>
+      <c r="AW76" s="48"/>
+      <c r="AX76" s="48"/>
+      <c r="AY76" s="48"/>
+      <c r="AZ76" s="48"/>
       <c r="BA76" s="4"/>
       <c r="BB76" s="4"/>
       <c r="BC76" s="4"/>
-      <c r="BD76" s="59"/>
+      <c r="BD76" s="48"/>
       <c r="BE76" s="4"/>
       <c r="BF76" s="4"/>
       <c r="BG76" s="4"/>
@@ -5998,23 +6000,23 @@
       <c r="AK77" s="4"/>
       <c r="AL77" s="4"/>
       <c r="AM77" s="4"/>
-      <c r="AN77" s="59"/>
-      <c r="AO77" s="59"/>
-      <c r="AP77" s="59"/>
-      <c r="AQ77" s="59"/>
-      <c r="AR77" s="59"/>
-      <c r="AS77" s="59"/>
-      <c r="AT77" s="59"/>
-      <c r="AU77" s="59"/>
-      <c r="AV77" s="59"/>
-      <c r="AW77" s="59"/>
-      <c r="AX77" s="59"/>
-      <c r="AY77" s="59"/>
-      <c r="AZ77" s="59"/>
+      <c r="AN77" s="48"/>
+      <c r="AO77" s="48"/>
+      <c r="AP77" s="48"/>
+      <c r="AQ77" s="48"/>
+      <c r="AR77" s="48"/>
+      <c r="AS77" s="48"/>
+      <c r="AT77" s="48"/>
+      <c r="AU77" s="48"/>
+      <c r="AV77" s="48"/>
+      <c r="AW77" s="48"/>
+      <c r="AX77" s="48"/>
+      <c r="AY77" s="48"/>
+      <c r="AZ77" s="48"/>
       <c r="BA77" s="4"/>
       <c r="BB77" s="4"/>
       <c r="BC77" s="4"/>
-      <c r="BD77" s="59"/>
+      <c r="BD77" s="48"/>
       <c r="BE77" s="4"/>
       <c r="BF77" s="4"/>
       <c r="BG77" s="4"/>
@@ -6059,23 +6061,23 @@
       <c r="AK78" s="4"/>
       <c r="AL78" s="4"/>
       <c r="AM78" s="4"/>
-      <c r="AN78" s="59"/>
-      <c r="AO78" s="59"/>
-      <c r="AP78" s="59"/>
-      <c r="AQ78" s="59"/>
-      <c r="AR78" s="59"/>
-      <c r="AS78" s="59"/>
-      <c r="AT78" s="59"/>
-      <c r="AU78" s="59"/>
-      <c r="AV78" s="59"/>
-      <c r="AW78" s="59"/>
-      <c r="AX78" s="59"/>
-      <c r="AY78" s="59"/>
-      <c r="AZ78" s="59"/>
+      <c r="AN78" s="48"/>
+      <c r="AO78" s="48"/>
+      <c r="AP78" s="48"/>
+      <c r="AQ78" s="48"/>
+      <c r="AR78" s="48"/>
+      <c r="AS78" s="48"/>
+      <c r="AT78" s="48"/>
+      <c r="AU78" s="48"/>
+      <c r="AV78" s="48"/>
+      <c r="AW78" s="48"/>
+      <c r="AX78" s="48"/>
+      <c r="AY78" s="48"/>
+      <c r="AZ78" s="48"/>
       <c r="BA78" s="4"/>
       <c r="BB78" s="4"/>
       <c r="BC78" s="4"/>
-      <c r="BD78" s="59"/>
+      <c r="BD78" s="48"/>
       <c r="BE78" s="4"/>
       <c r="BF78" s="4"/>
       <c r="BG78" s="4"/>
@@ -6124,23 +6126,23 @@
       <c r="AK79" s="4"/>
       <c r="AL79" s="4"/>
       <c r="AM79" s="4"/>
-      <c r="AN79" s="59"/>
-      <c r="AO79" s="59"/>
-      <c r="AP79" s="59"/>
-      <c r="AQ79" s="59"/>
-      <c r="AR79" s="59"/>
-      <c r="AS79" s="59"/>
-      <c r="AT79" s="59"/>
-      <c r="AU79" s="59"/>
-      <c r="AV79" s="59"/>
-      <c r="AW79" s="59"/>
-      <c r="AX79" s="59"/>
-      <c r="AY79" s="59"/>
-      <c r="AZ79" s="59"/>
+      <c r="AN79" s="48"/>
+      <c r="AO79" s="48"/>
+      <c r="AP79" s="48"/>
+      <c r="AQ79" s="48"/>
+      <c r="AR79" s="48"/>
+      <c r="AS79" s="48"/>
+      <c r="AT79" s="48"/>
+      <c r="AU79" s="48"/>
+      <c r="AV79" s="48"/>
+      <c r="AW79" s="48"/>
+      <c r="AX79" s="48"/>
+      <c r="AY79" s="48"/>
+      <c r="AZ79" s="48"/>
       <c r="BA79" s="4"/>
       <c r="BB79" s="4"/>
       <c r="BC79" s="4"/>
-      <c r="BD79" s="59"/>
+      <c r="BD79" s="48"/>
       <c r="BE79" s="4"/>
       <c r="BF79" s="4"/>
       <c r="BG79" s="4"/>
@@ -6187,23 +6189,23 @@
       <c r="AK80" s="4"/>
       <c r="AL80" s="4"/>
       <c r="AM80" s="4"/>
-      <c r="AN80" s="59"/>
-      <c r="AO80" s="59"/>
-      <c r="AP80" s="59"/>
-      <c r="AQ80" s="59"/>
-      <c r="AR80" s="59"/>
-      <c r="AS80" s="59"/>
-      <c r="AT80" s="59"/>
-      <c r="AU80" s="59"/>
-      <c r="AV80" s="59"/>
-      <c r="AW80" s="59"/>
-      <c r="AX80" s="59"/>
-      <c r="AY80" s="59"/>
-      <c r="AZ80" s="59"/>
+      <c r="AN80" s="48"/>
+      <c r="AO80" s="48"/>
+      <c r="AP80" s="48"/>
+      <c r="AQ80" s="48"/>
+      <c r="AR80" s="48"/>
+      <c r="AS80" s="48"/>
+      <c r="AT80" s="48"/>
+      <c r="AU80" s="48"/>
+      <c r="AV80" s="48"/>
+      <c r="AW80" s="48"/>
+      <c r="AX80" s="48"/>
+      <c r="AY80" s="48"/>
+      <c r="AZ80" s="48"/>
       <c r="BA80" s="4"/>
       <c r="BB80" s="4"/>
       <c r="BC80" s="4"/>
-      <c r="BD80" s="59"/>
+      <c r="BD80" s="48"/>
       <c r="BE80" s="4"/>
       <c r="BF80" s="4"/>
       <c r="BG80" s="4"/>
@@ -6250,23 +6252,23 @@
       <c r="AK81" s="4"/>
       <c r="AL81" s="4"/>
       <c r="AM81" s="4"/>
-      <c r="AN81" s="59"/>
-      <c r="AO81" s="59"/>
-      <c r="AP81" s="59"/>
-      <c r="AQ81" s="59"/>
-      <c r="AR81" s="59"/>
-      <c r="AS81" s="59"/>
-      <c r="AT81" s="59"/>
-      <c r="AU81" s="59"/>
-      <c r="AV81" s="59"/>
-      <c r="AW81" s="59"/>
-      <c r="AX81" s="59"/>
-      <c r="AY81" s="59"/>
-      <c r="AZ81" s="59"/>
+      <c r="AN81" s="48"/>
+      <c r="AO81" s="48"/>
+      <c r="AP81" s="48"/>
+      <c r="AQ81" s="48"/>
+      <c r="AR81" s="48"/>
+      <c r="AS81" s="48"/>
+      <c r="AT81" s="48"/>
+      <c r="AU81" s="48"/>
+      <c r="AV81" s="48"/>
+      <c r="AW81" s="48"/>
+      <c r="AX81" s="48"/>
+      <c r="AY81" s="48"/>
+      <c r="AZ81" s="48"/>
       <c r="BA81" s="4"/>
       <c r="BB81" s="4"/>
       <c r="BC81" s="4"/>
-      <c r="BD81" s="59"/>
+      <c r="BD81" s="48"/>
       <c r="BE81" s="4"/>
       <c r="BF81" s="4"/>
       <c r="BG81" s="4"/>
@@ -6313,23 +6315,23 @@
       <c r="AK82" s="4"/>
       <c r="AL82" s="4"/>
       <c r="AM82" s="4"/>
-      <c r="AN82" s="59"/>
-      <c r="AO82" s="59"/>
-      <c r="AP82" s="59"/>
-      <c r="AQ82" s="59"/>
-      <c r="AR82" s="59"/>
-      <c r="AS82" s="59"/>
-      <c r="AT82" s="59"/>
-      <c r="AU82" s="59"/>
-      <c r="AV82" s="59"/>
-      <c r="AW82" s="59"/>
-      <c r="AX82" s="59"/>
-      <c r="AY82" s="59"/>
-      <c r="AZ82" s="59"/>
+      <c r="AN82" s="48"/>
+      <c r="AO82" s="48"/>
+      <c r="AP82" s="48"/>
+      <c r="AQ82" s="48"/>
+      <c r="AR82" s="48"/>
+      <c r="AS82" s="48"/>
+      <c r="AT82" s="48"/>
+      <c r="AU82" s="48"/>
+      <c r="AV82" s="48"/>
+      <c r="AW82" s="48"/>
+      <c r="AX82" s="48"/>
+      <c r="AY82" s="48"/>
+      <c r="AZ82" s="48"/>
       <c r="BA82" s="4"/>
       <c r="BB82" s="4"/>
       <c r="BC82" s="4"/>
-      <c r="BD82" s="59"/>
+      <c r="BD82" s="48"/>
       <c r="BE82" s="4"/>
       <c r="BF82" s="4"/>
       <c r="BG82" s="4"/>
@@ -6376,23 +6378,23 @@
       <c r="AK83" s="4"/>
       <c r="AL83" s="4"/>
       <c r="AM83" s="4"/>
-      <c r="AN83" s="59"/>
-      <c r="AO83" s="59"/>
-      <c r="AP83" s="59"/>
-      <c r="AQ83" s="59"/>
-      <c r="AR83" s="59"/>
-      <c r="AS83" s="59"/>
-      <c r="AT83" s="59"/>
-      <c r="AU83" s="59"/>
-      <c r="AV83" s="59"/>
-      <c r="AW83" s="59"/>
-      <c r="AX83" s="59"/>
-      <c r="AY83" s="59"/>
-      <c r="AZ83" s="59"/>
+      <c r="AN83" s="48"/>
+      <c r="AO83" s="48"/>
+      <c r="AP83" s="48"/>
+      <c r="AQ83" s="48"/>
+      <c r="AR83" s="48"/>
+      <c r="AS83" s="48"/>
+      <c r="AT83" s="48"/>
+      <c r="AU83" s="48"/>
+      <c r="AV83" s="48"/>
+      <c r="AW83" s="48"/>
+      <c r="AX83" s="48"/>
+      <c r="AY83" s="48"/>
+      <c r="AZ83" s="48"/>
       <c r="BA83" s="4"/>
       <c r="BB83" s="4"/>
       <c r="BC83" s="4"/>
-      <c r="BD83" s="59"/>
+      <c r="BD83" s="48"/>
       <c r="BE83" s="4"/>
       <c r="BF83" s="4"/>
       <c r="BG83" s="4"/>
@@ -6439,23 +6441,23 @@
       <c r="AK84" s="4"/>
       <c r="AL84" s="4"/>
       <c r="AM84" s="4"/>
-      <c r="AN84" s="59"/>
-      <c r="AO84" s="59"/>
-      <c r="AP84" s="59"/>
-      <c r="AQ84" s="59"/>
-      <c r="AR84" s="59"/>
-      <c r="AS84" s="59"/>
-      <c r="AT84" s="59"/>
-      <c r="AU84" s="59"/>
-      <c r="AV84" s="59"/>
-      <c r="AW84" s="59"/>
-      <c r="AX84" s="59"/>
-      <c r="AY84" s="59"/>
-      <c r="AZ84" s="59"/>
+      <c r="AN84" s="48"/>
+      <c r="AO84" s="48"/>
+      <c r="AP84" s="48"/>
+      <c r="AQ84" s="48"/>
+      <c r="AR84" s="48"/>
+      <c r="AS84" s="48"/>
+      <c r="AT84" s="48"/>
+      <c r="AU84" s="48"/>
+      <c r="AV84" s="48"/>
+      <c r="AW84" s="48"/>
+      <c r="AX84" s="48"/>
+      <c r="AY84" s="48"/>
+      <c r="AZ84" s="48"/>
       <c r="BA84" s="4"/>
       <c r="BB84" s="4"/>
       <c r="BC84" s="4"/>
-      <c r="BD84" s="59"/>
+      <c r="BD84" s="48"/>
       <c r="BE84" s="4"/>
       <c r="BF84" s="4"/>
       <c r="BG84" s="4"/>
@@ -6500,23 +6502,23 @@
       <c r="AK85" s="4"/>
       <c r="AL85" s="4"/>
       <c r="AM85" s="4"/>
-      <c r="AN85" s="59"/>
-      <c r="AO85" s="59"/>
-      <c r="AP85" s="59"/>
-      <c r="AQ85" s="59"/>
-      <c r="AR85" s="59"/>
-      <c r="AS85" s="59"/>
-      <c r="AT85" s="59"/>
-      <c r="AU85" s="59"/>
-      <c r="AV85" s="59"/>
-      <c r="AW85" s="59"/>
-      <c r="AX85" s="59"/>
-      <c r="AY85" s="59"/>
-      <c r="AZ85" s="59"/>
+      <c r="AN85" s="48"/>
+      <c r="AO85" s="48"/>
+      <c r="AP85" s="48"/>
+      <c r="AQ85" s="48"/>
+      <c r="AR85" s="48"/>
+      <c r="AS85" s="48"/>
+      <c r="AT85" s="48"/>
+      <c r="AU85" s="48"/>
+      <c r="AV85" s="48"/>
+      <c r="AW85" s="48"/>
+      <c r="AX85" s="48"/>
+      <c r="AY85" s="48"/>
+      <c r="AZ85" s="48"/>
       <c r="BA85" s="4"/>
       <c r="BB85" s="4"/>
       <c r="BC85" s="4"/>
-      <c r="BD85" s="59"/>
+      <c r="BD85" s="48"/>
       <c r="BE85" s="4"/>
       <c r="BF85" s="4"/>
       <c r="BG85" s="4"/>
@@ -6561,23 +6563,23 @@
       <c r="AK86" s="4"/>
       <c r="AL86" s="4"/>
       <c r="AM86" s="4"/>
-      <c r="AN86" s="59"/>
-      <c r="AO86" s="59"/>
-      <c r="AP86" s="59"/>
-      <c r="AQ86" s="59"/>
-      <c r="AR86" s="59"/>
-      <c r="AS86" s="59"/>
-      <c r="AT86" s="59"/>
-      <c r="AU86" s="59"/>
-      <c r="AV86" s="59"/>
-      <c r="AW86" s="59"/>
-      <c r="AX86" s="59"/>
-      <c r="AY86" s="59"/>
-      <c r="AZ86" s="59"/>
+      <c r="AN86" s="48"/>
+      <c r="AO86" s="48"/>
+      <c r="AP86" s="48"/>
+      <c r="AQ86" s="48"/>
+      <c r="AR86" s="48"/>
+      <c r="AS86" s="48"/>
+      <c r="AT86" s="48"/>
+      <c r="AU86" s="48"/>
+      <c r="AV86" s="48"/>
+      <c r="AW86" s="48"/>
+      <c r="AX86" s="48"/>
+      <c r="AY86" s="48"/>
+      <c r="AZ86" s="48"/>
       <c r="BA86" s="4"/>
       <c r="BB86" s="4"/>
       <c r="BC86" s="4"/>
-      <c r="BD86" s="59"/>
+      <c r="BD86" s="48"/>
       <c r="BE86" s="4"/>
       <c r="BF86" s="4"/>
       <c r="BG86" s="4"/>
@@ -6626,23 +6628,23 @@
       <c r="AK87" s="4"/>
       <c r="AL87" s="4"/>
       <c r="AM87" s="4"/>
-      <c r="AN87" s="59"/>
-      <c r="AO87" s="59"/>
-      <c r="AP87" s="59"/>
-      <c r="AQ87" s="59"/>
-      <c r="AR87" s="59"/>
-      <c r="AS87" s="59"/>
-      <c r="AT87" s="59"/>
-      <c r="AU87" s="59"/>
-      <c r="AV87" s="59"/>
-      <c r="AW87" s="59"/>
-      <c r="AX87" s="59"/>
-      <c r="AY87" s="59"/>
-      <c r="AZ87" s="59"/>
+      <c r="AN87" s="48"/>
+      <c r="AO87" s="48"/>
+      <c r="AP87" s="48"/>
+      <c r="AQ87" s="48"/>
+      <c r="AR87" s="48"/>
+      <c r="AS87" s="48"/>
+      <c r="AT87" s="48"/>
+      <c r="AU87" s="48"/>
+      <c r="AV87" s="48"/>
+      <c r="AW87" s="48"/>
+      <c r="AX87" s="48"/>
+      <c r="AY87" s="48"/>
+      <c r="AZ87" s="48"/>
       <c r="BA87" s="4"/>
       <c r="BB87" s="4"/>
       <c r="BC87" s="4"/>
-      <c r="BD87" s="59"/>
+      <c r="BD87" s="48"/>
       <c r="BE87" s="4"/>
       <c r="BF87" s="4"/>
       <c r="BG87" s="4"/>
@@ -6689,23 +6691,23 @@
       <c r="AK88" s="4"/>
       <c r="AL88" s="4"/>
       <c r="AM88" s="4"/>
-      <c r="AN88" s="59"/>
-      <c r="AO88" s="59"/>
-      <c r="AP88" s="59"/>
-      <c r="AQ88" s="59"/>
-      <c r="AR88" s="59"/>
-      <c r="AS88" s="59"/>
-      <c r="AT88" s="59"/>
-      <c r="AU88" s="59"/>
-      <c r="AV88" s="59"/>
-      <c r="AW88" s="59"/>
-      <c r="AX88" s="59"/>
-      <c r="AY88" s="59"/>
-      <c r="AZ88" s="59"/>
+      <c r="AN88" s="48"/>
+      <c r="AO88" s="48"/>
+      <c r="AP88" s="48"/>
+      <c r="AQ88" s="48"/>
+      <c r="AR88" s="48"/>
+      <c r="AS88" s="48"/>
+      <c r="AT88" s="48"/>
+      <c r="AU88" s="48"/>
+      <c r="AV88" s="48"/>
+      <c r="AW88" s="48"/>
+      <c r="AX88" s="48"/>
+      <c r="AY88" s="48"/>
+      <c r="AZ88" s="48"/>
       <c r="BA88" s="4"/>
       <c r="BB88" s="4"/>
       <c r="BC88" s="4"/>
-      <c r="BD88" s="59"/>
+      <c r="BD88" s="48"/>
       <c r="BE88" s="4"/>
       <c r="BF88" s="4"/>
       <c r="BG88" s="4"/>
@@ -6819,23 +6821,23 @@
       <c r="AK90" s="4"/>
       <c r="AL90" s="4"/>
       <c r="AM90" s="4"/>
-      <c r="AN90" s="59"/>
-      <c r="AO90" s="59"/>
-      <c r="AP90" s="59"/>
-      <c r="AQ90" s="59"/>
-      <c r="AR90" s="59"/>
-      <c r="AS90" s="59"/>
-      <c r="AT90" s="59"/>
-      <c r="AU90" s="59"/>
-      <c r="AV90" s="59"/>
-      <c r="AW90" s="59"/>
-      <c r="AX90" s="59"/>
-      <c r="AY90" s="59"/>
-      <c r="AZ90" s="59"/>
+      <c r="AN90" s="48"/>
+      <c r="AO90" s="48"/>
+      <c r="AP90" s="48"/>
+      <c r="AQ90" s="48"/>
+      <c r="AR90" s="48"/>
+      <c r="AS90" s="48"/>
+      <c r="AT90" s="48"/>
+      <c r="AU90" s="48"/>
+      <c r="AV90" s="48"/>
+      <c r="AW90" s="48"/>
+      <c r="AX90" s="48"/>
+      <c r="AY90" s="48"/>
+      <c r="AZ90" s="48"/>
       <c r="BA90" s="4"/>
       <c r="BB90" s="4"/>
       <c r="BC90" s="4"/>
-      <c r="BD90" s="59"/>
+      <c r="BD90" s="48"/>
       <c r="BE90" s="4"/>
       <c r="BF90" s="4"/>
       <c r="BG90" s="4"/>
@@ -6882,23 +6884,23 @@
       <c r="AK91" s="4"/>
       <c r="AL91" s="4"/>
       <c r="AM91" s="4"/>
-      <c r="AN91" s="59"/>
-      <c r="AO91" s="59"/>
-      <c r="AP91" s="59"/>
-      <c r="AQ91" s="59"/>
-      <c r="AR91" s="59"/>
-      <c r="AS91" s="59"/>
-      <c r="AT91" s="59"/>
-      <c r="AU91" s="59"/>
-      <c r="AV91" s="59"/>
-      <c r="AW91" s="59"/>
-      <c r="AX91" s="59"/>
-      <c r="AY91" s="59"/>
-      <c r="AZ91" s="59"/>
+      <c r="AN91" s="48"/>
+      <c r="AO91" s="48"/>
+      <c r="AP91" s="48"/>
+      <c r="AQ91" s="48"/>
+      <c r="AR91" s="48"/>
+      <c r="AS91" s="48"/>
+      <c r="AT91" s="48"/>
+      <c r="AU91" s="48"/>
+      <c r="AV91" s="48"/>
+      <c r="AW91" s="48"/>
+      <c r="AX91" s="48"/>
+      <c r="AY91" s="48"/>
+      <c r="AZ91" s="48"/>
       <c r="BA91" s="4"/>
       <c r="BB91" s="4"/>
       <c r="BC91" s="4"/>
-      <c r="BD91" s="59"/>
+      <c r="BD91" s="48"/>
       <c r="BE91" s="4"/>
       <c r="BF91" s="4"/>
       <c r="BG91" s="4"/>
@@ -6945,23 +6947,23 @@
       <c r="AK92" s="4"/>
       <c r="AL92" s="4"/>
       <c r="AM92" s="4"/>
-      <c r="AN92" s="59"/>
-      <c r="AO92" s="59"/>
-      <c r="AP92" s="59"/>
-      <c r="AQ92" s="59"/>
-      <c r="AR92" s="59"/>
-      <c r="AS92" s="59"/>
-      <c r="AT92" s="59"/>
-      <c r="AU92" s="59"/>
-      <c r="AV92" s="59"/>
-      <c r="AW92" s="59"/>
-      <c r="AX92" s="59"/>
-      <c r="AY92" s="59"/>
-      <c r="AZ92" s="59"/>
+      <c r="AN92" s="48"/>
+      <c r="AO92" s="48"/>
+      <c r="AP92" s="48"/>
+      <c r="AQ92" s="48"/>
+      <c r="AR92" s="48"/>
+      <c r="AS92" s="48"/>
+      <c r="AT92" s="48"/>
+      <c r="AU92" s="48"/>
+      <c r="AV92" s="48"/>
+      <c r="AW92" s="48"/>
+      <c r="AX92" s="48"/>
+      <c r="AY92" s="48"/>
+      <c r="AZ92" s="48"/>
       <c r="BA92" s="4"/>
       <c r="BB92" s="4"/>
       <c r="BC92" s="4"/>
-      <c r="BD92" s="59"/>
+      <c r="BD92" s="48"/>
       <c r="BE92" s="4"/>
       <c r="BF92" s="4"/>
       <c r="BG92" s="4"/>
@@ -7005,23 +7007,23 @@
       <c r="AK93" s="4"/>
       <c r="AL93" s="4"/>
       <c r="AM93" s="4"/>
-      <c r="AN93" s="59"/>
-      <c r="AO93" s="59"/>
-      <c r="AP93" s="59"/>
-      <c r="AQ93" s="59"/>
-      <c r="AR93" s="59"/>
-      <c r="AS93" s="59"/>
-      <c r="AT93" s="59"/>
-      <c r="AU93" s="59"/>
-      <c r="AV93" s="59"/>
-      <c r="AW93" s="59"/>
-      <c r="AX93" s="59"/>
-      <c r="AY93" s="59"/>
-      <c r="AZ93" s="59"/>
+      <c r="AN93" s="48"/>
+      <c r="AO93" s="48"/>
+      <c r="AP93" s="48"/>
+      <c r="AQ93" s="48"/>
+      <c r="AR93" s="48"/>
+      <c r="AS93" s="48"/>
+      <c r="AT93" s="48"/>
+      <c r="AU93" s="48"/>
+      <c r="AV93" s="48"/>
+      <c r="AW93" s="48"/>
+      <c r="AX93" s="48"/>
+      <c r="AY93" s="48"/>
+      <c r="AZ93" s="48"/>
       <c r="BA93" s="4"/>
       <c r="BB93" s="4"/>
       <c r="BC93" s="4"/>
-      <c r="BD93" s="59"/>
+      <c r="BD93" s="48"/>
       <c r="BE93" s="4"/>
       <c r="BF93" s="4"/>
       <c r="BG93" s="4"/>
@@ -7066,23 +7068,23 @@
       <c r="AK94" s="4"/>
       <c r="AL94" s="4"/>
       <c r="AM94" s="4"/>
-      <c r="AN94" s="59"/>
-      <c r="AO94" s="59"/>
-      <c r="AP94" s="59"/>
-      <c r="AQ94" s="59"/>
-      <c r="AR94" s="59"/>
-      <c r="AS94" s="59"/>
-      <c r="AT94" s="59"/>
-      <c r="AU94" s="59"/>
-      <c r="AV94" s="59"/>
-      <c r="AW94" s="59"/>
-      <c r="AX94" s="59"/>
-      <c r="AY94" s="59"/>
-      <c r="AZ94" s="59"/>
+      <c r="AN94" s="48"/>
+      <c r="AO94" s="48"/>
+      <c r="AP94" s="48"/>
+      <c r="AQ94" s="48"/>
+      <c r="AR94" s="48"/>
+      <c r="AS94" s="48"/>
+      <c r="AT94" s="48"/>
+      <c r="AU94" s="48"/>
+      <c r="AV94" s="48"/>
+      <c r="AW94" s="48"/>
+      <c r="AX94" s="48"/>
+      <c r="AY94" s="48"/>
+      <c r="AZ94" s="48"/>
       <c r="BA94" s="4"/>
       <c r="BB94" s="4"/>
       <c r="BC94" s="4"/>
-      <c r="BD94" s="59"/>
+      <c r="BD94" s="48"/>
       <c r="BE94" s="4"/>
       <c r="BF94" s="4"/>
       <c r="BG94" s="4"/>
@@ -7131,23 +7133,23 @@
       <c r="AK95" s="4"/>
       <c r="AL95" s="4"/>
       <c r="AM95" s="4"/>
-      <c r="AN95" s="59"/>
-      <c r="AO95" s="59"/>
-      <c r="AP95" s="59"/>
-      <c r="AQ95" s="59"/>
-      <c r="AR95" s="59"/>
-      <c r="AS95" s="59"/>
-      <c r="AT95" s="59"/>
-      <c r="AU95" s="59"/>
-      <c r="AV95" s="59"/>
-      <c r="AW95" s="59"/>
-      <c r="AX95" s="59"/>
-      <c r="AY95" s="59"/>
-      <c r="AZ95" s="59"/>
+      <c r="AN95" s="48"/>
+      <c r="AO95" s="48"/>
+      <c r="AP95" s="48"/>
+      <c r="AQ95" s="48"/>
+      <c r="AR95" s="48"/>
+      <c r="AS95" s="48"/>
+      <c r="AT95" s="48"/>
+      <c r="AU95" s="48"/>
+      <c r="AV95" s="48"/>
+      <c r="AW95" s="48"/>
+      <c r="AX95" s="48"/>
+      <c r="AY95" s="48"/>
+      <c r="AZ95" s="48"/>
       <c r="BA95" s="4"/>
       <c r="BB95" s="4"/>
       <c r="BC95" s="4"/>
-      <c r="BD95" s="59"/>
+      <c r="BD95" s="48"/>
       <c r="BE95" s="4"/>
       <c r="BF95" s="4"/>
       <c r="BG95" s="4"/>
@@ -7192,23 +7194,23 @@
       <c r="AK96" s="4"/>
       <c r="AL96" s="4"/>
       <c r="AM96" s="4"/>
-      <c r="AN96" s="59"/>
-      <c r="AO96" s="59"/>
-      <c r="AP96" s="59"/>
-      <c r="AQ96" s="59"/>
-      <c r="AR96" s="59"/>
-      <c r="AS96" s="59"/>
-      <c r="AT96" s="59"/>
-      <c r="AU96" s="59"/>
-      <c r="AV96" s="59"/>
-      <c r="AW96" s="59"/>
-      <c r="AX96" s="59"/>
-      <c r="AY96" s="59"/>
-      <c r="AZ96" s="59"/>
+      <c r="AN96" s="48"/>
+      <c r="AO96" s="48"/>
+      <c r="AP96" s="48"/>
+      <c r="AQ96" s="48"/>
+      <c r="AR96" s="48"/>
+      <c r="AS96" s="48"/>
+      <c r="AT96" s="48"/>
+      <c r="AU96" s="48"/>
+      <c r="AV96" s="48"/>
+      <c r="AW96" s="48"/>
+      <c r="AX96" s="48"/>
+      <c r="AY96" s="48"/>
+      <c r="AZ96" s="48"/>
       <c r="BA96" s="4"/>
       <c r="BB96" s="4"/>
       <c r="BC96" s="4"/>
-      <c r="BD96" s="59"/>
+      <c r="BD96" s="48"/>
       <c r="BE96" s="4"/>
       <c r="BF96" s="4"/>
       <c r="BG96" s="4"/>
@@ -7253,23 +7255,23 @@
       <c r="AK97" s="4"/>
       <c r="AL97" s="4"/>
       <c r="AM97" s="4"/>
-      <c r="AN97" s="59"/>
-      <c r="AO97" s="59"/>
-      <c r="AP97" s="59"/>
-      <c r="AQ97" s="59"/>
-      <c r="AR97" s="59"/>
-      <c r="AS97" s="59"/>
-      <c r="AT97" s="59"/>
-      <c r="AU97" s="59"/>
-      <c r="AV97" s="59"/>
-      <c r="AW97" s="59"/>
-      <c r="AX97" s="59"/>
-      <c r="AY97" s="59"/>
-      <c r="AZ97" s="59"/>
+      <c r="AN97" s="48"/>
+      <c r="AO97" s="48"/>
+      <c r="AP97" s="48"/>
+      <c r="AQ97" s="48"/>
+      <c r="AR97" s="48"/>
+      <c r="AS97" s="48"/>
+      <c r="AT97" s="48"/>
+      <c r="AU97" s="48"/>
+      <c r="AV97" s="48"/>
+      <c r="AW97" s="48"/>
+      <c r="AX97" s="48"/>
+      <c r="AY97" s="48"/>
+      <c r="AZ97" s="48"/>
       <c r="BA97" s="4"/>
       <c r="BB97" s="4"/>
       <c r="BC97" s="4"/>
-      <c r="BD97" s="59"/>
+      <c r="BD97" s="48"/>
       <c r="BE97" s="4"/>
       <c r="BF97" s="4"/>
       <c r="BG97" s="4"/>
@@ -7318,23 +7320,23 @@
       <c r="AK98" s="4"/>
       <c r="AL98" s="4"/>
       <c r="AM98" s="4"/>
-      <c r="AN98" s="59"/>
-      <c r="AO98" s="59"/>
-      <c r="AP98" s="59"/>
-      <c r="AQ98" s="59"/>
-      <c r="AR98" s="59"/>
-      <c r="AS98" s="59"/>
-      <c r="AT98" s="59"/>
-      <c r="AU98" s="59"/>
-      <c r="AV98" s="59"/>
-      <c r="AW98" s="59"/>
-      <c r="AX98" s="59"/>
-      <c r="AY98" s="59"/>
-      <c r="AZ98" s="59"/>
+      <c r="AN98" s="48"/>
+      <c r="AO98" s="48"/>
+      <c r="AP98" s="48"/>
+      <c r="AQ98" s="48"/>
+      <c r="AR98" s="48"/>
+      <c r="AS98" s="48"/>
+      <c r="AT98" s="48"/>
+      <c r="AU98" s="48"/>
+      <c r="AV98" s="48"/>
+      <c r="AW98" s="48"/>
+      <c r="AX98" s="48"/>
+      <c r="AY98" s="48"/>
+      <c r="AZ98" s="48"/>
       <c r="BA98" s="4"/>
       <c r="BB98" s="4"/>
       <c r="BC98" s="4"/>
-      <c r="BD98" s="59"/>
+      <c r="BD98" s="48"/>
       <c r="BE98" s="4"/>
       <c r="BF98" s="4"/>
       <c r="BG98" s="4"/>
@@ -7379,23 +7381,23 @@
       <c r="AK99" s="4"/>
       <c r="AL99" s="4"/>
       <c r="AM99" s="4"/>
-      <c r="AN99" s="59"/>
-      <c r="AO99" s="59"/>
-      <c r="AP99" s="59"/>
-      <c r="AQ99" s="59"/>
-      <c r="AR99" s="59"/>
-      <c r="AS99" s="59"/>
-      <c r="AT99" s="59"/>
-      <c r="AU99" s="59"/>
-      <c r="AV99" s="59"/>
-      <c r="AW99" s="59"/>
-      <c r="AX99" s="59"/>
-      <c r="AY99" s="59"/>
-      <c r="AZ99" s="59"/>
+      <c r="AN99" s="48"/>
+      <c r="AO99" s="48"/>
+      <c r="AP99" s="48"/>
+      <c r="AQ99" s="48"/>
+      <c r="AR99" s="48"/>
+      <c r="AS99" s="48"/>
+      <c r="AT99" s="48"/>
+      <c r="AU99" s="48"/>
+      <c r="AV99" s="48"/>
+      <c r="AW99" s="48"/>
+      <c r="AX99" s="48"/>
+      <c r="AY99" s="48"/>
+      <c r="AZ99" s="48"/>
       <c r="BA99" s="4"/>
       <c r="BB99" s="4"/>
       <c r="BC99" s="4"/>
-      <c r="BD99" s="59"/>
+      <c r="BD99" s="48"/>
       <c r="BE99" s="4"/>
       <c r="BF99" s="4"/>
       <c r="BG99" s="4"/>
@@ -7440,23 +7442,23 @@
       <c r="AK100" s="4"/>
       <c r="AL100" s="4"/>
       <c r="AM100" s="4"/>
-      <c r="AN100" s="59"/>
-      <c r="AO100" s="59"/>
-      <c r="AP100" s="59"/>
-      <c r="AQ100" s="59"/>
-      <c r="AR100" s="59"/>
-      <c r="AS100" s="59"/>
-      <c r="AT100" s="59"/>
-      <c r="AU100" s="59"/>
-      <c r="AV100" s="59"/>
-      <c r="AW100" s="59"/>
-      <c r="AX100" s="59"/>
-      <c r="AY100" s="59"/>
-      <c r="AZ100" s="59"/>
+      <c r="AN100" s="48"/>
+      <c r="AO100" s="48"/>
+      <c r="AP100" s="48"/>
+      <c r="AQ100" s="48"/>
+      <c r="AR100" s="48"/>
+      <c r="AS100" s="48"/>
+      <c r="AT100" s="48"/>
+      <c r="AU100" s="48"/>
+      <c r="AV100" s="48"/>
+      <c r="AW100" s="48"/>
+      <c r="AX100" s="48"/>
+      <c r="AY100" s="48"/>
+      <c r="AZ100" s="48"/>
       <c r="BA100" s="4"/>
       <c r="BB100" s="4"/>
       <c r="BC100" s="4"/>
-      <c r="BD100" s="59"/>
+      <c r="BD100" s="48"/>
       <c r="BE100" s="4"/>
       <c r="BF100" s="4"/>
       <c r="BG100" s="4"/>
@@ -7501,23 +7503,23 @@
       <c r="AK101" s="4"/>
       <c r="AL101" s="4"/>
       <c r="AM101" s="4"/>
-      <c r="AN101" s="59"/>
-      <c r="AO101" s="59"/>
-      <c r="AP101" s="59"/>
-      <c r="AQ101" s="59"/>
-      <c r="AR101" s="59"/>
-      <c r="AS101" s="59"/>
-      <c r="AT101" s="59"/>
-      <c r="AU101" s="59"/>
-      <c r="AV101" s="59"/>
-      <c r="AW101" s="59"/>
-      <c r="AX101" s="59"/>
-      <c r="AY101" s="59"/>
-      <c r="AZ101" s="59"/>
+      <c r="AN101" s="48"/>
+      <c r="AO101" s="48"/>
+      <c r="AP101" s="48"/>
+      <c r="AQ101" s="48"/>
+      <c r="AR101" s="48"/>
+      <c r="AS101" s="48"/>
+      <c r="AT101" s="48"/>
+      <c r="AU101" s="48"/>
+      <c r="AV101" s="48"/>
+      <c r="AW101" s="48"/>
+      <c r="AX101" s="48"/>
+      <c r="AY101" s="48"/>
+      <c r="AZ101" s="48"/>
       <c r="BA101" s="4"/>
       <c r="BB101" s="4"/>
       <c r="BC101" s="4"/>
-      <c r="BD101" s="59"/>
+      <c r="BD101" s="48"/>
       <c r="BE101" s="4"/>
       <c r="BF101" s="4"/>
       <c r="BG101" s="4"/>
@@ -7566,23 +7568,23 @@
       <c r="AK102" s="18"/>
       <c r="AL102" s="18"/>
       <c r="AM102" s="18"/>
-      <c r="AN102" s="59"/>
-      <c r="AO102" s="59"/>
-      <c r="AP102" s="59"/>
-      <c r="AQ102" s="59"/>
-      <c r="AR102" s="59"/>
-      <c r="AS102" s="59"/>
-      <c r="AT102" s="59"/>
-      <c r="AU102" s="59"/>
-      <c r="AV102" s="59"/>
-      <c r="AW102" s="59"/>
-      <c r="AX102" s="59"/>
-      <c r="AY102" s="59"/>
-      <c r="AZ102" s="59"/>
+      <c r="AN102" s="48"/>
+      <c r="AO102" s="48"/>
+      <c r="AP102" s="48"/>
+      <c r="AQ102" s="48"/>
+      <c r="AR102" s="48"/>
+      <c r="AS102" s="48"/>
+      <c r="AT102" s="48"/>
+      <c r="AU102" s="48"/>
+      <c r="AV102" s="48"/>
+      <c r="AW102" s="48"/>
+      <c r="AX102" s="48"/>
+      <c r="AY102" s="48"/>
+      <c r="AZ102" s="48"/>
       <c r="BA102" s="4"/>
       <c r="BB102" s="4"/>
       <c r="BC102" s="4"/>
-      <c r="BD102" s="59"/>
+      <c r="BD102" s="48"/>
       <c r="BE102" s="4"/>
       <c r="BF102" s="4"/>
       <c r="BG102" s="4"/>
@@ -7629,30 +7631,30 @@
       <c r="AK103" s="4"/>
       <c r="AL103" s="18"/>
       <c r="AM103" s="18"/>
-      <c r="AN103" s="59"/>
-      <c r="AO103" s="59"/>
-      <c r="AP103" s="59"/>
-      <c r="AQ103" s="59"/>
-      <c r="AR103" s="59"/>
-      <c r="AS103" s="59"/>
-      <c r="AT103" s="59"/>
-      <c r="AU103" s="59"/>
-      <c r="AV103" s="59"/>
-      <c r="AW103" s="59"/>
-      <c r="AX103" s="59"/>
-      <c r="AY103" s="59"/>
-      <c r="AZ103" s="59"/>
+      <c r="AN103" s="48"/>
+      <c r="AO103" s="48"/>
+      <c r="AP103" s="48"/>
+      <c r="AQ103" s="48"/>
+      <c r="AR103" s="48"/>
+      <c r="AS103" s="48"/>
+      <c r="AT103" s="48"/>
+      <c r="AU103" s="48"/>
+      <c r="AV103" s="48"/>
+      <c r="AW103" s="48"/>
+      <c r="AX103" s="48"/>
+      <c r="AY103" s="48"/>
+      <c r="AZ103" s="48"/>
       <c r="BA103" s="4"/>
       <c r="BB103" s="4"/>
       <c r="BC103" s="4"/>
-      <c r="BD103" s="59"/>
+      <c r="BD103" s="48"/>
       <c r="BE103" s="4"/>
       <c r="BF103" s="4"/>
       <c r="BG103" s="4"/>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>66</v>
@@ -7762,20 +7764,20 @@
       <c r="AN105" s="18"/>
       <c r="AO105" s="18"/>
       <c r="AP105" s="18"/>
-      <c r="AQ105" s="59"/>
-      <c r="AR105" s="59"/>
-      <c r="AS105" s="59"/>
-      <c r="AT105" s="59"/>
-      <c r="AU105" s="59"/>
-      <c r="AV105" s="59"/>
-      <c r="AW105" s="59"/>
-      <c r="AX105" s="59"/>
-      <c r="AY105" s="59"/>
-      <c r="AZ105" s="59"/>
+      <c r="AQ105" s="48"/>
+      <c r="AR105" s="48"/>
+      <c r="AS105" s="48"/>
+      <c r="AT105" s="48"/>
+      <c r="AU105" s="48"/>
+      <c r="AV105" s="48"/>
+      <c r="AW105" s="48"/>
+      <c r="AX105" s="48"/>
+      <c r="AY105" s="48"/>
+      <c r="AZ105" s="48"/>
       <c r="BA105" s="4"/>
       <c r="BB105" s="4"/>
       <c r="BC105" s="4"/>
-      <c r="BD105" s="59"/>
+      <c r="BD105" s="48"/>
       <c r="BE105" s="4"/>
       <c r="BF105" s="4"/>
       <c r="BG105" s="4"/>
@@ -7820,23 +7822,23 @@
       <c r="AK106" s="4"/>
       <c r="AL106" s="4"/>
       <c r="AM106" s="4"/>
-      <c r="AN106" s="59"/>
-      <c r="AO106" s="59"/>
-      <c r="AP106" s="59"/>
-      <c r="AQ106" s="59"/>
-      <c r="AR106" s="59"/>
-      <c r="AS106" s="59"/>
-      <c r="AT106" s="59"/>
-      <c r="AU106" s="59"/>
-      <c r="AV106" s="59"/>
-      <c r="AW106" s="59"/>
-      <c r="AX106" s="59"/>
-      <c r="AY106" s="59"/>
-      <c r="AZ106" s="59"/>
+      <c r="AN106" s="48"/>
+      <c r="AO106" s="48"/>
+      <c r="AP106" s="48"/>
+      <c r="AQ106" s="48"/>
+      <c r="AR106" s="48"/>
+      <c r="AS106" s="48"/>
+      <c r="AT106" s="48"/>
+      <c r="AU106" s="48"/>
+      <c r="AV106" s="48"/>
+      <c r="AW106" s="48"/>
+      <c r="AX106" s="48"/>
+      <c r="AY106" s="48"/>
+      <c r="AZ106" s="48"/>
       <c r="BA106" s="4"/>
       <c r="BB106" s="4"/>
       <c r="BC106" s="4"/>
-      <c r="BD106" s="59"/>
+      <c r="BD106" s="48"/>
       <c r="BE106" s="4"/>
       <c r="BF106" s="4"/>
       <c r="BG106" s="4"/>
@@ -7881,23 +7883,23 @@
       <c r="AK107" s="4"/>
       <c r="AL107" s="4"/>
       <c r="AM107" s="4"/>
-      <c r="AN107" s="59"/>
-      <c r="AO107" s="59"/>
-      <c r="AP107" s="59"/>
-      <c r="AQ107" s="59"/>
-      <c r="AR107" s="59"/>
-      <c r="AS107" s="59"/>
-      <c r="AT107" s="59"/>
-      <c r="AU107" s="59"/>
-      <c r="AV107" s="59"/>
-      <c r="AW107" s="59"/>
-      <c r="AX107" s="59"/>
-      <c r="AY107" s="59"/>
-      <c r="AZ107" s="59"/>
+      <c r="AN107" s="48"/>
+      <c r="AO107" s="48"/>
+      <c r="AP107" s="48"/>
+      <c r="AQ107" s="48"/>
+      <c r="AR107" s="48"/>
+      <c r="AS107" s="48"/>
+      <c r="AT107" s="48"/>
+      <c r="AU107" s="48"/>
+      <c r="AV107" s="48"/>
+      <c r="AW107" s="48"/>
+      <c r="AX107" s="48"/>
+      <c r="AY107" s="48"/>
+      <c r="AZ107" s="48"/>
       <c r="BA107" s="4"/>
       <c r="BB107" s="4"/>
       <c r="BC107" s="4"/>
-      <c r="BD107" s="59"/>
+      <c r="BD107" s="48"/>
       <c r="BE107" s="4"/>
       <c r="BF107" s="4"/>
       <c r="BG107" s="4"/>
@@ -7942,23 +7944,23 @@
       <c r="AK108" s="4"/>
       <c r="AL108" s="4"/>
       <c r="AM108" s="4"/>
-      <c r="AN108" s="59"/>
-      <c r="AO108" s="59"/>
-      <c r="AP108" s="59"/>
-      <c r="AQ108" s="59"/>
-      <c r="AR108" s="59"/>
-      <c r="AS108" s="59"/>
-      <c r="AT108" s="59"/>
-      <c r="AU108" s="59"/>
-      <c r="AV108" s="59"/>
-      <c r="AW108" s="59"/>
-      <c r="AX108" s="59"/>
-      <c r="AY108" s="59"/>
-      <c r="AZ108" s="59"/>
+      <c r="AN108" s="48"/>
+      <c r="AO108" s="48"/>
+      <c r="AP108" s="48"/>
+      <c r="AQ108" s="48"/>
+      <c r="AR108" s="48"/>
+      <c r="AS108" s="48"/>
+      <c r="AT108" s="48"/>
+      <c r="AU108" s="48"/>
+      <c r="AV108" s="48"/>
+      <c r="AW108" s="48"/>
+      <c r="AX108" s="48"/>
+      <c r="AY108" s="48"/>
+      <c r="AZ108" s="48"/>
       <c r="BA108" s="4"/>
       <c r="BB108" s="4"/>
       <c r="BC108" s="4"/>
-      <c r="BD108" s="59"/>
+      <c r="BD108" s="48"/>
       <c r="BE108" s="4"/>
       <c r="BF108" s="4"/>
       <c r="BG108" s="4"/>
@@ -8003,23 +8005,23 @@
       <c r="AK109" s="4"/>
       <c r="AL109" s="4"/>
       <c r="AM109" s="4"/>
-      <c r="AN109" s="59"/>
-      <c r="AO109" s="59"/>
-      <c r="AP109" s="59"/>
-      <c r="AQ109" s="59"/>
-      <c r="AR109" s="59"/>
-      <c r="AS109" s="59"/>
-      <c r="AT109" s="59"/>
-      <c r="AU109" s="59"/>
-      <c r="AV109" s="59"/>
-      <c r="AW109" s="59"/>
-      <c r="AX109" s="59"/>
-      <c r="AY109" s="59"/>
-      <c r="AZ109" s="59"/>
+      <c r="AN109" s="48"/>
+      <c r="AO109" s="48"/>
+      <c r="AP109" s="48"/>
+      <c r="AQ109" s="48"/>
+      <c r="AR109" s="48"/>
+      <c r="AS109" s="48"/>
+      <c r="AT109" s="48"/>
+      <c r="AU109" s="48"/>
+      <c r="AV109" s="48"/>
+      <c r="AW109" s="48"/>
+      <c r="AX109" s="48"/>
+      <c r="AY109" s="48"/>
+      <c r="AZ109" s="48"/>
       <c r="BA109" s="4"/>
       <c r="BB109" s="4"/>
       <c r="BC109" s="4"/>
-      <c r="BD109" s="59"/>
+      <c r="BD109" s="48"/>
       <c r="BE109" s="4"/>
       <c r="BF109" s="4"/>
       <c r="BG109" s="4"/>
@@ -8068,23 +8070,23 @@
       <c r="AK110" s="4"/>
       <c r="AL110" s="4"/>
       <c r="AM110" s="4"/>
-      <c r="AN110" s="59"/>
+      <c r="AN110" s="48"/>
       <c r="AO110" s="18"/>
       <c r="AP110" s="18"/>
-      <c r="AQ110" s="59"/>
-      <c r="AR110" s="59"/>
-      <c r="AS110" s="59"/>
-      <c r="AT110" s="59"/>
-      <c r="AU110" s="59"/>
-      <c r="AV110" s="59"/>
-      <c r="AW110" s="59"/>
-      <c r="AX110" s="59"/>
-      <c r="AY110" s="59"/>
-      <c r="AZ110" s="59"/>
+      <c r="AQ110" s="48"/>
+      <c r="AR110" s="48"/>
+      <c r="AS110" s="48"/>
+      <c r="AT110" s="48"/>
+      <c r="AU110" s="48"/>
+      <c r="AV110" s="48"/>
+      <c r="AW110" s="48"/>
+      <c r="AX110" s="48"/>
+      <c r="AY110" s="48"/>
+      <c r="AZ110" s="48"/>
       <c r="BA110" s="4"/>
       <c r="BB110" s="4"/>
       <c r="BC110" s="4"/>
-      <c r="BD110" s="59"/>
+      <c r="BD110" s="48"/>
       <c r="BE110" s="4"/>
       <c r="BF110" s="4"/>
       <c r="BG110" s="4"/>
@@ -8129,23 +8131,23 @@
       <c r="AK111" s="4"/>
       <c r="AL111" s="4"/>
       <c r="AM111" s="4"/>
-      <c r="AN111" s="59"/>
-      <c r="AO111" s="59"/>
-      <c r="AP111" s="59"/>
-      <c r="AQ111" s="59"/>
-      <c r="AR111" s="59"/>
-      <c r="AS111" s="59"/>
-      <c r="AT111" s="59"/>
-      <c r="AU111" s="59"/>
-      <c r="AV111" s="59"/>
-      <c r="AW111" s="59"/>
-      <c r="AX111" s="59"/>
-      <c r="AY111" s="59"/>
-      <c r="AZ111" s="59"/>
+      <c r="AN111" s="48"/>
+      <c r="AO111" s="48"/>
+      <c r="AP111" s="48"/>
+      <c r="AQ111" s="48"/>
+      <c r="AR111" s="48"/>
+      <c r="AS111" s="48"/>
+      <c r="AT111" s="48"/>
+      <c r="AU111" s="48"/>
+      <c r="AV111" s="48"/>
+      <c r="AW111" s="48"/>
+      <c r="AX111" s="48"/>
+      <c r="AY111" s="48"/>
+      <c r="AZ111" s="48"/>
       <c r="BA111" s="4"/>
       <c r="BB111" s="4"/>
       <c r="BC111" s="4"/>
-      <c r="BD111" s="59"/>
+      <c r="BD111" s="48"/>
       <c r="BE111" s="4"/>
       <c r="BF111" s="4"/>
       <c r="BG111" s="4"/>
@@ -8190,23 +8192,23 @@
       <c r="AK112" s="4"/>
       <c r="AL112" s="4"/>
       <c r="AM112" s="4"/>
-      <c r="AN112" s="59"/>
-      <c r="AO112" s="59"/>
-      <c r="AP112" s="59"/>
-      <c r="AQ112" s="59"/>
-      <c r="AR112" s="59"/>
-      <c r="AS112" s="59"/>
-      <c r="AT112" s="59"/>
-      <c r="AU112" s="59"/>
-      <c r="AV112" s="59"/>
-      <c r="AW112" s="59"/>
-      <c r="AX112" s="59"/>
-      <c r="AY112" s="59"/>
-      <c r="AZ112" s="59"/>
+      <c r="AN112" s="48"/>
+      <c r="AO112" s="48"/>
+      <c r="AP112" s="48"/>
+      <c r="AQ112" s="48"/>
+      <c r="AR112" s="48"/>
+      <c r="AS112" s="48"/>
+      <c r="AT112" s="48"/>
+      <c r="AU112" s="48"/>
+      <c r="AV112" s="48"/>
+      <c r="AW112" s="48"/>
+      <c r="AX112" s="48"/>
+      <c r="AY112" s="48"/>
+      <c r="AZ112" s="48"/>
       <c r="BA112" s="4"/>
       <c r="BB112" s="4"/>
       <c r="BC112" s="4"/>
-      <c r="BD112" s="59"/>
+      <c r="BD112" s="48"/>
       <c r="BE112" s="4"/>
       <c r="BF112" s="4"/>
       <c r="BG112" s="4"/>
@@ -8255,23 +8257,23 @@
       <c r="AK113" s="4"/>
       <c r="AL113" s="4"/>
       <c r="AM113" s="4"/>
-      <c r="AN113" s="59"/>
-      <c r="AO113" s="59"/>
-      <c r="AP113" s="59"/>
+      <c r="AN113" s="48"/>
+      <c r="AO113" s="48"/>
+      <c r="AP113" s="48"/>
       <c r="AQ113" s="18"/>
       <c r="AR113" s="18"/>
       <c r="AS113" s="18"/>
       <c r="AT113" s="18"/>
       <c r="AU113" s="18"/>
       <c r="AV113" s="18"/>
-      <c r="AW113" s="59"/>
-      <c r="AX113" s="59"/>
-      <c r="AY113" s="59"/>
-      <c r="AZ113" s="59"/>
+      <c r="AW113" s="48"/>
+      <c r="AX113" s="48"/>
+      <c r="AY113" s="48"/>
+      <c r="AZ113" s="48"/>
       <c r="BA113" s="4"/>
       <c r="BB113" s="4"/>
       <c r="BC113" s="4"/>
-      <c r="BD113" s="59"/>
+      <c r="BD113" s="48"/>
       <c r="BE113" s="4"/>
       <c r="BF113" s="4"/>
       <c r="BG113" s="4"/>
@@ -8318,15 +8320,15 @@
       <c r="AK114" s="4"/>
       <c r="AL114" s="4"/>
       <c r="AM114" s="4"/>
-      <c r="AN114" s="59"/>
-      <c r="AO114" s="59"/>
-      <c r="AP114" s="59"/>
-      <c r="AQ114" s="59"/>
-      <c r="AR114" s="59"/>
-      <c r="AS114" s="59"/>
-      <c r="AT114" s="59"/>
-      <c r="AU114" s="59"/>
-      <c r="AV114" s="59"/>
+      <c r="AN114" s="48"/>
+      <c r="AO114" s="48"/>
+      <c r="AP114" s="48"/>
+      <c r="AQ114" s="48"/>
+      <c r="AR114" s="48"/>
+      <c r="AS114" s="48"/>
+      <c r="AT114" s="48"/>
+      <c r="AU114" s="48"/>
+      <c r="AV114" s="48"/>
       <c r="AW114" s="18"/>
       <c r="AX114" s="18"/>
       <c r="AY114" s="18"/>
@@ -8334,7 +8336,7 @@
       <c r="BA114" s="4"/>
       <c r="BB114" s="4"/>
       <c r="BC114" s="4"/>
-      <c r="BD114" s="59"/>
+      <c r="BD114" s="48"/>
       <c r="BE114" s="4"/>
       <c r="BF114" s="4"/>
       <c r="BG114" s="4"/>
@@ -8379,23 +8381,23 @@
       <c r="AK115" s="4"/>
       <c r="AL115" s="4"/>
       <c r="AM115" s="4"/>
-      <c r="AN115" s="59"/>
-      <c r="AO115" s="59"/>
-      <c r="AP115" s="59"/>
-      <c r="AQ115" s="59"/>
-      <c r="AR115" s="59"/>
-      <c r="AS115" s="59"/>
-      <c r="AT115" s="59"/>
-      <c r="AU115" s="59"/>
-      <c r="AV115" s="59"/>
-      <c r="AW115" s="59"/>
-      <c r="AX115" s="59"/>
-      <c r="AY115" s="59"/>
-      <c r="AZ115" s="59"/>
+      <c r="AN115" s="48"/>
+      <c r="AO115" s="48"/>
+      <c r="AP115" s="48"/>
+      <c r="AQ115" s="48"/>
+      <c r="AR115" s="48"/>
+      <c r="AS115" s="48"/>
+      <c r="AT115" s="48"/>
+      <c r="AU115" s="48"/>
+      <c r="AV115" s="48"/>
+      <c r="AW115" s="48"/>
+      <c r="AX115" s="48"/>
+      <c r="AY115" s="48"/>
+      <c r="AZ115" s="48"/>
       <c r="BA115" s="4"/>
       <c r="BB115" s="4"/>
       <c r="BC115" s="4"/>
-      <c r="BD115" s="59"/>
+      <c r="BD115" s="48"/>
       <c r="BE115" s="4"/>
       <c r="BF115" s="4"/>
       <c r="BG115" s="4"/>
@@ -8440,23 +8442,23 @@
       <c r="AK116" s="4"/>
       <c r="AL116" s="4"/>
       <c r="AM116" s="4"/>
-      <c r="AN116" s="59"/>
-      <c r="AO116" s="59"/>
-      <c r="AP116" s="59"/>
-      <c r="AQ116" s="59"/>
-      <c r="AR116" s="59"/>
-      <c r="AS116" s="59"/>
-      <c r="AT116" s="59"/>
-      <c r="AU116" s="59"/>
-      <c r="AV116" s="59"/>
-      <c r="AW116" s="59"/>
-      <c r="AX116" s="59"/>
-      <c r="AY116" s="59"/>
-      <c r="AZ116" s="59"/>
+      <c r="AN116" s="48"/>
+      <c r="AO116" s="48"/>
+      <c r="AP116" s="48"/>
+      <c r="AQ116" s="48"/>
+      <c r="AR116" s="48"/>
+      <c r="AS116" s="48"/>
+      <c r="AT116" s="48"/>
+      <c r="AU116" s="48"/>
+      <c r="AV116" s="48"/>
+      <c r="AW116" s="48"/>
+      <c r="AX116" s="48"/>
+      <c r="AY116" s="48"/>
+      <c r="AZ116" s="48"/>
       <c r="BA116" s="4"/>
       <c r="BB116" s="4"/>
       <c r="BC116" s="4"/>
-      <c r="BD116" s="59"/>
+      <c r="BD116" s="48"/>
       <c r="BE116" s="4"/>
       <c r="BF116" s="4"/>
       <c r="BG116" s="4"/>
@@ -8503,23 +8505,23 @@
       <c r="AK117" s="4"/>
       <c r="AL117" s="4"/>
       <c r="AM117" s="4"/>
-      <c r="AN117" s="59"/>
-      <c r="AO117" s="59"/>
-      <c r="AP117" s="59"/>
-      <c r="AQ117" s="59"/>
-      <c r="AR117" s="59"/>
-      <c r="AS117" s="59"/>
-      <c r="AT117" s="59"/>
-      <c r="AU117" s="59"/>
-      <c r="AV117" s="59"/>
-      <c r="AW117" s="59"/>
-      <c r="AX117" s="59"/>
-      <c r="AY117" s="59"/>
-      <c r="AZ117" s="59"/>
+      <c r="AN117" s="48"/>
+      <c r="AO117" s="48"/>
+      <c r="AP117" s="48"/>
+      <c r="AQ117" s="48"/>
+      <c r="AR117" s="48"/>
+      <c r="AS117" s="48"/>
+      <c r="AT117" s="48"/>
+      <c r="AU117" s="48"/>
+      <c r="AV117" s="48"/>
+      <c r="AW117" s="48"/>
+      <c r="AX117" s="48"/>
+      <c r="AY117" s="48"/>
+      <c r="AZ117" s="48"/>
       <c r="BA117" s="4"/>
       <c r="BB117" s="4"/>
       <c r="BC117" s="4"/>
-      <c r="BD117" s="59"/>
+      <c r="BD117" s="48"/>
       <c r="BE117" s="4"/>
       <c r="BF117" s="4"/>
       <c r="BG117" s="4"/>
@@ -8564,23 +8566,23 @@
       <c r="AK118" s="4"/>
       <c r="AL118" s="4"/>
       <c r="AM118" s="4"/>
-      <c r="AN118" s="59"/>
-      <c r="AO118" s="59"/>
-      <c r="AP118" s="59"/>
-      <c r="AQ118" s="59"/>
-      <c r="AR118" s="59"/>
-      <c r="AS118" s="59"/>
-      <c r="AT118" s="59"/>
-      <c r="AU118" s="59"/>
-      <c r="AV118" s="59"/>
-      <c r="AW118" s="59"/>
-      <c r="AX118" s="59"/>
-      <c r="AY118" s="59"/>
-      <c r="AZ118" s="59"/>
+      <c r="AN118" s="48"/>
+      <c r="AO118" s="48"/>
+      <c r="AP118" s="48"/>
+      <c r="AQ118" s="48"/>
+      <c r="AR118" s="48"/>
+      <c r="AS118" s="48"/>
+      <c r="AT118" s="48"/>
+      <c r="AU118" s="48"/>
+      <c r="AV118" s="48"/>
+      <c r="AW118" s="48"/>
+      <c r="AX118" s="48"/>
+      <c r="AY118" s="48"/>
+      <c r="AZ118" s="48"/>
       <c r="BA118" s="4"/>
       <c r="BB118" s="4"/>
       <c r="BC118" s="4"/>
-      <c r="BD118" s="59"/>
+      <c r="BD118" s="48"/>
       <c r="BE118" s="4"/>
       <c r="BF118" s="4"/>
       <c r="BG118" s="4"/>
@@ -8627,23 +8629,23 @@
       <c r="AK119" s="4"/>
       <c r="AL119" s="4"/>
       <c r="AM119" s="4"/>
-      <c r="AN119" s="59"/>
-      <c r="AO119" s="59"/>
-      <c r="AP119" s="59"/>
-      <c r="AQ119" s="59"/>
-      <c r="AR119" s="59"/>
-      <c r="AS119" s="59"/>
-      <c r="AT119" s="59"/>
-      <c r="AU119" s="59"/>
-      <c r="AV119" s="59"/>
-      <c r="AW119" s="59"/>
-      <c r="AX119" s="59"/>
-      <c r="AY119" s="59"/>
-      <c r="AZ119" s="59"/>
+      <c r="AN119" s="48"/>
+      <c r="AO119" s="48"/>
+      <c r="AP119" s="48"/>
+      <c r="AQ119" s="48"/>
+      <c r="AR119" s="48"/>
+      <c r="AS119" s="48"/>
+      <c r="AT119" s="48"/>
+      <c r="AU119" s="48"/>
+      <c r="AV119" s="48"/>
+      <c r="AW119" s="48"/>
+      <c r="AX119" s="48"/>
+      <c r="AY119" s="48"/>
+      <c r="AZ119" s="48"/>
       <c r="BA119" s="4"/>
       <c r="BB119" s="4"/>
       <c r="BC119" s="4"/>
-      <c r="BD119" s="59"/>
+      <c r="BD119" s="48"/>
       <c r="BE119" s="4"/>
       <c r="BF119" s="4"/>
       <c r="BG119" s="4"/>

--- a/planificacion/planificacion.xlsx
+++ b/planificacion/planificacion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CB51A4-E6CB-4011-AAA9-67D0BF9FF3A2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624825EB-56DF-43FE-A971-A058CF2C0917}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version actual" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>Tareas</t>
   </si>
@@ -240,12 +240,21 @@
   <si>
     <t>Iteración 6</t>
   </si>
+  <si>
+    <t>Entrega de documento</t>
+  </si>
+  <si>
+    <t>Defensa:</t>
+  </si>
+  <si>
+    <t>18 de Agosto</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +296,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +333,17 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,10 +685,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -777,8 +812,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1062,11 +1105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{893B0263-59F4-40E5-9460-E43E9955B4EB}">
-  <dimension ref="A1:BG129"/>
+  <dimension ref="A1:BG130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA116" sqref="BA116"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G133" sqref="G133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,7 +1117,9 @@
     <col min="1" max="1" width="19.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="55.85546875" customWidth="1"/>
     <col min="3" max="3" width="4.85546875" customWidth="1"/>
-    <col min="4" max="54" width="4.5703125" customWidth="1"/>
+    <col min="4" max="50" width="4.5703125" customWidth="1"/>
+    <col min="51" max="51" width="4.5703125" style="72" customWidth="1"/>
+    <col min="52" max="54" width="4.5703125" customWidth="1"/>
     <col min="55" max="55" width="6" customWidth="1"/>
     <col min="56" max="58" width="4.5703125" customWidth="1"/>
     <col min="59" max="59" width="6" customWidth="1"/>
@@ -1316,7 +1361,7 @@
       <c r="AX2" s="15">
         <v>44004</v>
       </c>
-      <c r="AY2" s="15">
+      <c r="AY2" s="70">
         <v>44011</v>
       </c>
       <c r="AZ2" s="15">
@@ -1397,7 +1442,7 @@
       <c r="AV3" s="15"/>
       <c r="AW3" s="15"/>
       <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
+      <c r="AY3" s="70"/>
       <c r="AZ3" s="15"/>
       <c r="BA3" s="15"/>
       <c r="BB3" s="15"/>
@@ -1460,7 +1505,7 @@
       <c r="AV4" s="15"/>
       <c r="AW4" s="15"/>
       <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
+      <c r="AY4" s="70"/>
       <c r="AZ4" s="15"/>
       <c r="BA4" s="15"/>
       <c r="BB4" s="15"/>
@@ -1522,7 +1567,7 @@
       <c r="AV5" s="15"/>
       <c r="AW5" s="15"/>
       <c r="AX5" s="15"/>
-      <c r="AY5" s="15"/>
+      <c r="AY5" s="70"/>
       <c r="AZ5" s="15"/>
       <c r="BA5" s="15"/>
       <c r="BB5" s="15"/>
@@ -1585,7 +1630,7 @@
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
       <c r="AX6" s="15"/>
-      <c r="AY6" s="15"/>
+      <c r="AY6" s="70"/>
       <c r="AZ6" s="15"/>
       <c r="BA6" s="15"/>
       <c r="BB6" s="15"/>
@@ -1648,7 +1693,7 @@
       <c r="AV7" s="15"/>
       <c r="AW7" s="15"/>
       <c r="AX7" s="15"/>
-      <c r="AY7" s="15"/>
+      <c r="AY7" s="70"/>
       <c r="AZ7" s="15"/>
       <c r="BA7" s="15"/>
       <c r="BB7" s="15"/>
@@ -1711,7 +1756,7 @@
       <c r="AV8" s="15"/>
       <c r="AW8" s="15"/>
       <c r="AX8" s="15"/>
-      <c r="AY8" s="15"/>
+      <c r="AY8" s="70"/>
       <c r="AZ8" s="15"/>
       <c r="BA8" s="15"/>
       <c r="BB8" s="15"/>
@@ -1773,7 +1818,7 @@
       <c r="AV9" s="15"/>
       <c r="AW9" s="15"/>
       <c r="AX9" s="15"/>
-      <c r="AY9" s="15"/>
+      <c r="AY9" s="70"/>
       <c r="AZ9" s="15"/>
       <c r="BA9" s="15"/>
       <c r="BB9" s="15"/>
@@ -1836,7 +1881,7 @@
       <c r="AV10" s="15"/>
       <c r="AW10" s="15"/>
       <c r="AX10" s="15"/>
-      <c r="AY10" s="15"/>
+      <c r="AY10" s="70"/>
       <c r="AZ10" s="15"/>
       <c r="BA10" s="15"/>
       <c r="BB10" s="15"/>
@@ -1847,139 +1892,139 @@
       <c r="BG10" s="15"/>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="31"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="15"/>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="15"/>
+      <c r="AL11" s="15"/>
+      <c r="AM11" s="15"/>
+      <c r="AN11" s="15"/>
+      <c r="AO11" s="15"/>
+      <c r="AP11" s="15"/>
+      <c r="AQ11" s="15"/>
+      <c r="AR11" s="15"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="15"/>
+      <c r="AU11" s="15"/>
+      <c r="AV11" s="15"/>
+      <c r="AW11" s="15"/>
+      <c r="AX11" s="15"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="15"/>
+      <c r="BA11" s="15"/>
+      <c r="BB11" s="17"/>
+      <c r="BC11" s="17"/>
+      <c r="BD11" s="15"/>
+      <c r="BE11" s="15"/>
+      <c r="BF11" s="15"/>
+      <c r="BG11" s="15"/>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="33"/>
-      <c r="AH11" s="26"/>
-      <c r="AI11" s="22"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-      <c r="AT11" s="5"/>
-      <c r="AU11" s="5"/>
-      <c r="AV11" s="5"/>
-      <c r="AW11" s="5"/>
-      <c r="AX11" s="5"/>
-      <c r="AY11" s="5"/>
-      <c r="AZ11" s="5"/>
-      <c r="BA11" s="5"/>
-      <c r="BB11" s="5"/>
-      <c r="BC11" s="5"/>
-      <c r="BD11" s="5"/>
-      <c r="BE11" s="5"/>
-      <c r="BF11" s="5"/>
-      <c r="BG11" s="5"/>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="71"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
+      <c r="BG12" s="5"/>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="35"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2029,7 +2074,7 @@
       <c r="AV13" s="1"/>
       <c r="AW13" s="1"/>
       <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
+      <c r="AY13" s="71"/>
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
       <c r="BB13" s="1"/>
@@ -2042,12 +2087,12 @@
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
@@ -2092,7 +2137,7 @@
       <c r="AV14" s="1"/>
       <c r="AW14" s="1"/>
       <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
+      <c r="AY14" s="71"/>
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
       <c r="BB14" s="1"/>
@@ -2104,14 +2149,16 @@
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -2153,7 +2200,7 @@
       <c r="AV15" s="1"/>
       <c r="AW15" s="1"/>
       <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
+      <c r="AY15" s="71"/>
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
       <c r="BB15" s="1"/>
@@ -2163,21 +2210,17 @@
       <c r="BF15" s="1"/>
       <c r="BG15" s="1"/>
     </row>
-    <row r="16" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2218,7 +2261,7 @@
       <c r="AV16" s="1"/>
       <c r="AW16" s="1"/>
       <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
+      <c r="AY16" s="71"/>
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
       <c r="BB16" s="1"/>
@@ -2229,9 +2272,11 @@
       <c r="BG16" s="1"/>
     </row>
     <row r="17" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2281,7 +2326,7 @@
       <c r="AV17" s="1"/>
       <c r="AW17" s="1"/>
       <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
+      <c r="AY17" s="71"/>
       <c r="AZ17" s="1"/>
       <c r="BA17" s="1"/>
       <c r="BB17" s="1"/>
@@ -2293,10 +2338,10 @@
     </row>
     <row r="18" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="4"/>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2344,7 +2389,7 @@
       <c r="AV18" s="1"/>
       <c r="AW18" s="1"/>
       <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
+      <c r="AY18" s="71"/>
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
       <c r="BB18" s="1"/>
@@ -2356,16 +2401,18 @@
     </row>
     <row r="19" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2405,7 +2452,7 @@
       <c r="AV19" s="1"/>
       <c r="AW19" s="1"/>
       <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
+      <c r="AY19" s="71"/>
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
       <c r="BB19" s="1"/>
@@ -2415,30 +2462,26 @@
       <c r="BF19" s="1"/>
       <c r="BG19" s="1"/>
     </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1"/>
+    <row r="20" spans="1:59" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
@@ -2470,7 +2513,7 @@
       <c r="AV20" s="1"/>
       <c r="AW20" s="1"/>
       <c r="AX20" s="1"/>
-      <c r="AY20" s="1"/>
+      <c r="AY20" s="71"/>
       <c r="AZ20" s="1"/>
       <c r="BA20" s="1"/>
       <c r="BB20" s="1"/>
@@ -2481,9 +2524,11 @@
       <c r="BG20" s="1"/>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2495,10 +2540,10 @@
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -2533,7 +2578,7 @@
       <c r="AV21" s="1"/>
       <c r="AW21" s="1"/>
       <c r="AX21" s="1"/>
-      <c r="AY21" s="1"/>
+      <c r="AY21" s="71"/>
       <c r="AZ21" s="1"/>
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
@@ -2545,6 +2590,9 @@
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -2552,13 +2600,13 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="4"/>
@@ -2593,7 +2641,7 @@
       <c r="AV22" s="1"/>
       <c r="AW22" s="1"/>
       <c r="AX22" s="1"/>
-      <c r="AY22" s="1"/>
+      <c r="AY22" s="71"/>
       <c r="AZ22" s="1"/>
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
@@ -2605,7 +2653,6 @@
     </row>
     <row r="23" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2614,17 +2661,17 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="6"/>
       <c r="X23" s="34"/>
@@ -2654,7 +2701,7 @@
       <c r="AV23" s="1"/>
       <c r="AW23" s="1"/>
       <c r="AX23" s="1"/>
-      <c r="AY23" s="1"/>
+      <c r="AY23" s="71"/>
       <c r="AZ23" s="1"/>
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
@@ -2665,12 +2712,8 @@
       <c r="BG23" s="1"/>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2679,9 +2722,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
@@ -2719,7 +2762,7 @@
       <c r="AV24" s="1"/>
       <c r="AW24" s="1"/>
       <c r="AX24" s="1"/>
-      <c r="AY24" s="1"/>
+      <c r="AY24" s="71"/>
       <c r="AZ24" s="1"/>
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
@@ -2730,9 +2773,11 @@
       <c r="BG24" s="1"/>
     </row>
     <row r="25" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="4" t="s">
-        <v>43</v>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2782,7 +2827,7 @@
       <c r="AV25" s="1"/>
       <c r="AW25" s="1"/>
       <c r="AX25" s="1"/>
-      <c r="AY25" s="1"/>
+      <c r="AY25" s="71"/>
       <c r="AZ25" s="1"/>
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
@@ -2794,7 +2839,9 @@
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="B26" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -2804,8 +2851,8 @@
       <c r="I26" s="1"/>
       <c r="J26" s="4"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
@@ -2843,7 +2890,7 @@
       <c r="AV26" s="1"/>
       <c r="AW26" s="1"/>
       <c r="AX26" s="1"/>
-      <c r="AY26" s="1"/>
+      <c r="AY26" s="71"/>
       <c r="AZ26" s="1"/>
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
@@ -2867,7 +2914,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2904,7 +2951,7 @@
       <c r="AV27" s="1"/>
       <c r="AW27" s="1"/>
       <c r="AX27" s="1"/>
-      <c r="AY27" s="1"/>
+      <c r="AY27" s="71"/>
       <c r="AZ27" s="1"/>
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
@@ -2915,9 +2962,7 @@
       <c r="BG27" s="1"/>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2930,7 +2975,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="18"/>
+      <c r="N28" s="1"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2967,7 +3012,7 @@
       <c r="AV28" s="1"/>
       <c r="AW28" s="1"/>
       <c r="AX28" s="1"/>
-      <c r="AY28" s="1"/>
+      <c r="AY28" s="71"/>
       <c r="AZ28" s="1"/>
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
@@ -2978,7 +3023,9 @@
       <c r="BG28" s="1"/>
     </row>
     <row r="29" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2988,10 +3035,10 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="K29" s="1"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="N29" s="18"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -3028,7 +3075,7 @@
       <c r="AV29" s="1"/>
       <c r="AW29" s="1"/>
       <c r="AX29" s="1"/>
-      <c r="AY29" s="1"/>
+      <c r="AY29" s="71"/>
       <c r="AZ29" s="1"/>
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
@@ -3048,18 +3095,18 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
       <c r="V30" s="1"/>
       <c r="W30" s="6"/>
       <c r="X30" s="34"/>
@@ -3089,7 +3136,7 @@
       <c r="AV30" s="1"/>
       <c r="AW30" s="1"/>
       <c r="AX30" s="1"/>
-      <c r="AY30" s="1"/>
+      <c r="AY30" s="71"/>
       <c r="AZ30" s="1"/>
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
@@ -3100,137 +3147,137 @@
       <c r="BG30" s="1"/>
     </row>
     <row r="31" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="34"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+      <c r="AV31" s="1"/>
+      <c r="AW31" s="1"/>
+      <c r="AX31" s="1"/>
+      <c r="AY31" s="71"/>
+      <c r="AZ31" s="1"/>
+      <c r="BA31" s="1"/>
+      <c r="BB31" s="1"/>
+      <c r="BC31" s="1"/>
+      <c r="BD31" s="1"/>
+      <c r="BE31" s="1"/>
+      <c r="BF31" s="1"/>
+      <c r="BG31" s="1"/>
+    </row>
+    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B32" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="36"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="37"/>
-      <c r="AH31" s="21"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
-      <c r="AZ31" s="5"/>
-      <c r="BA31" s="5"/>
-      <c r="BB31" s="5"/>
-      <c r="BC31" s="5"/>
-      <c r="BD31" s="5"/>
-      <c r="BE31" s="5"/>
-      <c r="BF31" s="5"/>
-      <c r="BG31" s="5"/>
-    </row>
-    <row r="32" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="37"/>
+      <c r="AH32" s="21"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="5"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="5"/>
+      <c r="AY32" s="71"/>
+      <c r="AZ32" s="5"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="5"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
+      <c r="BG32" s="5"/>
+    </row>
+    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="35"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
-      <c r="AO32" s="1"/>
-      <c r="AP32" s="1"/>
-      <c r="AQ32" s="1"/>
-      <c r="AR32" s="1"/>
-      <c r="AS32" s="1"/>
-      <c r="AT32" s="1"/>
-      <c r="AU32" s="1"/>
-      <c r="AV32" s="1"/>
-      <c r="AW32" s="1"/>
-      <c r="AX32" s="1"/>
-      <c r="AY32" s="1"/>
-      <c r="AZ32" s="1"/>
-      <c r="BA32" s="1"/>
-      <c r="BB32" s="1"/>
-      <c r="BC32" s="1"/>
-      <c r="BD32" s="1"/>
-      <c r="BE32" s="1"/>
-      <c r="BF32" s="1"/>
-      <c r="BG32" s="1"/>
-    </row>
-    <row r="33" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" t="s">
-        <v>54</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -3278,7 +3325,7 @@
       <c r="AV33" s="1"/>
       <c r="AW33" s="1"/>
       <c r="AX33" s="1"/>
-      <c r="AY33" s="1"/>
+      <c r="AY33" s="71"/>
       <c r="AZ33" s="1"/>
       <c r="BA33" s="1"/>
       <c r="BB33" s="1"/>
@@ -3290,8 +3337,8 @@
     </row>
     <row r="34" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>40</v>
+      <c r="B34" t="s">
+        <v>54</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -3312,7 +3359,7 @@
       <c r="S34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="4"/>
+      <c r="W34" s="9"/>
       <c r="X34" s="34"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
@@ -3323,7 +3370,6 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
       <c r="AG34" s="35"/>
-      <c r="AH34" s="9"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -3340,7 +3386,7 @@
       <c r="AV34" s="1"/>
       <c r="AW34" s="1"/>
       <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
+      <c r="AY34" s="71"/>
       <c r="AZ34" s="1"/>
       <c r="BA34" s="1"/>
       <c r="BB34" s="1"/>
@@ -3352,7 +3398,9 @@
     </row>
     <row r="35" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3364,7 +3412,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="N35" s="18"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -3400,7 +3448,7 @@
       <c r="AV35" s="1"/>
       <c r="AW35" s="1"/>
       <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
+      <c r="AY35" s="71"/>
       <c r="AZ35" s="1"/>
       <c r="BA35" s="1"/>
       <c r="BB35" s="1"/>
@@ -3443,9 +3491,9 @@
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
       <c r="AG36" s="35"/>
-      <c r="AH36" s="8"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="4"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
@@ -3460,7 +3508,7 @@
       <c r="AV36" s="1"/>
       <c r="AW36" s="1"/>
       <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
+      <c r="AY36" s="71"/>
       <c r="AZ36" s="1"/>
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
@@ -3471,12 +3519,8 @@
       <c r="BG36" s="1"/>
     </row>
     <row r="37" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -3488,7 +3532,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="18"/>
+      <c r="N37" s="1"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -3508,6 +3552,7 @@
       <c r="AF37" s="4"/>
       <c r="AG37" s="35"/>
       <c r="AH37" s="8"/>
+      <c r="AI37" s="1"/>
       <c r="AJ37" s="4"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
@@ -3523,7 +3568,7 @@
       <c r="AV37" s="1"/>
       <c r="AW37" s="1"/>
       <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
+      <c r="AY37" s="71"/>
       <c r="AZ37" s="1"/>
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
@@ -3534,9 +3579,11 @@
       <c r="BG37" s="1"/>
     </row>
     <row r="38" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -3584,7 +3631,7 @@
       <c r="AV38" s="1"/>
       <c r="AW38" s="1"/>
       <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
+      <c r="AY38" s="71"/>
       <c r="AZ38" s="1"/>
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
@@ -3596,8 +3643,8 @@
     </row>
     <row r="39" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="4" t="s">
-        <v>55</v>
+      <c r="B39" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -3645,7 +3692,7 @@
       <c r="AV39" s="1"/>
       <c r="AW39" s="1"/>
       <c r="AX39" s="1"/>
-      <c r="AY39" s="1"/>
+      <c r="AY39" s="71"/>
       <c r="AZ39" s="1"/>
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
@@ -3657,7 +3704,9 @@
     </row>
     <row r="40" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -3669,7 +3718,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="N40" s="18"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -3677,7 +3726,7 @@
       <c r="S40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
+      <c r="W40" s="4"/>
       <c r="X40" s="34"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
@@ -3689,7 +3738,6 @@
       <c r="AF40" s="4"/>
       <c r="AG40" s="35"/>
       <c r="AH40" s="8"/>
-      <c r="AI40" s="1"/>
       <c r="AJ40" s="4"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
@@ -3705,7 +3753,7 @@
       <c r="AV40" s="1"/>
       <c r="AW40" s="1"/>
       <c r="AX40" s="1"/>
-      <c r="AY40" s="1"/>
+      <c r="AY40" s="71"/>
       <c r="AZ40" s="1"/>
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
@@ -3749,39 +3797,35 @@
       <c r="AF41" s="4"/>
       <c r="AG41" s="35"/>
       <c r="AH41" s="8"/>
-      <c r="AI41" s="4"/>
+      <c r="AI41" s="1"/>
       <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="4"/>
-      <c r="AO41" s="4"/>
-      <c r="AP41" s="4"/>
-      <c r="AQ41" s="4"/>
-      <c r="AR41" s="4"/>
-      <c r="AS41" s="4"/>
-      <c r="AT41" s="4"/>
-      <c r="AU41" s="4"/>
-      <c r="AV41" s="4"/>
-      <c r="AW41" s="4"/>
-      <c r="AX41" s="4"/>
-      <c r="AY41" s="4"/>
-      <c r="AZ41" s="4"/>
-      <c r="BA41" s="4"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="71"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
       <c r="BC41" s="1"/>
-      <c r="BD41" s="4"/>
-      <c r="BE41" s="4"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
       <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
     </row>
     <row r="42" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -3793,12 +3837,12 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="48"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="48"/>
-      <c r="S42" s="48"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
@@ -3829,7 +3873,7 @@
       <c r="AV42" s="4"/>
       <c r="AW42" s="4"/>
       <c r="AX42" s="4"/>
-      <c r="AY42" s="4"/>
+      <c r="AY42" s="71"/>
       <c r="AZ42" s="4"/>
       <c r="BA42" s="4"/>
       <c r="BB42" s="1"/>
@@ -3840,9 +3884,11 @@
       <c r="BG42" s="1"/>
     </row>
     <row r="43" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -3891,7 +3937,7 @@
       <c r="AV43" s="4"/>
       <c r="AW43" s="4"/>
       <c r="AX43" s="4"/>
-      <c r="AY43" s="4"/>
+      <c r="AY43" s="71"/>
       <c r="AZ43" s="4"/>
       <c r="BA43" s="4"/>
       <c r="BB43" s="1"/>
@@ -3904,7 +3950,7 @@
     <row r="44" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -3917,12 +3963,12 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+      <c r="N44" s="18"/>
       <c r="O44" s="18"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="48"/>
+      <c r="S44" s="48"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
@@ -3953,7 +3999,7 @@
       <c r="AV44" s="4"/>
       <c r="AW44" s="4"/>
       <c r="AX44" s="4"/>
-      <c r="AY44" s="4"/>
+      <c r="AY44" s="71"/>
       <c r="AZ44" s="4"/>
       <c r="BA44" s="4"/>
       <c r="BB44" s="1"/>
@@ -3965,7 +4011,9 @@
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
@@ -3978,7 +4026,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
+      <c r="O45" s="18"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -4013,7 +4061,7 @@
       <c r="AV45" s="4"/>
       <c r="AW45" s="4"/>
       <c r="AX45" s="4"/>
-      <c r="AY45" s="4"/>
+      <c r="AY45" s="71"/>
       <c r="AZ45" s="4"/>
       <c r="BA45" s="4"/>
       <c r="BB45" s="1"/>
@@ -4042,8 +4090,8 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="48"/>
-      <c r="U46" s="48"/>
+      <c r="S46" s="1"/>
+      <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="34"/>
@@ -4073,7 +4121,7 @@
       <c r="AV46" s="4"/>
       <c r="AW46" s="4"/>
       <c r="AX46" s="4"/>
-      <c r="AY46" s="4"/>
+      <c r="AY46" s="71"/>
       <c r="AZ46" s="4"/>
       <c r="BA46" s="4"/>
       <c r="BB46" s="1"/>
@@ -4084,12 +4132,8 @@
       <c r="BG46" s="1"/>
     </row>
     <row r="47" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -4103,9 +4147,10 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="48"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="48"/>
       <c r="U47" s="48"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
@@ -4136,7 +4181,7 @@
       <c r="AV47" s="4"/>
       <c r="AW47" s="4"/>
       <c r="AX47" s="4"/>
-      <c r="AY47" s="4"/>
+      <c r="AY47" s="71"/>
       <c r="AZ47" s="4"/>
       <c r="BA47" s="4"/>
       <c r="BB47" s="1"/>
@@ -4147,9 +4192,11 @@
       <c r="BG47" s="1"/>
     </row>
     <row r="48" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="4" t="s">
-        <v>43</v>
+      <c r="A48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -4197,7 +4244,7 @@
       <c r="AV48" s="4"/>
       <c r="AW48" s="4"/>
       <c r="AX48" s="4"/>
-      <c r="AY48" s="4"/>
+      <c r="AY48" s="71"/>
       <c r="AZ48" s="4"/>
       <c r="BA48" s="4"/>
       <c r="BB48" s="1"/>
@@ -4209,7 +4256,9 @@
     </row>
     <row r="49" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
+      <c r="B49" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -4223,8 +4272,8 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="18"/>
       <c r="R49" s="48"/>
       <c r="U49" s="48"/>
       <c r="V49" s="1"/>
@@ -4256,7 +4305,7 @@
       <c r="AV49" s="4"/>
       <c r="AW49" s="4"/>
       <c r="AX49" s="4"/>
-      <c r="AY49" s="4"/>
+      <c r="AY49" s="71"/>
       <c r="AZ49" s="4"/>
       <c r="BA49" s="4"/>
       <c r="BB49" s="1"/>
@@ -4284,9 +4333,8 @@
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="U50" s="1"/>
+      <c r="R50" s="48"/>
+      <c r="U50" s="48"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="34"/>
@@ -4316,7 +4364,7 @@
       <c r="AV50" s="4"/>
       <c r="AW50" s="4"/>
       <c r="AX50" s="4"/>
-      <c r="AY50" s="4"/>
+      <c r="AY50" s="71"/>
       <c r="AZ50" s="4"/>
       <c r="BA50" s="4"/>
       <c r="BB50" s="1"/>
@@ -4327,9 +4375,7 @@
       <c r="BG50" s="1"/>
     </row>
     <row r="51" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -4346,9 +4392,10 @@
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
-      <c r="R51" s="18"/>
+      <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="34"/>
       <c r="Y51" s="4"/>
@@ -4377,7 +4424,7 @@
       <c r="AV51" s="4"/>
       <c r="AW51" s="4"/>
       <c r="AX51" s="4"/>
-      <c r="AY51" s="4"/>
+      <c r="AY51" s="71"/>
       <c r="AZ51" s="4"/>
       <c r="BA51" s="4"/>
       <c r="BB51" s="1"/>
@@ -4388,7 +4435,10 @@
       <c r="BG51" s="1"/>
     </row>
     <row r="52" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B52" s="38"/>
+      <c r="A52" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -4404,13 +4454,11 @@
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
+      <c r="R52" s="18"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
       <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="9"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="34"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
@@ -4437,7 +4485,7 @@
       <c r="AV52" s="4"/>
       <c r="AW52" s="4"/>
       <c r="AX52" s="4"/>
-      <c r="AY52" s="4"/>
+      <c r="AY52" s="71"/>
       <c r="AZ52" s="4"/>
       <c r="BA52" s="4"/>
       <c r="BB52" s="1"/>
@@ -4448,139 +4496,136 @@
       <c r="BG52" s="1"/>
     </row>
     <row r="53" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="B53" s="38"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="35"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
+      <c r="AN53" s="4"/>
+      <c r="AO53" s="4"/>
+      <c r="AP53" s="4"/>
+      <c r="AQ53" s="4"/>
+      <c r="AR53" s="4"/>
+      <c r="AS53" s="4"/>
+      <c r="AT53" s="4"/>
+      <c r="AU53" s="4"/>
+      <c r="AV53" s="4"/>
+      <c r="AW53" s="4"/>
+      <c r="AX53" s="4"/>
+      <c r="AY53" s="71"/>
+      <c r="AZ53" s="4"/>
+      <c r="BA53" s="4"/>
+      <c r="BB53" s="1"/>
+      <c r="BC53" s="1"/>
+      <c r="BD53" s="4"/>
+      <c r="BE53" s="4"/>
+      <c r="BF53" s="1"/>
+      <c r="BG53" s="1"/>
+    </row>
+    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="21"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="42"/>
-      <c r="AH53" s="21"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-      <c r="AT53" s="5"/>
-      <c r="AU53" s="5"/>
-      <c r="AV53" s="5"/>
-      <c r="AW53" s="5"/>
-      <c r="AX53" s="5"/>
-      <c r="AY53" s="5"/>
-      <c r="AZ53" s="5"/>
-      <c r="BA53" s="5"/>
-      <c r="BB53" s="5"/>
-      <c r="BC53" s="5"/>
-      <c r="BD53" s="5"/>
-      <c r="BE53" s="5"/>
-      <c r="BF53" s="5"/>
-      <c r="BG53" s="5"/>
-    </row>
-    <row r="54" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="37"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="71"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+    </row>
+    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="49"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="44"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="4"/>
-      <c r="AJ54" s="4"/>
-      <c r="AK54" s="4"/>
-      <c r="AL54" s="4"/>
-      <c r="AM54" s="4"/>
-      <c r="AN54" s="4"/>
-      <c r="AO54" s="4"/>
-      <c r="AP54" s="4"/>
-      <c r="AQ54" s="4"/>
-      <c r="AR54" s="4"/>
-      <c r="AS54" s="4"/>
-      <c r="AT54" s="4"/>
-      <c r="AU54" s="4"/>
-      <c r="AV54" s="4"/>
-      <c r="AW54" s="4"/>
-      <c r="AX54" s="4"/>
-      <c r="AY54" s="4"/>
-      <c r="AZ54" s="4"/>
-      <c r="BA54" s="4"/>
-      <c r="BB54" s="4"/>
-      <c r="BC54" s="4"/>
-      <c r="BD54" s="4"/>
-      <c r="BE54" s="4"/>
-      <c r="BF54" s="4"/>
-      <c r="BG54" s="4"/>
-    </row>
-    <row r="55" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" t="s">
-        <v>54</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -4630,7 +4675,7 @@
       <c r="AV55" s="4"/>
       <c r="AW55" s="4"/>
       <c r="AX55" s="4"/>
-      <c r="AY55" s="4"/>
+      <c r="AY55" s="71"/>
       <c r="AZ55" s="4"/>
       <c r="BA55" s="4"/>
       <c r="BB55" s="4"/>
@@ -4642,8 +4687,8 @@
     </row>
     <row r="56" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
-        <v>40</v>
+      <c r="B56" t="s">
+        <v>54</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -4693,7 +4738,7 @@
       <c r="AV56" s="4"/>
       <c r="AW56" s="4"/>
       <c r="AX56" s="4"/>
-      <c r="AY56" s="4"/>
+      <c r="AY56" s="71"/>
       <c r="AZ56" s="4"/>
       <c r="BA56" s="4"/>
       <c r="BB56" s="4"/>
@@ -4705,7 +4750,9 @@
     </row>
     <row r="57" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -4721,7 +4768,7 @@
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
+      <c r="R57" s="18"/>
       <c r="S57" s="4"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
@@ -4754,7 +4801,7 @@
       <c r="AV57" s="4"/>
       <c r="AW57" s="4"/>
       <c r="AX57" s="4"/>
-      <c r="AY57" s="4"/>
+      <c r="AY57" s="71"/>
       <c r="AZ57" s="4"/>
       <c r="BA57" s="4"/>
       <c r="BB57" s="4"/>
@@ -4815,7 +4862,7 @@
       <c r="AV58" s="4"/>
       <c r="AW58" s="4"/>
       <c r="AX58" s="4"/>
-      <c r="AY58" s="4"/>
+      <c r="AY58" s="71"/>
       <c r="AZ58" s="4"/>
       <c r="BA58" s="4"/>
       <c r="BB58" s="4"/>
@@ -4826,12 +4873,8 @@
       <c r="BG58" s="4"/>
     </row>
     <row r="59" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
@@ -4847,7 +4890,7 @@
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
-      <c r="R59" s="18"/>
+      <c r="R59" s="4"/>
       <c r="S59" s="4"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
@@ -4880,7 +4923,7 @@
       <c r="AV59" s="4"/>
       <c r="AW59" s="4"/>
       <c r="AX59" s="4"/>
-      <c r="AY59" s="4"/>
+      <c r="AY59" s="71"/>
       <c r="AZ59" s="4"/>
       <c r="BA59" s="4"/>
       <c r="BB59" s="4"/>
@@ -4891,9 +4934,11 @@
       <c r="BG59" s="4"/>
     </row>
     <row r="60" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="4" t="s">
-        <v>55</v>
+      <c r="A60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -4943,7 +4988,7 @@
       <c r="AV60" s="4"/>
       <c r="AW60" s="4"/>
       <c r="AX60" s="4"/>
-      <c r="AY60" s="4"/>
+      <c r="AY60" s="71"/>
       <c r="AZ60" s="4"/>
       <c r="BA60" s="4"/>
       <c r="BB60" s="4"/>
@@ -4955,7 +5000,9 @@
     </row>
     <row r="61" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -4971,40 +5018,40 @@
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
+      <c r="R61" s="18"/>
       <c r="S61" s="4"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="50"/>
-      <c r="Y61" s="51"/>
+      <c r="W61" s="49"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="6"/>
       <c r="Z61" s="4"/>
       <c r="AA61" s="4"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
-      <c r="AF61" s="48"/>
-      <c r="AG61" s="55"/>
-      <c r="AH61" s="57"/>
-      <c r="AI61" s="48"/>
-      <c r="AJ61" s="48"/>
-      <c r="AK61" s="48"/>
-      <c r="AL61" s="48"/>
-      <c r="AM61" s="48"/>
-      <c r="AN61" s="48"/>
-      <c r="AO61" s="48"/>
-      <c r="AP61" s="48"/>
-      <c r="AQ61" s="48"/>
-      <c r="AR61" s="48"/>
-      <c r="AS61" s="48"/>
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="44"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="4"/>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
+      <c r="AN61" s="4"/>
+      <c r="AO61" s="4"/>
+      <c r="AP61" s="4"/>
+      <c r="AQ61" s="4"/>
+      <c r="AR61" s="4"/>
+      <c r="AS61" s="4"/>
       <c r="AT61" s="4"/>
       <c r="AU61" s="4"/>
       <c r="AV61" s="4"/>
       <c r="AW61" s="4"/>
       <c r="AX61" s="4"/>
-      <c r="AY61" s="4"/>
+      <c r="AY61" s="71"/>
       <c r="AZ61" s="4"/>
       <c r="BA61" s="4"/>
       <c r="BB61" s="4"/>
@@ -5038,9 +5085,9 @@
       <c r="U62" s="1"/>
       <c r="V62" s="4"/>
       <c r="W62" s="35"/>
-      <c r="X62" s="52"/>
-      <c r="Y62" s="53"/>
-      <c r="Z62" s="54"/>
+      <c r="X62" s="50"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="4"/>
       <c r="AA62" s="4"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
@@ -5065,7 +5112,7 @@
       <c r="AV62" s="4"/>
       <c r="AW62" s="4"/>
       <c r="AX62" s="4"/>
-      <c r="AY62" s="4"/>
+      <c r="AY62" s="71"/>
       <c r="AZ62" s="4"/>
       <c r="BA62" s="4"/>
       <c r="BB62" s="4"/>
@@ -5076,12 +5123,8 @@
       <c r="BG62" s="4"/>
     </row>
     <row r="63" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
@@ -5097,7 +5140,7 @@
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
-      <c r="R63" s="18"/>
+      <c r="R63" s="4"/>
       <c r="S63" s="4"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
@@ -5113,7 +5156,7 @@
       <c r="AE63" s="4"/>
       <c r="AF63" s="48"/>
       <c r="AG63" s="55"/>
-      <c r="AH63" s="58"/>
+      <c r="AH63" s="57"/>
       <c r="AI63" s="48"/>
       <c r="AJ63" s="48"/>
       <c r="AK63" s="48"/>
@@ -5130,7 +5173,7 @@
       <c r="AV63" s="4"/>
       <c r="AW63" s="4"/>
       <c r="AX63" s="4"/>
-      <c r="AY63" s="4"/>
+      <c r="AY63" s="71"/>
       <c r="AZ63" s="4"/>
       <c r="BA63" s="4"/>
       <c r="BB63" s="4"/>
@@ -5141,9 +5184,11 @@
       <c r="BG63" s="4"/>
     </row>
     <row r="64" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B64" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -5161,13 +5206,13 @@
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="18"/>
-      <c r="S64" s="18"/>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
       <c r="V64" s="4"/>
       <c r="W64" s="35"/>
       <c r="X64" s="52"/>
-      <c r="Y64" s="54"/>
+      <c r="Y64" s="53"/>
       <c r="Z64" s="54"/>
       <c r="AA64" s="4"/>
       <c r="AB64" s="4"/>
@@ -5176,7 +5221,7 @@
       <c r="AE64" s="4"/>
       <c r="AF64" s="48"/>
       <c r="AG64" s="55"/>
-      <c r="AH64" s="57"/>
+      <c r="AH64" s="58"/>
       <c r="AI64" s="48"/>
       <c r="AJ64" s="48"/>
       <c r="AK64" s="48"/>
@@ -5193,7 +5238,7 @@
       <c r="AV64" s="4"/>
       <c r="AW64" s="4"/>
       <c r="AX64" s="4"/>
-      <c r="AY64" s="4"/>
+      <c r="AY64" s="71"/>
       <c r="AZ64" s="4"/>
       <c r="BA64" s="4"/>
       <c r="BB64" s="4"/>
@@ -5205,7 +5250,9 @@
     </row>
     <row r="65" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="4"/>
+      <c r="B65" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
@@ -5221,15 +5268,15 @@
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
+      <c r="R65" s="18"/>
+      <c r="S65" s="18"/>
       <c r="T65" s="4"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
       <c r="W65" s="35"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
+      <c r="X65" s="52"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
@@ -5237,7 +5284,7 @@
       <c r="AE65" s="4"/>
       <c r="AF65" s="48"/>
       <c r="AG65" s="55"/>
-      <c r="AH65" s="56"/>
+      <c r="AH65" s="57"/>
       <c r="AI65" s="48"/>
       <c r="AJ65" s="48"/>
       <c r="AK65" s="48"/>
@@ -5254,7 +5301,7 @@
       <c r="AV65" s="4"/>
       <c r="AW65" s="4"/>
       <c r="AX65" s="4"/>
-      <c r="AY65" s="4"/>
+      <c r="AY65" s="71"/>
       <c r="AZ65" s="4"/>
       <c r="BA65" s="4"/>
       <c r="BB65" s="4"/>
@@ -5265,12 +5312,8 @@
       <c r="BG65" s="4"/>
     </row>
     <row r="66" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -5287,12 +5330,12 @@
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="43"/>
+      <c r="W66" s="35"/>
+      <c r="X66" s="9"/>
       <c r="Y66" s="4"/>
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
@@ -5319,7 +5362,7 @@
       <c r="AV66" s="4"/>
       <c r="AW66" s="4"/>
       <c r="AX66" s="4"/>
-      <c r="AY66" s="4"/>
+      <c r="AY66" s="71"/>
       <c r="AZ66" s="4"/>
       <c r="BA66" s="4"/>
       <c r="BB66" s="4"/>
@@ -5330,9 +5373,11 @@
       <c r="BG66" s="4"/>
     </row>
     <row r="67" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
-      <c r="B67" s="4" t="s">
-        <v>43</v>
+      <c r="A67" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
@@ -5382,7 +5427,7 @@
       <c r="AV67" s="4"/>
       <c r="AW67" s="4"/>
       <c r="AX67" s="4"/>
-      <c r="AY67" s="4"/>
+      <c r="AY67" s="71"/>
       <c r="AZ67" s="4"/>
       <c r="BA67" s="4"/>
       <c r="BB67" s="4"/>
@@ -5393,7 +5438,10 @@
       <c r="BG67" s="4"/>
     </row>
     <row r="68" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
@@ -5410,8 +5458,8 @@
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="6"/>
@@ -5442,7 +5490,7 @@
       <c r="AV68" s="4"/>
       <c r="AW68" s="4"/>
       <c r="AX68" s="4"/>
-      <c r="AY68" s="4"/>
+      <c r="AY68" s="71"/>
       <c r="AZ68" s="4"/>
       <c r="BA68" s="4"/>
       <c r="BB68" s="4"/>
@@ -5453,9 +5501,6 @@
       <c r="BG68" s="4"/>
     </row>
     <row r="69" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -5505,7 +5550,7 @@
       <c r="AV69" s="4"/>
       <c r="AW69" s="4"/>
       <c r="AX69" s="4"/>
-      <c r="AY69" s="4"/>
+      <c r="AY69" s="71"/>
       <c r="AZ69" s="4"/>
       <c r="BA69" s="4"/>
       <c r="BB69" s="4"/>
@@ -5516,139 +5561,139 @@
       <c r="BG69" s="4"/>
     </row>
     <row r="70" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="43"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="48"/>
+      <c r="AG70" s="55"/>
+      <c r="AH70" s="56"/>
+      <c r="AI70" s="48"/>
+      <c r="AJ70" s="48"/>
+      <c r="AK70" s="48"/>
+      <c r="AL70" s="48"/>
+      <c r="AM70" s="48"/>
+      <c r="AN70" s="48"/>
+      <c r="AO70" s="48"/>
+      <c r="AP70" s="48"/>
+      <c r="AQ70" s="48"/>
+      <c r="AR70" s="48"/>
+      <c r="AS70" s="48"/>
+      <c r="AT70" s="4"/>
+      <c r="AU70" s="4"/>
+      <c r="AV70" s="4"/>
+      <c r="AW70" s="4"/>
+      <c r="AX70" s="4"/>
+      <c r="AY70" s="71"/>
+      <c r="AZ70" s="4"/>
+      <c r="BA70" s="4"/>
+      <c r="BB70" s="4"/>
+      <c r="BC70" s="4"/>
+      <c r="BD70" s="4"/>
+      <c r="BE70" s="4"/>
+      <c r="BF70" s="4"/>
+      <c r="BG70" s="4"/>
+    </row>
+    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B71" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="41"/>
-      <c r="Y70" s="5"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="5"/>
-      <c r="AB70" s="5"/>
-      <c r="AC70" s="5"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="5"/>
-      <c r="AF70" s="5"/>
-      <c r="AG70" s="42"/>
-      <c r="AH70" s="21"/>
-      <c r="AI70" s="5"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="5"/>
-      <c r="AL70" s="5"/>
-      <c r="AM70" s="5"/>
-      <c r="AN70" s="5"/>
-      <c r="AO70" s="5"/>
-      <c r="AP70" s="5"/>
-      <c r="AQ70" s="5"/>
-      <c r="AR70" s="5"/>
-      <c r="AS70" s="5"/>
-      <c r="AT70" s="5"/>
-      <c r="AU70" s="5"/>
-      <c r="AV70" s="5"/>
-      <c r="AW70" s="5"/>
-      <c r="AX70" s="5"/>
-      <c r="AY70" s="5"/>
-      <c r="AZ70" s="5"/>
-      <c r="BA70" s="5"/>
-      <c r="BB70" s="5"/>
-      <c r="BC70" s="5"/>
-      <c r="BD70" s="5"/>
-      <c r="BE70" s="5"/>
-      <c r="BF70" s="5"/>
-      <c r="BG70" s="5"/>
-    </row>
-    <row r="71" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5"/>
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="5"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="41"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="5"/>
+      <c r="AA71" s="5"/>
+      <c r="AB71" s="5"/>
+      <c r="AC71" s="5"/>
+      <c r="AD71" s="5"/>
+      <c r="AE71" s="5"/>
+      <c r="AF71" s="5"/>
+      <c r="AG71" s="42"/>
+      <c r="AH71" s="21"/>
+      <c r="AI71" s="5"/>
+      <c r="AJ71" s="5"/>
+      <c r="AK71" s="5"/>
+      <c r="AL71" s="5"/>
+      <c r="AM71" s="5"/>
+      <c r="AN71" s="5"/>
+      <c r="AO71" s="5"/>
+      <c r="AP71" s="5"/>
+      <c r="AQ71" s="5"/>
+      <c r="AR71" s="5"/>
+      <c r="AS71" s="5"/>
+      <c r="AT71" s="5"/>
+      <c r="AU71" s="5"/>
+      <c r="AV71" s="5"/>
+      <c r="AW71" s="5"/>
+      <c r="AX71" s="5"/>
+      <c r="AY71" s="71"/>
+      <c r="AZ71" s="5"/>
+      <c r="BA71" s="5"/>
+      <c r="BB71" s="5"/>
+      <c r="BC71" s="5"/>
+      <c r="BD71" s="5"/>
+      <c r="BE71" s="5"/>
+      <c r="BF71" s="5"/>
+      <c r="BG71" s="5"/>
+    </row>
+    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B72" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="18"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AD71" s="4"/>
-      <c r="AE71" s="4"/>
-      <c r="AF71" s="4"/>
-      <c r="AG71" s="44"/>
-      <c r="AH71" s="9"/>
-      <c r="AI71" s="4"/>
-      <c r="AJ71" s="4"/>
-      <c r="AK71" s="4"/>
-      <c r="AL71" s="4"/>
-      <c r="AM71" s="4"/>
-      <c r="AN71" s="48"/>
-      <c r="AO71" s="48"/>
-      <c r="AP71" s="48"/>
-      <c r="AQ71" s="48"/>
-      <c r="AR71" s="48"/>
-      <c r="AS71" s="48"/>
-      <c r="AT71" s="48"/>
-      <c r="AU71" s="48"/>
-      <c r="AV71" s="48"/>
-      <c r="AW71" s="48"/>
-      <c r="AX71" s="48"/>
-      <c r="AY71" s="48"/>
-      <c r="AZ71" s="48"/>
-      <c r="BA71" s="4"/>
-      <c r="BB71" s="4"/>
-      <c r="BC71" s="4"/>
-      <c r="BD71" s="48"/>
-      <c r="BE71" s="4"/>
-      <c r="BF71" s="4"/>
-      <c r="BG71" s="4"/>
-    </row>
-    <row r="72" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" t="s">
-        <v>54</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -5698,7 +5743,7 @@
       <c r="AV72" s="48"/>
       <c r="AW72" s="48"/>
       <c r="AX72" s="48"/>
-      <c r="AY72" s="48"/>
+      <c r="AY72" s="71"/>
       <c r="AZ72" s="48"/>
       <c r="BA72" s="4"/>
       <c r="BB72" s="4"/>
@@ -5710,8 +5755,8 @@
     </row>
     <row r="73" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>40</v>
+      <c r="B73" t="s">
+        <v>54</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -5761,7 +5806,7 @@
       <c r="AV73" s="48"/>
       <c r="AW73" s="48"/>
       <c r="AX73" s="48"/>
-      <c r="AY73" s="48"/>
+      <c r="AY73" s="71"/>
       <c r="AZ73" s="48"/>
       <c r="BA73" s="4"/>
       <c r="BB73" s="4"/>
@@ -5773,7 +5818,9 @@
     </row>
     <row r="74" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -5791,7 +5838,7 @@
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
       <c r="S74" s="4"/>
-      <c r="T74" s="48"/>
+      <c r="T74" s="18"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="6"/>
@@ -5822,7 +5869,7 @@
       <c r="AV74" s="48"/>
       <c r="AW74" s="48"/>
       <c r="AX74" s="48"/>
-      <c r="AY74" s="48"/>
+      <c r="AY74" s="71"/>
       <c r="AZ74" s="48"/>
       <c r="BA74" s="4"/>
       <c r="BB74" s="4"/>
@@ -5852,7 +5899,7 @@
       <c r="Q75" s="4"/>
       <c r="R75" s="4"/>
       <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
+      <c r="T75" s="48"/>
       <c r="U75" s="4"/>
       <c r="V75" s="4"/>
       <c r="W75" s="6"/>
@@ -5883,7 +5930,7 @@
       <c r="AV75" s="48"/>
       <c r="AW75" s="48"/>
       <c r="AX75" s="48"/>
-      <c r="AY75" s="48"/>
+      <c r="AY75" s="71"/>
       <c r="AZ75" s="48"/>
       <c r="BA75" s="4"/>
       <c r="BB75" s="4"/>
@@ -5894,12 +5941,8 @@
       <c r="BG75" s="4"/>
     </row>
     <row r="76" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -5917,7 +5960,7 @@
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
-      <c r="T76" s="18"/>
+      <c r="T76" s="4"/>
       <c r="U76" s="4"/>
       <c r="V76" s="4"/>
       <c r="W76" s="6"/>
@@ -5948,7 +5991,7 @@
       <c r="AV76" s="48"/>
       <c r="AW76" s="48"/>
       <c r="AX76" s="48"/>
-      <c r="AY76" s="48"/>
+      <c r="AY76" s="71"/>
       <c r="AZ76" s="48"/>
       <c r="BA76" s="4"/>
       <c r="BB76" s="4"/>
@@ -5959,9 +6002,11 @@
       <c r="BG76" s="4"/>
     </row>
     <row r="77" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="B77" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6011,7 +6056,7 @@
       <c r="AV77" s="48"/>
       <c r="AW77" s="48"/>
       <c r="AX77" s="48"/>
-      <c r="AY77" s="48"/>
+      <c r="AY77" s="71"/>
       <c r="AZ77" s="48"/>
       <c r="BA77" s="4"/>
       <c r="BB77" s="4"/>
@@ -6023,7 +6068,9 @@
     </row>
     <row r="78" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
+      <c r="B78" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -6041,7 +6088,7 @@
       <c r="Q78" s="4"/>
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
+      <c r="T78" s="18"/>
       <c r="U78" s="4"/>
       <c r="V78" s="4"/>
       <c r="W78" s="6"/>
@@ -6072,7 +6119,7 @@
       <c r="AV78" s="48"/>
       <c r="AW78" s="48"/>
       <c r="AX78" s="48"/>
-      <c r="AY78" s="48"/>
+      <c r="AY78" s="71"/>
       <c r="AZ78" s="48"/>
       <c r="BA78" s="4"/>
       <c r="BB78" s="4"/>
@@ -6083,12 +6130,8 @@
       <c r="BG78" s="4"/>
     </row>
     <row r="79" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="A79" s="1"/>
+      <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -6106,7 +6149,7 @@
       <c r="Q79" s="4"/>
       <c r="R79" s="4"/>
       <c r="S79" s="4"/>
-      <c r="T79" s="18"/>
+      <c r="T79" s="4"/>
       <c r="U79" s="4"/>
       <c r="V79" s="4"/>
       <c r="W79" s="6"/>
@@ -6137,7 +6180,7 @@
       <c r="AV79" s="48"/>
       <c r="AW79" s="48"/>
       <c r="AX79" s="48"/>
-      <c r="AY79" s="48"/>
+      <c r="AY79" s="71"/>
       <c r="AZ79" s="48"/>
       <c r="BA79" s="4"/>
       <c r="BB79" s="4"/>
@@ -6148,9 +6191,11 @@
       <c r="BG79" s="4"/>
     </row>
     <row r="80" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
+      <c r="A80" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B80" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6170,13 +6215,13 @@
       <c r="R80" s="4"/>
       <c r="S80" s="4"/>
       <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="43"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
       <c r="AC80" s="4"/>
       <c r="AD80" s="4"/>
@@ -6200,7 +6245,7 @@
       <c r="AV80" s="48"/>
       <c r="AW80" s="48"/>
       <c r="AX80" s="48"/>
-      <c r="AY80" s="48"/>
+      <c r="AY80" s="71"/>
       <c r="AZ80" s="48"/>
       <c r="BA80" s="4"/>
       <c r="BB80" s="4"/>
@@ -6213,7 +6258,7 @@
     <row r="81" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -6234,12 +6279,12 @@
       <c r="S81" s="4"/>
       <c r="T81" s="18"/>
       <c r="U81" s="18"/>
-      <c r="V81" s="4"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="4"/>
-      <c r="Z81" s="4"/>
-      <c r="AA81" s="4"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
+      <c r="AA81" s="18"/>
       <c r="AB81" s="4"/>
       <c r="AC81" s="4"/>
       <c r="AD81" s="4"/>
@@ -6263,7 +6308,7 @@
       <c r="AV81" s="48"/>
       <c r="AW81" s="48"/>
       <c r="AX81" s="48"/>
-      <c r="AY81" s="48"/>
+      <c r="AY81" s="71"/>
       <c r="AZ81" s="48"/>
       <c r="BA81" s="4"/>
       <c r="BB81" s="4"/>
@@ -6276,7 +6321,7 @@
     <row r="82" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6296,7 +6341,7 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
       <c r="T82" s="18"/>
-      <c r="U82" s="4"/>
+      <c r="U82" s="18"/>
       <c r="V82" s="4"/>
       <c r="W82" s="6"/>
       <c r="X82" s="43"/>
@@ -6326,7 +6371,7 @@
       <c r="AV82" s="48"/>
       <c r="AW82" s="48"/>
       <c r="AX82" s="48"/>
-      <c r="AY82" s="48"/>
+      <c r="AY82" s="71"/>
       <c r="AZ82" s="48"/>
       <c r="BA82" s="4"/>
       <c r="BB82" s="4"/>
@@ -6339,7 +6384,7 @@
     <row r="83" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6358,11 +6403,11 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="4"/>
+      <c r="T83" s="18"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="6"/>
-      <c r="X83" s="18"/>
+      <c r="X83" s="43"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
@@ -6389,7 +6434,7 @@
       <c r="AV83" s="48"/>
       <c r="AW83" s="48"/>
       <c r="AX83" s="48"/>
-      <c r="AY83" s="48"/>
+      <c r="AY83" s="71"/>
       <c r="AZ83" s="48"/>
       <c r="BA83" s="4"/>
       <c r="BB83" s="4"/>
@@ -6402,7 +6447,7 @@
     <row r="84" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6425,8 +6470,8 @@
       <c r="U84" s="4"/>
       <c r="V84" s="4"/>
       <c r="W84" s="6"/>
-      <c r="X84" s="43"/>
-      <c r="Y84" s="18"/>
+      <c r="X84" s="18"/>
+      <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
@@ -6452,7 +6497,7 @@
       <c r="AV84" s="48"/>
       <c r="AW84" s="48"/>
       <c r="AX84" s="48"/>
-      <c r="AY84" s="48"/>
+      <c r="AY84" s="71"/>
       <c r="AZ84" s="48"/>
       <c r="BA84" s="4"/>
       <c r="BB84" s="4"/>
@@ -6464,7 +6509,9 @@
     </row>
     <row r="85" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
+      <c r="B85" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -6487,7 +6534,7 @@
       <c r="V85" s="4"/>
       <c r="W85" s="6"/>
       <c r="X85" s="43"/>
-      <c r="Y85" s="4"/>
+      <c r="Y85" s="18"/>
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
@@ -6513,7 +6560,7 @@
       <c r="AV85" s="48"/>
       <c r="AW85" s="48"/>
       <c r="AX85" s="48"/>
-      <c r="AY85" s="48"/>
+      <c r="AY85" s="71"/>
       <c r="AZ85" s="48"/>
       <c r="BA85" s="4"/>
       <c r="BB85" s="4"/>
@@ -6574,7 +6621,7 @@
       <c r="AV86" s="48"/>
       <c r="AW86" s="48"/>
       <c r="AX86" s="48"/>
-      <c r="AY86" s="48"/>
+      <c r="AY86" s="71"/>
       <c r="AZ86" s="48"/>
       <c r="BA86" s="4"/>
       <c r="BB86" s="4"/>
@@ -6585,12 +6632,8 @@
       <c r="BG86" s="4"/>
     </row>
     <row r="87" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -6616,7 +6659,7 @@
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
-      <c r="AB87" s="18"/>
+      <c r="AB87" s="4"/>
       <c r="AC87" s="4"/>
       <c r="AD87" s="4"/>
       <c r="AE87" s="4"/>
@@ -6639,7 +6682,7 @@
       <c r="AV87" s="48"/>
       <c r="AW87" s="48"/>
       <c r="AX87" s="48"/>
-      <c r="AY87" s="48"/>
+      <c r="AY87" s="71"/>
       <c r="AZ87" s="48"/>
       <c r="BA87" s="4"/>
       <c r="BB87" s="4"/>
@@ -6650,9 +6693,11 @@
       <c r="BG87" s="4"/>
     </row>
     <row r="88" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="4" t="s">
-        <v>43</v>
+      <c r="A88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6702,7 +6747,7 @@
       <c r="AV88" s="48"/>
       <c r="AW88" s="48"/>
       <c r="AX88" s="48"/>
-      <c r="AY88" s="48"/>
+      <c r="AY88" s="71"/>
       <c r="AZ88" s="48"/>
       <c r="BA88" s="4"/>
       <c r="BB88" s="4"/>
@@ -6713,139 +6758,139 @@
       <c r="BG88" s="4"/>
     </row>
     <row r="89" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="1"/>
+      <c r="B89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="43"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="18"/>
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="4"/>
+      <c r="AE89" s="4"/>
+      <c r="AF89" s="4"/>
+      <c r="AG89" s="44"/>
+      <c r="AH89" s="9"/>
+      <c r="AI89" s="4"/>
+      <c r="AJ89" s="4"/>
+      <c r="AK89" s="4"/>
+      <c r="AL89" s="4"/>
+      <c r="AM89" s="4"/>
+      <c r="AN89" s="48"/>
+      <c r="AO89" s="48"/>
+      <c r="AP89" s="48"/>
+      <c r="AQ89" s="48"/>
+      <c r="AR89" s="48"/>
+      <c r="AS89" s="48"/>
+      <c r="AT89" s="48"/>
+      <c r="AU89" s="48"/>
+      <c r="AV89" s="48"/>
+      <c r="AW89" s="48"/>
+      <c r="AX89" s="48"/>
+      <c r="AY89" s="71"/>
+      <c r="AZ89" s="48"/>
+      <c r="BA89" s="4"/>
+      <c r="BB89" s="4"/>
+      <c r="BC89" s="4"/>
+      <c r="BD89" s="48"/>
+      <c r="BE89" s="4"/>
+      <c r="BF89" s="4"/>
+      <c r="BG89" s="4"/>
+    </row>
+    <row r="90" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B90" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-      <c r="U89" s="5"/>
-      <c r="V89" s="5"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="41"/>
-      <c r="Y89" s="5"/>
-      <c r="Z89" s="5"/>
-      <c r="AA89" s="5"/>
-      <c r="AB89" s="5"/>
-      <c r="AC89" s="5"/>
-      <c r="AD89" s="5"/>
-      <c r="AE89" s="5"/>
-      <c r="AF89" s="5"/>
-      <c r="AG89" s="42"/>
-      <c r="AH89" s="21"/>
-      <c r="AI89" s="5"/>
-      <c r="AJ89" s="5"/>
-      <c r="AK89" s="5"/>
-      <c r="AL89" s="5"/>
-      <c r="AM89" s="5"/>
-      <c r="AN89" s="5"/>
-      <c r="AO89" s="5"/>
-      <c r="AP89" s="5"/>
-      <c r="AQ89" s="5"/>
-      <c r="AR89" s="5"/>
-      <c r="AS89" s="5"/>
-      <c r="AT89" s="5"/>
-      <c r="AU89" s="5"/>
-      <c r="AV89" s="5"/>
-      <c r="AW89" s="5"/>
-      <c r="AX89" s="5"/>
-      <c r="AY89" s="5"/>
-      <c r="AZ89" s="5"/>
-      <c r="BA89" s="5"/>
-      <c r="BB89" s="5"/>
-      <c r="BC89" s="5"/>
-      <c r="BD89" s="5"/>
-      <c r="BE89" s="5"/>
-      <c r="BF89" s="5"/>
-      <c r="BG89" s="5"/>
-    </row>
-    <row r="90" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5"/>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5"/>
+      <c r="R90" s="5"/>
+      <c r="S90" s="5"/>
+      <c r="T90" s="5"/>
+      <c r="U90" s="5"/>
+      <c r="V90" s="5"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="5"/>
+      <c r="Z90" s="5"/>
+      <c r="AA90" s="5"/>
+      <c r="AB90" s="5"/>
+      <c r="AC90" s="5"/>
+      <c r="AD90" s="5"/>
+      <c r="AE90" s="5"/>
+      <c r="AF90" s="5"/>
+      <c r="AG90" s="42"/>
+      <c r="AH90" s="21"/>
+      <c r="AI90" s="5"/>
+      <c r="AJ90" s="5"/>
+      <c r="AK90" s="5"/>
+      <c r="AL90" s="5"/>
+      <c r="AM90" s="5"/>
+      <c r="AN90" s="5"/>
+      <c r="AO90" s="5"/>
+      <c r="AP90" s="5"/>
+      <c r="AQ90" s="5"/>
+      <c r="AR90" s="5"/>
+      <c r="AS90" s="5"/>
+      <c r="AT90" s="5"/>
+      <c r="AU90" s="5"/>
+      <c r="AV90" s="5"/>
+      <c r="AW90" s="5"/>
+      <c r="AX90" s="5"/>
+      <c r="AY90" s="71"/>
+      <c r="AZ90" s="5"/>
+      <c r="BA90" s="5"/>
+      <c r="BB90" s="5"/>
+      <c r="BC90" s="5"/>
+      <c r="BD90" s="5"/>
+      <c r="BE90" s="5"/>
+      <c r="BF90" s="5"/>
+      <c r="BG90" s="5"/>
+    </row>
+    <row r="91" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="43"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="4"/>
-      <c r="AE90" s="4"/>
-      <c r="AF90" s="4"/>
-      <c r="AG90" s="44"/>
-      <c r="AH90" s="9"/>
-      <c r="AI90" s="4"/>
-      <c r="AJ90" s="4"/>
-      <c r="AK90" s="4"/>
-      <c r="AL90" s="4"/>
-      <c r="AM90" s="4"/>
-      <c r="AN90" s="48"/>
-      <c r="AO90" s="48"/>
-      <c r="AP90" s="48"/>
-      <c r="AQ90" s="48"/>
-      <c r="AR90" s="48"/>
-      <c r="AS90" s="48"/>
-      <c r="AT90" s="48"/>
-      <c r="AU90" s="48"/>
-      <c r="AV90" s="48"/>
-      <c r="AW90" s="48"/>
-      <c r="AX90" s="48"/>
-      <c r="AY90" s="48"/>
-      <c r="AZ90" s="48"/>
-      <c r="BA90" s="4"/>
-      <c r="BB90" s="4"/>
-      <c r="BC90" s="4"/>
-      <c r="BD90" s="48"/>
-      <c r="BE90" s="4"/>
-      <c r="BF90" s="4"/>
-      <c r="BG90" s="4"/>
-    </row>
-    <row r="91" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" t="s">
-        <v>54</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6895,7 +6940,7 @@
       <c r="AV91" s="48"/>
       <c r="AW91" s="48"/>
       <c r="AX91" s="48"/>
-      <c r="AY91" s="48"/>
+      <c r="AY91" s="71"/>
       <c r="AZ91" s="48"/>
       <c r="BA91" s="4"/>
       <c r="BB91" s="4"/>
@@ -6907,8 +6952,8 @@
     </row>
     <row r="92" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="1" t="s">
-        <v>40</v>
+      <c r="B92" t="s">
+        <v>54</v>
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6958,7 +7003,7 @@
       <c r="AV92" s="48"/>
       <c r="AW92" s="48"/>
       <c r="AX92" s="48"/>
-      <c r="AY92" s="48"/>
+      <c r="AY92" s="71"/>
       <c r="AZ92" s="48"/>
       <c r="BA92" s="4"/>
       <c r="BB92" s="4"/>
@@ -6970,6 +7015,9 @@
     </row>
     <row r="93" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
+      <c r="B93" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
@@ -6996,7 +7044,7 @@
       <c r="Z93" s="4"/>
       <c r="AA93" s="4"/>
       <c r="AB93" s="4"/>
-      <c r="AC93" s="4"/>
+      <c r="AC93" s="18"/>
       <c r="AD93" s="4"/>
       <c r="AE93" s="4"/>
       <c r="AF93" s="4"/>
@@ -7018,7 +7066,7 @@
       <c r="AV93" s="48"/>
       <c r="AW93" s="48"/>
       <c r="AX93" s="48"/>
-      <c r="AY93" s="48"/>
+      <c r="AY93" s="71"/>
       <c r="AZ93" s="48"/>
       <c r="BA93" s="4"/>
       <c r="BB93" s="4"/>
@@ -7030,7 +7078,6 @@
     </row>
     <row r="94" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -7079,7 +7126,7 @@
       <c r="AV94" s="48"/>
       <c r="AW94" s="48"/>
       <c r="AX94" s="48"/>
-      <c r="AY94" s="48"/>
+      <c r="AY94" s="71"/>
       <c r="AZ94" s="48"/>
       <c r="BA94" s="4"/>
       <c r="BB94" s="4"/>
@@ -7090,12 +7137,8 @@
       <c r="BG94" s="4"/>
     </row>
     <row r="95" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>55</v>
-      </c>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -7123,7 +7166,7 @@
       <c r="AA95" s="4"/>
       <c r="AB95" s="4"/>
       <c r="AC95" s="4"/>
-      <c r="AD95" s="18"/>
+      <c r="AD95" s="4"/>
       <c r="AE95" s="4"/>
       <c r="AF95" s="4"/>
       <c r="AG95" s="44"/>
@@ -7144,7 +7187,7 @@
       <c r="AV95" s="48"/>
       <c r="AW95" s="48"/>
       <c r="AX95" s="48"/>
-      <c r="AY95" s="48"/>
+      <c r="AY95" s="71"/>
       <c r="AZ95" s="48"/>
       <c r="BA95" s="4"/>
       <c r="BB95" s="4"/>
@@ -7155,8 +7198,12 @@
       <c r="BG95" s="4"/>
     </row>
     <row r="96" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
@@ -7184,7 +7231,7 @@
       <c r="AA96" s="4"/>
       <c r="AB96" s="4"/>
       <c r="AC96" s="4"/>
-      <c r="AD96" s="4"/>
+      <c r="AD96" s="18"/>
       <c r="AE96" s="4"/>
       <c r="AF96" s="4"/>
       <c r="AG96" s="44"/>
@@ -7205,7 +7252,7 @@
       <c r="AV96" s="48"/>
       <c r="AW96" s="48"/>
       <c r="AX96" s="48"/>
-      <c r="AY96" s="48"/>
+      <c r="AY96" s="71"/>
       <c r="AZ96" s="48"/>
       <c r="BA96" s="4"/>
       <c r="BB96" s="4"/>
@@ -7266,7 +7313,7 @@
       <c r="AV97" s="48"/>
       <c r="AW97" s="48"/>
       <c r="AX97" s="48"/>
-      <c r="AY97" s="48"/>
+      <c r="AY97" s="71"/>
       <c r="AZ97" s="48"/>
       <c r="BA97" s="4"/>
       <c r="BB97" s="4"/>
@@ -7277,12 +7324,8 @@
       <c r="BG97" s="4"/>
     </row>
     <row r="98" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
@@ -7310,13 +7353,13 @@
       <c r="AA98" s="4"/>
       <c r="AB98" s="4"/>
       <c r="AC98" s="4"/>
-      <c r="AD98" s="18"/>
-      <c r="AE98" s="18"/>
-      <c r="AF98" s="18"/>
-      <c r="AG98" s="18"/>
-      <c r="AH98" s="18"/>
-      <c r="AI98" s="18"/>
-      <c r="AJ98" s="18"/>
+      <c r="AD98" s="4"/>
+      <c r="AE98" s="4"/>
+      <c r="AF98" s="4"/>
+      <c r="AG98" s="44"/>
+      <c r="AH98" s="9"/>
+      <c r="AI98" s="4"/>
+      <c r="AJ98" s="4"/>
       <c r="AK98" s="4"/>
       <c r="AL98" s="4"/>
       <c r="AM98" s="4"/>
@@ -7331,7 +7374,7 @@
       <c r="AV98" s="48"/>
       <c r="AW98" s="48"/>
       <c r="AX98" s="48"/>
-      <c r="AY98" s="48"/>
+      <c r="AY98" s="71"/>
       <c r="AZ98" s="48"/>
       <c r="BA98" s="4"/>
       <c r="BB98" s="4"/>
@@ -7342,8 +7385,12 @@
       <c r="BG98" s="4"/>
     </row>
     <row r="99" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="1"/>
+      <c r="A99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
@@ -7371,13 +7418,13 @@
       <c r="AA99" s="4"/>
       <c r="AB99" s="4"/>
       <c r="AC99" s="4"/>
-      <c r="AD99" s="4"/>
-      <c r="AE99" s="4"/>
-      <c r="AF99" s="4"/>
-      <c r="AG99" s="44"/>
-      <c r="AH99" s="9"/>
-      <c r="AI99" s="4"/>
-      <c r="AJ99" s="4"/>
+      <c r="AD99" s="18"/>
+      <c r="AE99" s="18"/>
+      <c r="AF99" s="18"/>
+      <c r="AG99" s="18"/>
+      <c r="AH99" s="18"/>
+      <c r="AI99" s="18"/>
+      <c r="AJ99" s="18"/>
       <c r="AK99" s="4"/>
       <c r="AL99" s="4"/>
       <c r="AM99" s="4"/>
@@ -7392,7 +7439,7 @@
       <c r="AV99" s="48"/>
       <c r="AW99" s="48"/>
       <c r="AX99" s="48"/>
-      <c r="AY99" s="48"/>
+      <c r="AY99" s="71"/>
       <c r="AZ99" s="48"/>
       <c r="BA99" s="4"/>
       <c r="BB99" s="4"/>
@@ -7453,7 +7500,7 @@
       <c r="AV100" s="48"/>
       <c r="AW100" s="48"/>
       <c r="AX100" s="48"/>
-      <c r="AY100" s="48"/>
+      <c r="AY100" s="71"/>
       <c r="AZ100" s="48"/>
       <c r="BA100" s="4"/>
       <c r="BB100" s="4"/>
@@ -7514,7 +7561,7 @@
       <c r="AV101" s="48"/>
       <c r="AW101" s="48"/>
       <c r="AX101" s="48"/>
-      <c r="AY101" s="48"/>
+      <c r="AY101" s="71"/>
       <c r="AZ101" s="48"/>
       <c r="BA101" s="4"/>
       <c r="BB101" s="4"/>
@@ -7525,12 +7572,8 @@
       <c r="BG101" s="4"/>
     </row>
     <row r="102" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
@@ -7565,9 +7608,9 @@
       <c r="AH102" s="9"/>
       <c r="AI102" s="4"/>
       <c r="AJ102" s="4"/>
-      <c r="AK102" s="18"/>
-      <c r="AL102" s="18"/>
-      <c r="AM102" s="18"/>
+      <c r="AK102" s="4"/>
+      <c r="AL102" s="4"/>
+      <c r="AM102" s="4"/>
       <c r="AN102" s="48"/>
       <c r="AO102" s="48"/>
       <c r="AP102" s="48"/>
@@ -7579,7 +7622,7 @@
       <c r="AV102" s="48"/>
       <c r="AW102" s="48"/>
       <c r="AX102" s="48"/>
-      <c r="AY102" s="48"/>
+      <c r="AY102" s="71"/>
       <c r="AZ102" s="48"/>
       <c r="BA102" s="4"/>
       <c r="BB102" s="4"/>
@@ -7590,9 +7633,11 @@
       <c r="BG102" s="4"/>
     </row>
     <row r="103" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A103" s="1"/>
-      <c r="B103" s="4" t="s">
-        <v>43</v>
+      <c r="A103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
@@ -7628,7 +7673,7 @@
       <c r="AH103" s="9"/>
       <c r="AI103" s="4"/>
       <c r="AJ103" s="4"/>
-      <c r="AK103" s="4"/>
+      <c r="AK103" s="18"/>
       <c r="AL103" s="18"/>
       <c r="AM103" s="18"/>
       <c r="AN103" s="48"/>
@@ -7642,7 +7687,7 @@
       <c r="AV103" s="48"/>
       <c r="AW103" s="48"/>
       <c r="AX103" s="48"/>
-      <c r="AY103" s="48"/>
+      <c r="AY103" s="71"/>
       <c r="AZ103" s="48"/>
       <c r="BA103" s="4"/>
       <c r="BB103" s="4"/>
@@ -7653,138 +7698,140 @@
       <c r="BG103" s="4"/>
     </row>
     <row r="104" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="1"/>
+      <c r="B104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="43"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="4"/>
+      <c r="AE104" s="4"/>
+      <c r="AF104" s="4"/>
+      <c r="AG104" s="44"/>
+      <c r="AH104" s="9"/>
+      <c r="AI104" s="4"/>
+      <c r="AJ104" s="4"/>
+      <c r="AK104" s="4"/>
+      <c r="AL104" s="18"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="48"/>
+      <c r="AO104" s="48"/>
+      <c r="AP104" s="48"/>
+      <c r="AQ104" s="48"/>
+      <c r="AR104" s="48"/>
+      <c r="AS104" s="48"/>
+      <c r="AT104" s="48"/>
+      <c r="AU104" s="48"/>
+      <c r="AV104" s="48"/>
+      <c r="AW104" s="48"/>
+      <c r="AX104" s="48"/>
+      <c r="AY104" s="71"/>
+      <c r="AZ104" s="48"/>
+      <c r="BA104" s="4"/>
+      <c r="BB104" s="4"/>
+      <c r="BC104" s="4"/>
+      <c r="BD104" s="48"/>
+      <c r="BE104" s="4"/>
+      <c r="BF104" s="4"/>
+      <c r="BG104" s="4"/>
+    </row>
+    <row r="105" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5"/>
-      <c r="W104" s="7"/>
-      <c r="X104" s="41"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
-      <c r="AA104" s="5"/>
-      <c r="AB104" s="5"/>
-      <c r="AC104" s="5"/>
-      <c r="AD104" s="5"/>
-      <c r="AE104" s="5"/>
-      <c r="AF104" s="5"/>
-      <c r="AG104" s="42"/>
-      <c r="AH104" s="21"/>
-      <c r="AI104" s="5"/>
-      <c r="AJ104" s="5"/>
-      <c r="AK104" s="5"/>
-      <c r="AL104" s="5"/>
-      <c r="AM104" s="5"/>
-      <c r="AN104" s="5"/>
-      <c r="AO104" s="5"/>
-      <c r="AP104" s="5"/>
-      <c r="AQ104" s="5"/>
-      <c r="AR104" s="5"/>
-      <c r="AS104" s="5"/>
-      <c r="AT104" s="5"/>
-      <c r="AU104" s="5"/>
-      <c r="AV104" s="5"/>
-      <c r="AW104" s="5"/>
-      <c r="AX104" s="5"/>
-      <c r="AY104" s="5"/>
-      <c r="AZ104" s="5"/>
-      <c r="BA104" s="5"/>
-      <c r="BB104" s="5"/>
-      <c r="BC104" s="5"/>
-      <c r="BD104" s="5"/>
-      <c r="BE104" s="5"/>
-      <c r="BF104" s="5"/>
-      <c r="BG104" s="5"/>
-    </row>
-    <row r="105" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="7"/>
+      <c r="X105" s="41"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
+      <c r="AA105" s="5"/>
+      <c r="AB105" s="5"/>
+      <c r="AC105" s="5"/>
+      <c r="AD105" s="5"/>
+      <c r="AE105" s="5"/>
+      <c r="AF105" s="5"/>
+      <c r="AG105" s="42"/>
+      <c r="AH105" s="21"/>
+      <c r="AI105" s="5"/>
+      <c r="AJ105" s="5"/>
+      <c r="AK105" s="5"/>
+      <c r="AL105" s="5"/>
+      <c r="AM105" s="5"/>
+      <c r="AN105" s="5"/>
+      <c r="AO105" s="5"/>
+      <c r="AP105" s="5"/>
+      <c r="AQ105" s="5"/>
+      <c r="AR105" s="5"/>
+      <c r="AS105" s="5"/>
+      <c r="AT105" s="5"/>
+      <c r="AU105" s="5"/>
+      <c r="AV105" s="5"/>
+      <c r="AW105" s="5"/>
+      <c r="AX105" s="5"/>
+      <c r="AY105" s="71"/>
+      <c r="AZ105" s="5"/>
+      <c r="BA105" s="5"/>
+      <c r="BB105" s="5"/>
+      <c r="BC105" s="5"/>
+      <c r="BD105" s="5"/>
+      <c r="BE105" s="5"/>
+      <c r="BF105" s="5"/>
+      <c r="BG105" s="5"/>
+    </row>
+    <row r="106" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="6"/>
-      <c r="X105" s="43"/>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
-      <c r="AA105" s="4"/>
-      <c r="AB105" s="4"/>
-      <c r="AC105" s="4"/>
-      <c r="AD105" s="4"/>
-      <c r="AE105" s="4"/>
-      <c r="AF105" s="4"/>
-      <c r="AG105" s="44"/>
-      <c r="AH105" s="9"/>
-      <c r="AI105" s="4"/>
-      <c r="AJ105" s="4"/>
-      <c r="AK105" s="4"/>
-      <c r="AL105" s="4"/>
-      <c r="AM105" s="18"/>
-      <c r="AN105" s="18"/>
-      <c r="AO105" s="18"/>
-      <c r="AP105" s="18"/>
-      <c r="AQ105" s="48"/>
-      <c r="AR105" s="48"/>
-      <c r="AS105" s="48"/>
-      <c r="AT105" s="48"/>
-      <c r="AU105" s="48"/>
-      <c r="AV105" s="48"/>
-      <c r="AW105" s="48"/>
-      <c r="AX105" s="48"/>
-      <c r="AY105" s="48"/>
-      <c r="AZ105" s="48"/>
-      <c r="BA105" s="4"/>
-      <c r="BB105" s="4"/>
-      <c r="BC105" s="4"/>
-      <c r="BD105" s="48"/>
-      <c r="BE105" s="4"/>
-      <c r="BF105" s="4"/>
-      <c r="BG105" s="4"/>
-    </row>
-    <row r="106" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A106" s="1"/>
-      <c r="B106" s="4"/>
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
@@ -7821,10 +7868,10 @@
       <c r="AJ106" s="4"/>
       <c r="AK106" s="4"/>
       <c r="AL106" s="4"/>
-      <c r="AM106" s="4"/>
-      <c r="AN106" s="48"/>
-      <c r="AO106" s="48"/>
-      <c r="AP106" s="48"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="18"/>
+      <c r="AO106" s="18"/>
+      <c r="AP106" s="18"/>
       <c r="AQ106" s="48"/>
       <c r="AR106" s="48"/>
       <c r="AS106" s="48"/>
@@ -7833,7 +7880,7 @@
       <c r="AV106" s="48"/>
       <c r="AW106" s="48"/>
       <c r="AX106" s="48"/>
-      <c r="AY106" s="48"/>
+      <c r="AY106" s="71"/>
       <c r="AZ106" s="48"/>
       <c r="BA106" s="4"/>
       <c r="BB106" s="4"/>
@@ -7894,7 +7941,7 @@
       <c r="AV107" s="48"/>
       <c r="AW107" s="48"/>
       <c r="AX107" s="48"/>
-      <c r="AY107" s="48"/>
+      <c r="AY107" s="71"/>
       <c r="AZ107" s="48"/>
       <c r="BA107" s="4"/>
       <c r="BB107" s="4"/>
@@ -7955,7 +8002,7 @@
       <c r="AV108" s="48"/>
       <c r="AW108" s="48"/>
       <c r="AX108" s="48"/>
-      <c r="AY108" s="48"/>
+      <c r="AY108" s="71"/>
       <c r="AZ108" s="48"/>
       <c r="BA108" s="4"/>
       <c r="BB108" s="4"/>
@@ -8016,7 +8063,7 @@
       <c r="AV109" s="48"/>
       <c r="AW109" s="48"/>
       <c r="AX109" s="48"/>
-      <c r="AY109" s="48"/>
+      <c r="AY109" s="71"/>
       <c r="AZ109" s="48"/>
       <c r="BA109" s="4"/>
       <c r="BB109" s="4"/>
@@ -8027,12 +8074,8 @@
       <c r="BG109" s="4"/>
     </row>
     <row r="110" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="4"/>
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
@@ -8071,8 +8114,8 @@
       <c r="AL110" s="4"/>
       <c r="AM110" s="4"/>
       <c r="AN110" s="48"/>
-      <c r="AO110" s="18"/>
-      <c r="AP110" s="18"/>
+      <c r="AO110" s="48"/>
+      <c r="AP110" s="48"/>
       <c r="AQ110" s="48"/>
       <c r="AR110" s="48"/>
       <c r="AS110" s="48"/>
@@ -8081,7 +8124,7 @@
       <c r="AV110" s="48"/>
       <c r="AW110" s="48"/>
       <c r="AX110" s="48"/>
-      <c r="AY110" s="48"/>
+      <c r="AY110" s="71"/>
       <c r="AZ110" s="48"/>
       <c r="BA110" s="4"/>
       <c r="BB110" s="4"/>
@@ -8092,8 +8135,12 @@
       <c r="BG110" s="4"/>
     </row>
     <row r="111" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A111" s="1"/>
-      <c r="B111" s="4"/>
+      <c r="A111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
@@ -8132,8 +8179,8 @@
       <c r="AL111" s="4"/>
       <c r="AM111" s="4"/>
       <c r="AN111" s="48"/>
-      <c r="AO111" s="48"/>
-      <c r="AP111" s="48"/>
+      <c r="AO111" s="18"/>
+      <c r="AP111" s="18"/>
       <c r="AQ111" s="48"/>
       <c r="AR111" s="48"/>
       <c r="AS111" s="48"/>
@@ -8142,7 +8189,7 @@
       <c r="AV111" s="48"/>
       <c r="AW111" s="48"/>
       <c r="AX111" s="48"/>
-      <c r="AY111" s="48"/>
+      <c r="AY111" s="71"/>
       <c r="AZ111" s="48"/>
       <c r="BA111" s="4"/>
       <c r="BB111" s="4"/>
@@ -8203,7 +8250,7 @@
       <c r="AV112" s="48"/>
       <c r="AW112" s="48"/>
       <c r="AX112" s="48"/>
-      <c r="AY112" s="48"/>
+      <c r="AY112" s="71"/>
       <c r="AZ112" s="48"/>
       <c r="BA112" s="4"/>
       <c r="BB112" s="4"/>
@@ -8214,12 +8261,8 @@
       <c r="BG112" s="4"/>
     </row>
     <row r="113" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>68</v>
-      </c>
+      <c r="A113" s="1"/>
+      <c r="B113" s="4"/>
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
@@ -8260,15 +8303,15 @@
       <c r="AN113" s="48"/>
       <c r="AO113" s="48"/>
       <c r="AP113" s="48"/>
-      <c r="AQ113" s="18"/>
-      <c r="AR113" s="18"/>
-      <c r="AS113" s="18"/>
-      <c r="AT113" s="18"/>
-      <c r="AU113" s="18"/>
-      <c r="AV113" s="18"/>
+      <c r="AQ113" s="48"/>
+      <c r="AR113" s="48"/>
+      <c r="AS113" s="48"/>
+      <c r="AT113" s="48"/>
+      <c r="AU113" s="48"/>
+      <c r="AV113" s="48"/>
       <c r="AW113" s="48"/>
       <c r="AX113" s="48"/>
-      <c r="AY113" s="48"/>
+      <c r="AY113" s="71"/>
       <c r="AZ113" s="48"/>
       <c r="BA113" s="4"/>
       <c r="BB113" s="4"/>
@@ -8279,9 +8322,11 @@
       <c r="BG113" s="4"/>
     </row>
     <row r="114" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A114" s="1"/>
+      <c r="A114" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B114" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
@@ -8323,16 +8368,16 @@
       <c r="AN114" s="48"/>
       <c r="AO114" s="48"/>
       <c r="AP114" s="48"/>
-      <c r="AQ114" s="48"/>
-      <c r="AR114" s="48"/>
-      <c r="AS114" s="48"/>
-      <c r="AT114" s="48"/>
-      <c r="AU114" s="48"/>
-      <c r="AV114" s="48"/>
-      <c r="AW114" s="18"/>
-      <c r="AX114" s="18"/>
-      <c r="AY114" s="18"/>
-      <c r="AZ114" s="18"/>
+      <c r="AQ114" s="18"/>
+      <c r="AR114" s="18"/>
+      <c r="AS114" s="18"/>
+      <c r="AT114" s="18"/>
+      <c r="AU114" s="18"/>
+      <c r="AV114" s="18"/>
+      <c r="AW114" s="48"/>
+      <c r="AX114" s="48"/>
+      <c r="AY114" s="71"/>
+      <c r="AZ114" s="48"/>
       <c r="BA114" s="4"/>
       <c r="BB114" s="4"/>
       <c r="BC114" s="4"/>
@@ -8343,7 +8388,9 @@
     </row>
     <row r="115" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="4"/>
+      <c r="B115" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
@@ -8390,9 +8437,9 @@
       <c r="AT115" s="48"/>
       <c r="AU115" s="48"/>
       <c r="AV115" s="48"/>
-      <c r="AW115" s="48"/>
-      <c r="AX115" s="48"/>
-      <c r="AY115" s="48"/>
+      <c r="AW115" s="18"/>
+      <c r="AX115" s="18"/>
+      <c r="AY115" s="71"/>
       <c r="AZ115" s="48"/>
       <c r="BA115" s="4"/>
       <c r="BB115" s="4"/>
@@ -8453,7 +8500,7 @@
       <c r="AV116" s="48"/>
       <c r="AW116" s="48"/>
       <c r="AX116" s="48"/>
-      <c r="AY116" s="48"/>
+      <c r="AY116" s="71"/>
       <c r="AZ116" s="48"/>
       <c r="BA116" s="4"/>
       <c r="BB116" s="4"/>
@@ -8464,10 +8511,8 @@
       <c r="BG116" s="4"/>
     </row>
     <row r="117" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B117" s="1"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="4"/>
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
@@ -8516,7 +8561,7 @@
       <c r="AV117" s="48"/>
       <c r="AW117" s="48"/>
       <c r="AX117" s="48"/>
-      <c r="AY117" s="48"/>
+      <c r="AY117" s="71"/>
       <c r="AZ117" s="48"/>
       <c r="BA117" s="4"/>
       <c r="BB117" s="4"/>
@@ -8527,8 +8572,10 @@
       <c r="BG117" s="4"/>
     </row>
     <row r="118" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="4"/>
+      <c r="A118" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -8577,7 +8624,7 @@
       <c r="AV118" s="48"/>
       <c r="AW118" s="48"/>
       <c r="AX118" s="48"/>
-      <c r="AY118" s="48"/>
+      <c r="AY118" s="71"/>
       <c r="AZ118" s="48"/>
       <c r="BA118" s="4"/>
       <c r="BB118" s="4"/>
@@ -8587,10 +8634,8 @@
       <c r="BF118" s="4"/>
       <c r="BG118" s="4"/>
     </row>
-    <row r="119" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>29</v>
-      </c>
+    <row r="119" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
@@ -8613,16 +8658,16 @@
       <c r="U119" s="4"/>
       <c r="V119" s="4"/>
       <c r="W119" s="6"/>
-      <c r="X119" s="45"/>
-      <c r="Y119" s="46"/>
-      <c r="Z119" s="46"/>
-      <c r="AA119" s="46"/>
-      <c r="AB119" s="46"/>
-      <c r="AC119" s="46"/>
-      <c r="AD119" s="46"/>
-      <c r="AE119" s="46"/>
-      <c r="AF119" s="46"/>
-      <c r="AG119" s="47"/>
+      <c r="X119" s="43"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
+      <c r="AA119" s="4"/>
+      <c r="AB119" s="4"/>
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="4"/>
+      <c r="AE119" s="4"/>
+      <c r="AF119" s="4"/>
+      <c r="AG119" s="44"/>
       <c r="AH119" s="9"/>
       <c r="AI119" s="4"/>
       <c r="AJ119" s="4"/>
@@ -8640,7 +8685,7 @@
       <c r="AV119" s="48"/>
       <c r="AW119" s="48"/>
       <c r="AX119" s="48"/>
-      <c r="AY119" s="48"/>
+      <c r="AY119" s="71"/>
       <c r="AZ119" s="48"/>
       <c r="BA119" s="4"/>
       <c r="BB119" s="4"/>
@@ -8650,24 +8695,94 @@
       <c r="BF119" s="4"/>
       <c r="BG119" s="4"/>
     </row>
-    <row r="120" spans="1:59" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="120" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="4"/>
+      <c r="Q120" s="4"/>
+      <c r="R120" s="4"/>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="6"/>
+      <c r="X120" s="45"/>
+      <c r="Y120" s="46"/>
+      <c r="Z120" s="46"/>
+      <c r="AA120" s="46"/>
+      <c r="AB120" s="46"/>
+      <c r="AC120" s="46"/>
+      <c r="AD120" s="46"/>
+      <c r="AE120" s="46"/>
+      <c r="AF120" s="46"/>
+      <c r="AG120" s="47"/>
+      <c r="AH120" s="9"/>
+      <c r="AI120" s="4"/>
+      <c r="AJ120" s="4"/>
+      <c r="AK120" s="4"/>
+      <c r="AL120" s="4"/>
+      <c r="AM120" s="4"/>
+      <c r="AN120" s="48"/>
+      <c r="AO120" s="48"/>
+      <c r="AP120" s="48"/>
+      <c r="AQ120" s="48"/>
+      <c r="AR120" s="48"/>
+      <c r="AS120" s="48"/>
+      <c r="AT120" s="48"/>
+      <c r="AU120" s="48"/>
+      <c r="AV120" s="48"/>
+      <c r="AW120" s="48"/>
+      <c r="AX120" s="48"/>
+      <c r="AY120" s="71"/>
+      <c r="BA120" s="4"/>
+      <c r="BB120" s="4"/>
+      <c r="BC120" s="4"/>
+      <c r="BD120" s="48"/>
+      <c r="BE120" s="4"/>
+      <c r="BF120" s="4"/>
+      <c r="BG120" s="4"/>
+    </row>
+    <row r="121" spans="1:59" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:59" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A123" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" s="74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="128" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A128" s="40" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="40" t="s">
         <v>48</v>
       </c>
     </row>

--- a/planificacion/planificacion.xlsx
+++ b/planificacion/planificacion.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A38C264-6314-4BBD-9F53-8F0F7A1985DA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EFCF70-1AC8-48A8-BE8A-D623E33D6AA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -908,6 +908,28 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,28 +963,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="fill"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -1271,88 +1271,88 @@
   <sheetData>
     <row r="1" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="64" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="65" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="64" t="s">
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="69" t="s">
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="72" t="s">
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="73" t="s">
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="64" t="s">
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="64" t="s">
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="64" t="s">
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="64" t="s">
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="64" t="s">
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="66"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="86"/>
     </row>
     <row r="2" spans="1:59" ht="69.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8979,9 +8979,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ADF685-79E0-48B0-8EE7-248F90EF2AB1}">
   <dimension ref="A1:BG156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV128" sqref="AV128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8999,88 +8999,88 @@
   <sheetData>
     <row r="1" spans="1:59" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="64" t="s">
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="65" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="64" t="s">
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="69" t="s">
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="72" t="s">
+      <c r="V1" s="90"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="90"/>
+      <c r="Y1" s="91"/>
+      <c r="Z1" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="73" t="s">
+      <c r="AA1" s="92"/>
+      <c r="AB1" s="92"/>
+      <c r="AC1" s="92"/>
+      <c r="AD1" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="64" t="s">
+      <c r="AE1" s="92"/>
+      <c r="AF1" s="92"/>
+      <c r="AG1" s="94"/>
+      <c r="AH1" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="64" t="s">
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="86"/>
+      <c r="AM1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AN1" s="65"/>
-      <c r="AO1" s="65"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="64" t="s">
+      <c r="AN1" s="85"/>
+      <c r="AO1" s="85"/>
+      <c r="AP1" s="86"/>
+      <c r="AQ1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="AR1" s="65"/>
-      <c r="AS1" s="65"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="64" t="s">
+      <c r="AR1" s="85"/>
+      <c r="AS1" s="85"/>
+      <c r="AT1" s="86"/>
+      <c r="AU1" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="65"/>
-      <c r="AX1" s="65"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="64" t="s">
+      <c r="AV1" s="85"/>
+      <c r="AW1" s="85"/>
+      <c r="AX1" s="85"/>
+      <c r="AY1" s="86"/>
+      <c r="AZ1" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="BA1" s="65"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="64" t="s">
+      <c r="BA1" s="85"/>
+      <c r="BB1" s="85"/>
+      <c r="BC1" s="86"/>
+      <c r="BD1" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="BE1" s="65"/>
-      <c r="BF1" s="65"/>
-      <c r="BG1" s="66"/>
+      <c r="BE1" s="85"/>
+      <c r="BF1" s="85"/>
+      <c r="BG1" s="86"/>
     </row>
     <row r="2" spans="1:59" ht="69.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11893,68 +11893,68 @@
       <c r="BF44" s="1"/>
       <c r="BG44" s="1"/>
     </row>
-    <row r="45" spans="1:59" s="92" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
-      <c r="B45" s="93" t="s">
+    <row r="45" spans="1:59" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="73"/>
+      <c r="B45" s="82" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="84"/>
-      <c r="D45" s="84"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
-      <c r="J45" s="84"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="84"/>
-      <c r="Q45" s="84"/>
-      <c r="R45" s="84"/>
-      <c r="S45" s="84"/>
-      <c r="T45" s="84"/>
-      <c r="U45" s="84"/>
-      <c r="V45" s="84"/>
-      <c r="W45" s="86"/>
-      <c r="X45" s="87"/>
-      <c r="Y45" s="88"/>
-      <c r="Z45" s="88"/>
-      <c r="AA45" s="88"/>
-      <c r="AB45" s="88"/>
-      <c r="AC45" s="88"/>
-      <c r="AD45" s="88"/>
-      <c r="AE45" s="88"/>
-      <c r="AF45" s="88"/>
-      <c r="AG45" s="89"/>
-      <c r="AH45" s="86"/>
-      <c r="AI45" s="90"/>
-      <c r="AJ45" s="88"/>
-      <c r="AK45" s="88"/>
-      <c r="AL45" s="88"/>
-      <c r="AM45" s="88"/>
-      <c r="AN45" s="88"/>
-      <c r="AO45" s="88"/>
-      <c r="AP45" s="88"/>
-      <c r="AQ45" s="88"/>
-      <c r="AR45" s="88"/>
-      <c r="AS45" s="88"/>
-      <c r="AT45" s="88"/>
-      <c r="AU45" s="88"/>
-      <c r="AV45" s="88"/>
-      <c r="AW45" s="88"/>
-      <c r="AX45" s="88"/>
-      <c r="AY45" s="91"/>
-      <c r="AZ45" s="88"/>
-      <c r="BA45" s="88"/>
-      <c r="BB45" s="84"/>
-      <c r="BC45" s="84"/>
-      <c r="BD45" s="88"/>
-      <c r="BE45" s="88"/>
-      <c r="BF45" s="84"/>
-      <c r="BG45" s="84"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="73"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="73"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="77"/>
+      <c r="Z45" s="77"/>
+      <c r="AA45" s="77"/>
+      <c r="AB45" s="77"/>
+      <c r="AC45" s="77"/>
+      <c r="AD45" s="77"/>
+      <c r="AE45" s="77"/>
+      <c r="AF45" s="77"/>
+      <c r="AG45" s="78"/>
+      <c r="AH45" s="75"/>
+      <c r="AI45" s="79"/>
+      <c r="AJ45" s="77"/>
+      <c r="AK45" s="77"/>
+      <c r="AL45" s="77"/>
+      <c r="AM45" s="77"/>
+      <c r="AN45" s="77"/>
+      <c r="AO45" s="77"/>
+      <c r="AP45" s="77"/>
+      <c r="AQ45" s="77"/>
+      <c r="AR45" s="77"/>
+      <c r="AS45" s="77"/>
+      <c r="AT45" s="77"/>
+      <c r="AU45" s="77"/>
+      <c r="AV45" s="77"/>
+      <c r="AW45" s="77"/>
+      <c r="AX45" s="77"/>
+      <c r="AY45" s="80"/>
+      <c r="AZ45" s="77"/>
+      <c r="BA45" s="77"/>
+      <c r="BB45" s="73"/>
+      <c r="BC45" s="73"/>
+      <c r="BD45" s="77"/>
+      <c r="BE45" s="77"/>
+      <c r="BF45" s="73"/>
+      <c r="BG45" s="73"/>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
@@ -11982,7 +11982,7 @@
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
       <c r="W46" s="8"/>
-      <c r="X46" s="82"/>
+      <c r="X46" s="71"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
@@ -11991,7 +11991,7 @@
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
-      <c r="AG46" s="83"/>
+      <c r="AG46" s="72"/>
       <c r="AH46" s="8"/>
       <c r="AI46" s="6"/>
       <c r="AJ46" s="4"/>
@@ -12103,7 +12103,7 @@
       <c r="U48" s="48"/>
       <c r="V48" s="1"/>
       <c r="W48" s="8"/>
-      <c r="X48" s="82"/>
+      <c r="X48" s="71"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
       <c r="AA48" s="4"/>
@@ -12112,7 +12112,7 @@
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="83"/>
+      <c r="AG48" s="72"/>
       <c r="AH48" s="8"/>
       <c r="AI48" s="6"/>
       <c r="AJ48" s="4"/>
@@ -12988,7 +12988,7 @@
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
       <c r="AG62" s="44"/>
-      <c r="AH62" s="75"/>
+      <c r="AH62" s="64"/>
       <c r="AI62" s="4"/>
       <c r="AJ62" s="4"/>
       <c r="AK62" s="4"/>
@@ -13418,7 +13418,7 @@
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="6"/>
-      <c r="X69" s="94"/>
+      <c r="X69" s="83"/>
       <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
@@ -13792,7 +13792,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
-      <c r="T75" s="79"/>
+      <c r="T75" s="68"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5"/>
       <c r="W75" s="7"/>
@@ -14292,7 +14292,7 @@
       <c r="Q83" s="4"/>
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
-      <c r="T83" s="80"/>
+      <c r="T83" s="69"/>
       <c r="U83" s="4"/>
       <c r="V83" s="4"/>
       <c r="W83" s="6"/>
@@ -14423,8 +14423,8 @@
       <c r="T85" s="48"/>
       <c r="U85" s="48"/>
       <c r="V85" s="48"/>
-      <c r="W85" s="76"/>
-      <c r="X85" s="77"/>
+      <c r="W85" s="65"/>
+      <c r="X85" s="66"/>
       <c r="Y85" s="48"/>
       <c r="Z85" s="48"/>
       <c r="AA85" s="48"/>
@@ -14486,8 +14486,8 @@
       <c r="T86" s="48"/>
       <c r="U86" s="48"/>
       <c r="V86" s="48"/>
-      <c r="W86" s="76"/>
-      <c r="X86" s="78"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="67"/>
       <c r="Y86" s="48"/>
       <c r="Z86" s="48"/>
       <c r="AA86" s="48"/>
@@ -14547,8 +14547,8 @@
       <c r="T87" s="48"/>
       <c r="U87" s="48"/>
       <c r="V87" s="48"/>
-      <c r="W87" s="76"/>
-      <c r="X87" s="77"/>
+      <c r="W87" s="65"/>
+      <c r="X87" s="66"/>
       <c r="Y87" s="48"/>
       <c r="Z87" s="48"/>
       <c r="AA87" s="48"/>
@@ -14608,8 +14608,8 @@
       <c r="T88" s="48"/>
       <c r="U88" s="48"/>
       <c r="V88" s="48"/>
-      <c r="W88" s="76"/>
-      <c r="X88" s="77"/>
+      <c r="W88" s="65"/>
+      <c r="X88" s="66"/>
       <c r="Y88" s="48"/>
       <c r="Z88" s="48"/>
       <c r="AA88" s="48"/>
@@ -14671,8 +14671,8 @@
       <c r="T89" s="48"/>
       <c r="U89" s="48"/>
       <c r="V89" s="48"/>
-      <c r="W89" s="76"/>
-      <c r="X89" s="77"/>
+      <c r="W89" s="65"/>
+      <c r="X89" s="66"/>
       <c r="Y89" s="48"/>
       <c r="Z89" s="48"/>
       <c r="AA89" s="48"/>
@@ -14681,7 +14681,7 @@
       <c r="AD89" s="4"/>
       <c r="AE89" s="4"/>
       <c r="AF89" s="4"/>
-      <c r="AG89" s="81"/>
+      <c r="AG89" s="70"/>
       <c r="AH89" s="9"/>
       <c r="AI89" s="4"/>
       <c r="AJ89" s="4"/>
@@ -14732,8 +14732,8 @@
       <c r="T90" s="48"/>
       <c r="U90" s="48"/>
       <c r="V90" s="48"/>
-      <c r="W90" s="76"/>
-      <c r="X90" s="77"/>
+      <c r="W90" s="65"/>
+      <c r="X90" s="66"/>
       <c r="Y90" s="48"/>
       <c r="Z90" s="48"/>
       <c r="AA90" s="48"/>
@@ -14742,7 +14742,7 @@
       <c r="AD90" s="4"/>
       <c r="AE90" s="4"/>
       <c r="AF90" s="4"/>
-      <c r="AG90" s="81"/>
+      <c r="AG90" s="70"/>
       <c r="AH90" s="9"/>
       <c r="AI90" s="4"/>
       <c r="AJ90" s="4"/>
@@ -18239,6 +18239,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Y1"/>
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AL1"/>
@@ -18246,12 +18252,6 @@
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:Y1"/>
-    <mergeCell ref="Z1:AC1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/planificacion/planificacion.xlsx
+++ b/planificacion/planificacion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EFCF70-1AC8-48A8-BE8A-D623E33D6AA0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540E6376-6A79-48F3-ADCE-ABAE6F96E3E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version anterior" sheetId="5" r:id="rId1"/>
@@ -8980,8 +8980,8 @@
   <dimension ref="A1:BG156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AV128" sqref="AV128"/>
+      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18239,12 +18239,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:Y1"/>
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AL1"/>
@@ -18252,6 +18246,12 @@
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AZ1:BC1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/planificacion/planificacion.xlsx
+++ b/planificacion/planificacion.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540E6376-6A79-48F3-ADCE-ABAE6F96E3E6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6EC07-1EE4-48B9-A968-25FB8B469322}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version anterior" sheetId="5" r:id="rId1"/>
@@ -8979,8 +8979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ADF685-79E0-48B0-8EE7-248F90EF2AB1}">
   <dimension ref="A1:BG156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -18239,6 +18239,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:Y1"/>
     <mergeCell ref="BD1:BG1"/>
     <mergeCell ref="AD1:AG1"/>
     <mergeCell ref="AH1:AL1"/>
@@ -18246,12 +18252,6 @@
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AU1:AY1"/>
     <mergeCell ref="AZ1:BC1"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
